--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -59568,22 +59568,22 @@
         <v>3.43</v>
       </c>
       <c r="AU282">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV282">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW282">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX282">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY282">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ282">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BA282">
         <v>6</v>
@@ -59986,13 +59986,13 @@
         <v>3</v>
       </c>
       <c r="AW284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX284">
         <v>1</v>
       </c>
       <c r="AY284">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ284">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -832,6 +832,15 @@
     <t>['37', '39', '54', '90+3']</t>
   </si>
   <si>
+    <t>['32', '47']</t>
+  </si>
+  <si>
+    <t>['19', '32']</t>
+  </si>
+  <si>
+    <t>['12', '24', '45+6', '61']</t>
+  </si>
+  <si>
     <t>['69', '90+1']</t>
   </si>
   <si>
@@ -1175,6 +1184,15 @@
   </si>
   <si>
     <t>['38', '67', '71']</t>
+  </si>
+  <si>
+    <t>['8', '69']</t>
+  </si>
+  <si>
+    <t>['7', '35', '39']</t>
+  </si>
+  <si>
+    <t>['25', '42', '45+4', '86']</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2001,7 +2019,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -2413,7 +2431,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2491,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2825,7 +2843,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q7">
         <v>1.8</v>
@@ -3443,7 +3461,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3933,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ12">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4061,7 +4079,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4551,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4757,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ16">
         <v>1.56</v>
@@ -5375,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -5503,7 +5521,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -5709,7 +5727,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q21">
         <v>3.92</v>
@@ -5915,7 +5933,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5993,10 +6011,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ22">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -6121,7 +6139,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6533,7 +6551,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6611,10 +6629,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ25">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR25">
         <v>1.16</v>
@@ -6739,7 +6757,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6945,7 +6963,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7229,7 +7247,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ28">
         <v>2.06</v>
@@ -7563,7 +7581,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q30">
         <v>1.9</v>
@@ -7850,7 +7868,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ31">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR31">
         <v>2.22</v>
@@ -7975,7 +7993,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q32">
         <v>1.67</v>
@@ -8181,7 +8199,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8387,7 +8405,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8465,7 +8483,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ34">
         <v>1.33</v>
@@ -8799,7 +8817,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q36">
         <v>3.4</v>
@@ -9005,7 +9023,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9211,7 +9229,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q38">
         <v>2.3</v>
@@ -9292,7 +9310,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ38">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -9701,7 +9719,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ40">
         <v>0.72</v>
@@ -9907,7 +9925,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ41">
         <v>0.59</v>
@@ -10241,7 +10259,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10447,7 +10465,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10653,7 +10671,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -11065,7 +11083,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -11143,7 +11161,7 @@
         <v>0.67</v>
       </c>
       <c r="AP47">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ47">
         <v>1.21</v>
@@ -11349,7 +11367,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1.39</v>
@@ -11477,7 +11495,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11558,7 +11576,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ49">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR49">
         <v>1.78</v>
@@ -11683,7 +11701,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11764,7 +11782,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ50">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR50">
         <v>2.17</v>
@@ -11889,7 +11907,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12095,7 +12113,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12382,7 +12400,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ53">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -13125,7 +13143,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13203,7 +13221,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ57">
         <v>0.67</v>
@@ -13537,7 +13555,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13743,7 +13761,7 @@
         <v>89</v>
       </c>
       <c r="P60" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13821,7 +13839,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ60">
         <v>2.06</v>
@@ -14155,7 +14173,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q62">
         <v>1.73</v>
@@ -14442,7 +14460,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ63">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR63">
         <v>1.84</v>
@@ -14567,7 +14585,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14645,7 +14663,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>2.06</v>
@@ -14854,7 +14872,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ65">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
         <v>2.24</v>
@@ -15185,7 +15203,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15391,7 +15409,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q68">
         <v>2.7</v>
@@ -15675,7 +15693,7 @@
         <v>1.25</v>
       </c>
       <c r="AP69">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69">
         <v>1.21</v>
@@ -15803,7 +15821,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q70">
         <v>2.08</v>
@@ -15884,7 +15902,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ70">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR70">
         <v>1.95</v>
@@ -16009,7 +16027,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q71">
         <v>1.96</v>
@@ -16499,10 +16517,10 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR73">
         <v>1.49</v>
@@ -16833,7 +16851,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16911,7 +16929,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ75">
         <v>0.67</v>
@@ -17117,7 +17135,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ76">
         <v>0.76</v>
@@ -17245,7 +17263,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q77">
         <v>2.3</v>
@@ -17451,7 +17469,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q78">
         <v>4.5</v>
@@ -17944,7 +17962,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -18069,7 +18087,7 @@
         <v>89</v>
       </c>
       <c r="P81" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18765,7 +18783,7 @@
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
         <v>0.72</v>
@@ -18893,7 +18911,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -19383,10 +19401,10 @@
         <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR87">
         <v>1.53</v>
@@ -19511,7 +19529,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -20129,7 +20147,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20207,7 +20225,7 @@
         <v>1.2</v>
       </c>
       <c r="AP91">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ91">
         <v>1.39</v>
@@ -20416,7 +20434,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ92">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR92">
         <v>1.27</v>
@@ -20747,7 +20765,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20953,7 +20971,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -21031,7 +21049,7 @@
         <v>2.4</v>
       </c>
       <c r="AP95">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ95">
         <v>2.06</v>
@@ -21365,7 +21383,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q97">
         <v>5.1</v>
@@ -21446,7 +21464,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ97">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
         <v>1.08</v>
@@ -21777,7 +21795,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21855,7 +21873,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
         <v>0.76</v>
@@ -21983,7 +22001,7 @@
         <v>89</v>
       </c>
       <c r="P100" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q100">
         <v>2.48</v>
@@ -22189,7 +22207,7 @@
         <v>158</v>
       </c>
       <c r="P101" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q101">
         <v>2.65</v>
@@ -22270,7 +22288,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ101">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR101">
         <v>2.03</v>
@@ -22395,7 +22413,7 @@
         <v>89</v>
       </c>
       <c r="P102" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22473,7 +22491,7 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ102">
         <v>1.56</v>
@@ -23013,7 +23031,7 @@
         <v>117</v>
       </c>
       <c r="P105" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23094,7 +23112,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ105">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR105">
         <v>1.52</v>
@@ -23219,7 +23237,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q106">
         <v>3.05</v>
@@ -23297,7 +23315,7 @@
         <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ106">
         <v>0.89</v>
@@ -23631,7 +23649,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q108">
         <v>2.95</v>
@@ -23915,10 +23933,10 @@
         <v>0.17</v>
       </c>
       <c r="AP109">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ109">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR109">
         <v>1.54</v>
@@ -24249,7 +24267,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -25151,7 +25169,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ115">
         <v>0.59</v>
@@ -25279,7 +25297,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -25566,7 +25584,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ117">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR117">
         <v>1.36</v>
@@ -25691,7 +25709,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -26103,7 +26121,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q120">
         <v>1.91</v>
@@ -26309,7 +26327,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26515,7 +26533,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q122">
         <v>4.1</v>
@@ -26593,7 +26611,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ122">
         <v>1.56</v>
@@ -26799,10 +26817,10 @@
         <v>0.14</v>
       </c>
       <c r="AP123">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR123">
         <v>1.44</v>
@@ -27339,7 +27357,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27420,7 +27438,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ126">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR126">
         <v>1.97</v>
@@ -27545,7 +27563,7 @@
         <v>89</v>
       </c>
       <c r="P127" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27623,7 +27641,7 @@
         <v>1.14</v>
       </c>
       <c r="AP127">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ127">
         <v>0.89</v>
@@ -27957,7 +27975,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28163,7 +28181,7 @@
         <v>106</v>
       </c>
       <c r="P130" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -28369,7 +28387,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28447,7 +28465,7 @@
         <v>0.88</v>
       </c>
       <c r="AP131">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ131">
         <v>1.21</v>
@@ -29065,7 +29083,7 @@
         <v>1.25</v>
       </c>
       <c r="AP134">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ134">
         <v>1.56</v>
@@ -29193,7 +29211,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q135">
         <v>5.5</v>
@@ -29274,7 +29292,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ135">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR135">
         <v>1.28</v>
@@ -29399,7 +29417,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q136">
         <v>1.85</v>
@@ -29605,7 +29623,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q137">
         <v>4.6</v>
@@ -29889,7 +29907,7 @@
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ138">
         <v>0.59</v>
@@ -30017,7 +30035,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30301,7 +30319,7 @@
         <v>1.38</v>
       </c>
       <c r="AP140">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ140">
         <v>0.89</v>
@@ -30510,7 +30528,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ141">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR141">
         <v>1.36</v>
@@ -30716,7 +30734,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ142">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR142">
         <v>1.84</v>
@@ -31047,7 +31065,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31537,7 +31555,7 @@
         <v>0.22</v>
       </c>
       <c r="AP146">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ146">
         <v>0.76</v>
@@ -31743,7 +31761,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ147">
         <v>0.72</v>
@@ -32077,7 +32095,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q149">
         <v>6.2</v>
@@ -32155,7 +32173,7 @@
         <v>1.22</v>
       </c>
       <c r="AP149">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
         <v>1.56</v>
@@ -32283,7 +32301,7 @@
         <v>106</v>
       </c>
       <c r="P150" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q150">
         <v>8.119999999999999</v>
@@ -32489,7 +32507,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q151">
         <v>1.82</v>
@@ -32776,7 +32794,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ152">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR152">
         <v>1.56</v>
@@ -32982,7 +33000,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ153">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR153">
         <v>1.74</v>
@@ -33519,7 +33537,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q156">
         <v>5.75</v>
@@ -33600,7 +33618,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ156">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR156">
         <v>1.23</v>
@@ -33803,7 +33821,7 @@
         <v>0.89</v>
       </c>
       <c r="AP157">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ157">
         <v>0.71</v>
@@ -34755,7 +34773,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q162">
         <v>1.91</v>
@@ -34961,7 +34979,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35579,7 +35597,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35660,7 +35678,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ166">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR166">
         <v>1.89</v>
@@ -35785,7 +35803,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q167">
         <v>1.8</v>
@@ -36197,7 +36215,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36275,7 +36293,7 @@
         <v>0.7</v>
       </c>
       <c r="AP169">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
         <v>0.59</v>
@@ -36403,7 +36421,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q170">
         <v>2.1</v>
@@ -36481,7 +36499,7 @@
         <v>0.9</v>
       </c>
       <c r="AP170">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ170">
         <v>0.72</v>
@@ -36815,7 +36833,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q172">
         <v>1.87</v>
@@ -37021,7 +37039,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37308,7 +37326,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ174">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR174">
         <v>1.56</v>
@@ -37639,7 +37657,7 @@
         <v>210</v>
       </c>
       <c r="P176" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37923,7 +37941,7 @@
         <v>0.8</v>
       </c>
       <c r="AP177">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ177">
         <v>0.71</v>
@@ -38051,7 +38069,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -38129,7 +38147,7 @@
         <v>1.27</v>
       </c>
       <c r="AP178">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ178">
         <v>1.39</v>
@@ -38257,7 +38275,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q179">
         <v>1.44</v>
@@ -38544,7 +38562,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ180">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR180">
         <v>1.3</v>
@@ -38875,7 +38893,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q182">
         <v>1.55</v>
@@ -39287,7 +39305,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39365,7 +39383,7 @@
         <v>1.55</v>
       </c>
       <c r="AP184">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ184">
         <v>1.56</v>
@@ -39574,7 +39592,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ185">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR185">
         <v>1.54</v>
@@ -39699,7 +39717,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39777,7 +39795,7 @@
         <v>0.91</v>
       </c>
       <c r="AP186">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
         <v>0.72</v>
@@ -39986,7 +40004,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ187">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR187">
         <v>1.2</v>
@@ -40111,7 +40129,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q188">
         <v>2.45</v>
@@ -40189,7 +40207,7 @@
         <v>0.55</v>
       </c>
       <c r="AP188">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ188">
         <v>0.67</v>
@@ -41016,7 +41034,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ192">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR192">
         <v>1.55</v>
@@ -41219,7 +41237,7 @@
         <v>1.09</v>
       </c>
       <c r="AP193">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ193">
         <v>0.89</v>
@@ -41759,7 +41777,7 @@
         <v>223</v>
       </c>
       <c r="P196" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q196">
         <v>1.72</v>
@@ -42171,7 +42189,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q198">
         <v>5.32</v>
@@ -42249,7 +42267,7 @@
         <v>1.08</v>
       </c>
       <c r="AP198">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ198">
         <v>1.21</v>
@@ -42455,10 +42473,10 @@
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ199">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR199">
         <v>1.71</v>
@@ -42583,7 +42601,7 @@
         <v>167</v>
       </c>
       <c r="P200" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q200">
         <v>3.95</v>
@@ -42789,7 +42807,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43073,7 +43091,7 @@
         <v>0.92</v>
       </c>
       <c r="AP202">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ202">
         <v>0.72</v>
@@ -43488,7 +43506,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ204">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR204">
         <v>1.3</v>
@@ -43613,7 +43631,7 @@
         <v>89</v>
       </c>
       <c r="P205" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q205">
         <v>2.13</v>
@@ -43897,7 +43915,7 @@
         <v>1.42</v>
       </c>
       <c r="AP206">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ206">
         <v>1.56</v>
@@ -44025,7 +44043,7 @@
         <v>186</v>
       </c>
       <c r="P207" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q207">
         <v>7</v>
@@ -44231,7 +44249,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q208">
         <v>2.2</v>
@@ -44437,7 +44455,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44518,7 +44536,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ209">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR209">
         <v>1.23</v>
@@ -44643,7 +44661,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q210">
         <v>4.3</v>
@@ -44724,7 +44742,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ210">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR210">
         <v>1.52</v>
@@ -44927,7 +44945,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP211">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ211">
         <v>0.67</v>
@@ -45339,7 +45357,7 @@
         <v>0.46</v>
       </c>
       <c r="AP213">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ213">
         <v>0.76</v>
@@ -45467,7 +45485,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q214">
         <v>2.25</v>
@@ -45673,7 +45691,7 @@
         <v>232</v>
       </c>
       <c r="P215" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q215">
         <v>2.88</v>
@@ -45879,7 +45897,7 @@
         <v>233</v>
       </c>
       <c r="P216" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -46085,7 +46103,7 @@
         <v>89</v>
       </c>
       <c r="P217" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -46369,10 +46387,10 @@
         <v>0.31</v>
       </c>
       <c r="AP218">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ218">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR218">
         <v>1.42</v>
@@ -46497,7 +46515,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q219">
         <v>2.3</v>
@@ -46575,7 +46593,7 @@
         <v>1.31</v>
       </c>
       <c r="AP219">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ219">
         <v>1.33</v>
@@ -46703,7 +46721,7 @@
         <v>89</v>
       </c>
       <c r="P220" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q220">
         <v>5.91</v>
@@ -46909,7 +46927,7 @@
         <v>235</v>
       </c>
       <c r="P221" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q221">
         <v>3.4</v>
@@ -46990,7 +47008,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ221">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR221">
         <v>1.32</v>
@@ -47115,7 +47133,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q222">
         <v>3.1</v>
@@ -47733,7 +47751,7 @@
         <v>237</v>
       </c>
       <c r="P225" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q225">
         <v>3.1</v>
@@ -48017,7 +48035,7 @@
         <v>0.93</v>
       </c>
       <c r="AP226">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ226">
         <v>0.72</v>
@@ -48557,7 +48575,7 @@
         <v>89</v>
       </c>
       <c r="P229" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -48635,7 +48653,7 @@
         <v>1.71</v>
       </c>
       <c r="AP229">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ229">
         <v>1.56</v>
@@ -49175,7 +49193,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49256,7 +49274,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ232">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR232">
         <v>1.9</v>
@@ -49793,7 +49811,7 @@
         <v>89</v>
       </c>
       <c r="P235" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q235">
         <v>1.7</v>
@@ -50492,7 +50510,7 @@
         <v>2</v>
       </c>
       <c r="AQ238">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR238">
         <v>1.88</v>
@@ -50901,7 +50919,7 @@
         <v>0.57</v>
       </c>
       <c r="AP240">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ240">
         <v>0.71</v>
@@ -51107,10 +51125,10 @@
         <v>1.57</v>
       </c>
       <c r="AP241">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ241">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR241">
         <v>1.42</v>
@@ -51235,7 +51253,7 @@
         <v>246</v>
       </c>
       <c r="P242" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q242">
         <v>2.25</v>
@@ -51441,7 +51459,7 @@
         <v>247</v>
       </c>
       <c r="P243" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q243">
         <v>3.3</v>
@@ -52137,7 +52155,7 @@
         <v>1.4</v>
       </c>
       <c r="AP246">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ246">
         <v>1.56</v>
@@ -52471,7 +52489,7 @@
         <v>250</v>
       </c>
       <c r="P248" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q248">
         <v>2.66</v>
@@ -52549,7 +52567,7 @@
         <v>0.8</v>
       </c>
       <c r="AP248">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ248">
         <v>0.89</v>
@@ -53170,7 +53188,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ251">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR251">
         <v>1.83</v>
@@ -53295,7 +53313,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q252">
         <v>2.25</v>
@@ -53501,7 +53519,7 @@
         <v>118</v>
       </c>
       <c r="P253" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53913,7 +53931,7 @@
         <v>89</v>
       </c>
       <c r="P255" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -53991,10 +54009,10 @@
         <v>1.33</v>
       </c>
       <c r="AP255">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ255">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR255">
         <v>1.42</v>
@@ -54119,7 +54137,7 @@
         <v>253</v>
       </c>
       <c r="P256" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q256">
         <v>2.7</v>
@@ -54403,7 +54421,7 @@
         <v>0.67</v>
       </c>
       <c r="AP257">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ257">
         <v>0.59</v>
@@ -54531,7 +54549,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q258">
         <v>2.38</v>
@@ -54609,7 +54627,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP258">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ258">
         <v>0.72</v>
@@ -54737,7 +54755,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q259">
         <v>2.32</v>
@@ -55149,7 +55167,7 @@
         <v>257</v>
       </c>
       <c r="P261" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q261">
         <v>3.4</v>
@@ -55230,7 +55248,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ261">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR261">
         <v>1.19</v>
@@ -55642,7 +55660,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ263">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR263">
         <v>1.31</v>
@@ -55973,7 +55991,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q265">
         <v>3.1</v>
@@ -56051,7 +56069,7 @@
         <v>0.71</v>
       </c>
       <c r="AP265">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ265">
         <v>0.72</v>
@@ -56179,7 +56197,7 @@
         <v>262</v>
       </c>
       <c r="P266" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56385,7 +56403,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q267">
         <v>2.6</v>
@@ -56669,7 +56687,7 @@
         <v>1.18</v>
       </c>
       <c r="AP268">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ268">
         <v>1.21</v>
@@ -56797,7 +56815,7 @@
         <v>264</v>
       </c>
       <c r="P269" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q269">
         <v>2.7</v>
@@ -57003,7 +57021,7 @@
         <v>101</v>
       </c>
       <c r="P270" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q270">
         <v>2.85</v>
@@ -57415,7 +57433,7 @@
         <v>89</v>
       </c>
       <c r="P272" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q272">
         <v>4.33</v>
@@ -57496,7 +57514,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ272">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AR272">
         <v>1.63</v>
@@ -57827,7 +57845,7 @@
         <v>114</v>
       </c>
       <c r="P274" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q274">
         <v>2.7</v>
@@ -57905,7 +57923,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP274">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AQ274">
         <v>0.67</v>
@@ -58320,7 +58338,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ276">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR276">
         <v>1.84</v>
@@ -58445,7 +58463,7 @@
         <v>89</v>
       </c>
       <c r="P277" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q277">
         <v>3.3</v>
@@ -58651,7 +58669,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q278">
         <v>3.45</v>
@@ -58732,7 +58750,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ278">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR278">
         <v>1.15</v>
@@ -58935,7 +58953,7 @@
         <v>0.71</v>
       </c>
       <c r="AP279">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ279">
         <v>0.67</v>
@@ -59063,7 +59081,7 @@
         <v>269</v>
       </c>
       <c r="P280" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q280">
         <v>2.9</v>
@@ -59269,7 +59287,7 @@
         <v>270</v>
       </c>
       <c r="P281" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q281">
         <v>1.83</v>
@@ -59475,7 +59493,7 @@
         <v>89</v>
       </c>
       <c r="P282" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q282">
         <v>3.44</v>
@@ -59759,7 +59777,7 @@
         <v>1.59</v>
       </c>
       <c r="AP283">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ283">
         <v>1.56</v>
@@ -59887,7 +59905,7 @@
         <v>271</v>
       </c>
       <c r="P284" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q284">
         <v>2.25</v>
@@ -60093,7 +60111,7 @@
         <v>89</v>
       </c>
       <c r="P285" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q285">
         <v>2.95</v>
@@ -60171,7 +60189,7 @@
         <v>0.63</v>
       </c>
       <c r="AP285">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ285">
         <v>0.76</v>
@@ -60250,6 +60268,830 @@
       </c>
       <c r="BP285">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7389471</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45415.65625</v>
+      </c>
+      <c r="F286">
+        <v>7</v>
+      </c>
+      <c r="G286" t="s">
+        <v>84</v>
+      </c>
+      <c r="H286" t="s">
+        <v>77</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <v>2</v>
+      </c>
+      <c r="M286">
+        <v>2</v>
+      </c>
+      <c r="N286">
+        <v>4</v>
+      </c>
+      <c r="O286" t="s">
+        <v>272</v>
+      </c>
+      <c r="P286" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q286">
+        <v>2.95</v>
+      </c>
+      <c r="R286">
+        <v>2.26</v>
+      </c>
+      <c r="S286">
+        <v>3.22</v>
+      </c>
+      <c r="T286">
+        <v>1.3</v>
+      </c>
+      <c r="U286">
+        <v>3.34</v>
+      </c>
+      <c r="V286">
+        <v>2.34</v>
+      </c>
+      <c r="W286">
+        <v>1.56</v>
+      </c>
+      <c r="X286">
+        <v>5.4</v>
+      </c>
+      <c r="Y286">
+        <v>1.13</v>
+      </c>
+      <c r="Z286">
+        <v>2.32</v>
+      </c>
+      <c r="AA286">
+        <v>3.5</v>
+      </c>
+      <c r="AB286">
+        <v>2.6</v>
+      </c>
+      <c r="AC286">
+        <v>1.01</v>
+      </c>
+      <c r="AD286">
+        <v>10.25</v>
+      </c>
+      <c r="AE286">
+        <v>1.16</v>
+      </c>
+      <c r="AF286">
+        <v>4.4</v>
+      </c>
+      <c r="AG286">
+        <v>1.7</v>
+      </c>
+      <c r="AH286">
+        <v>2</v>
+      </c>
+      <c r="AI286">
+        <v>1.51</v>
+      </c>
+      <c r="AJ286">
+        <v>2.45</v>
+      </c>
+      <c r="AK286">
+        <v>1.47</v>
+      </c>
+      <c r="AL286">
+        <v>1.29</v>
+      </c>
+      <c r="AM286">
+        <v>1.54</v>
+      </c>
+      <c r="AN286">
+        <v>1.06</v>
+      </c>
+      <c r="AO286">
+        <v>0.89</v>
+      </c>
+      <c r="AP286">
+        <v>1.05</v>
+      </c>
+      <c r="AQ286">
+        <v>0.89</v>
+      </c>
+      <c r="AR286">
+        <v>1.4</v>
+      </c>
+      <c r="AS286">
+        <v>1.23</v>
+      </c>
+      <c r="AT286">
+        <v>2.63</v>
+      </c>
+      <c r="AU286">
+        <v>7</v>
+      </c>
+      <c r="AV286">
+        <v>5</v>
+      </c>
+      <c r="AW286">
+        <v>8</v>
+      </c>
+      <c r="AX286">
+        <v>3</v>
+      </c>
+      <c r="AY286">
+        <v>15</v>
+      </c>
+      <c r="AZ286">
+        <v>8</v>
+      </c>
+      <c r="BA286">
+        <v>6</v>
+      </c>
+      <c r="BB286">
+        <v>4</v>
+      </c>
+      <c r="BC286">
+        <v>10</v>
+      </c>
+      <c r="BD286">
+        <v>1.87</v>
+      </c>
+      <c r="BE286">
+        <v>7</v>
+      </c>
+      <c r="BF286">
+        <v>2.28</v>
+      </c>
+      <c r="BG286">
+        <v>1.27</v>
+      </c>
+      <c r="BH286">
+        <v>3.55</v>
+      </c>
+      <c r="BI286">
+        <v>1.47</v>
+      </c>
+      <c r="BJ286">
+        <v>2.55</v>
+      </c>
+      <c r="BK286">
+        <v>1.8</v>
+      </c>
+      <c r="BL286">
+        <v>2</v>
+      </c>
+      <c r="BM286">
+        <v>2.33</v>
+      </c>
+      <c r="BN286">
+        <v>1.54</v>
+      </c>
+      <c r="BO286">
+        <v>2.9</v>
+      </c>
+      <c r="BP286">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7389472</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F287">
+        <v>5</v>
+      </c>
+      <c r="G287" t="s">
+        <v>73</v>
+      </c>
+      <c r="H287" t="s">
+        <v>72</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>3</v>
+      </c>
+      <c r="K287">
+        <v>3</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>3</v>
+      </c>
+      <c r="N287">
+        <v>4</v>
+      </c>
+      <c r="O287" t="s">
+        <v>269</v>
+      </c>
+      <c r="P287" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q287">
+        <v>3.25</v>
+      </c>
+      <c r="R287">
+        <v>2.2</v>
+      </c>
+      <c r="S287">
+        <v>3.2</v>
+      </c>
+      <c r="T287">
+        <v>1.4</v>
+      </c>
+      <c r="U287">
+        <v>2.75</v>
+      </c>
+      <c r="V287">
+        <v>2.75</v>
+      </c>
+      <c r="W287">
+        <v>1.4</v>
+      </c>
+      <c r="X287">
+        <v>8</v>
+      </c>
+      <c r="Y287">
+        <v>1.08</v>
+      </c>
+      <c r="Z287">
+        <v>2.9</v>
+      </c>
+      <c r="AA287">
+        <v>3.25</v>
+      </c>
+      <c r="AB287">
+        <v>2.15</v>
+      </c>
+      <c r="AC287">
+        <v>1.05</v>
+      </c>
+      <c r="AD287">
+        <v>11.75</v>
+      </c>
+      <c r="AE287">
+        <v>1.29</v>
+      </c>
+      <c r="AF287">
+        <v>3.63</v>
+      </c>
+      <c r="AG287">
+        <v>1.85</v>
+      </c>
+      <c r="AH287">
+        <v>1.83</v>
+      </c>
+      <c r="AI287">
+        <v>1.7</v>
+      </c>
+      <c r="AJ287">
+        <v>2.05</v>
+      </c>
+      <c r="AK287">
+        <v>1.48</v>
+      </c>
+      <c r="AL287">
+        <v>1.32</v>
+      </c>
+      <c r="AM287">
+        <v>1.48</v>
+      </c>
+      <c r="AN287">
+        <v>1.06</v>
+      </c>
+      <c r="AO287">
+        <v>0.76</v>
+      </c>
+      <c r="AP287">
+        <v>1</v>
+      </c>
+      <c r="AQ287">
+        <v>0.89</v>
+      </c>
+      <c r="AR287">
+        <v>1.28</v>
+      </c>
+      <c r="AS287">
+        <v>1.18</v>
+      </c>
+      <c r="AT287">
+        <v>2.46</v>
+      </c>
+      <c r="AU287">
+        <v>7</v>
+      </c>
+      <c r="AV287">
+        <v>6</v>
+      </c>
+      <c r="AW287">
+        <v>4</v>
+      </c>
+      <c r="AX287">
+        <v>4</v>
+      </c>
+      <c r="AY287">
+        <v>11</v>
+      </c>
+      <c r="AZ287">
+        <v>10</v>
+      </c>
+      <c r="BA287">
+        <v>4</v>
+      </c>
+      <c r="BB287">
+        <v>4</v>
+      </c>
+      <c r="BC287">
+        <v>8</v>
+      </c>
+      <c r="BD287">
+        <v>1.87</v>
+      </c>
+      <c r="BE287">
+        <v>7</v>
+      </c>
+      <c r="BF287">
+        <v>2.28</v>
+      </c>
+      <c r="BG287">
+        <v>1.27</v>
+      </c>
+      <c r="BH287">
+        <v>3.6</v>
+      </c>
+      <c r="BI287">
+        <v>1.42</v>
+      </c>
+      <c r="BJ287">
+        <v>2.65</v>
+      </c>
+      <c r="BK287">
+        <v>1.73</v>
+      </c>
+      <c r="BL287">
+        <v>2</v>
+      </c>
+      <c r="BM287">
+        <v>2.2</v>
+      </c>
+      <c r="BN287">
+        <v>1.61</v>
+      </c>
+      <c r="BO287">
+        <v>2.85</v>
+      </c>
+      <c r="BP287">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7389473</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45416.55208333334</v>
+      </c>
+      <c r="F288">
+        <v>7</v>
+      </c>
+      <c r="G288" t="s">
+        <v>83</v>
+      </c>
+      <c r="H288" t="s">
+        <v>75</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288">
+        <v>3</v>
+      </c>
+      <c r="K288">
+        <v>5</v>
+      </c>
+      <c r="L288">
+        <v>2</v>
+      </c>
+      <c r="M288">
+        <v>4</v>
+      </c>
+      <c r="N288">
+        <v>6</v>
+      </c>
+      <c r="O288" t="s">
+        <v>273</v>
+      </c>
+      <c r="P288" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q288">
+        <v>3.65</v>
+      </c>
+      <c r="R288">
+        <v>2.25</v>
+      </c>
+      <c r="S288">
+        <v>2.5</v>
+      </c>
+      <c r="T288">
+        <v>1.28</v>
+      </c>
+      <c r="U288">
+        <v>3.3</v>
+      </c>
+      <c r="V288">
+        <v>2.3</v>
+      </c>
+      <c r="W288">
+        <v>1.55</v>
+      </c>
+      <c r="X288">
+        <v>5.2</v>
+      </c>
+      <c r="Y288">
+        <v>1.14</v>
+      </c>
+      <c r="Z288">
+        <v>3.3</v>
+      </c>
+      <c r="AA288">
+        <v>3.45</v>
+      </c>
+      <c r="AB288">
+        <v>2</v>
+      </c>
+      <c r="AC288">
+        <v>1.04</v>
+      </c>
+      <c r="AD288">
+        <v>10</v>
+      </c>
+      <c r="AE288">
+        <v>1.2</v>
+      </c>
+      <c r="AF288">
+        <v>4.5</v>
+      </c>
+      <c r="AG288">
+        <v>1.68</v>
+      </c>
+      <c r="AH288">
+        <v>2.18</v>
+      </c>
+      <c r="AI288">
+        <v>1.48</v>
+      </c>
+      <c r="AJ288">
+        <v>2.45</v>
+      </c>
+      <c r="AK288">
+        <v>1.73</v>
+      </c>
+      <c r="AL288">
+        <v>1.22</v>
+      </c>
+      <c r="AM288">
+        <v>1.3</v>
+      </c>
+      <c r="AN288">
+        <v>1.72</v>
+      </c>
+      <c r="AO288">
+        <v>1.44</v>
+      </c>
+      <c r="AP288">
+        <v>1.63</v>
+      </c>
+      <c r="AQ288">
+        <v>1.53</v>
+      </c>
+      <c r="AR288">
+        <v>1.66</v>
+      </c>
+      <c r="AS288">
+        <v>1.54</v>
+      </c>
+      <c r="AT288">
+        <v>3.2</v>
+      </c>
+      <c r="AU288">
+        <v>9</v>
+      </c>
+      <c r="AV288">
+        <v>6</v>
+      </c>
+      <c r="AW288">
+        <v>3</v>
+      </c>
+      <c r="AX288">
+        <v>5</v>
+      </c>
+      <c r="AY288">
+        <v>12</v>
+      </c>
+      <c r="AZ288">
+        <v>11</v>
+      </c>
+      <c r="BA288">
+        <v>6</v>
+      </c>
+      <c r="BB288">
+        <v>2</v>
+      </c>
+      <c r="BC288">
+        <v>8</v>
+      </c>
+      <c r="BD288">
+        <v>2.55</v>
+      </c>
+      <c r="BE288">
+        <v>7.5</v>
+      </c>
+      <c r="BF288">
+        <v>1.71</v>
+      </c>
+      <c r="BG288">
+        <v>1.23</v>
+      </c>
+      <c r="BH288">
+        <v>4</v>
+      </c>
+      <c r="BI288">
+        <v>1.38</v>
+      </c>
+      <c r="BJ288">
+        <v>2.88</v>
+      </c>
+      <c r="BK288">
+        <v>1.67</v>
+      </c>
+      <c r="BL288">
+        <v>2.08</v>
+      </c>
+      <c r="BM288">
+        <v>2.12</v>
+      </c>
+      <c r="BN288">
+        <v>1.66</v>
+      </c>
+      <c r="BO288">
+        <v>2.6</v>
+      </c>
+      <c r="BP288">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7389474</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45416.65625</v>
+      </c>
+      <c r="F289">
+        <v>7</v>
+      </c>
+      <c r="G289" t="s">
+        <v>80</v>
+      </c>
+      <c r="H289" t="s">
+        <v>79</v>
+      </c>
+      <c r="I289">
+        <v>3</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289">
+        <v>4</v>
+      </c>
+      <c r="L289">
+        <v>4</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="N289">
+        <v>5</v>
+      </c>
+      <c r="O289" t="s">
+        <v>274</v>
+      </c>
+      <c r="P289" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q289">
+        <v>3</v>
+      </c>
+      <c r="R289">
+        <v>2.2</v>
+      </c>
+      <c r="S289">
+        <v>3</v>
+      </c>
+      <c r="T289">
+        <v>1.3</v>
+      </c>
+      <c r="U289">
+        <v>3.2</v>
+      </c>
+      <c r="V289">
+        <v>2.35</v>
+      </c>
+      <c r="W289">
+        <v>1.53</v>
+      </c>
+      <c r="X289">
+        <v>5.5</v>
+      </c>
+      <c r="Y289">
+        <v>1.13</v>
+      </c>
+      <c r="Z289">
+        <v>2.35</v>
+      </c>
+      <c r="AA289">
+        <v>3.4</v>
+      </c>
+      <c r="AB289">
+        <v>2.7</v>
+      </c>
+      <c r="AC289">
+        <v>1.04</v>
+      </c>
+      <c r="AD289">
+        <v>10</v>
+      </c>
+      <c r="AE289">
+        <v>1.2</v>
+      </c>
+      <c r="AF289">
+        <v>4.33</v>
+      </c>
+      <c r="AG289">
+        <v>1.61</v>
+      </c>
+      <c r="AH289">
+        <v>2.33</v>
+      </c>
+      <c r="AI289">
+        <v>1.48</v>
+      </c>
+      <c r="AJ289">
+        <v>2.4</v>
+      </c>
+      <c r="AK289">
+        <v>1.48</v>
+      </c>
+      <c r="AL289">
+        <v>1.25</v>
+      </c>
+      <c r="AM289">
+        <v>1.5</v>
+      </c>
+      <c r="AN289">
+        <v>1.56</v>
+      </c>
+      <c r="AO289">
+        <v>1.53</v>
+      </c>
+      <c r="AP289">
+        <v>1.63</v>
+      </c>
+      <c r="AQ289">
+        <v>1.44</v>
+      </c>
+      <c r="AR289">
+        <v>1.69</v>
+      </c>
+      <c r="AS289">
+        <v>1.66</v>
+      </c>
+      <c r="AT289">
+        <v>3.35</v>
+      </c>
+      <c r="AU289">
+        <v>5</v>
+      </c>
+      <c r="AV289">
+        <v>5</v>
+      </c>
+      <c r="AW289">
+        <v>10</v>
+      </c>
+      <c r="AX289">
+        <v>8</v>
+      </c>
+      <c r="AY289">
+        <v>15</v>
+      </c>
+      <c r="AZ289">
+        <v>13</v>
+      </c>
+      <c r="BA289">
+        <v>4</v>
+      </c>
+      <c r="BB289">
+        <v>1</v>
+      </c>
+      <c r="BC289">
+        <v>5</v>
+      </c>
+      <c r="BD289">
+        <v>1.86</v>
+      </c>
+      <c r="BE289">
+        <v>7.5</v>
+      </c>
+      <c r="BF289">
+        <v>2.28</v>
+      </c>
+      <c r="BG289">
+        <v>1.22</v>
+      </c>
+      <c r="BH289">
+        <v>4.1</v>
+      </c>
+      <c r="BI289">
+        <v>1.38</v>
+      </c>
+      <c r="BJ289">
+        <v>2.85</v>
+      </c>
+      <c r="BK289">
+        <v>1.61</v>
+      </c>
+      <c r="BL289">
+        <v>2.2</v>
+      </c>
+      <c r="BM289">
+        <v>2</v>
+      </c>
+      <c r="BN289">
+        <v>1.73</v>
+      </c>
+      <c r="BO289">
+        <v>2.6</v>
+      </c>
+      <c r="BP289">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="394">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1194,6 +1194,9 @@
   <si>
     <t>['25', '42', '45+4', '86']</t>
   </si>
+  <si>
+    <t>['48', '63']</t>
+  </si>
 </sst>
 </file>
 
@@ -1554,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2715,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ6">
         <v>1.39</v>
@@ -4778,7 +4781,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ16">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5187,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ18">
         <v>0.76</v>
@@ -6220,7 +6223,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ23">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR23">
         <v>1.63</v>
@@ -10340,7 +10343,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR43">
         <v>1.73</v>
@@ -13427,7 +13430,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ58">
         <v>0.71</v>
@@ -14048,7 +14051,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ61">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR61">
         <v>1.7</v>
@@ -14457,7 +14460,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ63">
         <v>1.53</v>
@@ -17550,7 +17553,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ78">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17753,7 +17756,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ79">
         <v>0.59</v>
@@ -18580,7 +18583,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ83">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR83">
         <v>1.15</v>
@@ -22285,7 +22288,7 @@
         <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ101">
         <v>1.44</v>
@@ -22906,7 +22909,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ104">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR104">
         <v>1.98</v>
@@ -23521,7 +23524,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ107">
         <v>0.72</v>
@@ -25996,7 +25999,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ119">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR119">
         <v>1.28</v>
@@ -27229,7 +27232,7 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ125">
         <v>0.67</v>
@@ -29086,7 +29089,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ134">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR134">
         <v>1.57</v>
@@ -31143,7 +31146,7 @@
         <v>1.67</v>
       </c>
       <c r="AP144">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ144">
         <v>1.56</v>
@@ -32176,7 +32179,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR149">
         <v>1.36</v>
@@ -32585,7 +32588,7 @@
         <v>1.11</v>
       </c>
       <c r="AP151">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ151">
         <v>0.72</v>
@@ -35675,7 +35678,7 @@
         <v>0.3</v>
       </c>
       <c r="AP166">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ166">
         <v>0.89</v>
@@ -37120,7 +37123,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ173">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR173">
         <v>1.5</v>
@@ -40619,10 +40622,10 @@
         <v>1.55</v>
       </c>
       <c r="AP190">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ190">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR190">
         <v>1.91</v>
@@ -43709,7 +43712,7 @@
         <v>1.17</v>
       </c>
       <c r="AP205">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ205">
         <v>1.33</v>
@@ -43918,7 +43921,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ206">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR206">
         <v>1.75</v>
@@ -47214,7 +47217,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ222">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR222">
         <v>1.93</v>
@@ -47417,7 +47420,7 @@
         <v>0.92</v>
       </c>
       <c r="AP223">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ223">
         <v>0.89</v>
@@ -50098,7 +50101,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ236">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR236">
         <v>1.61</v>
@@ -50301,7 +50304,7 @@
         <v>2.36</v>
       </c>
       <c r="AP237">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ237">
         <v>2.06</v>
@@ -52158,7 +52161,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ246">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR246">
         <v>1.72</v>
@@ -53185,7 +53188,7 @@
         <v>1.53</v>
       </c>
       <c r="AP251">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ251">
         <v>1.44</v>
@@ -57102,7 +57105,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ270">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR270">
         <v>1.9</v>
@@ -58541,7 +58544,7 @@
         <v>2</v>
       </c>
       <c r="AP277">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ277">
         <v>2.06</v>
@@ -59574,7 +59577,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ282">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AR282">
         <v>1.83</v>
@@ -60616,22 +60619,22 @@
         <v>2.46</v>
       </c>
       <c r="AU287">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV287">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW287">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX287">
         <v>4</v>
       </c>
       <c r="AY287">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AZ287">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA287">
         <v>4</v>
@@ -61028,22 +61031,22 @@
         <v>3.35</v>
       </c>
       <c r="AU289">
+        <v>7</v>
+      </c>
+      <c r="AV289">
+        <v>7</v>
+      </c>
+      <c r="AW289">
         <v>5</v>
       </c>
-      <c r="AV289">
-        <v>5</v>
-      </c>
-      <c r="AW289">
-        <v>10</v>
-      </c>
       <c r="AX289">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY289">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ289">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA289">
         <v>4</v>
@@ -61092,6 +61095,212 @@
       </c>
       <c r="BP289">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7389475</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45417.35416666666</v>
+      </c>
+      <c r="F290">
+        <v>7</v>
+      </c>
+      <c r="G290" t="s">
+        <v>74</v>
+      </c>
+      <c r="H290" t="s">
+        <v>76</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290">
+        <v>2</v>
+      </c>
+      <c r="N290">
+        <v>3</v>
+      </c>
+      <c r="O290" t="s">
+        <v>130</v>
+      </c>
+      <c r="P290" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q290">
+        <v>4.2</v>
+      </c>
+      <c r="R290">
+        <v>2.34</v>
+      </c>
+      <c r="S290">
+        <v>2.56</v>
+      </c>
+      <c r="T290">
+        <v>1.34</v>
+      </c>
+      <c r="U290">
+        <v>3.25</v>
+      </c>
+      <c r="V290">
+        <v>2.69</v>
+      </c>
+      <c r="W290">
+        <v>1.47</v>
+      </c>
+      <c r="X290">
+        <v>6.35</v>
+      </c>
+      <c r="Y290">
+        <v>1.1</v>
+      </c>
+      <c r="Z290">
+        <v>3.83</v>
+      </c>
+      <c r="AA290">
+        <v>3.6</v>
+      </c>
+      <c r="AB290">
+        <v>1.9</v>
+      </c>
+      <c r="AC290">
+        <v>1.01</v>
+      </c>
+      <c r="AD290">
+        <v>10.25</v>
+      </c>
+      <c r="AE290">
+        <v>1.22</v>
+      </c>
+      <c r="AF290">
+        <v>3.66</v>
+      </c>
+      <c r="AG290">
+        <v>1.77</v>
+      </c>
+      <c r="AH290">
+        <v>1.98</v>
+      </c>
+      <c r="AI290">
+        <v>1.7</v>
+      </c>
+      <c r="AJ290">
+        <v>2.05</v>
+      </c>
+      <c r="AK290">
+        <v>1.9</v>
+      </c>
+      <c r="AL290">
+        <v>1.28</v>
+      </c>
+      <c r="AM290">
+        <v>1.26</v>
+      </c>
+      <c r="AN290">
+        <v>1.88</v>
+      </c>
+      <c r="AO290">
+        <v>1.56</v>
+      </c>
+      <c r="AP290">
+        <v>1.78</v>
+      </c>
+      <c r="AQ290">
+        <v>1.63</v>
+      </c>
+      <c r="AR290">
+        <v>1.75</v>
+      </c>
+      <c r="AS290">
+        <v>1.58</v>
+      </c>
+      <c r="AT290">
+        <v>3.33</v>
+      </c>
+      <c r="AU290">
+        <v>5</v>
+      </c>
+      <c r="AV290">
+        <v>4</v>
+      </c>
+      <c r="AW290">
+        <v>6</v>
+      </c>
+      <c r="AX290">
+        <v>4</v>
+      </c>
+      <c r="AY290">
+        <v>11</v>
+      </c>
+      <c r="AZ290">
+        <v>8</v>
+      </c>
+      <c r="BA290">
+        <v>2</v>
+      </c>
+      <c r="BB290">
+        <v>3</v>
+      </c>
+      <c r="BC290">
+        <v>5</v>
+      </c>
+      <c r="BD290">
+        <v>2.7</v>
+      </c>
+      <c r="BE290">
+        <v>7</v>
+      </c>
+      <c r="BF290">
+        <v>1.65</v>
+      </c>
+      <c r="BG290">
+        <v>1.3</v>
+      </c>
+      <c r="BH290">
+        <v>3.35</v>
+      </c>
+      <c r="BI290">
+        <v>1.53</v>
+      </c>
+      <c r="BJ290">
+        <v>2.4</v>
+      </c>
+      <c r="BK290">
+        <v>1.87</v>
+      </c>
+      <c r="BL290">
+        <v>1.87</v>
+      </c>
+      <c r="BM290">
+        <v>2.35</v>
+      </c>
+      <c r="BN290">
+        <v>1.53</v>
+      </c>
+      <c r="BO290">
+        <v>3.1</v>
+      </c>
+      <c r="BP290">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="396">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -841,6 +841,12 @@
     <t>['12', '24', '45+6', '61']</t>
   </si>
   <si>
+    <t>['47', '74', '90+3']</t>
+  </si>
+  <si>
+    <t>['45+10']</t>
+  </si>
+  <si>
     <t>['69', '90+1']</t>
   </si>
   <si>
@@ -1195,7 +1201,7 @@
     <t>['25', '42', '45+4', '86']</t>
   </si>
   <si>
-    <t>['48', '63']</t>
+    <t>['48', '64']</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP290"/>
+  <dimension ref="A1:BP293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1894,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ2">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2022,7 +2028,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -2434,7 +2440,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2846,7 +2852,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q7">
         <v>1.8</v>
@@ -3339,7 +3345,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ9">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3464,7 +3470,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3751,7 +3757,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ11">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4082,7 +4088,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4160,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ13">
         <v>0.71</v>
@@ -4984,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>0.89</v>
@@ -5524,7 +5530,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -5602,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5730,7 +5736,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q21">
         <v>3.92</v>
@@ -5811,7 +5817,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ21">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR21">
         <v>1.12</v>
@@ -5936,7 +5942,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6142,7 +6148,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6429,7 +6435,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ24">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR24">
         <v>0.67</v>
@@ -6554,7 +6560,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6760,7 +6766,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6838,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ26">
         <v>1.21</v>
@@ -6966,7 +6972,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7584,7 +7590,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q30">
         <v>1.9</v>
@@ -7996,7 +8002,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q32">
         <v>1.67</v>
@@ -8202,7 +8208,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8280,10 +8286,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR33">
         <v>0.64</v>
@@ -8408,7 +8414,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8820,7 +8826,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q36">
         <v>3.4</v>
@@ -8898,10 +8904,10 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -9026,7 +9032,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9232,7 +9238,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q38">
         <v>2.3</v>
@@ -9516,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ39">
         <v>0.76</v>
@@ -9931,7 +9937,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ41">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR41">
         <v>1.31</v>
@@ -10262,7 +10268,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10468,7 +10474,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10546,7 +10552,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ44">
         <v>1.21</v>
@@ -10674,7 +10680,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10755,7 +10761,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ45">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR45">
         <v>2.1</v>
@@ -11086,7 +11092,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -11498,7 +11504,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11576,7 +11582,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ49">
         <v>1.44</v>
@@ -11704,7 +11710,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11910,7 +11916,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11991,7 +11997,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ51">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR51">
         <v>1.28</v>
@@ -12116,7 +12122,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12194,10 +12200,10 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -12400,7 +12406,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ53">
         <v>1.53</v>
@@ -13146,7 +13152,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13558,7 +13564,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13764,7 +13770,7 @@
         <v>89</v>
       </c>
       <c r="P60" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -14176,7 +14182,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q62">
         <v>1.73</v>
@@ -14257,7 +14263,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR62">
         <v>1.61</v>
@@ -14588,7 +14594,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -15078,7 +15084,7 @@
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1.39</v>
@@ -15206,7 +15212,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15287,7 +15293,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ67">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR67">
         <v>1.29</v>
@@ -15412,7 +15418,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q68">
         <v>2.7</v>
@@ -15490,10 +15496,10 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ68">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR68">
         <v>1.35</v>
@@ -15824,7 +15830,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q70">
         <v>2.08</v>
@@ -15902,7 +15908,7 @@
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ70">
         <v>0.89</v>
@@ -16030,7 +16036,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q71">
         <v>1.96</v>
@@ -16854,7 +16860,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -17266,7 +17272,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q77">
         <v>2.3</v>
@@ -17472,7 +17478,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q78">
         <v>4.5</v>
@@ -17759,7 +17765,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ79">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR79">
         <v>1.81</v>
@@ -18090,7 +18096,7 @@
         <v>89</v>
       </c>
       <c r="P81" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18374,10 +18380,10 @@
         <v>1.2</v>
       </c>
       <c r="AP82">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ82">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR82">
         <v>1.88</v>
@@ -18580,7 +18586,7 @@
         <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>1.63</v>
@@ -18914,7 +18920,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -19532,7 +19538,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19613,7 +19619,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ88">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -19816,7 +19822,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ89">
         <v>0.89</v>
@@ -20150,7 +20156,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20768,7 +20774,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20974,7 +20980,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -21261,7 +21267,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR96">
         <v>1.72</v>
@@ -21386,7 +21392,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q97">
         <v>5.1</v>
@@ -21464,7 +21470,7 @@
         <v>2.2</v>
       </c>
       <c r="AP97">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
         <v>1.44</v>
@@ -21673,7 +21679,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ98">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21798,7 +21804,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -22004,7 +22010,7 @@
         <v>89</v>
       </c>
       <c r="P100" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q100">
         <v>2.48</v>
@@ -22082,7 +22088,7 @@
         <v>0.67</v>
       </c>
       <c r="AP100">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ100">
         <v>0.72</v>
@@ -22210,7 +22216,7 @@
         <v>158</v>
       </c>
       <c r="P101" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q101">
         <v>2.65</v>
@@ -22416,7 +22422,7 @@
         <v>89</v>
       </c>
       <c r="P102" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22497,7 +22503,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ102">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR102">
         <v>1.55</v>
@@ -22906,7 +22912,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ104">
         <v>1.63</v>
@@ -23034,7 +23040,7 @@
         <v>117</v>
       </c>
       <c r="P105" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23240,7 +23246,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q106">
         <v>3.05</v>
@@ -23527,7 +23533,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ107">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR107">
         <v>1.92</v>
@@ -23652,7 +23658,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q108">
         <v>2.95</v>
@@ -24270,7 +24276,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24557,7 +24563,7 @@
         <v>2</v>
       </c>
       <c r="AQ112">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR112">
         <v>1.83</v>
@@ -24760,7 +24766,7 @@
         <v>0.17</v>
       </c>
       <c r="AP113">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ113">
         <v>0.76</v>
@@ -25175,7 +25181,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ115">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR115">
         <v>1.49</v>
@@ -25300,7 +25306,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -25712,7 +25718,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25996,7 +26002,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ119">
         <v>1.63</v>
@@ -26124,7 +26130,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q120">
         <v>1.91</v>
@@ -26330,7 +26336,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26408,7 +26414,7 @@
         <v>0.71</v>
       </c>
       <c r="AP121">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>1.33</v>
@@ -26536,7 +26542,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q122">
         <v>4.1</v>
@@ -26617,7 +26623,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ122">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR122">
         <v>1.23</v>
@@ -27360,7 +27366,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27566,7 +27572,7 @@
         <v>89</v>
       </c>
       <c r="P127" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27853,7 +27859,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ128">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR128">
         <v>1.87</v>
@@ -27978,7 +27984,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28056,7 +28062,7 @@
         <v>1.43</v>
       </c>
       <c r="AP129">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ129">
         <v>1.39</v>
@@ -28184,7 +28190,7 @@
         <v>106</v>
       </c>
       <c r="P130" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -28262,7 +28268,7 @@
         <v>0.88</v>
       </c>
       <c r="AP130">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ130">
         <v>0.72</v>
@@ -28390,7 +28396,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -29214,7 +29220,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q135">
         <v>5.5</v>
@@ -29420,7 +29426,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q136">
         <v>1.85</v>
@@ -29501,7 +29507,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ136">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR136">
         <v>1.82</v>
@@ -29626,7 +29632,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q137">
         <v>4.6</v>
@@ -29913,7 +29919,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ138">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR138">
         <v>1.34</v>
@@ -30038,7 +30044,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30116,7 +30122,7 @@
         <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ139">
         <v>1.39</v>
@@ -30940,7 +30946,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ143">
         <v>1.33</v>
@@ -31068,7 +31074,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31149,7 +31155,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ144">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR144">
         <v>1.92</v>
@@ -31767,7 +31773,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ147">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR147">
         <v>1.52</v>
@@ -32098,7 +32104,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q149">
         <v>6.2</v>
@@ -32304,7 +32310,7 @@
         <v>106</v>
       </c>
       <c r="P150" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q150">
         <v>8.119999999999999</v>
@@ -32510,7 +32516,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q151">
         <v>1.82</v>
@@ -33412,10 +33418,10 @@
         <v>0.78</v>
       </c>
       <c r="AP155">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ155">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR155">
         <v>1.23</v>
@@ -33540,7 +33546,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q156">
         <v>5.75</v>
@@ -33618,7 +33624,7 @@
         <v>1.44</v>
       </c>
       <c r="AP156">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ156">
         <v>1.53</v>
@@ -34776,7 +34782,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q162">
         <v>1.91</v>
@@ -34982,7 +34988,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35600,7 +35606,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35806,7 +35812,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>1.8</v>
@@ -35884,7 +35890,7 @@
         <v>1.2</v>
       </c>
       <c r="AP167">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ167">
         <v>0.89</v>
@@ -36090,10 +36096,10 @@
         <v>1.6</v>
       </c>
       <c r="AP168">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR168">
         <v>1.31</v>
@@ -36218,7 +36224,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36299,7 +36305,7 @@
         <v>1</v>
       </c>
       <c r="AQ169">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR169">
         <v>1.34</v>
@@ -36424,7 +36430,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q170">
         <v>2.1</v>
@@ -36505,7 +36511,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ170">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR170">
         <v>1.72</v>
@@ -36708,7 +36714,7 @@
         <v>0.5</v>
       </c>
       <c r="AP171">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ171">
         <v>0.67</v>
@@ -36836,7 +36842,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q172">
         <v>1.87</v>
@@ -37042,7 +37048,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37660,7 +37666,7 @@
         <v>210</v>
       </c>
       <c r="P176" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -38072,7 +38078,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -38278,7 +38284,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q179">
         <v>1.44</v>
@@ -38562,7 +38568,7 @@
         <v>1.64</v>
       </c>
       <c r="AP180">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ180">
         <v>1.44</v>
@@ -38771,7 +38777,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ181">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR181">
         <v>1.52</v>
@@ -38896,7 +38902,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q182">
         <v>1.55</v>
@@ -38974,7 +38980,7 @@
         <v>0.73</v>
       </c>
       <c r="AP182">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ182">
         <v>0.71</v>
@@ -39308,7 +39314,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39389,7 +39395,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ184">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR184">
         <v>1.72</v>
@@ -39720,7 +39726,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39801,7 +39807,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR186">
         <v>1.34</v>
@@ -40004,7 +40010,7 @@
         <v>0.27</v>
       </c>
       <c r="AP187">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ187">
         <v>0.89</v>
@@ -40132,7 +40138,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q188">
         <v>2.45</v>
@@ -41780,7 +41786,7 @@
         <v>223</v>
       </c>
       <c r="P196" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q196">
         <v>1.72</v>
@@ -41858,7 +41864,7 @@
         <v>1</v>
       </c>
       <c r="AP196">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ196">
         <v>0.72</v>
@@ -42067,7 +42073,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ197">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR197">
         <v>1.83</v>
@@ -42192,7 +42198,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q198">
         <v>5.32</v>
@@ -42604,7 +42610,7 @@
         <v>167</v>
       </c>
       <c r="P200" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q200">
         <v>3.95</v>
@@ -42685,7 +42691,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ200">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR200">
         <v>1.49</v>
@@ -42810,7 +42816,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43097,7 +43103,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ202">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR202">
         <v>1.41</v>
@@ -43506,7 +43512,7 @@
         <v>0.25</v>
       </c>
       <c r="AP204">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ204">
         <v>0.89</v>
@@ -43634,7 +43640,7 @@
         <v>89</v>
       </c>
       <c r="P205" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q205">
         <v>2.13</v>
@@ -44046,7 +44052,7 @@
         <v>186</v>
       </c>
       <c r="P207" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q207">
         <v>7</v>
@@ -44124,7 +44130,7 @@
         <v>2.25</v>
       </c>
       <c r="AP207">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ207">
         <v>2.06</v>
@@ -44252,7 +44258,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q208">
         <v>2.2</v>
@@ -44458,7 +44464,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44664,7 +44670,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q210">
         <v>4.3</v>
@@ -45488,7 +45494,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q214">
         <v>2.25</v>
@@ -45569,7 +45575,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ214">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR214">
         <v>1.85</v>
@@ -45694,7 +45700,7 @@
         <v>232</v>
       </c>
       <c r="P215" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q215">
         <v>2.88</v>
@@ -45900,7 +45906,7 @@
         <v>233</v>
       </c>
       <c r="P216" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -45978,10 +45984,10 @@
         <v>0.85</v>
       </c>
       <c r="AP216">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ216">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR216">
         <v>1.91</v>
@@ -46106,7 +46112,7 @@
         <v>89</v>
       </c>
       <c r="P217" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -46518,7 +46524,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q219">
         <v>2.3</v>
@@ -46724,7 +46730,7 @@
         <v>89</v>
       </c>
       <c r="P220" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q220">
         <v>5.91</v>
@@ -46802,7 +46808,7 @@
         <v>2.31</v>
       </c>
       <c r="AP220">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ220">
         <v>2.06</v>
@@ -46930,7 +46936,7 @@
         <v>235</v>
       </c>
       <c r="P221" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q221">
         <v>3.4</v>
@@ -47136,7 +47142,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q222">
         <v>3.1</v>
@@ -47629,7 +47635,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ224">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR224">
         <v>1.55</v>
@@ -47754,7 +47760,7 @@
         <v>237</v>
       </c>
       <c r="P225" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q225">
         <v>3.1</v>
@@ -47832,7 +47838,7 @@
         <v>0.62</v>
       </c>
       <c r="AP225">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ225">
         <v>0.71</v>
@@ -48244,7 +48250,7 @@
         <v>1.21</v>
       </c>
       <c r="AP227">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ227">
         <v>1.21</v>
@@ -48578,7 +48584,7 @@
         <v>89</v>
       </c>
       <c r="P229" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -48659,7 +48665,7 @@
         <v>1</v>
       </c>
       <c r="AQ229">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR229">
         <v>1.26</v>
@@ -48865,7 +48871,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ230">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR230">
         <v>1.89</v>
@@ -49196,7 +49202,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49274,7 +49280,7 @@
         <v>1.36</v>
       </c>
       <c r="AP232">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ232">
         <v>1.53</v>
@@ -49689,7 +49695,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ234">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR234">
         <v>1.35</v>
@@ -49814,7 +49820,7 @@
         <v>89</v>
       </c>
       <c r="P235" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q235">
         <v>1.7</v>
@@ -50716,7 +50722,7 @@
         <v>1.43</v>
       </c>
       <c r="AP239">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ239">
         <v>1.33</v>
@@ -51256,7 +51262,7 @@
         <v>246</v>
       </c>
       <c r="P242" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q242">
         <v>2.25</v>
@@ -51337,7 +51343,7 @@
         <v>2</v>
       </c>
       <c r="AQ242">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR242">
         <v>1.88</v>
@@ -51462,7 +51468,7 @@
         <v>247</v>
       </c>
       <c r="P243" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q243">
         <v>3.3</v>
@@ -51540,7 +51546,7 @@
         <v>1.33</v>
       </c>
       <c r="AP243">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ243">
         <v>1.33</v>
@@ -52492,7 +52498,7 @@
         <v>250</v>
       </c>
       <c r="P248" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q248">
         <v>2.66</v>
@@ -53316,7 +53322,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q252">
         <v>2.25</v>
@@ -53394,7 +53400,7 @@
         <v>1.4</v>
       </c>
       <c r="AP252">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ252">
         <v>1.39</v>
@@ -53522,7 +53528,7 @@
         <v>118</v>
       </c>
       <c r="P253" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53809,7 +53815,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ254">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR254">
         <v>1.85</v>
@@ -53934,7 +53940,7 @@
         <v>89</v>
       </c>
       <c r="P255" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -54140,7 +54146,7 @@
         <v>253</v>
       </c>
       <c r="P256" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q256">
         <v>2.7</v>
@@ -54221,7 +54227,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ256">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR256">
         <v>1.61</v>
@@ -54427,7 +54433,7 @@
         <v>1</v>
       </c>
       <c r="AQ257">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR257">
         <v>1.25</v>
@@ -54552,7 +54558,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q258">
         <v>2.38</v>
@@ -54758,7 +54764,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q259">
         <v>2.32</v>
@@ -55170,7 +55176,7 @@
         <v>257</v>
       </c>
       <c r="P261" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q261">
         <v>3.4</v>
@@ -55248,7 +55254,7 @@
         <v>0.47</v>
       </c>
       <c r="AP261">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ261">
         <v>0.89</v>
@@ -55660,7 +55666,7 @@
         <v>1.44</v>
       </c>
       <c r="AP263">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ263">
         <v>1.53</v>
@@ -55866,7 +55872,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP264">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ264">
         <v>0.89</v>
@@ -55994,7 +56000,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q265">
         <v>3.1</v>
@@ -56075,7 +56081,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ265">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR265">
         <v>1.37</v>
@@ -56200,7 +56206,7 @@
         <v>262</v>
       </c>
       <c r="P266" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56406,7 +56412,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q267">
         <v>2.6</v>
@@ -56487,7 +56493,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ267">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR267">
         <v>1.8</v>
@@ -56818,7 +56824,7 @@
         <v>264</v>
       </c>
       <c r="P269" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q269">
         <v>2.7</v>
@@ -56896,7 +56902,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP269">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ269">
         <v>0.71</v>
@@ -57024,7 +57030,7 @@
         <v>101</v>
       </c>
       <c r="P270" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q270">
         <v>2.85</v>
@@ -57102,7 +57108,7 @@
         <v>1.38</v>
       </c>
       <c r="AP270">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ270">
         <v>1.63</v>
@@ -57311,7 +57317,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ271">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR271">
         <v>1.44</v>
@@ -57436,7 +57442,7 @@
         <v>89</v>
       </c>
       <c r="P272" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q272">
         <v>4.33</v>
@@ -57848,7 +57854,7 @@
         <v>114</v>
       </c>
       <c r="P274" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q274">
         <v>2.7</v>
@@ -58466,7 +58472,7 @@
         <v>89</v>
       </c>
       <c r="P277" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q277">
         <v>3.3</v>
@@ -58672,7 +58678,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q278">
         <v>3.45</v>
@@ -59084,7 +59090,7 @@
         <v>269</v>
       </c>
       <c r="P280" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q280">
         <v>2.9</v>
@@ -59290,7 +59296,7 @@
         <v>270</v>
       </c>
       <c r="P281" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q281">
         <v>1.83</v>
@@ -59496,7 +59502,7 @@
         <v>89</v>
       </c>
       <c r="P282" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q282">
         <v>3.44</v>
@@ -59783,7 +59789,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ283">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR283">
         <v>1.69</v>
@@ -59908,7 +59914,7 @@
         <v>271</v>
       </c>
       <c r="P284" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q284">
         <v>2.25</v>
@@ -59986,7 +59992,7 @@
         <v>1.28</v>
       </c>
       <c r="AP284">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AQ284">
         <v>1.21</v>
@@ -60114,7 +60120,7 @@
         <v>89</v>
       </c>
       <c r="P285" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q285">
         <v>2.95</v>
@@ -60320,7 +60326,7 @@
         <v>272</v>
       </c>
       <c r="P286" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q286">
         <v>2.95</v>
@@ -60526,7 +60532,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q287">
         <v>3.25</v>
@@ -60619,22 +60625,22 @@
         <v>2.46</v>
       </c>
       <c r="AU287">
+        <v>7</v>
+      </c>
+      <c r="AV287">
+        <v>6</v>
+      </c>
+      <c r="AW287">
         <v>4</v>
-      </c>
-      <c r="AV287">
-        <v>3</v>
-      </c>
-      <c r="AW287">
-        <v>2</v>
       </c>
       <c r="AX287">
         <v>4</v>
       </c>
       <c r="AY287">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ287">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA287">
         <v>4</v>
@@ -60732,7 +60738,7 @@
         <v>273</v>
       </c>
       <c r="P288" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q288">
         <v>3.65</v>
@@ -61144,7 +61150,7 @@
         <v>130</v>
       </c>
       <c r="P290" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q290">
         <v>4.2</v>
@@ -61237,13 +61243,13 @@
         <v>3.33</v>
       </c>
       <c r="AU290">
+        <v>6</v>
+      </c>
+      <c r="AV290">
         <v>5</v>
       </c>
-      <c r="AV290">
-        <v>4</v>
-      </c>
       <c r="AW290">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX290">
         <v>4</v>
@@ -61252,7 +61258,7 @@
         <v>11</v>
       </c>
       <c r="AZ290">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA290">
         <v>2</v>
@@ -61301,6 +61307,624 @@
       </c>
       <c r="BP290">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7389476</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45417.45833333334</v>
+      </c>
+      <c r="F291">
+        <v>7</v>
+      </c>
+      <c r="G291" t="s">
+        <v>81</v>
+      </c>
+      <c r="H291" t="s">
+        <v>78</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>3</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>4</v>
+      </c>
+      <c r="O291" t="s">
+        <v>275</v>
+      </c>
+      <c r="P291" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q291">
+        <v>2.88</v>
+      </c>
+      <c r="R291">
+        <v>2.3</v>
+      </c>
+      <c r="S291">
+        <v>3.4</v>
+      </c>
+      <c r="T291">
+        <v>1.33</v>
+      </c>
+      <c r="U291">
+        <v>3.25</v>
+      </c>
+      <c r="V291">
+        <v>2.5</v>
+      </c>
+      <c r="W291">
+        <v>1.5</v>
+      </c>
+      <c r="X291">
+        <v>6.5</v>
+      </c>
+      <c r="Y291">
+        <v>1.11</v>
+      </c>
+      <c r="Z291">
+        <v>2.4</v>
+      </c>
+      <c r="AA291">
+        <v>3.45</v>
+      </c>
+      <c r="AB291">
+        <v>2.79</v>
+      </c>
+      <c r="AC291">
+        <v>1.04</v>
+      </c>
+      <c r="AD291">
+        <v>10</v>
+      </c>
+      <c r="AE291">
+        <v>1.22</v>
+      </c>
+      <c r="AF291">
+        <v>4.2</v>
+      </c>
+      <c r="AG291">
+        <v>1.67</v>
+      </c>
+      <c r="AH291">
+        <v>2.12</v>
+      </c>
+      <c r="AI291">
+        <v>1.57</v>
+      </c>
+      <c r="AJ291">
+        <v>2.25</v>
+      </c>
+      <c r="AK291">
+        <v>1.4</v>
+      </c>
+      <c r="AL291">
+        <v>1.25</v>
+      </c>
+      <c r="AM291">
+        <v>1.57</v>
+      </c>
+      <c r="AN291">
+        <v>1.39</v>
+      </c>
+      <c r="AO291">
+        <v>0.72</v>
+      </c>
+      <c r="AP291">
+        <v>1.47</v>
+      </c>
+      <c r="AQ291">
+        <v>0.68</v>
+      </c>
+      <c r="AR291">
+        <v>1.36</v>
+      </c>
+      <c r="AS291">
+        <v>1.23</v>
+      </c>
+      <c r="AT291">
+        <v>2.59</v>
+      </c>
+      <c r="AU291">
+        <v>8</v>
+      </c>
+      <c r="AV291">
+        <v>2</v>
+      </c>
+      <c r="AW291">
+        <v>7</v>
+      </c>
+      <c r="AX291">
+        <v>6</v>
+      </c>
+      <c r="AY291">
+        <v>15</v>
+      </c>
+      <c r="AZ291">
+        <v>8</v>
+      </c>
+      <c r="BA291">
+        <v>4</v>
+      </c>
+      <c r="BB291">
+        <v>1</v>
+      </c>
+      <c r="BC291">
+        <v>5</v>
+      </c>
+      <c r="BD291">
+        <v>1.95</v>
+      </c>
+      <c r="BE291">
+        <v>7.5</v>
+      </c>
+      <c r="BF291">
+        <v>2.16</v>
+      </c>
+      <c r="BG291">
+        <v>1.25</v>
+      </c>
+      <c r="BH291">
+        <v>3.8</v>
+      </c>
+      <c r="BI291">
+        <v>1.42</v>
+      </c>
+      <c r="BJ291">
+        <v>2.65</v>
+      </c>
+      <c r="BK291">
+        <v>1.72</v>
+      </c>
+      <c r="BL291">
+        <v>2.05</v>
+      </c>
+      <c r="BM291">
+        <v>2.15</v>
+      </c>
+      <c r="BN291">
+        <v>1.67</v>
+      </c>
+      <c r="BO291">
+        <v>2.75</v>
+      </c>
+      <c r="BP291">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7389477</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45417.5625</v>
+      </c>
+      <c r="F292">
+        <v>7</v>
+      </c>
+      <c r="G292" t="s">
+        <v>70</v>
+      </c>
+      <c r="H292" t="s">
+        <v>82</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+      <c r="O292" t="s">
+        <v>89</v>
+      </c>
+      <c r="P292" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q292">
+        <v>2.3</v>
+      </c>
+      <c r="R292">
+        <v>2.3</v>
+      </c>
+      <c r="S292">
+        <v>4.75</v>
+      </c>
+      <c r="T292">
+        <v>1.33</v>
+      </c>
+      <c r="U292">
+        <v>3.25</v>
+      </c>
+      <c r="V292">
+        <v>2.63</v>
+      </c>
+      <c r="W292">
+        <v>1.44</v>
+      </c>
+      <c r="X292">
+        <v>7</v>
+      </c>
+      <c r="Y292">
+        <v>1.1</v>
+      </c>
+      <c r="Z292">
+        <v>1.75</v>
+      </c>
+      <c r="AA292">
+        <v>3.75</v>
+      </c>
+      <c r="AB292">
+        <v>4.15</v>
+      </c>
+      <c r="AC292">
+        <v>1.05</v>
+      </c>
+      <c r="AD292">
+        <v>9.5</v>
+      </c>
+      <c r="AE292">
+        <v>1.25</v>
+      </c>
+      <c r="AF292">
+        <v>3.85</v>
+      </c>
+      <c r="AG292">
+        <v>1.73</v>
+      </c>
+      <c r="AH292">
+        <v>2</v>
+      </c>
+      <c r="AI292">
+        <v>1.75</v>
+      </c>
+      <c r="AJ292">
+        <v>2</v>
+      </c>
+      <c r="AK292">
+        <v>1.18</v>
+      </c>
+      <c r="AL292">
+        <v>1.22</v>
+      </c>
+      <c r="AM292">
+        <v>2.05</v>
+      </c>
+      <c r="AN292">
+        <v>2.17</v>
+      </c>
+      <c r="AO292">
+        <v>1.56</v>
+      </c>
+      <c r="AP292">
+        <v>2.11</v>
+      </c>
+      <c r="AQ292">
+        <v>1.53</v>
+      </c>
+      <c r="AR292">
+        <v>1.9</v>
+      </c>
+      <c r="AS292">
+        <v>1.47</v>
+      </c>
+      <c r="AT292">
+        <v>3.37</v>
+      </c>
+      <c r="AU292">
+        <v>9</v>
+      </c>
+      <c r="AV292">
+        <v>10</v>
+      </c>
+      <c r="AW292">
+        <v>6</v>
+      </c>
+      <c r="AX292">
+        <v>3</v>
+      </c>
+      <c r="AY292">
+        <v>15</v>
+      </c>
+      <c r="AZ292">
+        <v>13</v>
+      </c>
+      <c r="BA292">
+        <v>8</v>
+      </c>
+      <c r="BB292">
+        <v>3</v>
+      </c>
+      <c r="BC292">
+        <v>11</v>
+      </c>
+      <c r="BD292">
+        <v>1.48</v>
+      </c>
+      <c r="BE292">
+        <v>7.5</v>
+      </c>
+      <c r="BF292">
+        <v>3.25</v>
+      </c>
+      <c r="BG292">
+        <v>1.33</v>
+      </c>
+      <c r="BH292">
+        <v>3.1</v>
+      </c>
+      <c r="BI292">
+        <v>1.57</v>
+      </c>
+      <c r="BJ292">
+        <v>2.25</v>
+      </c>
+      <c r="BK292">
+        <v>1.95</v>
+      </c>
+      <c r="BL292">
+        <v>1.8</v>
+      </c>
+      <c r="BM292">
+        <v>2.5</v>
+      </c>
+      <c r="BN292">
+        <v>1.48</v>
+      </c>
+      <c r="BO292">
+        <v>3.35</v>
+      </c>
+      <c r="BP292">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7389478</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45417.59375</v>
+      </c>
+      <c r="F293">
+        <v>5</v>
+      </c>
+      <c r="G293" t="s">
+        <v>85</v>
+      </c>
+      <c r="H293" t="s">
+        <v>71</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>1</v>
+      </c>
+      <c r="O293" t="s">
+        <v>276</v>
+      </c>
+      <c r="P293" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q293">
+        <v>2.63</v>
+      </c>
+      <c r="R293">
+        <v>2.2</v>
+      </c>
+      <c r="S293">
+        <v>4</v>
+      </c>
+      <c r="T293">
+        <v>1.36</v>
+      </c>
+      <c r="U293">
+        <v>3</v>
+      </c>
+      <c r="V293">
+        <v>2.75</v>
+      </c>
+      <c r="W293">
+        <v>1.4</v>
+      </c>
+      <c r="X293">
+        <v>7</v>
+      </c>
+      <c r="Y293">
+        <v>1.1</v>
+      </c>
+      <c r="Z293">
+        <v>2.13</v>
+      </c>
+      <c r="AA293">
+        <v>3.4</v>
+      </c>
+      <c r="AB293">
+        <v>3.05</v>
+      </c>
+      <c r="AC293">
+        <v>1.05</v>
+      </c>
+      <c r="AD293">
+        <v>12.25</v>
+      </c>
+      <c r="AE293">
+        <v>1.27</v>
+      </c>
+      <c r="AF293">
+        <v>3.77</v>
+      </c>
+      <c r="AG293">
+        <v>1.91</v>
+      </c>
+      <c r="AH293">
+        <v>1.93</v>
+      </c>
+      <c r="AI293">
+        <v>1.7</v>
+      </c>
+      <c r="AJ293">
+        <v>2.05</v>
+      </c>
+      <c r="AK293">
+        <v>1.3</v>
+      </c>
+      <c r="AL293">
+        <v>1.32</v>
+      </c>
+      <c r="AM293">
+        <v>1.72</v>
+      </c>
+      <c r="AN293">
+        <v>0.88</v>
+      </c>
+      <c r="AO293">
+        <v>0.59</v>
+      </c>
+      <c r="AP293">
+        <v>1</v>
+      </c>
+      <c r="AQ293">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR293">
+        <v>1.22</v>
+      </c>
+      <c r="AS293">
+        <v>1.12</v>
+      </c>
+      <c r="AT293">
+        <v>2.34</v>
+      </c>
+      <c r="AU293">
+        <v>4</v>
+      </c>
+      <c r="AV293">
+        <v>3</v>
+      </c>
+      <c r="AW293">
+        <v>4</v>
+      </c>
+      <c r="AX293">
+        <v>4</v>
+      </c>
+      <c r="AY293">
+        <v>8</v>
+      </c>
+      <c r="AZ293">
+        <v>7</v>
+      </c>
+      <c r="BA293">
+        <v>7</v>
+      </c>
+      <c r="BB293">
+        <v>3</v>
+      </c>
+      <c r="BC293">
+        <v>10</v>
+      </c>
+      <c r="BD293">
+        <v>1.71</v>
+      </c>
+      <c r="BE293">
+        <v>7.5</v>
+      </c>
+      <c r="BF293">
+        <v>2.55</v>
+      </c>
+      <c r="BG293">
+        <v>1.23</v>
+      </c>
+      <c r="BH293">
+        <v>4</v>
+      </c>
+      <c r="BI293">
+        <v>1.4</v>
+      </c>
+      <c r="BJ293">
+        <v>2.8</v>
+      </c>
+      <c r="BK293">
+        <v>1.67</v>
+      </c>
+      <c r="BL293">
+        <v>2.15</v>
+      </c>
+      <c r="BM293">
+        <v>2.05</v>
+      </c>
+      <c r="BN293">
+        <v>1.72</v>
+      </c>
+      <c r="BO293">
+        <v>2.6</v>
+      </c>
+      <c r="BP293">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -61661,16 +61661,16 @@
         <v>10</v>
       </c>
       <c r="AW292">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY292">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ292">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA292">
         <v>8</v>
@@ -61861,19 +61861,19 @@
         <v>2.34</v>
       </c>
       <c r="AU293">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV293">
         <v>3</v>
       </c>
       <c r="AW293">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX293">
         <v>4</v>
       </c>
       <c r="AY293">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ293">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="399">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -847,6 +847,15 @@
     <t>['45+10']</t>
   </si>
   <si>
+    <t>['53', '89']</t>
+  </si>
+  <si>
+    <t>['24', '38', '70']</t>
+  </si>
+  <si>
+    <t>['44', '70']</t>
+  </si>
+  <si>
     <t>['69', '90+1']</t>
   </si>
   <si>
@@ -1563,7 +1572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP293"/>
+  <dimension ref="A1:BP296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,7 +2037,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -2106,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>0.72</v>
@@ -2312,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -2440,7 +2449,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2521,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2852,7 +2861,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q7">
         <v>1.8</v>
@@ -2933,7 +2942,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3470,7 +3479,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -4088,7 +4097,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4169,7 +4178,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ13">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4372,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ14">
         <v>1.21</v>
@@ -5199,7 +5208,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ18">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR18">
         <v>1.53</v>
@@ -5530,7 +5539,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -5736,7 +5745,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q21">
         <v>3.92</v>
@@ -5942,7 +5951,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6023,7 +6032,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ22">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -6148,7 +6157,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6226,7 +6235,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1.63</v>
@@ -6432,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ24">
         <v>0.68</v>
@@ -6560,7 +6569,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6766,7 +6775,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6972,7 +6981,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7462,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ29">
         <v>0.72</v>
@@ -7590,7 +7599,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q30">
         <v>1.9</v>
@@ -8002,7 +8011,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q32">
         <v>1.67</v>
@@ -8083,7 +8092,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ32">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>1.92</v>
@@ -8208,7 +8217,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8414,7 +8423,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8698,7 +8707,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8826,7 +8835,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q36">
         <v>3.4</v>
@@ -9032,7 +9041,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9238,7 +9247,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q38">
         <v>2.3</v>
@@ -9316,7 +9325,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ38">
         <v>0.89</v>
@@ -9525,7 +9534,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ39">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR39">
         <v>1.23</v>
@@ -10143,7 +10152,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ42">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>1.02</v>
@@ -10268,7 +10277,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10474,7 +10483,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10680,7 +10689,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10964,7 +10973,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ46">
         <v>0.89</v>
@@ -11092,7 +11101,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -11504,7 +11513,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11585,7 +11594,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ49">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR49">
         <v>1.78</v>
@@ -11710,7 +11719,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11916,7 +11925,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -11994,7 +12003,7 @@
         <v>0.67</v>
       </c>
       <c r="AP51">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>0.68</v>
@@ -12122,7 +12131,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -13024,10 +13033,10 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ56">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
@@ -13152,7 +13161,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13439,7 +13448,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ58">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>2.06</v>
@@ -13564,7 +13573,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13770,7 +13779,7 @@
         <v>89</v>
       </c>
       <c r="P60" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -14054,7 +14063,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ61">
         <v>1.63</v>
@@ -14182,7 +14191,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q62">
         <v>1.73</v>
@@ -14594,7 +14603,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14881,7 +14890,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ65">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR65">
         <v>2.24</v>
@@ -15212,7 +15221,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15290,7 +15299,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.53</v>
@@ -15418,7 +15427,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q68">
         <v>2.7</v>
@@ -15830,7 +15839,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q70">
         <v>2.08</v>
@@ -16036,7 +16045,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q71">
         <v>1.96</v>
@@ -16732,10 +16741,10 @@
         <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.47</v>
@@ -16860,7 +16869,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -17147,7 +17156,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ76">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR76">
         <v>1.15</v>
@@ -17272,7 +17281,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q77">
         <v>2.3</v>
@@ -17350,7 +17359,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -17478,7 +17487,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q78">
         <v>4.5</v>
@@ -17971,7 +17980,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -18096,7 +18105,7 @@
         <v>89</v>
       </c>
       <c r="P81" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18920,7 +18929,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18998,7 +19007,7 @@
         <v>1.2</v>
       </c>
       <c r="AP85">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ85">
         <v>1.21</v>
@@ -19538,7 +19547,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -20031,7 +20040,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ90">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -20156,7 +20165,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20440,7 +20449,7 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>0.89</v>
@@ -20646,7 +20655,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ93">
         <v>0.67</v>
@@ -20774,7 +20783,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20980,7 +20989,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -21392,7 +21401,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q97">
         <v>5.1</v>
@@ -21473,7 +21482,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR97">
         <v>1.08</v>
@@ -21804,7 +21813,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21885,7 +21894,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR99">
         <v>1.44</v>
@@ -22010,7 +22019,7 @@
         <v>89</v>
       </c>
       <c r="P100" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q100">
         <v>2.48</v>
@@ -22216,7 +22225,7 @@
         <v>158</v>
       </c>
       <c r="P101" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q101">
         <v>2.65</v>
@@ -22297,7 +22306,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ101">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR101">
         <v>2.03</v>
@@ -22422,7 +22431,7 @@
         <v>89</v>
       </c>
       <c r="P102" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -23040,7 +23049,7 @@
         <v>117</v>
       </c>
       <c r="P105" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23118,7 +23127,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ105">
         <v>1.53</v>
@@ -23246,7 +23255,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q106">
         <v>3.05</v>
@@ -23658,7 +23667,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q108">
         <v>2.95</v>
@@ -23736,10 +23745,10 @@
         <v>0.83</v>
       </c>
       <c r="AP108">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR108">
         <v>1.25</v>
@@ -24276,7 +24285,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24769,7 +24778,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ113">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR113">
         <v>1.98</v>
@@ -25306,7 +25315,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -25384,7 +25393,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ116">
         <v>0.72</v>
@@ -25593,7 +25602,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ117">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR117">
         <v>1.36</v>
@@ -25718,7 +25727,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -26130,7 +26139,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q120">
         <v>1.91</v>
@@ -26208,10 +26217,10 @@
         <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ120">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
         <v>1.67</v>
@@ -26336,7 +26345,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26542,7 +26551,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q122">
         <v>4.1</v>
@@ -27032,10 +27041,10 @@
         <v>0.14</v>
       </c>
       <c r="AP124">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR124">
         <v>1.26</v>
@@ -27366,7 +27375,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27572,7 +27581,7 @@
         <v>89</v>
       </c>
       <c r="P127" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27984,7 +27993,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28190,7 +28199,7 @@
         <v>106</v>
       </c>
       <c r="P130" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -28396,7 +28405,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28889,7 +28898,7 @@
         <v>2</v>
       </c>
       <c r="AQ133">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR133">
         <v>1.71</v>
@@ -29220,7 +29229,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q135">
         <v>5.5</v>
@@ -29298,10 +29307,10 @@
         <v>1.75</v>
       </c>
       <c r="AP135">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR135">
         <v>1.28</v>
@@ -29426,7 +29435,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q136">
         <v>1.85</v>
@@ -29504,7 +29513,7 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ136">
         <v>0.68</v>
@@ -29632,7 +29641,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q137">
         <v>4.6</v>
@@ -29710,7 +29719,7 @@
         <v>2.29</v>
       </c>
       <c r="AP137">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ137">
         <v>2.06</v>
@@ -30044,7 +30053,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -31074,7 +31083,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31361,7 +31370,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ145">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR145">
         <v>1.96</v>
@@ -31567,7 +31576,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ146">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR146">
         <v>1.61</v>
@@ -32104,7 +32113,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q149">
         <v>6.2</v>
@@ -32310,7 +32319,7 @@
         <v>106</v>
       </c>
       <c r="P150" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q150">
         <v>8.119999999999999</v>
@@ -32388,7 +32397,7 @@
         <v>2.38</v>
       </c>
       <c r="AP150">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ150">
         <v>2.06</v>
@@ -32516,7 +32525,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q151">
         <v>1.82</v>
@@ -33006,10 +33015,10 @@
         <v>1.89</v>
       </c>
       <c r="AP153">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ153">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR153">
         <v>1.74</v>
@@ -33546,7 +33555,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q156">
         <v>5.75</v>
@@ -33833,7 +33842,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ157">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR157">
         <v>1.36</v>
@@ -34448,7 +34457,7 @@
         <v>0.89</v>
       </c>
       <c r="AP160">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ160">
         <v>1.33</v>
@@ -34654,7 +34663,7 @@
         <v>1.44</v>
       </c>
       <c r="AP161">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ161">
         <v>1.39</v>
@@ -34782,7 +34791,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q162">
         <v>1.91</v>
@@ -34988,7 +34997,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35275,7 +35284,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ164">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR164">
         <v>1.25</v>
@@ -35606,7 +35615,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35812,7 +35821,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q167">
         <v>1.8</v>
@@ -36224,7 +36233,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36430,7 +36439,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q170">
         <v>2.1</v>
@@ -36842,7 +36851,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q172">
         <v>1.87</v>
@@ -37048,7 +37057,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37126,7 +37135,7 @@
         <v>1.4</v>
       </c>
       <c r="AP173">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ173">
         <v>1.63</v>
@@ -37335,7 +37344,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ174">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR174">
         <v>1.56</v>
@@ -37538,7 +37547,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ175">
         <v>1.21</v>
@@ -37666,7 +37675,7 @@
         <v>210</v>
       </c>
       <c r="P176" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37744,7 +37753,7 @@
         <v>2.3</v>
       </c>
       <c r="AP176">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ176">
         <v>2.06</v>
@@ -37953,7 +37962,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ177">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR177">
         <v>1.63</v>
@@ -38078,7 +38087,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -38284,7 +38293,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q179">
         <v>1.44</v>
@@ -38365,7 +38374,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ179">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR179">
         <v>1.73</v>
@@ -38571,7 +38580,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ180">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR180">
         <v>1.3</v>
@@ -38774,7 +38783,7 @@
         <v>0.91</v>
       </c>
       <c r="AP181">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ181">
         <v>0.5600000000000001</v>
@@ -38902,7 +38911,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q182">
         <v>1.55</v>
@@ -38983,7 +38992,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ182">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR182">
         <v>2</v>
@@ -39314,7 +39323,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39726,7 +39735,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -40138,7 +40147,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q188">
         <v>2.45</v>
@@ -40834,7 +40843,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ191">
         <v>1.33</v>
@@ -41040,7 +41049,7 @@
         <v>1.45</v>
       </c>
       <c r="AP192">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ192">
         <v>1.53</v>
@@ -41455,7 +41464,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ194">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR194">
         <v>1.65</v>
@@ -41786,7 +41795,7 @@
         <v>223</v>
       </c>
       <c r="P196" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q196">
         <v>1.72</v>
@@ -42198,7 +42207,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q198">
         <v>5.32</v>
@@ -42485,7 +42494,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ199">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR199">
         <v>1.71</v>
@@ -42610,7 +42619,7 @@
         <v>167</v>
       </c>
       <c r="P200" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q200">
         <v>3.95</v>
@@ -42688,7 +42697,7 @@
         <v>1.5</v>
       </c>
       <c r="AP200">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ200">
         <v>1.53</v>
@@ -42816,7 +42825,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -43309,7 +43318,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ203">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR203">
         <v>1.9</v>
@@ -43640,7 +43649,7 @@
         <v>89</v>
       </c>
       <c r="P205" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q205">
         <v>2.13</v>
@@ -44052,7 +44061,7 @@
         <v>186</v>
       </c>
       <c r="P207" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q207">
         <v>7</v>
@@ -44258,7 +44267,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q208">
         <v>2.2</v>
@@ -44336,7 +44345,7 @@
         <v>1</v>
       </c>
       <c r="AP208">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ208">
         <v>0.89</v>
@@ -44464,7 +44473,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44542,7 +44551,7 @@
         <v>1.33</v>
       </c>
       <c r="AP209">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ209">
         <v>1.53</v>
@@ -44670,7 +44679,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q210">
         <v>4.3</v>
@@ -44748,10 +44757,10 @@
         <v>1.46</v>
       </c>
       <c r="AP210">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ210">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR210">
         <v>1.52</v>
@@ -45369,7 +45378,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ213">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR213">
         <v>1.67</v>
@@ -45494,7 +45503,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q214">
         <v>2.25</v>
@@ -45700,7 +45709,7 @@
         <v>232</v>
       </c>
       <c r="P215" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q215">
         <v>2.88</v>
@@ -45906,7 +45915,7 @@
         <v>233</v>
       </c>
       <c r="P216" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -46112,7 +46121,7 @@
         <v>89</v>
       </c>
       <c r="P217" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -46190,7 +46199,7 @@
         <v>1.31</v>
       </c>
       <c r="AP217">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ217">
         <v>1.39</v>
@@ -46524,7 +46533,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q219">
         <v>2.3</v>
@@ -46730,7 +46739,7 @@
         <v>89</v>
       </c>
       <c r="P220" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q220">
         <v>5.91</v>
@@ -46936,7 +46945,7 @@
         <v>235</v>
       </c>
       <c r="P221" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q221">
         <v>3.4</v>
@@ -47142,7 +47151,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q222">
         <v>3.1</v>
@@ -47632,7 +47641,7 @@
         <v>0.77</v>
       </c>
       <c r="AP224">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ224">
         <v>0.5600000000000001</v>
@@ -47760,7 +47769,7 @@
         <v>237</v>
       </c>
       <c r="P225" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q225">
         <v>3.1</v>
@@ -47841,7 +47850,7 @@
         <v>1</v>
       </c>
       <c r="AQ225">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR225">
         <v>1.17</v>
@@ -48456,7 +48465,7 @@
         <v>1.43</v>
       </c>
       <c r="AP228">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ228">
         <v>1.39</v>
@@ -48584,7 +48593,7 @@
         <v>89</v>
       </c>
       <c r="P229" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -49202,7 +49211,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49486,7 +49495,7 @@
         <v>0.86</v>
       </c>
       <c r="AP233">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ233">
         <v>0.89</v>
@@ -49820,7 +49829,7 @@
         <v>89</v>
       </c>
       <c r="P235" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q235">
         <v>1.7</v>
@@ -49898,10 +49907,10 @@
         <v>0.43</v>
       </c>
       <c r="AP235">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ235">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR235">
         <v>1.57</v>
@@ -50931,7 +50940,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ240">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR240">
         <v>1.7</v>
@@ -51137,7 +51146,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ241">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR241">
         <v>1.42</v>
@@ -51262,7 +51271,7 @@
         <v>246</v>
       </c>
       <c r="P242" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q242">
         <v>2.25</v>
@@ -51468,7 +51477,7 @@
         <v>247</v>
       </c>
       <c r="P243" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q243">
         <v>3.3</v>
@@ -51752,7 +51761,7 @@
         <v>1.33</v>
       </c>
       <c r="AP244">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ244">
         <v>1.21</v>
@@ -52498,7 +52507,7 @@
         <v>250</v>
       </c>
       <c r="P248" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q248">
         <v>2.66</v>
@@ -52782,10 +52791,10 @@
         <v>0.53</v>
       </c>
       <c r="AP249">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ249">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR249">
         <v>1.44</v>
@@ -53197,7 +53206,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ251">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR251">
         <v>1.83</v>
@@ -53322,7 +53331,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q252">
         <v>2.25</v>
@@ -53528,7 +53537,7 @@
         <v>118</v>
       </c>
       <c r="P253" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53606,10 +53615,10 @@
         <v>0.6</v>
       </c>
       <c r="AP253">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ253">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR253">
         <v>1.16</v>
@@ -53940,7 +53949,7 @@
         <v>89</v>
       </c>
       <c r="P255" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -54146,7 +54155,7 @@
         <v>253</v>
       </c>
       <c r="P256" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q256">
         <v>2.7</v>
@@ -54558,7 +54567,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q258">
         <v>2.38</v>
@@ -54764,7 +54773,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q259">
         <v>2.32</v>
@@ -55176,7 +55185,7 @@
         <v>257</v>
       </c>
       <c r="P261" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q261">
         <v>3.4</v>
@@ -55460,7 +55469,7 @@
         <v>2.13</v>
       </c>
       <c r="AP262">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ262">
         <v>2.06</v>
@@ -56000,7 +56009,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q265">
         <v>3.1</v>
@@ -56206,7 +56215,7 @@
         <v>262</v>
       </c>
       <c r="P266" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56412,7 +56421,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q267">
         <v>2.6</v>
@@ -56824,7 +56833,7 @@
         <v>264</v>
       </c>
       <c r="P269" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q269">
         <v>2.7</v>
@@ -56905,7 +56914,7 @@
         <v>1</v>
       </c>
       <c r="AQ269">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR269">
         <v>1.17</v>
@@ -57030,7 +57039,7 @@
         <v>101</v>
       </c>
       <c r="P270" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q270">
         <v>2.85</v>
@@ -57314,7 +57323,7 @@
         <v>0.63</v>
       </c>
       <c r="AP271">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ271">
         <v>0.5600000000000001</v>
@@ -57442,7 +57451,7 @@
         <v>89</v>
       </c>
       <c r="P272" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q272">
         <v>4.33</v>
@@ -57854,7 +57863,7 @@
         <v>114</v>
       </c>
       <c r="P274" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q274">
         <v>2.7</v>
@@ -58138,7 +58147,7 @@
         <v>1.47</v>
       </c>
       <c r="AP275">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ275">
         <v>1.39</v>
@@ -58347,7 +58356,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ276">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR276">
         <v>1.84</v>
@@ -58472,7 +58481,7 @@
         <v>89</v>
       </c>
       <c r="P277" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q277">
         <v>3.3</v>
@@ -58678,7 +58687,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q278">
         <v>3.45</v>
@@ -58756,7 +58765,7 @@
         <v>0.63</v>
       </c>
       <c r="AP278">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ278">
         <v>0.89</v>
@@ -59090,7 +59099,7 @@
         <v>269</v>
       </c>
       <c r="P280" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q280">
         <v>2.9</v>
@@ -59296,7 +59305,7 @@
         <v>270</v>
       </c>
       <c r="P281" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q281">
         <v>1.83</v>
@@ -59502,7 +59511,7 @@
         <v>89</v>
       </c>
       <c r="P282" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q282">
         <v>3.44</v>
@@ -59914,7 +59923,7 @@
         <v>271</v>
       </c>
       <c r="P284" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q284">
         <v>2.25</v>
@@ -60120,7 +60129,7 @@
         <v>89</v>
       </c>
       <c r="P285" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q285">
         <v>2.95</v>
@@ -60201,7 +60210,7 @@
         <v>1</v>
       </c>
       <c r="AQ285">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR285">
         <v>1.26</v>
@@ -60326,7 +60335,7 @@
         <v>272</v>
       </c>
       <c r="P286" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q286">
         <v>2.95</v>
@@ -60532,7 +60541,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q287">
         <v>3.25</v>
@@ -60738,7 +60747,7 @@
         <v>273</v>
       </c>
       <c r="P288" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q288">
         <v>3.65</v>
@@ -61025,7 +61034,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ289">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR289">
         <v>1.69</v>
@@ -61150,7 +61159,7 @@
         <v>130</v>
       </c>
       <c r="P290" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q290">
         <v>4.2</v>
@@ -61356,7 +61365,7 @@
         <v>275</v>
       </c>
       <c r="P291" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q291">
         <v>2.88</v>
@@ -61925,6 +61934,624 @@
       </c>
       <c r="BP293">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7389480</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45423.55208333334</v>
+      </c>
+      <c r="F294">
+        <v>6</v>
+      </c>
+      <c r="G294" t="s">
+        <v>71</v>
+      </c>
+      <c r="H294" t="s">
+        <v>73</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>2</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>2</v>
+      </c>
+      <c r="O294" t="s">
+        <v>277</v>
+      </c>
+      <c r="P294" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q294">
+        <v>3.55</v>
+      </c>
+      <c r="R294">
+        <v>2.2</v>
+      </c>
+      <c r="S294">
+        <v>2.6</v>
+      </c>
+      <c r="T294">
+        <v>1.33</v>
+      </c>
+      <c r="U294">
+        <v>3.1</v>
+      </c>
+      <c r="V294">
+        <v>2.55</v>
+      </c>
+      <c r="W294">
+        <v>1.45</v>
+      </c>
+      <c r="X294">
+        <v>6.05</v>
+      </c>
+      <c r="Y294">
+        <v>1.11</v>
+      </c>
+      <c r="Z294">
+        <v>2.15</v>
+      </c>
+      <c r="AA294">
+        <v>3.2</v>
+      </c>
+      <c r="AB294">
+        <v>2.83</v>
+      </c>
+      <c r="AC294">
+        <v>1.04</v>
+      </c>
+      <c r="AD294">
+        <v>10</v>
+      </c>
+      <c r="AE294">
+        <v>1.22</v>
+      </c>
+      <c r="AF294">
+        <v>4.2</v>
+      </c>
+      <c r="AG294">
+        <v>1.66</v>
+      </c>
+      <c r="AH294">
+        <v>1.89</v>
+      </c>
+      <c r="AI294">
+        <v>1.57</v>
+      </c>
+      <c r="AJ294">
+        <v>2.2</v>
+      </c>
+      <c r="AK294">
+        <v>1.73</v>
+      </c>
+      <c r="AL294">
+        <v>1.22</v>
+      </c>
+      <c r="AM294">
+        <v>1.33</v>
+      </c>
+      <c r="AN294">
+        <v>0.88</v>
+      </c>
+      <c r="AO294">
+        <v>0.71</v>
+      </c>
+      <c r="AP294">
+        <v>1</v>
+      </c>
+      <c r="AQ294">
+        <v>0.67</v>
+      </c>
+      <c r="AR294">
+        <v>1.16</v>
+      </c>
+      <c r="AS294">
+        <v>1.06</v>
+      </c>
+      <c r="AT294">
+        <v>2.22</v>
+      </c>
+      <c r="AU294">
+        <v>5</v>
+      </c>
+      <c r="AV294">
+        <v>8</v>
+      </c>
+      <c r="AW294">
+        <v>5</v>
+      </c>
+      <c r="AX294">
+        <v>8</v>
+      </c>
+      <c r="AY294">
+        <v>10</v>
+      </c>
+      <c r="AZ294">
+        <v>16</v>
+      </c>
+      <c r="BA294">
+        <v>2</v>
+      </c>
+      <c r="BB294">
+        <v>7</v>
+      </c>
+      <c r="BC294">
+        <v>9</v>
+      </c>
+      <c r="BD294">
+        <v>2.88</v>
+      </c>
+      <c r="BE294">
+        <v>7.5</v>
+      </c>
+      <c r="BF294">
+        <v>1.58</v>
+      </c>
+      <c r="BG294">
+        <v>1.16</v>
+      </c>
+      <c r="BH294">
+        <v>4.33</v>
+      </c>
+      <c r="BI294">
+        <v>1.38</v>
+      </c>
+      <c r="BJ294">
+        <v>2.88</v>
+      </c>
+      <c r="BK294">
+        <v>1.67</v>
+      </c>
+      <c r="BL294">
+        <v>2.08</v>
+      </c>
+      <c r="BM294">
+        <v>2.12</v>
+      </c>
+      <c r="BN294">
+        <v>1.66</v>
+      </c>
+      <c r="BO294">
+        <v>2.58</v>
+      </c>
+      <c r="BP294">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7389481</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45423.55208333334</v>
+      </c>
+      <c r="F295">
+        <v>6</v>
+      </c>
+      <c r="G295" t="s">
+        <v>72</v>
+      </c>
+      <c r="H295" t="s">
+        <v>85</v>
+      </c>
+      <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>2</v>
+      </c>
+      <c r="L295">
+        <v>3</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="N295">
+        <v>4</v>
+      </c>
+      <c r="O295" t="s">
+        <v>278</v>
+      </c>
+      <c r="P295" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q295">
+        <v>2.8</v>
+      </c>
+      <c r="R295">
+        <v>2.15</v>
+      </c>
+      <c r="S295">
+        <v>3.6</v>
+      </c>
+      <c r="T295">
+        <v>1.36</v>
+      </c>
+      <c r="U295">
+        <v>2.88</v>
+      </c>
+      <c r="V295">
+        <v>2.7</v>
+      </c>
+      <c r="W295">
+        <v>1.4</v>
+      </c>
+      <c r="X295">
+        <v>6.5</v>
+      </c>
+      <c r="Y295">
+        <v>1.08</v>
+      </c>
+      <c r="Z295">
+        <v>1.65</v>
+      </c>
+      <c r="AA295">
+        <v>3.6</v>
+      </c>
+      <c r="AB295">
+        <v>4.1</v>
+      </c>
+      <c r="AC295">
+        <v>1.02</v>
+      </c>
+      <c r="AD295">
+        <v>10</v>
+      </c>
+      <c r="AE295">
+        <v>1.29</v>
+      </c>
+      <c r="AF295">
+        <v>3.4</v>
+      </c>
+      <c r="AG295">
+        <v>1.75</v>
+      </c>
+      <c r="AH295">
+        <v>1.79</v>
+      </c>
+      <c r="AI295">
+        <v>1.7</v>
+      </c>
+      <c r="AJ295">
+        <v>2.05</v>
+      </c>
+      <c r="AK295">
+        <v>1.35</v>
+      </c>
+      <c r="AL295">
+        <v>1.25</v>
+      </c>
+      <c r="AM295">
+        <v>1.65</v>
+      </c>
+      <c r="AN295">
+        <v>1.53</v>
+      </c>
+      <c r="AO295">
+        <v>0.76</v>
+      </c>
+      <c r="AP295">
+        <v>1.61</v>
+      </c>
+      <c r="AQ295">
+        <v>0.72</v>
+      </c>
+      <c r="AR295">
+        <v>1.47</v>
+      </c>
+      <c r="AS295">
+        <v>1.07</v>
+      </c>
+      <c r="AT295">
+        <v>2.54</v>
+      </c>
+      <c r="AU295">
+        <v>9</v>
+      </c>
+      <c r="AV295">
+        <v>5</v>
+      </c>
+      <c r="AW295">
+        <v>1</v>
+      </c>
+      <c r="AX295">
+        <v>4</v>
+      </c>
+      <c r="AY295">
+        <v>10</v>
+      </c>
+      <c r="AZ295">
+        <v>9</v>
+      </c>
+      <c r="BA295">
+        <v>5</v>
+      </c>
+      <c r="BB295">
+        <v>5</v>
+      </c>
+      <c r="BC295">
+        <v>10</v>
+      </c>
+      <c r="BD295">
+        <v>2.16</v>
+      </c>
+      <c r="BE295">
+        <v>7</v>
+      </c>
+      <c r="BF295">
+        <v>1.96</v>
+      </c>
+      <c r="BG295">
+        <v>1.15</v>
+      </c>
+      <c r="BH295">
+        <v>4.45</v>
+      </c>
+      <c r="BI295">
+        <v>1.38</v>
+      </c>
+      <c r="BJ295">
+        <v>2.88</v>
+      </c>
+      <c r="BK295">
+        <v>1.67</v>
+      </c>
+      <c r="BL295">
+        <v>2.08</v>
+      </c>
+      <c r="BM295">
+        <v>2.12</v>
+      </c>
+      <c r="BN295">
+        <v>1.66</v>
+      </c>
+      <c r="BO295">
+        <v>2.4</v>
+      </c>
+      <c r="BP295">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7389482</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45423.65625</v>
+      </c>
+      <c r="F296">
+        <v>8</v>
+      </c>
+      <c r="G296" t="s">
+        <v>82</v>
+      </c>
+      <c r="H296" t="s">
+        <v>79</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+      <c r="L296">
+        <v>2</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="N296">
+        <v>3</v>
+      </c>
+      <c r="O296" t="s">
+        <v>279</v>
+      </c>
+      <c r="P296" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q296">
+        <v>2.55</v>
+      </c>
+      <c r="R296">
+        <v>2.2</v>
+      </c>
+      <c r="S296">
+        <v>3.75</v>
+      </c>
+      <c r="T296">
+        <v>1.35</v>
+      </c>
+      <c r="U296">
+        <v>3.1</v>
+      </c>
+      <c r="V296">
+        <v>2.5</v>
+      </c>
+      <c r="W296">
+        <v>1.48</v>
+      </c>
+      <c r="X296">
+        <v>5.5</v>
+      </c>
+      <c r="Y296">
+        <v>1.11</v>
+      </c>
+      <c r="Z296">
+        <v>1.99</v>
+      </c>
+      <c r="AA296">
+        <v>3.55</v>
+      </c>
+      <c r="AB296">
+        <v>3.25</v>
+      </c>
+      <c r="AC296">
+        <v>1.04</v>
+      </c>
+      <c r="AD296">
+        <v>14</v>
+      </c>
+      <c r="AE296">
+        <v>1.23</v>
+      </c>
+      <c r="AF296">
+        <v>4.17</v>
+      </c>
+      <c r="AG296">
+        <v>1.7</v>
+      </c>
+      <c r="AH296">
+        <v>2.17</v>
+      </c>
+      <c r="AI296">
+        <v>1.6</v>
+      </c>
+      <c r="AJ296">
+        <v>2.2</v>
+      </c>
+      <c r="AK296">
+        <v>1.32</v>
+      </c>
+      <c r="AL296">
+        <v>1.3</v>
+      </c>
+      <c r="AM296">
+        <v>1.72</v>
+      </c>
+      <c r="AN296">
+        <v>2.5</v>
+      </c>
+      <c r="AO296">
+        <v>1.44</v>
+      </c>
+      <c r="AP296">
+        <v>2.53</v>
+      </c>
+      <c r="AQ296">
+        <v>1.37</v>
+      </c>
+      <c r="AR296">
+        <v>1.59</v>
+      </c>
+      <c r="AS296">
+        <v>1.65</v>
+      </c>
+      <c r="AT296">
+        <v>3.24</v>
+      </c>
+      <c r="AU296">
+        <v>5</v>
+      </c>
+      <c r="AV296">
+        <v>4</v>
+      </c>
+      <c r="AW296">
+        <v>10</v>
+      </c>
+      <c r="AX296">
+        <v>7</v>
+      </c>
+      <c r="AY296">
+        <v>15</v>
+      </c>
+      <c r="AZ296">
+        <v>11</v>
+      </c>
+      <c r="BA296">
+        <v>4</v>
+      </c>
+      <c r="BB296">
+        <v>3</v>
+      </c>
+      <c r="BC296">
+        <v>7</v>
+      </c>
+      <c r="BD296">
+        <v>1.64</v>
+      </c>
+      <c r="BE296">
+        <v>7.5</v>
+      </c>
+      <c r="BF296">
+        <v>2.7</v>
+      </c>
+      <c r="BG296">
+        <v>1.23</v>
+      </c>
+      <c r="BH296">
+        <v>3.56</v>
+      </c>
+      <c r="BI296">
+        <v>1.42</v>
+      </c>
+      <c r="BJ296">
+        <v>2.65</v>
+      </c>
+      <c r="BK296">
+        <v>1.73</v>
+      </c>
+      <c r="BL296">
+        <v>2</v>
+      </c>
+      <c r="BM296">
+        <v>2.2</v>
+      </c>
+      <c r="BN296">
+        <v>1.61</v>
+      </c>
+      <c r="BO296">
+        <v>3.04</v>
+      </c>
+      <c r="BP296">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="401">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -856,6 +856,12 @@
     <t>['44', '70']</t>
   </si>
   <si>
+    <t>['17', '39']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['69', '90+1']</t>
   </si>
   <si>
@@ -1060,9 +1066,6 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['79']</t>
-  </si>
-  <si>
     <t>['17', '87']</t>
   </si>
   <si>
@@ -1211,6 +1214,9 @@
   </si>
   <si>
     <t>['48', '64']</t>
+  </si>
+  <si>
+    <t>['33', '44']</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP296"/>
+  <dimension ref="A1:BP299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2037,7 +2043,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -2324,7 +2330,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2449,7 +2455,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2733,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ6">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2861,7 +2867,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q7">
         <v>1.8</v>
@@ -2939,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ7">
         <v>0.72</v>
@@ -3148,7 +3154,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3351,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ9">
         <v>0.68</v>
@@ -3479,7 +3485,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -4097,7 +4103,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -5205,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ18">
         <v>0.72</v>
@@ -5414,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR19">
         <v>1.34</v>
@@ -5539,7 +5545,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -5620,7 +5626,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR20">
         <v>1.2</v>
@@ -5745,7 +5751,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q21">
         <v>3.92</v>
@@ -5823,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ21">
         <v>1.53</v>
@@ -5951,7 +5957,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6157,7 +6163,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6569,7 +6575,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6775,7 +6781,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6981,7 +6987,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7062,7 +7068,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ27">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR27">
         <v>0.95</v>
@@ -7599,7 +7605,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q30">
         <v>1.9</v>
@@ -7677,7 +7683,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ30">
         <v>0.89</v>
@@ -8011,7 +8017,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q32">
         <v>1.67</v>
@@ -8217,7 +8223,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8423,7 +8429,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8504,7 +8510,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR34">
         <v>1.29</v>
@@ -8710,7 +8716,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR35">
         <v>1.18</v>
@@ -8835,7 +8841,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q36">
         <v>3.4</v>
@@ -9041,7 +9047,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9119,10 +9125,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ37">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR37">
         <v>1.4</v>
@@ -9247,7 +9253,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q38">
         <v>2.3</v>
@@ -10277,7 +10283,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10355,7 +10361,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ43">
         <v>1.63</v>
@@ -10483,7 +10489,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10689,7 +10695,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -11101,7 +11107,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -11388,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR48">
         <v>1.61</v>
@@ -11513,7 +11519,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11719,7 +11725,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11925,7 +11931,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12131,7 +12137,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12621,10 +12627,10 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -13161,7 +13167,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13242,7 +13248,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ57">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR57">
         <v>1.54</v>
@@ -13445,7 +13451,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -13573,7 +13579,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13779,7 +13785,7 @@
         <v>89</v>
       </c>
       <c r="P60" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -14191,7 +14197,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q62">
         <v>1.73</v>
@@ -14269,7 +14275,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ62">
         <v>0.5600000000000001</v>
@@ -14475,7 +14481,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ63">
         <v>1.53</v>
@@ -14603,7 +14609,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -15096,7 +15102,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR66">
         <v>1.17</v>
@@ -15221,7 +15227,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15427,7 +15433,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q68">
         <v>2.7</v>
@@ -15839,7 +15845,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q70">
         <v>2.08</v>
@@ -16045,7 +16051,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q71">
         <v>1.96</v>
@@ -16869,7 +16875,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16950,7 +16956,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -17281,7 +17287,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q77">
         <v>2.3</v>
@@ -17362,7 +17368,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR77">
         <v>1.51</v>
@@ -17487,7 +17493,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q78">
         <v>4.5</v>
@@ -17771,7 +17777,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ79">
         <v>0.5600000000000001</v>
@@ -17977,7 +17983,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ80">
         <v>1.37</v>
@@ -18105,7 +18111,7 @@
         <v>89</v>
       </c>
       <c r="P81" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18183,7 +18189,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ81">
         <v>2.06</v>
@@ -18929,7 +18935,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -19216,7 +19222,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR86">
         <v>1.89</v>
@@ -19547,7 +19553,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -20037,7 +20043,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ90">
         <v>0.67</v>
@@ -20165,7 +20171,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20246,7 +20252,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ91">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20658,7 +20664,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ93">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR93">
         <v>1.58</v>
@@ -20783,7 +20789,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20989,7 +20995,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -21273,7 +21279,7 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ96">
         <v>0.68</v>
@@ -21401,7 +21407,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q97">
         <v>5.1</v>
@@ -21685,7 +21691,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ98">
         <v>0.5600000000000001</v>
@@ -21813,7 +21819,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -22019,7 +22025,7 @@
         <v>89</v>
       </c>
       <c r="P100" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q100">
         <v>2.48</v>
@@ -22225,7 +22231,7 @@
         <v>158</v>
       </c>
       <c r="P101" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q101">
         <v>2.65</v>
@@ -22303,7 +22309,7 @@
         <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ101">
         <v>1.37</v>
@@ -22431,7 +22437,7 @@
         <v>89</v>
       </c>
       <c r="P102" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22718,7 +22724,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ103">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR103">
         <v>1.38</v>
@@ -23049,7 +23055,7 @@
         <v>117</v>
       </c>
       <c r="P105" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23255,7 +23261,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q106">
         <v>3.05</v>
@@ -23539,7 +23545,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ107">
         <v>0.68</v>
@@ -23667,7 +23673,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q108">
         <v>2.95</v>
@@ -24160,7 +24166,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ110">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR110">
         <v>1.88</v>
@@ -24285,7 +24291,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24366,7 +24372,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ111">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR111">
         <v>1.95</v>
@@ -24569,7 +24575,7 @@
         <v>1.57</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ112">
         <v>1.53</v>
@@ -24981,7 +24987,7 @@
         <v>0.86</v>
       </c>
       <c r="AP114">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ114">
         <v>1.21</v>
@@ -25315,7 +25321,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -25727,7 +25733,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25805,7 +25811,7 @@
         <v>2.5</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ118">
         <v>2.06</v>
@@ -26139,7 +26145,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q120">
         <v>1.91</v>
@@ -26345,7 +26351,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26426,7 +26432,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR121">
         <v>1.08</v>
@@ -26551,7 +26557,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q122">
         <v>4.1</v>
@@ -27247,10 +27253,10 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ125">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR125">
         <v>1.9</v>
@@ -27375,7 +27381,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27581,7 +27587,7 @@
         <v>89</v>
       </c>
       <c r="P127" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27993,7 +27999,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28074,7 +28080,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ129">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR129">
         <v>2</v>
@@ -28199,7 +28205,7 @@
         <v>106</v>
       </c>
       <c r="P130" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -28405,7 +28411,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28689,10 +28695,10 @@
         <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ132">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR132">
         <v>1.38</v>
@@ -28895,7 +28901,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ133">
         <v>0.67</v>
@@ -29229,7 +29235,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q135">
         <v>5.5</v>
@@ -29435,7 +29441,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q136">
         <v>1.85</v>
@@ -29641,7 +29647,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q137">
         <v>4.6</v>
@@ -30053,7 +30059,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30134,7 +30140,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ139">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR139">
         <v>1.26</v>
@@ -30958,7 +30964,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ143">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR143">
         <v>1.99</v>
@@ -31083,7 +31089,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31161,7 +31167,7 @@
         <v>1.67</v>
       </c>
       <c r="AP144">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ144">
         <v>1.53</v>
@@ -31985,10 +31991,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP148">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ148">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -32113,7 +32119,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q149">
         <v>6.2</v>
@@ -32319,7 +32325,7 @@
         <v>106</v>
       </c>
       <c r="P150" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q150">
         <v>8.119999999999999</v>
@@ -32525,7 +32531,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q151">
         <v>1.82</v>
@@ -32603,7 +32609,7 @@
         <v>1.11</v>
       </c>
       <c r="AP151">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ151">
         <v>0.72</v>
@@ -32809,7 +32815,7 @@
         <v>0.33</v>
       </c>
       <c r="AP152">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ152">
         <v>0.89</v>
@@ -33555,7 +33561,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q156">
         <v>5.75</v>
@@ -34460,7 +34466,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ160">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR160">
         <v>1.47</v>
@@ -34666,7 +34672,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ161">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR161">
         <v>1.66</v>
@@ -34791,7 +34797,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q162">
         <v>1.91</v>
@@ -34869,10 +34875,10 @@
         <v>0.8</v>
       </c>
       <c r="AP162">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ162">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR162">
         <v>1.83</v>
@@ -34997,7 +35003,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35078,7 +35084,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ163">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR163">
         <v>2.06</v>
@@ -35615,7 +35621,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35693,7 +35699,7 @@
         <v>0.3</v>
       </c>
       <c r="AP166">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ166">
         <v>0.89</v>
@@ -35821,7 +35827,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>1.8</v>
@@ -36233,7 +36239,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36439,7 +36445,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="Q170">
         <v>2.1</v>
@@ -36726,7 +36732,7 @@
         <v>1</v>
       </c>
       <c r="AQ171">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR171">
         <v>1.2</v>
@@ -36851,7 +36857,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q172">
         <v>1.87</v>
@@ -36929,7 +36935,7 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ172">
         <v>0.72</v>
@@ -37057,7 +37063,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37341,7 +37347,7 @@
         <v>1.7</v>
       </c>
       <c r="AP174">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ174">
         <v>1.37</v>
@@ -37675,7 +37681,7 @@
         <v>210</v>
       </c>
       <c r="P176" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -38087,7 +38093,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -38168,7 +38174,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ178">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR178">
         <v>1.35</v>
@@ -38293,7 +38299,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q179">
         <v>1.44</v>
@@ -38911,7 +38917,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q182">
         <v>1.55</v>
@@ -39323,7 +39329,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39607,7 +39613,7 @@
         <v>1.6</v>
       </c>
       <c r="AP185">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ185">
         <v>1.53</v>
@@ -39735,7 +39741,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -40147,7 +40153,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q188">
         <v>2.45</v>
@@ -40228,7 +40234,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ188">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR188">
         <v>1.34</v>
@@ -40637,7 +40643,7 @@
         <v>1.55</v>
       </c>
       <c r="AP190">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ190">
         <v>1.63</v>
@@ -40846,7 +40852,7 @@
         <v>1</v>
       </c>
       <c r="AQ191">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR191">
         <v>1.17</v>
@@ -41461,7 +41467,7 @@
         <v>0.5</v>
       </c>
       <c r="AP194">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ194">
         <v>0.72</v>
@@ -41670,7 +41676,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ195">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR195">
         <v>1.31</v>
@@ -41795,7 +41801,7 @@
         <v>223</v>
       </c>
       <c r="P196" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q196">
         <v>1.72</v>
@@ -42207,7 +42213,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q198">
         <v>5.32</v>
@@ -42619,7 +42625,7 @@
         <v>167</v>
       </c>
       <c r="P200" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q200">
         <v>3.95</v>
@@ -42825,7 +42831,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -42903,10 +42909,10 @@
         <v>1.17</v>
       </c>
       <c r="AP201">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ201">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR201">
         <v>1.84</v>
@@ -43649,7 +43655,7 @@
         <v>89</v>
       </c>
       <c r="P205" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q205">
         <v>2.13</v>
@@ -43727,10 +43733,10 @@
         <v>1.17</v>
       </c>
       <c r="AP205">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ205">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR205">
         <v>1.85</v>
@@ -44061,7 +44067,7 @@
         <v>186</v>
       </c>
       <c r="P207" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q207">
         <v>7</v>
@@ -44267,7 +44273,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q208">
         <v>2.2</v>
@@ -44473,7 +44479,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44679,7 +44685,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q210">
         <v>4.3</v>
@@ -44966,7 +44972,7 @@
         <v>1</v>
       </c>
       <c r="AQ211">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR211">
         <v>1.28</v>
@@ -45169,7 +45175,7 @@
         <v>1</v>
       </c>
       <c r="AP212">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ212">
         <v>0.72</v>
@@ -45503,7 +45509,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q214">
         <v>2.25</v>
@@ -45709,7 +45715,7 @@
         <v>232</v>
       </c>
       <c r="P215" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q215">
         <v>2.88</v>
@@ -45787,7 +45793,7 @@
         <v>1.23</v>
       </c>
       <c r="AP215">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ215">
         <v>1.21</v>
@@ -45915,7 +45921,7 @@
         <v>233</v>
       </c>
       <c r="P216" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -46121,7 +46127,7 @@
         <v>89</v>
       </c>
       <c r="P217" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -46202,7 +46208,7 @@
         <v>1</v>
       </c>
       <c r="AQ217">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR217">
         <v>1.2</v>
@@ -46533,7 +46539,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q219">
         <v>2.3</v>
@@ -46614,7 +46620,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ219">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR219">
         <v>1.7</v>
@@ -46739,7 +46745,7 @@
         <v>89</v>
       </c>
       <c r="P220" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q220">
         <v>5.91</v>
@@ -46945,7 +46951,7 @@
         <v>235</v>
       </c>
       <c r="P221" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q221">
         <v>3.4</v>
@@ -47151,7 +47157,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q222">
         <v>3.1</v>
@@ -47435,7 +47441,7 @@
         <v>0.92</v>
       </c>
       <c r="AP223">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ223">
         <v>0.89</v>
@@ -47769,7 +47775,7 @@
         <v>237</v>
       </c>
       <c r="P225" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q225">
         <v>3.1</v>
@@ -48468,7 +48474,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ228">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR228">
         <v>1.48</v>
@@ -48593,7 +48599,7 @@
         <v>89</v>
       </c>
       <c r="P229" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -49086,7 +49092,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ231">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR231">
         <v>1.83</v>
@@ -49211,7 +49217,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49829,7 +49835,7 @@
         <v>89</v>
       </c>
       <c r="P235" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="Q235">
         <v>1.7</v>
@@ -50113,7 +50119,7 @@
         <v>1.5</v>
       </c>
       <c r="AP236">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ236">
         <v>1.63</v>
@@ -50319,7 +50325,7 @@
         <v>2.36</v>
       </c>
       <c r="AP237">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ237">
         <v>2.06</v>
@@ -50525,7 +50531,7 @@
         <v>0.5</v>
       </c>
       <c r="AP238">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ238">
         <v>0.89</v>
@@ -50734,7 +50740,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ239">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR239">
         <v>1.28</v>
@@ -51271,7 +51277,7 @@
         <v>246</v>
       </c>
       <c r="P242" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q242">
         <v>2.25</v>
@@ -51349,7 +51355,7 @@
         <v>0.73</v>
       </c>
       <c r="AP242">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ242">
         <v>0.68</v>
@@ -51477,7 +51483,7 @@
         <v>247</v>
       </c>
       <c r="P243" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q243">
         <v>3.3</v>
@@ -51558,7 +51564,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ243">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR243">
         <v>1.29</v>
@@ -51967,7 +51973,7 @@
         <v>0.87</v>
       </c>
       <c r="AP245">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ245">
         <v>0.72</v>
@@ -52507,7 +52513,7 @@
         <v>250</v>
       </c>
       <c r="P248" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q248">
         <v>2.66</v>
@@ -53000,7 +53006,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ250">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR250">
         <v>1.36</v>
@@ -53203,7 +53209,7 @@
         <v>1.53</v>
       </c>
       <c r="AP251">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ251">
         <v>1.37</v>
@@ -53331,7 +53337,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q252">
         <v>2.25</v>
@@ -53412,7 +53418,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ252">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR252">
         <v>1.89</v>
@@ -53537,7 +53543,7 @@
         <v>118</v>
       </c>
       <c r="P253" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53949,7 +53955,7 @@
         <v>89</v>
       </c>
       <c r="P255" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -54155,7 +54161,7 @@
         <v>253</v>
       </c>
       <c r="P256" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q256">
         <v>2.7</v>
@@ -54233,7 +54239,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP256">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ256">
         <v>0.68</v>
@@ -54567,7 +54573,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q258">
         <v>2.38</v>
@@ -54773,7 +54779,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q259">
         <v>2.32</v>
@@ -54854,7 +54860,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ259">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR259">
         <v>1.83</v>
@@ -55185,7 +55191,7 @@
         <v>257</v>
       </c>
       <c r="P261" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q261">
         <v>3.4</v>
@@ -56009,7 +56015,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q265">
         <v>3.1</v>
@@ -56215,7 +56221,7 @@
         <v>262</v>
       </c>
       <c r="P266" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56293,10 +56299,10 @@
         <v>1.44</v>
       </c>
       <c r="AP266">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ266">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR266">
         <v>1.87</v>
@@ -56421,7 +56427,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q267">
         <v>2.6</v>
@@ -56833,7 +56839,7 @@
         <v>264</v>
       </c>
       <c r="P269" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q269">
         <v>2.7</v>
@@ -57039,7 +57045,7 @@
         <v>101</v>
       </c>
       <c r="P270" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q270">
         <v>2.85</v>
@@ -57451,7 +57457,7 @@
         <v>89</v>
       </c>
       <c r="P272" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q272">
         <v>4.33</v>
@@ -57529,7 +57535,7 @@
         <v>1.35</v>
       </c>
       <c r="AP272">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AQ272">
         <v>1.53</v>
@@ -57738,7 +57744,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ273">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AR273">
         <v>1.38</v>
@@ -57863,7 +57869,7 @@
         <v>114</v>
       </c>
       <c r="P274" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q274">
         <v>2.7</v>
@@ -57944,7 +57950,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ274">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR274">
         <v>1.4</v>
@@ -58150,7 +58156,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ275">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR275">
         <v>1.59</v>
@@ -58481,7 +58487,7 @@
         <v>89</v>
       </c>
       <c r="P277" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q277">
         <v>3.3</v>
@@ -58559,7 +58565,7 @@
         <v>2</v>
       </c>
       <c r="AP277">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ277">
         <v>2.06</v>
@@ -58687,7 +58693,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q278">
         <v>3.45</v>
@@ -58974,7 +58980,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ279">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AR279">
         <v>1.65</v>
@@ -59099,7 +59105,7 @@
         <v>269</v>
       </c>
       <c r="P280" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q280">
         <v>2.9</v>
@@ -59305,7 +59311,7 @@
         <v>270</v>
       </c>
       <c r="P281" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q281">
         <v>1.83</v>
@@ -59383,7 +59389,7 @@
         <v>0.76</v>
       </c>
       <c r="AP281">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ281">
         <v>0.72</v>
@@ -59511,7 +59517,7 @@
         <v>89</v>
       </c>
       <c r="P282" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q282">
         <v>3.44</v>
@@ -59923,7 +59929,7 @@
         <v>271</v>
       </c>
       <c r="P284" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q284">
         <v>2.25</v>
@@ -60129,7 +60135,7 @@
         <v>89</v>
       </c>
       <c r="P285" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q285">
         <v>2.95</v>
@@ -60335,7 +60341,7 @@
         <v>272</v>
       </c>
       <c r="P286" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q286">
         <v>2.95</v>
@@ -60541,7 +60547,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q287">
         <v>3.25</v>
@@ -60747,7 +60753,7 @@
         <v>273</v>
       </c>
       <c r="P288" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q288">
         <v>3.65</v>
@@ -61159,7 +61165,7 @@
         <v>130</v>
       </c>
       <c r="P290" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q290">
         <v>4.2</v>
@@ -61237,7 +61243,7 @@
         <v>1.56</v>
       </c>
       <c r="AP290">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ290">
         <v>1.63</v>
@@ -61365,7 +61371,7 @@
         <v>275</v>
       </c>
       <c r="P291" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q291">
         <v>2.88</v>
@@ -62189,7 +62195,7 @@
         <v>278</v>
       </c>
       <c r="P295" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q295">
         <v>2.8</v>
@@ -62395,7 +62401,7 @@
         <v>279</v>
       </c>
       <c r="P296" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q296">
         <v>2.55</v>
@@ -62552,6 +62558,624 @@
       </c>
       <c r="BP296">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7389483</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45424.35416666666</v>
+      </c>
+      <c r="F297">
+        <v>8</v>
+      </c>
+      <c r="G297" t="s">
+        <v>75</v>
+      </c>
+      <c r="H297" t="s">
+        <v>81</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297">
+        <v>1</v>
+      </c>
+      <c r="O297" t="s">
+        <v>89</v>
+      </c>
+      <c r="P297" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q297">
+        <v>1.78</v>
+      </c>
+      <c r="R297">
+        <v>2.75</v>
+      </c>
+      <c r="S297">
+        <v>5.75</v>
+      </c>
+      <c r="T297">
+        <v>1.2</v>
+      </c>
+      <c r="U297">
+        <v>4</v>
+      </c>
+      <c r="V297">
+        <v>1.95</v>
+      </c>
+      <c r="W297">
+        <v>1.75</v>
+      </c>
+      <c r="X297">
+        <v>3.8</v>
+      </c>
+      <c r="Y297">
+        <v>1.22</v>
+      </c>
+      <c r="Z297">
+        <v>1.36</v>
+      </c>
+      <c r="AA297">
+        <v>5</v>
+      </c>
+      <c r="AB297">
+        <v>6.25</v>
+      </c>
+      <c r="AC297">
+        <v>1.01</v>
+      </c>
+      <c r="AD297">
+        <v>28.5</v>
+      </c>
+      <c r="AE297">
+        <v>1.09</v>
+      </c>
+      <c r="AF297">
+        <v>6</v>
+      </c>
+      <c r="AG297">
+        <v>1.36</v>
+      </c>
+      <c r="AH297">
+        <v>2.9</v>
+      </c>
+      <c r="AI297">
+        <v>1.55</v>
+      </c>
+      <c r="AJ297">
+        <v>2.3</v>
+      </c>
+      <c r="AK297">
+        <v>1.05</v>
+      </c>
+      <c r="AL297">
+        <v>1.16</v>
+      </c>
+      <c r="AM297">
+        <v>3</v>
+      </c>
+      <c r="AN297">
+        <v>2</v>
+      </c>
+      <c r="AO297">
+        <v>0.67</v>
+      </c>
+      <c r="AP297">
+        <v>1.89</v>
+      </c>
+      <c r="AQ297">
+        <v>0.79</v>
+      </c>
+      <c r="AR297">
+        <v>1.84</v>
+      </c>
+      <c r="AS297">
+        <v>1.33</v>
+      </c>
+      <c r="AT297">
+        <v>3.17</v>
+      </c>
+      <c r="AU297">
+        <v>3</v>
+      </c>
+      <c r="AV297">
+        <v>5</v>
+      </c>
+      <c r="AW297">
+        <v>3</v>
+      </c>
+      <c r="AX297">
+        <v>2</v>
+      </c>
+      <c r="AY297">
+        <v>6</v>
+      </c>
+      <c r="AZ297">
+        <v>7</v>
+      </c>
+      <c r="BA297">
+        <v>10</v>
+      </c>
+      <c r="BB297">
+        <v>1</v>
+      </c>
+      <c r="BC297">
+        <v>11</v>
+      </c>
+      <c r="BD297">
+        <v>1.25</v>
+      </c>
+      <c r="BE297">
+        <v>9</v>
+      </c>
+      <c r="BF297">
+        <v>4.75</v>
+      </c>
+      <c r="BG297">
+        <v>1.1</v>
+      </c>
+      <c r="BH297">
+        <v>5.35</v>
+      </c>
+      <c r="BI297">
+        <v>1.23</v>
+      </c>
+      <c r="BJ297">
+        <v>3.56</v>
+      </c>
+      <c r="BK297">
+        <v>1.55</v>
+      </c>
+      <c r="BL297">
+        <v>2.32</v>
+      </c>
+      <c r="BM297">
+        <v>2</v>
+      </c>
+      <c r="BN297">
+        <v>1.8</v>
+      </c>
+      <c r="BO297">
+        <v>2.45</v>
+      </c>
+      <c r="BP297">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7389484</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45424.45833333334</v>
+      </c>
+      <c r="F298">
+        <v>8</v>
+      </c>
+      <c r="G298" t="s">
+        <v>77</v>
+      </c>
+      <c r="H298" t="s">
+        <v>83</v>
+      </c>
+      <c r="I298">
+        <v>2</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+      <c r="K298">
+        <v>3</v>
+      </c>
+      <c r="L298">
+        <v>2</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+      <c r="N298">
+        <v>3</v>
+      </c>
+      <c r="O298" t="s">
+        <v>280</v>
+      </c>
+      <c r="P298" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q298">
+        <v>2.8</v>
+      </c>
+      <c r="R298">
+        <v>2.38</v>
+      </c>
+      <c r="S298">
+        <v>3.1</v>
+      </c>
+      <c r="T298">
+        <v>1.29</v>
+      </c>
+      <c r="U298">
+        <v>3.3</v>
+      </c>
+      <c r="V298">
+        <v>2.25</v>
+      </c>
+      <c r="W298">
+        <v>1.57</v>
+      </c>
+      <c r="X298">
+        <v>5</v>
+      </c>
+      <c r="Y298">
+        <v>1.13</v>
+      </c>
+      <c r="Z298">
+        <v>2.4</v>
+      </c>
+      <c r="AA298">
+        <v>3.4</v>
+      </c>
+      <c r="AB298">
+        <v>2.62</v>
+      </c>
+      <c r="AC298">
+        <v>1.01</v>
+      </c>
+      <c r="AD298">
+        <v>12</v>
+      </c>
+      <c r="AE298">
+        <v>1.17</v>
+      </c>
+      <c r="AF298">
+        <v>4.5</v>
+      </c>
+      <c r="AG298">
+        <v>1.61</v>
+      </c>
+      <c r="AH298">
+        <v>2.05</v>
+      </c>
+      <c r="AI298">
+        <v>1.5</v>
+      </c>
+      <c r="AJ298">
+        <v>2.4</v>
+      </c>
+      <c r="AK298">
+        <v>1.45</v>
+      </c>
+      <c r="AL298">
+        <v>1.3</v>
+      </c>
+      <c r="AM298">
+        <v>1.55</v>
+      </c>
+      <c r="AN298">
+        <v>1.78</v>
+      </c>
+      <c r="AO298">
+        <v>1.33</v>
+      </c>
+      <c r="AP298">
+        <v>1.84</v>
+      </c>
+      <c r="AQ298">
+        <v>1.26</v>
+      </c>
+      <c r="AR298">
+        <v>1.64</v>
+      </c>
+      <c r="AS298">
+        <v>1.28</v>
+      </c>
+      <c r="AT298">
+        <v>2.92</v>
+      </c>
+      <c r="AU298">
+        <v>6</v>
+      </c>
+      <c r="AV298">
+        <v>4</v>
+      </c>
+      <c r="AW298">
+        <v>3</v>
+      </c>
+      <c r="AX298">
+        <v>4</v>
+      </c>
+      <c r="AY298">
+        <v>9</v>
+      </c>
+      <c r="AZ298">
+        <v>8</v>
+      </c>
+      <c r="BA298">
+        <v>2</v>
+      </c>
+      <c r="BB298">
+        <v>1</v>
+      </c>
+      <c r="BC298">
+        <v>3</v>
+      </c>
+      <c r="BD298">
+        <v>1.79</v>
+      </c>
+      <c r="BE298">
+        <v>7</v>
+      </c>
+      <c r="BF298">
+        <v>2.4</v>
+      </c>
+      <c r="BG298">
+        <v>1.19</v>
+      </c>
+      <c r="BH298">
+        <v>3.9</v>
+      </c>
+      <c r="BI298">
+        <v>1.42</v>
+      </c>
+      <c r="BJ298">
+        <v>2.65</v>
+      </c>
+      <c r="BK298">
+        <v>1.73</v>
+      </c>
+      <c r="BL298">
+        <v>2</v>
+      </c>
+      <c r="BM298">
+        <v>2.2</v>
+      </c>
+      <c r="BN298">
+        <v>1.61</v>
+      </c>
+      <c r="BO298">
+        <v>2.79</v>
+      </c>
+      <c r="BP298">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7389485</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45424.5625</v>
+      </c>
+      <c r="F299">
+        <v>8</v>
+      </c>
+      <c r="G299" t="s">
+        <v>74</v>
+      </c>
+      <c r="H299" t="s">
+        <v>80</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>2</v>
+      </c>
+      <c r="K299">
+        <v>2</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299">
+        <v>2</v>
+      </c>
+      <c r="N299">
+        <v>3</v>
+      </c>
+      <c r="O299" t="s">
+        <v>281</v>
+      </c>
+      <c r="P299" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q299">
+        <v>2.7</v>
+      </c>
+      <c r="R299">
+        <v>2.25</v>
+      </c>
+      <c r="S299">
+        <v>3.5</v>
+      </c>
+      <c r="T299">
+        <v>1.33</v>
+      </c>
+      <c r="U299">
+        <v>3</v>
+      </c>
+      <c r="V299">
+        <v>2.4</v>
+      </c>
+      <c r="W299">
+        <v>1.5</v>
+      </c>
+      <c r="X299">
+        <v>5.5</v>
+      </c>
+      <c r="Y299">
+        <v>1.11</v>
+      </c>
+      <c r="Z299">
+        <v>2.25</v>
+      </c>
+      <c r="AA299">
+        <v>3.48</v>
+      </c>
+      <c r="AB299">
+        <v>3.1</v>
+      </c>
+      <c r="AC299">
+        <v>1.02</v>
+      </c>
+      <c r="AD299">
+        <v>10</v>
+      </c>
+      <c r="AE299">
+        <v>1.22</v>
+      </c>
+      <c r="AF299">
+        <v>3.8</v>
+      </c>
+      <c r="AG299">
+        <v>1.74</v>
+      </c>
+      <c r="AH299">
+        <v>2.09</v>
+      </c>
+      <c r="AI299">
+        <v>1.57</v>
+      </c>
+      <c r="AJ299">
+        <v>2.25</v>
+      </c>
+      <c r="AK299">
+        <v>1.4</v>
+      </c>
+      <c r="AL299">
+        <v>1.29</v>
+      </c>
+      <c r="AM299">
+        <v>1.65</v>
+      </c>
+      <c r="AN299">
+        <v>1.78</v>
+      </c>
+      <c r="AO299">
+        <v>1.39</v>
+      </c>
+      <c r="AP299">
+        <v>1.68</v>
+      </c>
+      <c r="AQ299">
+        <v>1.47</v>
+      </c>
+      <c r="AR299">
+        <v>1.73</v>
+      </c>
+      <c r="AS299">
+        <v>1.56</v>
+      </c>
+      <c r="AT299">
+        <v>3.29</v>
+      </c>
+      <c r="AU299">
+        <v>4</v>
+      </c>
+      <c r="AV299">
+        <v>4</v>
+      </c>
+      <c r="AW299">
+        <v>6</v>
+      </c>
+      <c r="AX299">
+        <v>6</v>
+      </c>
+      <c r="AY299">
+        <v>10</v>
+      </c>
+      <c r="AZ299">
+        <v>10</v>
+      </c>
+      <c r="BA299">
+        <v>6</v>
+      </c>
+      <c r="BB299">
+        <v>2</v>
+      </c>
+      <c r="BC299">
+        <v>8</v>
+      </c>
+      <c r="BD299">
+        <v>1.87</v>
+      </c>
+      <c r="BE299">
+        <v>7</v>
+      </c>
+      <c r="BF299">
+        <v>2.28</v>
+      </c>
+      <c r="BG299">
+        <v>1.22</v>
+      </c>
+      <c r="BH299">
+        <v>3.65</v>
+      </c>
+      <c r="BI299">
+        <v>1.42</v>
+      </c>
+      <c r="BJ299">
+        <v>2.65</v>
+      </c>
+      <c r="BK299">
+        <v>1.73</v>
+      </c>
+      <c r="BL299">
+        <v>2</v>
+      </c>
+      <c r="BM299">
+        <v>2.2</v>
+      </c>
+      <c r="BN299">
+        <v>1.61</v>
+      </c>
+      <c r="BO299">
+        <v>2.98</v>
+      </c>
+      <c r="BP299">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="403">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1584,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP300"/>
+  <dimension ref="A1:BP301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2336,7 +2336,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ4">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
         <v>0.68</v>
@@ -5632,7 +5632,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ20">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>1.2</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
         <v>1.53</v>
@@ -8722,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR35">
         <v>1.18</v>
@@ -9131,7 +9131,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
         <v>1.47</v>
@@ -12633,7 +12633,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ54">
         <v>1.26</v>
@@ -13254,7 +13254,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ57">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR57">
         <v>1.54</v>
@@ -16962,7 +16962,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ75">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -18195,7 +18195,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ81">
         <v>2</v>
@@ -20049,7 +20049,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ90">
         <v>0.67</v>
@@ -20670,7 +20670,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ93">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR93">
         <v>1.58</v>
@@ -21697,7 +21697,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ98">
         <v>0.5600000000000001</v>
@@ -24378,7 +24378,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ111">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>1.95</v>
@@ -24993,7 +24993,7 @@
         <v>0.86</v>
       </c>
       <c r="AP114">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ114">
         <v>1.21</v>
@@ -27262,7 +27262,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ125">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR125">
         <v>1.9</v>
@@ -28701,10 +28701,10 @@
         <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ132">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR132">
         <v>1.38</v>
@@ -32000,7 +32000,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ148">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -32821,7 +32821,7 @@
         <v>0.33</v>
       </c>
       <c r="AP152">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ152">
         <v>0.89</v>
@@ -36738,7 +36738,7 @@
         <v>1</v>
       </c>
       <c r="AQ171">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR171">
         <v>1.2</v>
@@ -37353,7 +37353,7 @@
         <v>1.7</v>
       </c>
       <c r="AP174">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ174">
         <v>1.37</v>
@@ -39619,7 +39619,7 @@
         <v>1.6</v>
       </c>
       <c r="AP185">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ185">
         <v>1.53</v>
@@ -40240,7 +40240,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ188">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR188">
         <v>1.34</v>
@@ -41473,7 +41473,7 @@
         <v>0.5</v>
       </c>
       <c r="AP194">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ194">
         <v>0.72</v>
@@ -41682,7 +41682,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ195">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR195">
         <v>1.31</v>
@@ -44978,7 +44978,7 @@
         <v>1</v>
       </c>
       <c r="AQ211">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR211">
         <v>1.28</v>
@@ -45181,7 +45181,7 @@
         <v>1</v>
       </c>
       <c r="AP212">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ212">
         <v>0.72</v>
@@ -49098,7 +49098,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ231">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR231">
         <v>1.83</v>
@@ -50125,7 +50125,7 @@
         <v>1.5</v>
       </c>
       <c r="AP236">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ236">
         <v>1.63</v>
@@ -51979,7 +51979,7 @@
         <v>0.87</v>
       </c>
       <c r="AP245">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ245">
         <v>0.72</v>
@@ -53012,7 +53012,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ250">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR250">
         <v>1.36</v>
@@ -54245,7 +54245,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP256">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ256">
         <v>0.68</v>
@@ -57541,7 +57541,7 @@
         <v>1.35</v>
       </c>
       <c r="AP272">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ272">
         <v>1.53</v>
@@ -57956,7 +57956,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ274">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR274">
         <v>1.4</v>
@@ -58986,7 +58986,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ279">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR279">
         <v>1.65</v>
@@ -62694,7 +62694,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ297">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR297">
         <v>1.84</v>
@@ -62897,7 +62897,7 @@
         <v>1.33</v>
       </c>
       <c r="AP298">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AQ298">
         <v>1.26</v>
@@ -63388,6 +63388,212 @@
       </c>
       <c r="BP300">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7389487</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45429.65625</v>
+      </c>
+      <c r="F301">
+        <v>9</v>
+      </c>
+      <c r="G301" t="s">
+        <v>77</v>
+      </c>
+      <c r="H301" t="s">
+        <v>81</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>1</v>
+      </c>
+      <c r="M301">
+        <v>1</v>
+      </c>
+      <c r="N301">
+        <v>2</v>
+      </c>
+      <c r="O301" t="s">
+        <v>106</v>
+      </c>
+      <c r="P301" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q301">
+        <v>2.5</v>
+      </c>
+      <c r="R301">
+        <v>2.2</v>
+      </c>
+      <c r="S301">
+        <v>3.75</v>
+      </c>
+      <c r="T301">
+        <v>1.3</v>
+      </c>
+      <c r="U301">
+        <v>3.2</v>
+      </c>
+      <c r="V301">
+        <v>2.35</v>
+      </c>
+      <c r="W301">
+        <v>1.53</v>
+      </c>
+      <c r="X301">
+        <v>5.6</v>
+      </c>
+      <c r="Y301">
+        <v>1.12</v>
+      </c>
+      <c r="Z301">
+        <v>2</v>
+      </c>
+      <c r="AA301">
+        <v>3.4</v>
+      </c>
+      <c r="AB301">
+        <v>3.1</v>
+      </c>
+      <c r="AC301">
+        <v>1.04</v>
+      </c>
+      <c r="AD301">
+        <v>10</v>
+      </c>
+      <c r="AE301">
+        <v>1.2</v>
+      </c>
+      <c r="AF301">
+        <v>4.52</v>
+      </c>
+      <c r="AG301">
+        <v>1.7</v>
+      </c>
+      <c r="AH301">
+        <v>2.05</v>
+      </c>
+      <c r="AI301">
+        <v>1.5</v>
+      </c>
+      <c r="AJ301">
+        <v>2.35</v>
+      </c>
+      <c r="AK301">
+        <v>1.3</v>
+      </c>
+      <c r="AL301">
+        <v>1.25</v>
+      </c>
+      <c r="AM301">
+        <v>1.75</v>
+      </c>
+      <c r="AN301">
+        <v>1.84</v>
+      </c>
+      <c r="AO301">
+        <v>0.79</v>
+      </c>
+      <c r="AP301">
+        <v>1.8</v>
+      </c>
+      <c r="AQ301">
+        <v>0.8</v>
+      </c>
+      <c r="AR301">
+        <v>1.62</v>
+      </c>
+      <c r="AS301">
+        <v>1.31</v>
+      </c>
+      <c r="AT301">
+        <v>2.93</v>
+      </c>
+      <c r="AU301">
+        <v>4</v>
+      </c>
+      <c r="AV301">
+        <v>3</v>
+      </c>
+      <c r="AW301">
+        <v>6</v>
+      </c>
+      <c r="AX301">
+        <v>6</v>
+      </c>
+      <c r="AY301">
+        <v>10</v>
+      </c>
+      <c r="AZ301">
+        <v>9</v>
+      </c>
+      <c r="BA301">
+        <v>2</v>
+      </c>
+      <c r="BB301">
+        <v>1</v>
+      </c>
+      <c r="BC301">
+        <v>3</v>
+      </c>
+      <c r="BD301">
+        <v>1.7</v>
+      </c>
+      <c r="BE301">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF301">
+        <v>2.65</v>
+      </c>
+      <c r="BG301">
+        <v>1.25</v>
+      </c>
+      <c r="BH301">
+        <v>3.8</v>
+      </c>
+      <c r="BI301">
+        <v>1.42</v>
+      </c>
+      <c r="BJ301">
+        <v>2.7</v>
+      </c>
+      <c r="BK301">
+        <v>1.7</v>
+      </c>
+      <c r="BL301">
+        <v>2.1</v>
+      </c>
+      <c r="BM301">
+        <v>2.1</v>
+      </c>
+      <c r="BN301">
+        <v>1.67</v>
+      </c>
+      <c r="BO301">
+        <v>2.7</v>
+      </c>
+      <c r="BP301">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="404">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1224,6 +1224,9 @@
   <si>
     <t>['48', '84']</t>
   </si>
+  <si>
+    <t>['25', '90']</t>
+  </si>
 </sst>
 </file>
 
@@ -1584,7 +1587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP301"/>
+  <dimension ref="A1:BP302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3160,7 +3163,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ8">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -4805,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1.63</v>
@@ -5426,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR19">
         <v>1.34</v>
@@ -6659,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>1.53</v>
@@ -8513,10 +8516,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR34">
         <v>1.29</v>
@@ -11191,7 +11194,7 @@
         <v>0.67</v>
       </c>
       <c r="AP47">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.21</v>
@@ -12636,7 +12639,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ54">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -17165,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
         <v>0.72</v>
@@ -17374,7 +17377,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ77">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR77">
         <v>1.51</v>
@@ -19228,7 +19231,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ86">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR86">
         <v>1.89</v>
@@ -21079,7 +21082,7 @@
         <v>2.4</v>
       </c>
       <c r="AP95">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>2</v>
@@ -22730,7 +22733,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ103">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR103">
         <v>1.38</v>
@@ -23345,7 +23348,7 @@
         <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>0.89</v>
@@ -26438,7 +26441,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR121">
         <v>1.08</v>
@@ -26641,7 +26644,7 @@
         <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
         <v>1.53</v>
@@ -29937,7 +29940,7 @@
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ138">
         <v>0.5600000000000001</v>
@@ -30970,7 +30973,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ143">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR143">
         <v>1.99</v>
@@ -33851,7 +33854,7 @@
         <v>0.89</v>
       </c>
       <c r="AP157">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ157">
         <v>0.67</v>
@@ -34472,7 +34475,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ160">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR160">
         <v>1.47</v>
@@ -34884,7 +34887,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ162">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR162">
         <v>1.83</v>
@@ -38177,7 +38180,7 @@
         <v>1.27</v>
       </c>
       <c r="AP178">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ178">
         <v>1.47</v>
@@ -40237,7 +40240,7 @@
         <v>0.55</v>
       </c>
       <c r="AP188">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ188">
         <v>0.8</v>
@@ -40858,7 +40861,7 @@
         <v>1</v>
       </c>
       <c r="AQ191">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR191">
         <v>1.17</v>
@@ -43121,7 +43124,7 @@
         <v>0.92</v>
       </c>
       <c r="AP202">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ202">
         <v>0.68</v>
@@ -43742,7 +43745,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ205">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR205">
         <v>1.85</v>
@@ -46417,7 +46420,7 @@
         <v>0.31</v>
       </c>
       <c r="AP218">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ218">
         <v>0.89</v>
@@ -46626,7 +46629,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ219">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR219">
         <v>1.7</v>
@@ -50746,7 +50749,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ239">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR239">
         <v>1.28</v>
@@ -51155,7 +51158,7 @@
         <v>1.57</v>
       </c>
       <c r="AP241">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ241">
         <v>1.37</v>
@@ -51570,7 +51573,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ243">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR243">
         <v>1.29</v>
@@ -54039,7 +54042,7 @@
         <v>1.33</v>
       </c>
       <c r="AP255">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ255">
         <v>1.53</v>
@@ -56099,7 +56102,7 @@
         <v>0.71</v>
       </c>
       <c r="AP265">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ265">
         <v>0.68</v>
@@ -56308,7 +56311,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ266">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR266">
         <v>1.87</v>
@@ -57750,7 +57753,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ273">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR273">
         <v>1.38</v>
@@ -57953,7 +57956,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP274">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ274">
         <v>0.8</v>
@@ -60425,7 +60428,7 @@
         <v>0.89</v>
       </c>
       <c r="AP286">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AQ286">
         <v>0.89</v>
@@ -62900,7 +62903,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ298">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AR298">
         <v>1.64</v>
@@ -63594,6 +63597,212 @@
       </c>
       <c r="BP301">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7389488</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45430.55208333334</v>
+      </c>
+      <c r="F302">
+        <v>9</v>
+      </c>
+      <c r="G302" t="s">
+        <v>84</v>
+      </c>
+      <c r="H302" t="s">
+        <v>83</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>1</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <v>2</v>
+      </c>
+      <c r="N302">
+        <v>2</v>
+      </c>
+      <c r="O302" t="s">
+        <v>89</v>
+      </c>
+      <c r="P302" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q302">
+        <v>3</v>
+      </c>
+      <c r="R302">
+        <v>2.25</v>
+      </c>
+      <c r="S302">
+        <v>2.9</v>
+      </c>
+      <c r="T302">
+        <v>1.28</v>
+      </c>
+      <c r="U302">
+        <v>3.3</v>
+      </c>
+      <c r="V302">
+        <v>2.25</v>
+      </c>
+      <c r="W302">
+        <v>1.57</v>
+      </c>
+      <c r="X302">
+        <v>5.15</v>
+      </c>
+      <c r="Y302">
+        <v>1.14</v>
+      </c>
+      <c r="Z302">
+        <v>2.75</v>
+      </c>
+      <c r="AA302">
+        <v>3.55</v>
+      </c>
+      <c r="AB302">
+        <v>2.36</v>
+      </c>
+      <c r="AC302">
+        <v>1.04</v>
+      </c>
+      <c r="AD302">
+        <v>10</v>
+      </c>
+      <c r="AE302">
+        <v>1.18</v>
+      </c>
+      <c r="AF302">
+        <v>4.75</v>
+      </c>
+      <c r="AG302">
+        <v>1.55</v>
+      </c>
+      <c r="AH302">
+        <v>2.3</v>
+      </c>
+      <c r="AI302">
+        <v>1.44</v>
+      </c>
+      <c r="AJ302">
+        <v>2.55</v>
+      </c>
+      <c r="AK302">
+        <v>1.5</v>
+      </c>
+      <c r="AL302">
+        <v>1.25</v>
+      </c>
+      <c r="AM302">
+        <v>1.48</v>
+      </c>
+      <c r="AN302">
+        <v>1.05</v>
+      </c>
+      <c r="AO302">
+        <v>1.26</v>
+      </c>
+      <c r="AP302">
+        <v>1</v>
+      </c>
+      <c r="AQ302">
+        <v>1.35</v>
+      </c>
+      <c r="AR302">
+        <v>1.43</v>
+      </c>
+      <c r="AS302">
+        <v>1.27</v>
+      </c>
+      <c r="AT302">
+        <v>2.7</v>
+      </c>
+      <c r="AU302">
+        <v>2</v>
+      </c>
+      <c r="AV302">
+        <v>3</v>
+      </c>
+      <c r="AW302">
+        <v>3</v>
+      </c>
+      <c r="AX302">
+        <v>1</v>
+      </c>
+      <c r="AY302">
+        <v>5</v>
+      </c>
+      <c r="AZ302">
+        <v>4</v>
+      </c>
+      <c r="BA302">
+        <v>7</v>
+      </c>
+      <c r="BB302">
+        <v>2</v>
+      </c>
+      <c r="BC302">
+        <v>9</v>
+      </c>
+      <c r="BD302">
+        <v>2.05</v>
+      </c>
+      <c r="BE302">
+        <v>8</v>
+      </c>
+      <c r="BF302">
+        <v>1.95</v>
+      </c>
+      <c r="BG302">
+        <v>1.16</v>
+      </c>
+      <c r="BH302">
+        <v>4.33</v>
+      </c>
+      <c r="BI302">
+        <v>1.33</v>
+      </c>
+      <c r="BJ302">
+        <v>2.93</v>
+      </c>
+      <c r="BK302">
+        <v>1.65</v>
+      </c>
+      <c r="BL302">
+        <v>2.1</v>
+      </c>
+      <c r="BM302">
+        <v>2</v>
+      </c>
+      <c r="BN302">
+        <v>1.73</v>
+      </c>
+      <c r="BO302">
+        <v>2.5</v>
+      </c>
+      <c r="BP302">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="405">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -865,6 +865,9 @@
     <t>['57', '72']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['69', '90+1']</t>
   </si>
   <si>
@@ -902,9 +905,6 @@
   </si>
   <si>
     <t>['7', '13']</t>
-  </si>
-  <si>
-    <t>['17']</t>
   </si>
   <si>
     <t>['56', '60', '90+11']</t>
@@ -1226,6 +1226,9 @@
   </si>
   <si>
     <t>['25', '90']</t>
+  </si>
+  <si>
+    <t>['10', '66', '80', '87']</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP302"/>
+  <dimension ref="A1:BP303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2052,7 +2055,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -2464,7 +2467,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2876,7 +2879,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q7">
         <v>1.8</v>
@@ -3494,7 +3497,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3572,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -4112,7 +4115,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4605,7 +4608,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ15">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5554,7 +5557,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -5760,7 +5763,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q21">
         <v>3.92</v>
@@ -5966,7 +5969,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6172,7 +6175,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6584,7 +6587,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6665,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR25">
         <v>1.16</v>
@@ -6790,7 +6793,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6996,7 +6999,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7074,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ27">
         <v>1.47</v>
@@ -7614,7 +7617,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q30">
         <v>1.9</v>
@@ -8026,7 +8029,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="Q32">
         <v>1.67</v>
@@ -9262,7 +9265,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q38">
         <v>2.3</v>
@@ -10164,7 +10167,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ42">
         <v>0.67</v>
@@ -10704,7 +10707,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -12433,7 +12436,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ53">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -12842,7 +12845,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ55">
         <v>0.72</v>
@@ -14493,7 +14496,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ63">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR63">
         <v>1.84</v>
@@ -16553,7 +16556,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR73">
         <v>1.49</v>
@@ -17580,7 +17583,7 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ78">
         <v>1.63</v>
@@ -19437,7 +19440,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR87">
         <v>1.53</v>
@@ -19640,7 +19643,7 @@
         <v>1.6</v>
       </c>
       <c r="AP88">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ88">
         <v>1.53</v>
@@ -22730,7 +22733,7 @@
         <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ103">
         <v>1.35</v>
@@ -23145,7 +23148,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ105">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR105">
         <v>1.52</v>
@@ -25614,7 +25617,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ117">
         <v>1.37</v>
@@ -27471,7 +27474,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ126">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR126">
         <v>1.97</v>
@@ -30558,7 +30561,7 @@
         <v>0.25</v>
       </c>
       <c r="AP141">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ141">
         <v>0.89</v>
@@ -30767,7 +30770,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ142">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR142">
         <v>1.84</v>
@@ -33651,7 +33654,7 @@
         <v>1</v>
       </c>
       <c r="AQ156">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR156">
         <v>1.23</v>
@@ -34266,7 +34269,7 @@
         <v>1.22</v>
       </c>
       <c r="AP159">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ159">
         <v>0.89</v>
@@ -35296,7 +35299,7 @@
         <v>0.2</v>
       </c>
       <c r="AP164">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ164">
         <v>0.72</v>
@@ -35836,7 +35839,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="Q167">
         <v>1.8</v>
@@ -39210,7 +39213,7 @@
         <v>0.91</v>
       </c>
       <c r="AP183">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ183">
         <v>1.21</v>
@@ -39625,7 +39628,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ185">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR185">
         <v>1.54</v>
@@ -41067,7 +41070,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ192">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR192">
         <v>1.55</v>
@@ -41682,7 +41685,7 @@
         <v>0.75</v>
       </c>
       <c r="AP195">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ195">
         <v>0.8</v>
@@ -44569,7 +44572,7 @@
         <v>1</v>
       </c>
       <c r="AQ209">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR209">
         <v>1.23</v>
@@ -44694,7 +44697,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q210">
         <v>4.3</v>
@@ -47038,10 +47041,10 @@
         <v>1.46</v>
       </c>
       <c r="AP221">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ221">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR221">
         <v>1.32</v>
@@ -49226,7 +49229,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49307,7 +49310,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ232">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR232">
         <v>1.9</v>
@@ -49716,7 +49719,7 @@
         <v>0.71</v>
       </c>
       <c r="AP234">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ234">
         <v>0.5600000000000001</v>
@@ -53012,7 +53015,7 @@
         <v>0.67</v>
       </c>
       <c r="AP250">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ250">
         <v>0.8</v>
@@ -54045,7 +54048,7 @@
         <v>1</v>
       </c>
       <c r="AQ255">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR255">
         <v>1.42</v>
@@ -55693,7 +55696,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ263">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR263">
         <v>1.31</v>
@@ -57547,7 +57550,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ272">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR272">
         <v>1.63</v>
@@ -57750,7 +57753,7 @@
         <v>1.35</v>
       </c>
       <c r="AP273">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ273">
         <v>1.35</v>
@@ -59192,7 +59195,7 @@
         <v>0.88</v>
       </c>
       <c r="AP280">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AQ280">
         <v>0.89</v>
@@ -59938,7 +59941,7 @@
         <v>271</v>
       </c>
       <c r="P284" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="Q284">
         <v>2.25</v>
@@ -60843,7 +60846,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ288">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AR288">
         <v>1.66</v>
@@ -63739,31 +63742,31 @@
         <v>2.7</v>
       </c>
       <c r="AU302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV302">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW302">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX302">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AY302">
+        <v>11</v>
+      </c>
+      <c r="AZ302">
+        <v>18</v>
+      </c>
+      <c r="BA302">
+        <v>10</v>
+      </c>
+      <c r="BB302">
         <v>5</v>
       </c>
-      <c r="AZ302">
-        <v>4</v>
-      </c>
-      <c r="BA302">
-        <v>7</v>
-      </c>
-      <c r="BB302">
-        <v>2</v>
-      </c>
       <c r="BC302">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BD302">
         <v>2.05</v>
@@ -63803,6 +63806,212 @@
       </c>
       <c r="BP302">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7389489</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45430.65625</v>
+      </c>
+      <c r="F303">
+        <v>9</v>
+      </c>
+      <c r="G303" t="s">
+        <v>78</v>
+      </c>
+      <c r="H303" t="s">
+        <v>75</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>2</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303">
+        <v>4</v>
+      </c>
+      <c r="N303">
+        <v>5</v>
+      </c>
+      <c r="O303" t="s">
+        <v>283</v>
+      </c>
+      <c r="P303" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q303">
+        <v>4</v>
+      </c>
+      <c r="R303">
+        <v>2.56</v>
+      </c>
+      <c r="S303">
+        <v>2.41</v>
+      </c>
+      <c r="T303">
+        <v>1.25</v>
+      </c>
+      <c r="U303">
+        <v>3.5</v>
+      </c>
+      <c r="V303">
+        <v>2.25</v>
+      </c>
+      <c r="W303">
+        <v>1.64</v>
+      </c>
+      <c r="X303">
+        <v>4.9</v>
+      </c>
+      <c r="Y303">
+        <v>1.16</v>
+      </c>
+      <c r="Z303">
+        <v>3.5</v>
+      </c>
+      <c r="AA303">
+        <v>3.85</v>
+      </c>
+      <c r="AB303">
+        <v>1.9</v>
+      </c>
+      <c r="AC303">
+        <v>1.02</v>
+      </c>
+      <c r="AD303">
+        <v>20.5</v>
+      </c>
+      <c r="AE303">
+        <v>1.17</v>
+      </c>
+      <c r="AF303">
+        <v>5</v>
+      </c>
+      <c r="AG303">
+        <v>1.5</v>
+      </c>
+      <c r="AH303">
+        <v>2.4</v>
+      </c>
+      <c r="AI303">
+        <v>1.48</v>
+      </c>
+      <c r="AJ303">
+        <v>2.4</v>
+      </c>
+      <c r="AK303">
+        <v>1.91</v>
+      </c>
+      <c r="AL303">
+        <v>1.2</v>
+      </c>
+      <c r="AM303">
+        <v>1.28</v>
+      </c>
+      <c r="AN303">
+        <v>1.44</v>
+      </c>
+      <c r="AO303">
+        <v>1.53</v>
+      </c>
+      <c r="AP303">
+        <v>1.37</v>
+      </c>
+      <c r="AQ303">
+        <v>1.6</v>
+      </c>
+      <c r="AR303">
+        <v>1.43</v>
+      </c>
+      <c r="AS303">
+        <v>1.53</v>
+      </c>
+      <c r="AT303">
+        <v>2.96</v>
+      </c>
+      <c r="AU303">
+        <v>3</v>
+      </c>
+      <c r="AV303">
+        <v>7</v>
+      </c>
+      <c r="AW303">
+        <v>6</v>
+      </c>
+      <c r="AX303">
+        <v>12</v>
+      </c>
+      <c r="AY303">
+        <v>9</v>
+      </c>
+      <c r="AZ303">
+        <v>19</v>
+      </c>
+      <c r="BA303">
+        <v>5</v>
+      </c>
+      <c r="BB303">
+        <v>11</v>
+      </c>
+      <c r="BC303">
+        <v>16</v>
+      </c>
+      <c r="BD303">
+        <v>2.3</v>
+      </c>
+      <c r="BE303">
+        <v>8</v>
+      </c>
+      <c r="BF303">
+        <v>1.8</v>
+      </c>
+      <c r="BG303">
+        <v>1.18</v>
+      </c>
+      <c r="BH303">
+        <v>4.1</v>
+      </c>
+      <c r="BI303">
+        <v>1.5</v>
+      </c>
+      <c r="BJ303">
+        <v>2.4</v>
+      </c>
+      <c r="BK303">
+        <v>1.8</v>
+      </c>
+      <c r="BL303">
+        <v>2</v>
+      </c>
+      <c r="BM303">
+        <v>2.2</v>
+      </c>
+      <c r="BN303">
+        <v>1.6</v>
+      </c>
+      <c r="BO303">
+        <v>2.72</v>
+      </c>
+      <c r="BP303">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="406">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1230,6 +1230,9 @@
   <si>
     <t>['10', '66', '80', '87']</t>
   </si>
+  <si>
+    <t>['28', '50']</t>
+  </si>
 </sst>
 </file>
 
@@ -1590,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP303"/>
+  <dimension ref="A1:BP304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3578,7 +3581,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3987,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ12">
         <v>0.89</v>
@@ -6047,7 +6050,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ22">
         <v>1.37</v>
@@ -7286,7 +7289,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR28">
         <v>1.16</v>
@@ -9755,7 +9758,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ40">
         <v>0.72</v>
@@ -13875,10 +13878,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR60">
         <v>1.61</v>
@@ -14702,7 +14705,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR64">
         <v>1.48</v>
@@ -16965,7 +16968,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ75">
         <v>0.8</v>
@@ -18204,7 +18207,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR81">
         <v>1.53</v>
@@ -19437,7 +19440,7 @@
         <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ87">
         <v>1.6</v>
@@ -21088,7 +21091,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR95">
         <v>1.15</v>
@@ -22527,7 +22530,7 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ102">
         <v>1.53</v>
@@ -25205,7 +25208,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ115">
         <v>0.5600000000000001</v>
@@ -25826,7 +25829,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ118">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR118">
         <v>1.81</v>
@@ -28501,7 +28504,7 @@
         <v>0.88</v>
       </c>
       <c r="AP131">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ131">
         <v>1.21</v>
@@ -29740,7 +29743,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ137">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR137">
         <v>1.5</v>
@@ -31591,7 +31594,7 @@
         <v>0.22</v>
       </c>
       <c r="AP146">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ146">
         <v>0.72</v>
@@ -32418,7 +32421,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR150">
         <v>1.28</v>
@@ -34066,7 +34069,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ158">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR158">
         <v>1.79</v>
@@ -36535,7 +36538,7 @@
         <v>0.9</v>
       </c>
       <c r="AP170">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ170">
         <v>0.68</v>
@@ -37774,7 +37777,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ176">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR176">
         <v>1.6</v>
@@ -40452,7 +40455,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ189">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR189">
         <v>1.97</v>
@@ -41273,7 +41276,7 @@
         <v>1.09</v>
       </c>
       <c r="AP193">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ193">
         <v>0.89</v>
@@ -43951,7 +43954,7 @@
         <v>1.42</v>
       </c>
       <c r="AP206">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ206">
         <v>1.63</v>
@@ -44160,7 +44163,7 @@
         <v>1</v>
       </c>
       <c r="AQ207">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR207">
         <v>1.2</v>
@@ -46629,7 +46632,7 @@
         <v>1.31</v>
       </c>
       <c r="AP219">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ219">
         <v>1.35</v>
@@ -46838,7 +46841,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ220">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR220">
         <v>1.3</v>
@@ -50340,7 +50343,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ237">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR237">
         <v>1.88</v>
@@ -50955,7 +50958,7 @@
         <v>0.57</v>
       </c>
       <c r="AP240">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ240">
         <v>0.67</v>
@@ -52191,7 +52194,7 @@
         <v>1.4</v>
       </c>
       <c r="AP246">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ246">
         <v>1.63</v>
@@ -52400,7 +52403,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ247">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR247">
         <v>1.89</v>
@@ -55490,7 +55493,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ262">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR262">
         <v>1.62</v>
@@ -56723,7 +56726,7 @@
         <v>1.18</v>
       </c>
       <c r="AP268">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ268">
         <v>1.21</v>
@@ -58580,7 +58583,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ277">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR277">
         <v>1.79</v>
@@ -59813,7 +59816,7 @@
         <v>1.59</v>
       </c>
       <c r="AP283">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ283">
         <v>1.53</v>
@@ -61049,7 +61052,7 @@
         <v>1.53</v>
       </c>
       <c r="AP289">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ289">
         <v>1.37</v>
@@ -63318,7 +63321,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ300">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR300">
         <v>1.83</v>
@@ -64012,6 +64015,212 @@
       </c>
       <c r="BP303">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7389490</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45431.35416666666</v>
+      </c>
+      <c r="F304">
+        <v>9</v>
+      </c>
+      <c r="G304" t="s">
+        <v>80</v>
+      </c>
+      <c r="H304" t="s">
+        <v>70</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304">
+        <v>2</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>2</v>
+      </c>
+      <c r="N304">
+        <v>3</v>
+      </c>
+      <c r="O304" t="s">
+        <v>124</v>
+      </c>
+      <c r="P304" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q304">
+        <v>3.8</v>
+      </c>
+      <c r="R304">
+        <v>2.3</v>
+      </c>
+      <c r="S304">
+        <v>2.55</v>
+      </c>
+      <c r="T304">
+        <v>1.28</v>
+      </c>
+      <c r="U304">
+        <v>3.4</v>
+      </c>
+      <c r="V304">
+        <v>2.5</v>
+      </c>
+      <c r="W304">
+        <v>1.48</v>
+      </c>
+      <c r="X304">
+        <v>6.25</v>
+      </c>
+      <c r="Y304">
+        <v>1.11</v>
+      </c>
+      <c r="Z304">
+        <v>3.2</v>
+      </c>
+      <c r="AA304">
+        <v>3.45</v>
+      </c>
+      <c r="AB304">
+        <v>2.23</v>
+      </c>
+      <c r="AC304">
+        <v>1.01</v>
+      </c>
+      <c r="AD304">
+        <v>11</v>
+      </c>
+      <c r="AE304">
+        <v>1.2</v>
+      </c>
+      <c r="AF304">
+        <v>4</v>
+      </c>
+      <c r="AG304">
+        <v>1.7</v>
+      </c>
+      <c r="AH304">
+        <v>2.15</v>
+      </c>
+      <c r="AI304">
+        <v>1.57</v>
+      </c>
+      <c r="AJ304">
+        <v>2.33</v>
+      </c>
+      <c r="AK304">
+        <v>1.76</v>
+      </c>
+      <c r="AL304">
+        <v>1.28</v>
+      </c>
+      <c r="AM304">
+        <v>1.3</v>
+      </c>
+      <c r="AN304">
+        <v>1.63</v>
+      </c>
+      <c r="AO304">
+        <v>2</v>
+      </c>
+      <c r="AP304">
+        <v>1.55</v>
+      </c>
+      <c r="AQ304">
+        <v>2.05</v>
+      </c>
+      <c r="AR304">
+        <v>1.69</v>
+      </c>
+      <c r="AS304">
+        <v>1.71</v>
+      </c>
+      <c r="AT304">
+        <v>3.4</v>
+      </c>
+      <c r="AU304">
+        <v>2</v>
+      </c>
+      <c r="AV304">
+        <v>2</v>
+      </c>
+      <c r="AW304">
+        <v>2</v>
+      </c>
+      <c r="AX304">
+        <v>2</v>
+      </c>
+      <c r="AY304">
+        <v>4</v>
+      </c>
+      <c r="AZ304">
+        <v>4</v>
+      </c>
+      <c r="BA304">
+        <v>3</v>
+      </c>
+      <c r="BB304">
+        <v>2</v>
+      </c>
+      <c r="BC304">
+        <v>5</v>
+      </c>
+      <c r="BD304">
+        <v>2.3</v>
+      </c>
+      <c r="BE304">
+        <v>8</v>
+      </c>
+      <c r="BF304">
+        <v>1.8</v>
+      </c>
+      <c r="BG304">
+        <v>1.21</v>
+      </c>
+      <c r="BH304">
+        <v>3.74</v>
+      </c>
+      <c r="BI304">
+        <v>1.45</v>
+      </c>
+      <c r="BJ304">
+        <v>2.55</v>
+      </c>
+      <c r="BK304">
+        <v>1.73</v>
+      </c>
+      <c r="BL304">
+        <v>2</v>
+      </c>
+      <c r="BM304">
+        <v>2.21</v>
+      </c>
+      <c r="BN304">
+        <v>1.65</v>
+      </c>
+      <c r="BO304">
+        <v>2.91</v>
+      </c>
+      <c r="BP304">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="407">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1233,6 +1233,9 @@
   <si>
     <t>['28', '50']</t>
   </si>
+  <si>
+    <t>['29']</t>
+  </si>
 </sst>
 </file>
 
@@ -1593,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP304"/>
+  <dimension ref="A1:BP305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4402,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ14">
         <v>1.21</v>
@@ -4817,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -6259,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR23">
         <v>1.63</v>
@@ -7492,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ29">
         <v>0.72</v>
@@ -9346,7 +9349,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ38">
         <v>0.89</v>
@@ -10379,7 +10382,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ43">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR43">
         <v>1.73</v>
@@ -14084,10 +14087,10 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ61">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR61">
         <v>1.7</v>
@@ -17380,7 +17383,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ77">
         <v>1.35</v>
@@ -17589,7 +17592,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ78">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -18619,7 +18622,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR83">
         <v>1.15</v>
@@ -20676,7 +20679,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ93">
         <v>0.8</v>
@@ -22945,7 +22948,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ104">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR104">
         <v>1.98</v>
@@ -26035,7 +26038,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ119">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR119">
         <v>1.28</v>
@@ -26238,7 +26241,7 @@
         <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -29125,7 +29128,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ134">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR134">
         <v>1.57</v>
@@ -29534,7 +29537,7 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ136">
         <v>0.68</v>
@@ -32215,7 +32218,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR149">
         <v>1.36</v>
@@ -33036,7 +33039,7 @@
         <v>1.89</v>
       </c>
       <c r="AP153">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ153">
         <v>1.37</v>
@@ -34684,7 +34687,7 @@
         <v>1.44</v>
       </c>
       <c r="AP161">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ161">
         <v>1.47</v>
@@ -37159,7 +37162,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ173">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR173">
         <v>1.5</v>
@@ -37774,7 +37777,7 @@
         <v>2.3</v>
       </c>
       <c r="AP176">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ176">
         <v>2.05</v>
@@ -40661,7 +40664,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ190">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR190">
         <v>1.91</v>
@@ -41070,7 +41073,7 @@
         <v>1.45</v>
       </c>
       <c r="AP192">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ192">
         <v>1.6</v>
@@ -43957,7 +43960,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ206">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR206">
         <v>1.75</v>
@@ -44366,7 +44369,7 @@
         <v>1</v>
       </c>
       <c r="AP208">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ208">
         <v>0.89</v>
@@ -47253,7 +47256,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ222">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR222">
         <v>1.93</v>
@@ -47662,7 +47665,7 @@
         <v>0.77</v>
       </c>
       <c r="AP224">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ224">
         <v>0.5600000000000001</v>
@@ -49928,7 +49931,7 @@
         <v>0.43</v>
       </c>
       <c r="AP235">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ235">
         <v>0.72</v>
@@ -50137,7 +50140,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ236">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR236">
         <v>1.61</v>
@@ -51782,7 +51785,7 @@
         <v>1.33</v>
       </c>
       <c r="AP244">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ244">
         <v>1.21</v>
@@ -52197,7 +52200,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ246">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR246">
         <v>1.72</v>
@@ -55490,7 +55493,7 @@
         <v>2.13</v>
       </c>
       <c r="AP262">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ262">
         <v>2.05</v>
@@ -57141,7 +57144,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ270">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR270">
         <v>1.9</v>
@@ -58168,7 +58171,7 @@
         <v>1.47</v>
       </c>
       <c r="AP275">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ275">
         <v>1.47</v>
@@ -59613,7 +59616,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ282">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR282">
         <v>1.83</v>
@@ -61261,7 +61264,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ290">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AR290">
         <v>1.75</v>
@@ -62494,7 +62497,7 @@
         <v>1.44</v>
       </c>
       <c r="AP296">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="AQ296">
         <v>1.37</v>
@@ -64157,31 +64160,31 @@
         <v>3.4</v>
       </c>
       <c r="AU304">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV304">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW304">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX304">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AY304">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ304">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BA304">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB304">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC304">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD304">
         <v>2.3</v>
@@ -64221,6 +64224,212 @@
       </c>
       <c r="BP304">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>7389491</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45431.5625</v>
+      </c>
+      <c r="F305">
+        <v>9</v>
+      </c>
+      <c r="G305" t="s">
+        <v>82</v>
+      </c>
+      <c r="H305" t="s">
+        <v>76</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>1</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+      <c r="L305">
+        <v>0</v>
+      </c>
+      <c r="M305">
+        <v>1</v>
+      </c>
+      <c r="N305">
+        <v>1</v>
+      </c>
+      <c r="O305" t="s">
+        <v>89</v>
+      </c>
+      <c r="P305" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q305">
+        <v>3.6</v>
+      </c>
+      <c r="R305">
+        <v>2.2</v>
+      </c>
+      <c r="S305">
+        <v>2.75</v>
+      </c>
+      <c r="T305">
+        <v>1.32</v>
+      </c>
+      <c r="U305">
+        <v>3.25</v>
+      </c>
+      <c r="V305">
+        <v>2.65</v>
+      </c>
+      <c r="W305">
+        <v>1.45</v>
+      </c>
+      <c r="X305">
+        <v>6.75</v>
+      </c>
+      <c r="Y305">
+        <v>1.09</v>
+      </c>
+      <c r="Z305">
+        <v>2.9</v>
+      </c>
+      <c r="AA305">
+        <v>3.5</v>
+      </c>
+      <c r="AB305">
+        <v>2.25</v>
+      </c>
+      <c r="AC305">
+        <v>1.02</v>
+      </c>
+      <c r="AD305">
+        <v>10</v>
+      </c>
+      <c r="AE305">
+        <v>1.22</v>
+      </c>
+      <c r="AF305">
+        <v>3.8</v>
+      </c>
+      <c r="AG305">
+        <v>1.67</v>
+      </c>
+      <c r="AH305">
+        <v>2</v>
+      </c>
+      <c r="AI305">
+        <v>1.61</v>
+      </c>
+      <c r="AJ305">
+        <v>2.25</v>
+      </c>
+      <c r="AK305">
+        <v>1.64</v>
+      </c>
+      <c r="AL305">
+        <v>1.3</v>
+      </c>
+      <c r="AM305">
+        <v>1.35</v>
+      </c>
+      <c r="AN305">
+        <v>2.53</v>
+      </c>
+      <c r="AO305">
+        <v>1.63</v>
+      </c>
+      <c r="AP305">
+        <v>2.4</v>
+      </c>
+      <c r="AQ305">
+        <v>1.7</v>
+      </c>
+      <c r="AR305">
+        <v>1.59</v>
+      </c>
+      <c r="AS305">
+        <v>1.57</v>
+      </c>
+      <c r="AT305">
+        <v>3.16</v>
+      </c>
+      <c r="AU305">
+        <v>5</v>
+      </c>
+      <c r="AV305">
+        <v>3</v>
+      </c>
+      <c r="AW305">
+        <v>8</v>
+      </c>
+      <c r="AX305">
+        <v>10</v>
+      </c>
+      <c r="AY305">
+        <v>13</v>
+      </c>
+      <c r="AZ305">
+        <v>13</v>
+      </c>
+      <c r="BA305">
+        <v>4</v>
+      </c>
+      <c r="BB305">
+        <v>4</v>
+      </c>
+      <c r="BC305">
+        <v>8</v>
+      </c>
+      <c r="BD305">
+        <v>2.5</v>
+      </c>
+      <c r="BE305">
+        <v>8</v>
+      </c>
+      <c r="BF305">
+        <v>1.67</v>
+      </c>
+      <c r="BG305">
+        <v>1.27</v>
+      </c>
+      <c r="BH305">
+        <v>3.28</v>
+      </c>
+      <c r="BI305">
+        <v>1.55</v>
+      </c>
+      <c r="BJ305">
+        <v>2.39</v>
+      </c>
+      <c r="BK305">
+        <v>2</v>
+      </c>
+      <c r="BL305">
+        <v>1.8</v>
+      </c>
+      <c r="BM305">
+        <v>2.42</v>
+      </c>
+      <c r="BN305">
+        <v>1.54</v>
+      </c>
+      <c r="BO305">
+        <v>3.28</v>
+      </c>
+      <c r="BP305">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -64369,19 +64369,19 @@
         <v>5</v>
       </c>
       <c r="AV305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW305">
+        <v>2</v>
+      </c>
+      <c r="AX305">
+        <v>6</v>
+      </c>
+      <c r="AY305">
+        <v>7</v>
+      </c>
+      <c r="AZ305">
         <v>8</v>
-      </c>
-      <c r="AX305">
-        <v>10</v>
-      </c>
-      <c r="AY305">
-        <v>13</v>
-      </c>
-      <c r="AZ305">
-        <v>13</v>
       </c>
       <c r="BA305">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="407">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -868,6 +868,9 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['69', '90+1']</t>
   </si>
   <si>
@@ -947,9 +950,6 @@
   </si>
   <si>
     <t>['16', '52']</t>
-  </si>
-  <si>
-    <t>['28']</t>
   </si>
   <si>
     <t>['13', '33', '90+6']</t>
@@ -1596,7 +1596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP305"/>
+  <dimension ref="A1:BP306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2061,7 +2061,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -2473,7 +2473,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2885,7 +2885,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q7">
         <v>1.8</v>
@@ -3503,7 +3503,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ11">
         <v>0.5600000000000001</v>
@@ -4121,7 +4121,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4408,7 +4408,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ14">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -5769,7 +5769,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q21">
         <v>3.92</v>
@@ -5975,7 +5975,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6181,7 +6181,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6593,7 +6593,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6799,7 +6799,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6880,7 +6880,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ26">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR26">
         <v>1.67</v>
@@ -7005,7 +7005,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7623,7 +7623,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q30">
         <v>1.9</v>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ31">
         <v>0.89</v>
@@ -8241,7 +8241,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8447,7 +8447,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8859,7 +8859,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q36">
         <v>3.4</v>
@@ -9065,7 +9065,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9271,7 +9271,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q38">
         <v>2.3</v>
@@ -10301,7 +10301,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10507,7 +10507,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10588,7 +10588,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ44">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10713,7 +10713,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10791,7 +10791,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ45">
         <v>1.53</v>
@@ -11125,7 +11125,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -11206,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR47">
         <v>1.24</v>
@@ -11537,7 +11537,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11743,7 +11743,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11949,7 +11949,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12155,7 +12155,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -13185,7 +13185,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13597,7 +13597,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13675,7 +13675,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ59">
         <v>0.89</v>
@@ -13803,7 +13803,7 @@
         <v>89</v>
       </c>
       <c r="P60" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -14215,7 +14215,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="Q62">
         <v>1.73</v>
@@ -15738,7 +15738,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ69">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR69">
         <v>1.58</v>
@@ -15863,7 +15863,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="Q70">
         <v>2.08</v>
@@ -16147,7 +16147,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ71">
         <v>0.72</v>
@@ -17305,7 +17305,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q77">
         <v>2.3</v>
@@ -19034,7 +19034,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ85">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR85">
         <v>1.58</v>
@@ -19237,7 +19237,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ86">
         <v>1.35</v>
@@ -20888,7 +20888,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ94">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR94">
         <v>1.99</v>
@@ -22043,7 +22043,7 @@
         <v>89</v>
       </c>
       <c r="P100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q100">
         <v>2.48</v>
@@ -24387,7 +24387,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ111">
         <v>0.8</v>
@@ -25008,7 +25008,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ114">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR114">
         <v>1.4</v>
@@ -27477,7 +27477,7 @@
         <v>1.71</v>
       </c>
       <c r="AP126">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ126">
         <v>1.6</v>
@@ -28510,7 +28510,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ131">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -31391,7 +31391,7 @@
         <v>0.25</v>
       </c>
       <c r="AP145">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ145">
         <v>0.72</v>
@@ -33245,10 +33245,10 @@
         <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ154">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR154">
         <v>2.06</v>
@@ -35099,7 +35099,7 @@
         <v>1.3</v>
       </c>
       <c r="AP163">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ163">
         <v>1.47</v>
@@ -37574,7 +37574,7 @@
         <v>1</v>
       </c>
       <c r="AQ175">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR175">
         <v>1.2</v>
@@ -39222,7 +39222,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ183">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR183">
         <v>1.29</v>
@@ -40455,7 +40455,7 @@
         <v>2.18</v>
       </c>
       <c r="AP189">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ189">
         <v>2.05</v>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
       <c r="AQ198">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR198">
         <v>1.34</v>
@@ -43339,7 +43339,7 @@
         <v>0.67</v>
       </c>
       <c r="AP203">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ203">
         <v>0.67</v>
@@ -44703,7 +44703,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q210">
         <v>4.3</v>
@@ -45814,7 +45814,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ215">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR215">
         <v>1.89</v>
@@ -47253,7 +47253,7 @@
         <v>1.38</v>
       </c>
       <c r="AP222">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ222">
         <v>1.7</v>
@@ -48286,7 +48286,7 @@
         <v>1</v>
       </c>
       <c r="AQ227">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR227">
         <v>1.23</v>
@@ -48901,7 +48901,7 @@
         <v>0.79</v>
       </c>
       <c r="AP230">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ230">
         <v>0.68</v>
@@ -49235,7 +49235,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -51295,7 +51295,7 @@
         <v>246</v>
       </c>
       <c r="P242" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="Q242">
         <v>2.25</v>
@@ -51788,7 +51788,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ244">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR244">
         <v>1.58</v>
@@ -52403,7 +52403,7 @@
         <v>2.27</v>
       </c>
       <c r="AP247">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ247">
         <v>2.05</v>
@@ -54875,7 +54875,7 @@
         <v>1.5</v>
       </c>
       <c r="AP259">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ259">
         <v>1.47</v>
@@ -55084,7 +55084,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ260">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR260">
         <v>1.86</v>
@@ -56523,7 +56523,7 @@
         <v>1.69</v>
       </c>
       <c r="AP267">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ267">
         <v>1.53</v>
@@ -56732,7 +56732,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ268">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR268">
         <v>1.69</v>
@@ -59613,7 +59613,7 @@
         <v>1.47</v>
       </c>
       <c r="AP282">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ282">
         <v>1.7</v>
@@ -60028,7 +60028,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ284">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR284">
         <v>1.9</v>
@@ -61389,7 +61389,7 @@
         <v>275</v>
       </c>
       <c r="P291" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q291">
         <v>2.88</v>
@@ -64369,19 +64369,19 @@
         <v>5</v>
       </c>
       <c r="AV305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW305">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX305">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY305">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ305">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA305">
         <v>4</v>
@@ -64430,6 +64430,212 @@
       </c>
       <c r="BP305">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>7389492</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45432.5625</v>
+      </c>
+      <c r="F306">
+        <v>9</v>
+      </c>
+      <c r="G306" t="s">
+        <v>79</v>
+      </c>
+      <c r="H306" t="s">
+        <v>74</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>1</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>1</v>
+      </c>
+      <c r="O306" t="s">
+        <v>284</v>
+      </c>
+      <c r="P306" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q306">
+        <v>2.3</v>
+      </c>
+      <c r="R306">
+        <v>2.3</v>
+      </c>
+      <c r="S306">
+        <v>4</v>
+      </c>
+      <c r="T306">
+        <v>1.3</v>
+      </c>
+      <c r="U306">
+        <v>3.2</v>
+      </c>
+      <c r="V306">
+        <v>2.4</v>
+      </c>
+      <c r="W306">
+        <v>1.5</v>
+      </c>
+      <c r="X306">
+        <v>5</v>
+      </c>
+      <c r="Y306">
+        <v>1.14</v>
+      </c>
+      <c r="Z306">
+        <v>2.05</v>
+      </c>
+      <c r="AA306">
+        <v>3.5</v>
+      </c>
+      <c r="AB306">
+        <v>3.3</v>
+      </c>
+      <c r="AC306">
+        <v>1.04</v>
+      </c>
+      <c r="AD306">
+        <v>10</v>
+      </c>
+      <c r="AE306">
+        <v>1.2</v>
+      </c>
+      <c r="AF306">
+        <v>4.33</v>
+      </c>
+      <c r="AG306">
+        <v>1.64</v>
+      </c>
+      <c r="AH306">
+        <v>1.92</v>
+      </c>
+      <c r="AI306">
+        <v>1.57</v>
+      </c>
+      <c r="AJ306">
+        <v>2.2</v>
+      </c>
+      <c r="AK306">
+        <v>1.25</v>
+      </c>
+      <c r="AL306">
+        <v>1.2</v>
+      </c>
+      <c r="AM306">
+        <v>1.95</v>
+      </c>
+      <c r="AN306">
+        <v>1.63</v>
+      </c>
+      <c r="AO306">
+        <v>1.21</v>
+      </c>
+      <c r="AP306">
+        <v>1.7</v>
+      </c>
+      <c r="AQ306">
+        <v>1.15</v>
+      </c>
+      <c r="AR306">
+        <v>1.82</v>
+      </c>
+      <c r="AS306">
+        <v>1.33</v>
+      </c>
+      <c r="AT306">
+        <v>3.15</v>
+      </c>
+      <c r="AU306">
+        <v>3</v>
+      </c>
+      <c r="AV306">
+        <v>7</v>
+      </c>
+      <c r="AW306">
+        <v>6</v>
+      </c>
+      <c r="AX306">
+        <v>5</v>
+      </c>
+      <c r="AY306">
+        <v>9</v>
+      </c>
+      <c r="AZ306">
+        <v>12</v>
+      </c>
+      <c r="BA306">
+        <v>2</v>
+      </c>
+      <c r="BB306">
+        <v>8</v>
+      </c>
+      <c r="BC306">
+        <v>10</v>
+      </c>
+      <c r="BD306">
+        <v>1.62</v>
+      </c>
+      <c r="BE306">
+        <v>8</v>
+      </c>
+      <c r="BF306">
+        <v>2.62</v>
+      </c>
+      <c r="BG306">
+        <v>1.22</v>
+      </c>
+      <c r="BH306">
+        <v>3.65</v>
+      </c>
+      <c r="BI306">
+        <v>1.47</v>
+      </c>
+      <c r="BJ306">
+        <v>2.55</v>
+      </c>
+      <c r="BK306">
+        <v>1.88</v>
+      </c>
+      <c r="BL306">
+        <v>1.92</v>
+      </c>
+      <c r="BM306">
+        <v>2.33</v>
+      </c>
+      <c r="BN306">
+        <v>1.54</v>
+      </c>
+      <c r="BO306">
+        <v>2.98</v>
+      </c>
+      <c r="BP306">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -64572,7 +64572,7 @@
         <v>3.15</v>
       </c>
       <c r="AU306">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV306">
         <v>7</v>
@@ -64581,13 +64581,13 @@
         <v>6</v>
       </c>
       <c r="AX306">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY306">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ306">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA306">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="411">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -871,6 +871,12 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['15', '17', '90']</t>
+  </si>
+  <si>
+    <t>['48', '85']</t>
+  </si>
+  <si>
     <t>['69', '90+1']</t>
   </si>
   <si>
@@ -1236,6 +1242,12 @@
   <si>
     <t>['29']</t>
   </si>
+  <si>
+    <t>['33', '45+3']</t>
+  </si>
+  <si>
+    <t>['51', '84']</t>
+  </si>
 </sst>
 </file>
 
@@ -1596,7 +1608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP306"/>
+  <dimension ref="A1:BP309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2061,7 +2073,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -2142,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2473,7 +2485,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2885,7 +2897,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q7">
         <v>1.8</v>
@@ -2963,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ7">
         <v>0.72</v>
@@ -3378,7 +3390,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3503,7 +3515,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -4121,7 +4133,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -4199,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>0.67</v>
@@ -4611,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ15">
         <v>1.6</v>
@@ -5026,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5563,7 +5575,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -5769,7 +5781,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q21">
         <v>3.92</v>
@@ -5975,7 +5987,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6181,7 +6193,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6468,7 +6480,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ24">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR24">
         <v>0.67</v>
@@ -6593,7 +6605,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6799,7 +6811,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6877,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
         <v>1.15</v>
@@ -7005,7 +7017,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7289,7 +7301,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ28">
         <v>2.05</v>
@@ -7498,7 +7510,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ29">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR29">
         <v>1.02</v>
@@ -7623,7 +7635,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q30">
         <v>1.9</v>
@@ -7701,10 +7713,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR30">
         <v>1.8</v>
@@ -8241,7 +8253,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8447,7 +8459,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8859,7 +8871,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q36">
         <v>3.4</v>
@@ -8940,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR36">
         <v>1.04</v>
@@ -9065,7 +9077,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9271,7 +9283,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q38">
         <v>2.3</v>
@@ -9555,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
         <v>0.72</v>
@@ -9764,7 +9776,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ40">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR40">
         <v>1.46</v>
@@ -9967,7 +9979,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ41">
         <v>0.5600000000000001</v>
@@ -10301,7 +10313,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10379,7 +10391,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ43">
         <v>1.7</v>
@@ -10507,7 +10519,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10713,7 +10725,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -11000,7 +11012,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ46">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR46">
         <v>1.23</v>
@@ -11125,7 +11137,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -11537,7 +11549,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11743,7 +11755,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11949,7 +11961,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12030,7 +12042,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR51">
         <v>1.28</v>
@@ -12155,7 +12167,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12439,7 +12451,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
         <v>1.6</v>
@@ -12854,7 +12866,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ55">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR55">
         <v>1.21</v>
@@ -13185,7 +13197,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13263,7 +13275,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ57">
         <v>0.8</v>
@@ -13597,7 +13609,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13678,7 +13690,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ59">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR59">
         <v>1.85</v>
@@ -13803,7 +13815,7 @@
         <v>89</v>
       </c>
       <c r="P60" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -14293,7 +14305,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ62">
         <v>0.5600000000000001</v>
@@ -14627,7 +14639,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -15245,7 +15257,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15451,7 +15463,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q68">
         <v>2.7</v>
@@ -15529,10 +15541,10 @@
         <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR68">
         <v>1.35</v>
@@ -15735,7 +15747,7 @@
         <v>1.25</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ69">
         <v>1.15</v>
@@ -16069,7 +16081,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q71">
         <v>1.96</v>
@@ -16150,7 +16162,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ71">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR71">
         <v>1.87</v>
@@ -16356,7 +16368,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ72">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR72">
         <v>2.04</v>
@@ -16893,7 +16905,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -17305,7 +17317,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q77">
         <v>2.3</v>
@@ -17511,7 +17523,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q78">
         <v>4.5</v>
@@ -18001,7 +18013,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ80">
         <v>1.37</v>
@@ -18129,7 +18141,7 @@
         <v>89</v>
       </c>
       <c r="P81" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18828,7 +18840,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18953,7 +18965,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -19571,7 +19583,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19855,10 +19867,10 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR89">
         <v>1.34</v>
@@ -20189,7 +20201,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20267,7 +20279,7 @@
         <v>1.2</v>
       </c>
       <c r="AP91">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ91">
         <v>1.47</v>
@@ -20807,7 +20819,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -21013,7 +21025,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -21297,10 +21309,10 @@
         <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ96">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR96">
         <v>1.72</v>
@@ -21425,7 +21437,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q97">
         <v>5.1</v>
@@ -21837,7 +21849,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -22043,7 +22055,7 @@
         <v>89</v>
       </c>
       <c r="P100" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q100">
         <v>2.48</v>
@@ -22121,10 +22133,10 @@
         <v>0.67</v>
       </c>
       <c r="AP100">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ100">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR100">
         <v>1.31</v>
@@ -22249,7 +22261,7 @@
         <v>158</v>
       </c>
       <c r="P101" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q101">
         <v>2.65</v>
@@ -22455,7 +22467,7 @@
         <v>89</v>
       </c>
       <c r="P102" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -23073,7 +23085,7 @@
         <v>117</v>
       </c>
       <c r="P105" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23279,7 +23291,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q106">
         <v>3.05</v>
@@ -23360,7 +23372,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR106">
         <v>1.19</v>
@@ -23566,7 +23578,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ107">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR107">
         <v>1.92</v>
@@ -23691,7 +23703,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q108">
         <v>2.95</v>
@@ -23975,7 +23987,7 @@
         <v>0.17</v>
       </c>
       <c r="AP109">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ109">
         <v>0.89</v>
@@ -24309,7 +24321,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24593,7 +24605,7 @@
         <v>1.57</v>
       </c>
       <c r="AP112">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ112">
         <v>1.53</v>
@@ -25339,7 +25351,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -25420,7 +25432,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ116">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR116">
         <v>1.49</v>
@@ -25751,7 +25763,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -25829,7 +25841,7 @@
         <v>2.5</v>
       </c>
       <c r="AP118">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ118">
         <v>2.05</v>
@@ -26035,7 +26047,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ119">
         <v>1.7</v>
@@ -26163,7 +26175,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q120">
         <v>1.91</v>
@@ -26369,7 +26381,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26575,7 +26587,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q122">
         <v>4.1</v>
@@ -27399,7 +27411,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27605,7 +27617,7 @@
         <v>89</v>
       </c>
       <c r="P127" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27683,10 +27695,10 @@
         <v>1.14</v>
       </c>
       <c r="AP127">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ127">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR127">
         <v>1.61</v>
@@ -27892,7 +27904,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ128">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR128">
         <v>1.87</v>
@@ -28017,7 +28029,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28223,7 +28235,7 @@
         <v>106</v>
       </c>
       <c r="P130" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -28304,7 +28316,7 @@
         <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR130">
         <v>1.15</v>
@@ -28429,7 +28441,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28919,7 +28931,7 @@
         <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ133">
         <v>0.67</v>
@@ -29125,7 +29137,7 @@
         <v>1.25</v>
       </c>
       <c r="AP134">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ134">
         <v>1.7</v>
@@ -29253,7 +29265,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q135">
         <v>5.5</v>
@@ -29459,7 +29471,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q136">
         <v>1.85</v>
@@ -29540,7 +29552,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ136">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR136">
         <v>1.82</v>
@@ -29665,7 +29677,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q137">
         <v>4.6</v>
@@ -30077,7 +30089,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30155,7 +30167,7 @@
         <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ139">
         <v>1.47</v>
@@ -30364,7 +30376,7 @@
         <v>1</v>
       </c>
       <c r="AQ140">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR140">
         <v>1.4</v>
@@ -31107,7 +31119,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31803,10 +31815,10 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ147">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR147">
         <v>1.52</v>
@@ -32009,7 +32021,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP148">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ148">
         <v>0.8</v>
@@ -32137,7 +32149,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q149">
         <v>6.2</v>
@@ -32343,7 +32355,7 @@
         <v>106</v>
       </c>
       <c r="P150" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q150">
         <v>8.119999999999999</v>
@@ -32549,7 +32561,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q151">
         <v>1.82</v>
@@ -32630,7 +32642,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ151">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR151">
         <v>1.93</v>
@@ -33451,7 +33463,7 @@
         <v>0.78</v>
       </c>
       <c r="AP155">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ155">
         <v>0.5600000000000001</v>
@@ -33579,7 +33591,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q156">
         <v>5.75</v>
@@ -34278,7 +34290,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ159">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR159">
         <v>1.29</v>
@@ -34815,7 +34827,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q162">
         <v>1.91</v>
@@ -34893,7 +34905,7 @@
         <v>0.8</v>
       </c>
       <c r="AP162">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ162">
         <v>1.35</v>
@@ -35021,7 +35033,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35514,7 +35526,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ165">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR165">
         <v>1.71</v>
@@ -35639,7 +35651,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35926,7 +35938,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ167">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR167">
         <v>2.02</v>
@@ -36129,7 +36141,7 @@
         <v>1.6</v>
       </c>
       <c r="AP168">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ168">
         <v>1.53</v>
@@ -36257,7 +36269,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36544,7 +36556,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ170">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR170">
         <v>1.72</v>
@@ -36875,7 +36887,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q172">
         <v>1.87</v>
@@ -36953,10 +36965,10 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ172">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR172">
         <v>1.87</v>
@@ -37081,7 +37093,7 @@
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q173">
         <v>5.5</v>
@@ -37699,7 +37711,7 @@
         <v>210</v>
       </c>
       <c r="P176" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37983,7 +37995,7 @@
         <v>0.8</v>
       </c>
       <c r="AP177">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ177">
         <v>0.67</v>
@@ -38111,7 +38123,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -38317,7 +38329,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q179">
         <v>1.44</v>
@@ -38601,7 +38613,7 @@
         <v>1.64</v>
       </c>
       <c r="AP180">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ180">
         <v>1.37</v>
@@ -38935,7 +38947,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q182">
         <v>1.55</v>
@@ -39347,7 +39359,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39425,7 +39437,7 @@
         <v>1.55</v>
       </c>
       <c r="AP184">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ184">
         <v>1.53</v>
@@ -39759,7 +39771,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39840,7 +39852,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR186">
         <v>1.34</v>
@@ -40171,7 +40183,7 @@
         <v>89</v>
       </c>
       <c r="P188" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q188">
         <v>2.45</v>
@@ -41282,7 +41294,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ193">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR193">
         <v>1.74</v>
@@ -41819,7 +41831,7 @@
         <v>223</v>
       </c>
       <c r="P196" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q196">
         <v>1.72</v>
@@ -41900,7 +41912,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ196">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR196">
         <v>1.96</v>
@@ -42231,7 +42243,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q198">
         <v>5.32</v>
@@ -42515,7 +42527,7 @@
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ199">
         <v>1.37</v>
@@ -42643,7 +42655,7 @@
         <v>167</v>
       </c>
       <c r="P200" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q200">
         <v>3.95</v>
@@ -42849,7 +42861,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -42927,7 +42939,7 @@
         <v>1.17</v>
       </c>
       <c r="AP201">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ201">
         <v>1.47</v>
@@ -43136,7 +43148,7 @@
         <v>1</v>
       </c>
       <c r="AQ202">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR202">
         <v>1.41</v>
@@ -43545,7 +43557,7 @@
         <v>0.25</v>
       </c>
       <c r="AP204">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ204">
         <v>0.89</v>
@@ -43673,7 +43685,7 @@
         <v>89</v>
       </c>
       <c r="P205" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q205">
         <v>2.13</v>
@@ -44085,7 +44097,7 @@
         <v>186</v>
       </c>
       <c r="P207" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q207">
         <v>7</v>
@@ -44291,7 +44303,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q208">
         <v>2.2</v>
@@ -44372,7 +44384,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ208">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR208">
         <v>1.53</v>
@@ -44497,7 +44509,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44703,7 +44715,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q210">
         <v>4.3</v>
@@ -45196,7 +45208,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ212">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR212">
         <v>1.63</v>
@@ -45399,7 +45411,7 @@
         <v>0.46</v>
       </c>
       <c r="AP213">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ213">
         <v>0.72</v>
@@ -45527,7 +45539,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q214">
         <v>2.25</v>
@@ -45733,7 +45745,7 @@
         <v>232</v>
       </c>
       <c r="P215" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q215">
         <v>2.88</v>
@@ -45811,7 +45823,7 @@
         <v>1.23</v>
       </c>
       <c r="AP215">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ215">
         <v>1.15</v>
@@ -45939,7 +45951,7 @@
         <v>233</v>
       </c>
       <c r="P216" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -46020,7 +46032,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ216">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR216">
         <v>1.91</v>
@@ -46145,7 +46157,7 @@
         <v>89</v>
       </c>
       <c r="P217" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -46557,7 +46569,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q219">
         <v>2.3</v>
@@ -46763,7 +46775,7 @@
         <v>89</v>
       </c>
       <c r="P220" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q220">
         <v>5.91</v>
@@ -46841,7 +46853,7 @@
         <v>2.31</v>
       </c>
       <c r="AP220">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ220">
         <v>2.05</v>
@@ -46969,7 +46981,7 @@
         <v>235</v>
       </c>
       <c r="P221" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q221">
         <v>3.4</v>
@@ -47175,7 +47187,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q222">
         <v>3.1</v>
@@ -47462,7 +47474,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ223">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR223">
         <v>1.83</v>
@@ -47793,7 +47805,7 @@
         <v>237</v>
       </c>
       <c r="P225" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q225">
         <v>3.1</v>
@@ -48077,10 +48089,10 @@
         <v>0.93</v>
       </c>
       <c r="AP226">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ226">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR226">
         <v>1.64</v>
@@ -48617,7 +48629,7 @@
         <v>89</v>
       </c>
       <c r="P229" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -48904,7 +48916,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ230">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR230">
         <v>1.89</v>
@@ -49235,7 +49247,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49522,7 +49534,7 @@
         <v>1</v>
       </c>
       <c r="AQ233">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR233">
         <v>1.19</v>
@@ -50549,7 +50561,7 @@
         <v>0.5</v>
       </c>
       <c r="AP238">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ238">
         <v>0.89</v>
@@ -50755,7 +50767,7 @@
         <v>1.43</v>
       </c>
       <c r="AP239">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ239">
         <v>1.35</v>
@@ -51373,10 +51385,10 @@
         <v>0.73</v>
       </c>
       <c r="AP242">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ242">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR242">
         <v>1.88</v>
@@ -51501,7 +51513,7 @@
         <v>247</v>
       </c>
       <c r="P243" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q243">
         <v>3.3</v>
@@ -51579,7 +51591,7 @@
         <v>1.33</v>
       </c>
       <c r="AP243">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ243">
         <v>1.35</v>
@@ -51994,7 +52006,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ245">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR245">
         <v>1.6</v>
@@ -52531,7 +52543,7 @@
         <v>250</v>
       </c>
       <c r="P248" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q248">
         <v>2.66</v>
@@ -52609,10 +52621,10 @@
         <v>0.8</v>
       </c>
       <c r="AP248">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ248">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR248">
         <v>1.61</v>
@@ -53355,7 +53367,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q252">
         <v>2.25</v>
@@ -53561,7 +53573,7 @@
         <v>118</v>
       </c>
       <c r="P253" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53973,7 +53985,7 @@
         <v>89</v>
       </c>
       <c r="P255" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -54179,7 +54191,7 @@
         <v>253</v>
       </c>
       <c r="P256" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q256">
         <v>2.7</v>
@@ -54260,7 +54272,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ256">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR256">
         <v>1.61</v>
@@ -54591,7 +54603,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q258">
         <v>2.38</v>
@@ -54669,10 +54681,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP258">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ258">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR258">
         <v>1.61</v>
@@ -54797,7 +54809,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q259">
         <v>2.32</v>
@@ -55209,7 +55221,7 @@
         <v>257</v>
       </c>
       <c r="P261" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q261">
         <v>3.4</v>
@@ -55699,7 +55711,7 @@
         <v>1.44</v>
       </c>
       <c r="AP263">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ263">
         <v>1.6</v>
@@ -55905,10 +55917,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP264">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ264">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR264">
         <v>1.31</v>
@@ -56033,7 +56045,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q265">
         <v>3.1</v>
@@ -56114,7 +56126,7 @@
         <v>1</v>
       </c>
       <c r="AQ265">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR265">
         <v>1.37</v>
@@ -56239,7 +56251,7 @@
         <v>262</v>
       </c>
       <c r="P266" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56317,7 +56329,7 @@
         <v>1.44</v>
       </c>
       <c r="AP266">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ266">
         <v>1.35</v>
@@ -56445,7 +56457,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q267">
         <v>2.6</v>
@@ -56857,7 +56869,7 @@
         <v>264</v>
       </c>
       <c r="P269" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q269">
         <v>2.7</v>
@@ -57063,7 +57075,7 @@
         <v>101</v>
       </c>
       <c r="P270" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q270">
         <v>2.85</v>
@@ -57475,7 +57487,7 @@
         <v>89</v>
       </c>
       <c r="P272" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q272">
         <v>4.33</v>
@@ -57887,7 +57899,7 @@
         <v>114</v>
       </c>
       <c r="P274" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q274">
         <v>2.7</v>
@@ -58505,7 +58517,7 @@
         <v>89</v>
       </c>
       <c r="P277" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q277">
         <v>3.3</v>
@@ -58711,7 +58723,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q278">
         <v>3.45</v>
@@ -58995,7 +59007,7 @@
         <v>0.71</v>
       </c>
       <c r="AP279">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ279">
         <v>0.8</v>
@@ -59123,7 +59135,7 @@
         <v>269</v>
       </c>
       <c r="P280" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q280">
         <v>2.9</v>
@@ -59204,7 +59216,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ280">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR280">
         <v>1.42</v>
@@ -59329,7 +59341,7 @@
         <v>270</v>
       </c>
       <c r="P281" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q281">
         <v>1.83</v>
@@ -59407,10 +59419,10 @@
         <v>0.76</v>
       </c>
       <c r="AP281">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ281">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AR281">
         <v>1.85</v>
@@ -59535,7 +59547,7 @@
         <v>89</v>
       </c>
       <c r="P282" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q282">
         <v>3.44</v>
@@ -60153,7 +60165,7 @@
         <v>89</v>
       </c>
       <c r="P285" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q285">
         <v>2.95</v>
@@ -60359,7 +60371,7 @@
         <v>272</v>
       </c>
       <c r="P286" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q286">
         <v>2.95</v>
@@ -60440,7 +60452,7 @@
         <v>1</v>
       </c>
       <c r="AQ286">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR286">
         <v>1.4</v>
@@ -60565,7 +60577,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q287">
         <v>3.25</v>
@@ -60771,7 +60783,7 @@
         <v>273</v>
       </c>
       <c r="P288" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q288">
         <v>3.65</v>
@@ -60849,7 +60861,7 @@
         <v>1.44</v>
       </c>
       <c r="AP288">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AQ288">
         <v>1.6</v>
@@ -61183,7 +61195,7 @@
         <v>130</v>
       </c>
       <c r="P290" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q290">
         <v>4.2</v>
@@ -61389,7 +61401,7 @@
         <v>275</v>
       </c>
       <c r="P291" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q291">
         <v>2.88</v>
@@ -61467,10 +61479,10 @@
         <v>0.72</v>
       </c>
       <c r="AP291">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ291">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AR291">
         <v>1.36</v>
@@ -62213,7 +62225,7 @@
         <v>278</v>
       </c>
       <c r="P295" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q295">
         <v>2.8</v>
@@ -62419,7 +62431,7 @@
         <v>279</v>
       </c>
       <c r="P296" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q296">
         <v>2.55</v>
@@ -62703,7 +62715,7 @@
         <v>0.67</v>
       </c>
       <c r="AP297">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ297">
         <v>0.8</v>
@@ -63037,7 +63049,7 @@
         <v>281</v>
       </c>
       <c r="P299" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q299">
         <v>2.7</v>
@@ -63243,7 +63255,7 @@
         <v>282</v>
       </c>
       <c r="P300" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q300">
         <v>2.8</v>
@@ -63655,7 +63667,7 @@
         <v>89</v>
       </c>
       <c r="P302" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q302">
         <v>3</v>
@@ -63861,7 +63873,7 @@
         <v>283</v>
       </c>
       <c r="P303" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q303">
         <v>4</v>
@@ -64067,7 +64079,7 @@
         <v>124</v>
       </c>
       <c r="P304" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q304">
         <v>3.8</v>
@@ -64273,7 +64285,7 @@
         <v>89</v>
       </c>
       <c r="P305" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q305">
         <v>3.6</v>
@@ -64636,6 +64648,624 @@
       </c>
       <c r="BP306">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7389493</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45437.64583333334</v>
+      </c>
+      <c r="F307">
+        <v>10</v>
+      </c>
+      <c r="G307" t="s">
+        <v>81</v>
+      </c>
+      <c r="H307" t="s">
+        <v>84</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>2</v>
+      </c>
+      <c r="K307">
+        <v>2</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+      <c r="M307">
+        <v>2</v>
+      </c>
+      <c r="N307">
+        <v>3</v>
+      </c>
+      <c r="O307" t="s">
+        <v>225</v>
+      </c>
+      <c r="P307" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q307">
+        <v>2.5</v>
+      </c>
+      <c r="R307">
+        <v>2.3</v>
+      </c>
+      <c r="S307">
+        <v>3.55</v>
+      </c>
+      <c r="T307">
+        <v>1.25</v>
+      </c>
+      <c r="U307">
+        <v>3.45</v>
+      </c>
+      <c r="V307">
+        <v>2.15</v>
+      </c>
+      <c r="W307">
+        <v>1.62</v>
+      </c>
+      <c r="X307">
+        <v>4.8</v>
+      </c>
+      <c r="Y307">
+        <v>1.16</v>
+      </c>
+      <c r="Z307">
+        <v>2</v>
+      </c>
+      <c r="AA307">
+        <v>3.6</v>
+      </c>
+      <c r="AB307">
+        <v>3.3</v>
+      </c>
+      <c r="AC307">
+        <v>1.02</v>
+      </c>
+      <c r="AD307">
+        <v>20</v>
+      </c>
+      <c r="AE307">
+        <v>1.17</v>
+      </c>
+      <c r="AF307">
+        <v>5</v>
+      </c>
+      <c r="AG307">
+        <v>1.46</v>
+      </c>
+      <c r="AH307">
+        <v>2.6</v>
+      </c>
+      <c r="AI307">
+        <v>1.42</v>
+      </c>
+      <c r="AJ307">
+        <v>2.6</v>
+      </c>
+      <c r="AK307">
+        <v>1.33</v>
+      </c>
+      <c r="AL307">
+        <v>1.22</v>
+      </c>
+      <c r="AM307">
+        <v>1.73</v>
+      </c>
+      <c r="AN307">
+        <v>1.47</v>
+      </c>
+      <c r="AO307">
+        <v>0.72</v>
+      </c>
+      <c r="AP307">
+        <v>1.4</v>
+      </c>
+      <c r="AQ307">
+        <v>0.84</v>
+      </c>
+      <c r="AR307">
+        <v>1.39</v>
+      </c>
+      <c r="AS307">
+        <v>1.36</v>
+      </c>
+      <c r="AT307">
+        <v>2.75</v>
+      </c>
+      <c r="AU307">
+        <v>3</v>
+      </c>
+      <c r="AV307">
+        <v>6</v>
+      </c>
+      <c r="AW307">
+        <v>7</v>
+      </c>
+      <c r="AX307">
+        <v>14</v>
+      </c>
+      <c r="AY307">
+        <v>10</v>
+      </c>
+      <c r="AZ307">
+        <v>20</v>
+      </c>
+      <c r="BA307">
+        <v>1</v>
+      </c>
+      <c r="BB307">
+        <v>6</v>
+      </c>
+      <c r="BC307">
+        <v>7</v>
+      </c>
+      <c r="BD307">
+        <v>1.58</v>
+      </c>
+      <c r="BE307">
+        <v>7.5</v>
+      </c>
+      <c r="BF307">
+        <v>2.9</v>
+      </c>
+      <c r="BG307">
+        <v>1.18</v>
+      </c>
+      <c r="BH307">
+        <v>4.3</v>
+      </c>
+      <c r="BI307">
+        <v>1.34</v>
+      </c>
+      <c r="BJ307">
+        <v>2.95</v>
+      </c>
+      <c r="BK307">
+        <v>1.61</v>
+      </c>
+      <c r="BL307">
+        <v>2.2</v>
+      </c>
+      <c r="BM307">
+        <v>2</v>
+      </c>
+      <c r="BN307">
+        <v>1.73</v>
+      </c>
+      <c r="BO307">
+        <v>2.6</v>
+      </c>
+      <c r="BP307">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="308" spans="1:68">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>7389494</v>
+      </c>
+      <c r="C308" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308" t="s">
+        <v>69</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45437.64583333334</v>
+      </c>
+      <c r="F308">
+        <v>10</v>
+      </c>
+      <c r="G308" t="s">
+        <v>83</v>
+      </c>
+      <c r="H308" t="s">
+        <v>78</v>
+      </c>
+      <c r="I308">
+        <v>2</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>2</v>
+      </c>
+      <c r="L308">
+        <v>3</v>
+      </c>
+      <c r="M308">
+        <v>2</v>
+      </c>
+      <c r="N308">
+        <v>5</v>
+      </c>
+      <c r="O308" t="s">
+        <v>285</v>
+      </c>
+      <c r="P308" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q308">
+        <v>2.35</v>
+      </c>
+      <c r="R308">
+        <v>2.25</v>
+      </c>
+      <c r="S308">
+        <v>4</v>
+      </c>
+      <c r="T308">
+        <v>1.28</v>
+      </c>
+      <c r="U308">
+        <v>3.3</v>
+      </c>
+      <c r="V308">
+        <v>2.25</v>
+      </c>
+      <c r="W308">
+        <v>1.57</v>
+      </c>
+      <c r="X308">
+        <v>5.35</v>
+      </c>
+      <c r="Y308">
+        <v>1.14</v>
+      </c>
+      <c r="Z308">
+        <v>1.85</v>
+      </c>
+      <c r="AA308">
+        <v>3.8</v>
+      </c>
+      <c r="AB308">
+        <v>3.6</v>
+      </c>
+      <c r="AC308">
+        <v>1.04</v>
+      </c>
+      <c r="AD308">
+        <v>10</v>
+      </c>
+      <c r="AE308">
+        <v>1.2</v>
+      </c>
+      <c r="AF308">
+        <v>4.5</v>
+      </c>
+      <c r="AG308">
+        <v>1.56</v>
+      </c>
+      <c r="AH308">
+        <v>2.33</v>
+      </c>
+      <c r="AI308">
+        <v>1.48</v>
+      </c>
+      <c r="AJ308">
+        <v>2.4</v>
+      </c>
+      <c r="AK308">
+        <v>1.25</v>
+      </c>
+      <c r="AL308">
+        <v>1.22</v>
+      </c>
+      <c r="AM308">
+        <v>1.9</v>
+      </c>
+      <c r="AN308">
+        <v>1.63</v>
+      </c>
+      <c r="AO308">
+        <v>0.68</v>
+      </c>
+      <c r="AP308">
+        <v>1.7</v>
+      </c>
+      <c r="AQ308">
+        <v>0.65</v>
+      </c>
+      <c r="AR308">
+        <v>1.67</v>
+      </c>
+      <c r="AS308">
+        <v>1.21</v>
+      </c>
+      <c r="AT308">
+        <v>2.88</v>
+      </c>
+      <c r="AU308">
+        <v>10</v>
+      </c>
+      <c r="AV308">
+        <v>6</v>
+      </c>
+      <c r="AW308">
+        <v>11</v>
+      </c>
+      <c r="AX308">
+        <v>3</v>
+      </c>
+      <c r="AY308">
+        <v>21</v>
+      </c>
+      <c r="AZ308">
+        <v>9</v>
+      </c>
+      <c r="BA308">
+        <v>8</v>
+      </c>
+      <c r="BB308">
+        <v>3</v>
+      </c>
+      <c r="BC308">
+        <v>11</v>
+      </c>
+      <c r="BD308">
+        <v>1.66</v>
+      </c>
+      <c r="BE308">
+        <v>7.5</v>
+      </c>
+      <c r="BF308">
+        <v>2.75</v>
+      </c>
+      <c r="BG308">
+        <v>1.22</v>
+      </c>
+      <c r="BH308">
+        <v>3.8</v>
+      </c>
+      <c r="BI308">
+        <v>1.42</v>
+      </c>
+      <c r="BJ308">
+        <v>2.65</v>
+      </c>
+      <c r="BK308">
+        <v>1.73</v>
+      </c>
+      <c r="BL308">
+        <v>2</v>
+      </c>
+      <c r="BM308">
+        <v>2.2</v>
+      </c>
+      <c r="BN308">
+        <v>1.61</v>
+      </c>
+      <c r="BO308">
+        <v>3</v>
+      </c>
+      <c r="BP308">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="309" spans="1:68">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>7389495</v>
+      </c>
+      <c r="C309" t="s">
+        <v>68</v>
+      </c>
+      <c r="D309" t="s">
+        <v>69</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45437.64583333334</v>
+      </c>
+      <c r="F309">
+        <v>10</v>
+      </c>
+      <c r="G309" t="s">
+        <v>75</v>
+      </c>
+      <c r="H309" t="s">
+        <v>77</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>2</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>2</v>
+      </c>
+      <c r="O309" t="s">
+        <v>286</v>
+      </c>
+      <c r="P309" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q309">
+        <v>1.93</v>
+      </c>
+      <c r="R309">
+        <v>2.55</v>
+      </c>
+      <c r="S309">
+        <v>4.75</v>
+      </c>
+      <c r="T309">
+        <v>1.22</v>
+      </c>
+      <c r="U309">
+        <v>3.8</v>
+      </c>
+      <c r="V309">
+        <v>2.05</v>
+      </c>
+      <c r="W309">
+        <v>1.7</v>
+      </c>
+      <c r="X309">
+        <v>4.33</v>
+      </c>
+      <c r="Y309">
+        <v>1.2</v>
+      </c>
+      <c r="Z309">
+        <v>1.5</v>
+      </c>
+      <c r="AA309">
+        <v>4.5</v>
+      </c>
+      <c r="AB309">
+        <v>5</v>
+      </c>
+      <c r="AC309">
+        <v>1.02</v>
+      </c>
+      <c r="AD309">
+        <v>26</v>
+      </c>
+      <c r="AE309">
+        <v>1.12</v>
+      </c>
+      <c r="AF309">
+        <v>5.75</v>
+      </c>
+      <c r="AG309">
+        <v>1.38</v>
+      </c>
+      <c r="AH309">
+        <v>2.9</v>
+      </c>
+      <c r="AI309">
+        <v>1.48</v>
+      </c>
+      <c r="AJ309">
+        <v>2.4</v>
+      </c>
+      <c r="AK309">
+        <v>1.15</v>
+      </c>
+      <c r="AL309">
+        <v>1.14</v>
+      </c>
+      <c r="AM309">
+        <v>2.5</v>
+      </c>
+      <c r="AN309">
+        <v>1.89</v>
+      </c>
+      <c r="AO309">
+        <v>0.89</v>
+      </c>
+      <c r="AP309">
+        <v>1.95</v>
+      </c>
+      <c r="AQ309">
+        <v>0.85</v>
+      </c>
+      <c r="AR309">
+        <v>1.81</v>
+      </c>
+      <c r="AS309">
+        <v>1.23</v>
+      </c>
+      <c r="AT309">
+        <v>3.04</v>
+      </c>
+      <c r="AU309">
+        <v>5</v>
+      </c>
+      <c r="AV309">
+        <v>3</v>
+      </c>
+      <c r="AW309">
+        <v>3</v>
+      </c>
+      <c r="AX309">
+        <v>13</v>
+      </c>
+      <c r="AY309">
+        <v>8</v>
+      </c>
+      <c r="AZ309">
+        <v>16</v>
+      </c>
+      <c r="BA309">
+        <v>4</v>
+      </c>
+      <c r="BB309">
+        <v>4</v>
+      </c>
+      <c r="BC309">
+        <v>8</v>
+      </c>
+      <c r="BD309">
+        <v>1.27</v>
+      </c>
+      <c r="BE309">
+        <v>9</v>
+      </c>
+      <c r="BF309">
+        <v>4.75</v>
+      </c>
+      <c r="BG309">
+        <v>1.18</v>
+      </c>
+      <c r="BH309">
+        <v>4.3</v>
+      </c>
+      <c r="BI309">
+        <v>1.34</v>
+      </c>
+      <c r="BJ309">
+        <v>2.95</v>
+      </c>
+      <c r="BK309">
+        <v>1.61</v>
+      </c>
+      <c r="BL309">
+        <v>2.2</v>
+      </c>
+      <c r="BM309">
+        <v>2</v>
+      </c>
+      <c r="BN309">
+        <v>1.73</v>
+      </c>
+      <c r="BO309">
+        <v>2.6</v>
+      </c>
+      <c r="BP309">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="414">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,10 +610,10 @@
     <t>['90+8']</t>
   </si>
   <si>
-    <t>['3', '28', '90+9']</t>
+    <t>['10', '52']</t>
   </si>
   <si>
-    <t>['10', '52']</t>
+    <t>['3', '28', '90+9']</t>
   </si>
   <si>
     <t>['60']</t>
@@ -637,10 +637,10 @@
     <t>['88']</t>
   </si>
   <si>
-    <t>['44', '90+7']</t>
+    <t>['90+4']</t>
   </si>
   <si>
-    <t>['90+4']</t>
+    <t>['44', '90+7']</t>
   </si>
   <si>
     <t>['31']</t>
@@ -874,7 +874,13 @@
     <t>['15', '17', '90']</t>
   </si>
   <si>
-    <t>['48', '85']</t>
+    <t>['47', '85']</t>
+  </si>
+  <si>
+    <t>['63', '90+3', '90+7']</t>
+  </si>
+  <si>
+    <t>['37', '80']</t>
   </si>
   <si>
     <t>['69', '90+1']</t>
@@ -1075,10 +1081,10 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['17', '87']</t>
+    <t>['12', '22', '34', '54']</t>
   </si>
   <si>
-    <t>['12', '22', '34', '54']</t>
+    <t>['17', '87']</t>
   </si>
   <si>
     <t>['8', '29']</t>
@@ -1247,6 +1253,9 @@
   </si>
   <si>
     <t>['51', '84']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP309"/>
+  <dimension ref="A1:BP312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1945,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ2">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2073,7 +2082,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -2485,7 +2494,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2566,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2769,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2897,7 +2906,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q7">
         <v>1.8</v>
@@ -3181,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ8">
         <v>1.35</v>
@@ -3515,7 +3524,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q10">
         <v>3.5</v>
@@ -4133,7 +4142,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q13">
         <v>2.38</v>
@@ -5241,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
         <v>0.72</v>
@@ -5575,7 +5584,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q20">
         <v>1.9</v>
@@ -5653,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5781,7 +5790,7 @@
         <v>89</v>
       </c>
       <c r="P21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q21">
         <v>3.92</v>
@@ -5862,7 +5871,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR21">
         <v>1.12</v>
@@ -5987,7 +5996,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6068,7 +6077,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ22">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -6193,7 +6202,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6605,7 +6614,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6811,7 +6820,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -7017,7 +7026,7 @@
         <v>89</v>
       </c>
       <c r="P27" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7098,7 +7107,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ27">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR27">
         <v>0.95</v>
@@ -7593,7 +7602,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6573536</v>
+        <v>6573533</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -7608,127 +7617,127 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="Q30">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R30">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S30">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="T30">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U30">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V30">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="W30">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="X30">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y30">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z30">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AA30">
-        <v>4.07</v>
+        <v>3.86</v>
       </c>
       <c r="AB30">
-        <v>5.83</v>
+        <v>4.38</v>
       </c>
       <c r="AC30">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE30">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AF30">
         <v>4.5</v>
       </c>
       <c r="AG30">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AH30">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="AI30">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AJ30">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AK30">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AL30">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AM30">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AQ30">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="AS30">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AT30">
-        <v>2.98</v>
+        <v>3.28</v>
       </c>
       <c r="AU30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV30">
         <v>4</v>
@@ -7737,61 +7746,61 @@
         <v>7</v>
       </c>
       <c r="AX30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA30">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BB30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC30">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BD30">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="BE30">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="BF30">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="BG30">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="BH30">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="BI30">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BJ30">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="BK30">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="BL30">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BM30">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="BN30">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="BO30">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="BP30">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7799,7 +7808,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>6573533</v>
+        <v>6573536</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7814,127 +7823,127 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="Q31">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R31">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S31">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="T31">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U31">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V31">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W31">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="X31">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y31">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z31">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AA31">
-        <v>3.86</v>
+        <v>4.07</v>
       </c>
       <c r="AB31">
-        <v>4.38</v>
+        <v>5.83</v>
       </c>
       <c r="AC31">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE31">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AF31">
         <v>4.5</v>
       </c>
       <c r="AG31">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AH31">
-        <v>2.16</v>
+        <v>1.86</v>
       </c>
       <c r="AI31">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AJ31">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AK31">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AL31">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AM31">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AQ31">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="AR31">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="AS31">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT31">
-        <v>3.28</v>
+        <v>2.98</v>
       </c>
       <c r="AU31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV31">
         <v>4</v>
@@ -7943,61 +7952,61 @@
         <v>7</v>
       </c>
       <c r="AX31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ31">
+        <v>12</v>
+      </c>
+      <c r="BA31">
         <v>7</v>
       </c>
-      <c r="BA31">
-        <v>11</v>
-      </c>
       <c r="BB31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC31">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BD31">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="BE31">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="BF31">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="BG31">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="BH31">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="BI31">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BJ31">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="BK31">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="BL31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BM31">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="BN31">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="BO31">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="BP31">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -8125,7 +8134,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -8253,7 +8262,7 @@
         <v>106</v>
       </c>
       <c r="P33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q33">
         <v>2.75</v>
@@ -8459,7 +8468,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8871,7 +8880,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q36">
         <v>3.4</v>
@@ -9077,7 +9086,7 @@
         <v>89</v>
       </c>
       <c r="P37" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9158,7 +9167,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR37">
         <v>1.4</v>
@@ -9283,7 +9292,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q38">
         <v>2.3</v>
@@ -10313,7 +10322,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10519,7 +10528,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10597,7 +10606,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ44">
         <v>1.15</v>
@@ -10725,7 +10734,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q45">
         <v>2.4</v>
@@ -10806,7 +10815,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ45">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR45">
         <v>2.1</v>
@@ -11137,7 +11146,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -11424,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR48">
         <v>1.61</v>
@@ -11549,7 +11558,7 @@
         <v>89</v>
       </c>
       <c r="P49" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q49">
         <v>2.5</v>
@@ -11627,10 +11636,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ49">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR49">
         <v>1.78</v>
@@ -11755,7 +11764,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11833,7 +11842,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ50">
         <v>0.89</v>
@@ -11961,7 +11970,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q51">
         <v>3.4</v>
@@ -12167,7 +12176,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12248,7 +12257,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR52">
         <v>1.2</v>
@@ -13197,7 +13206,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13481,7 +13490,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -13609,7 +13618,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q59">
         <v>2.1</v>
@@ -13815,7 +13824,7 @@
         <v>89</v>
       </c>
       <c r="P60" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -14511,7 +14520,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
         <v>1.6</v>
@@ -14639,7 +14648,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q64">
         <v>4.5</v>
@@ -14923,10 +14932,10 @@
         <v>3</v>
       </c>
       <c r="AP65">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ65">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR65">
         <v>2.24</v>
@@ -15132,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR66">
         <v>1.17</v>
@@ -15257,7 +15266,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -15338,7 +15347,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR67">
         <v>1.29</v>
@@ -15463,7 +15472,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q68">
         <v>2.7</v>
@@ -15953,7 +15962,7 @@
         <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ70">
         <v>0.89</v>
@@ -16081,7 +16090,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q71">
         <v>1.96</v>
@@ -16365,7 +16374,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ72">
         <v>0.85</v>
@@ -16905,7 +16914,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -17317,7 +17326,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q77">
         <v>2.3</v>
@@ -17523,7 +17532,7 @@
         <v>141</v>
       </c>
       <c r="P78" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q78">
         <v>4.5</v>
@@ -17807,7 +17816,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79">
         <v>0.5600000000000001</v>
@@ -18016,7 +18025,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ80">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR80">
         <v>1.6</v>
@@ -18141,7 +18150,7 @@
         <v>89</v>
       </c>
       <c r="P81" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -18425,7 +18434,7 @@
         <v>1.2</v>
       </c>
       <c r="AP82">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ82">
         <v>0.5600000000000001</v>
@@ -18759,7 +18768,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18965,7 +18974,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -19583,7 +19592,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q88">
         <v>3.6</v>
@@ -19664,7 +19673,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ88">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -20201,7 +20210,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20282,7 +20291,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ91">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20819,7 +20828,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20897,7 +20906,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ94">
         <v>1.15</v>
@@ -21025,7 +21034,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -21437,7 +21446,7 @@
         <v>89</v>
       </c>
       <c r="P97" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q97">
         <v>5.1</v>
@@ -21518,7 +21527,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR97">
         <v>1.08</v>
@@ -21643,7 +21652,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q98">
         <v>2.37</v>
@@ -21849,7 +21858,7 @@
         <v>109</v>
       </c>
       <c r="P99" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -22055,7 +22064,7 @@
         <v>89</v>
       </c>
       <c r="P100" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q100">
         <v>2.48</v>
@@ -22261,7 +22270,7 @@
         <v>158</v>
       </c>
       <c r="P101" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q101">
         <v>2.65</v>
@@ -22339,10 +22348,10 @@
         <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ101">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR101">
         <v>2.03</v>
@@ -22467,7 +22476,7 @@
         <v>89</v>
       </c>
       <c r="P102" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22548,7 +22557,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ102">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR102">
         <v>1.55</v>
@@ -22957,7 +22966,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ104">
         <v>1.7</v>
@@ -23085,7 +23094,7 @@
         <v>117</v>
       </c>
       <c r="P105" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -23291,7 +23300,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q106">
         <v>3.05</v>
@@ -23575,7 +23584,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ107">
         <v>0.65</v>
@@ -23703,7 +23712,7 @@
         <v>163</v>
       </c>
       <c r="P108" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q108">
         <v>2.95</v>
@@ -24193,10 +24202,10 @@
         <v>1.5</v>
       </c>
       <c r="AP110">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ110">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR110">
         <v>1.88</v>
@@ -24321,7 +24330,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q111">
         <v>1.83</v>
@@ -24608,7 +24617,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ112">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR112">
         <v>1.83</v>
@@ -24811,7 +24820,7 @@
         <v>0.17</v>
       </c>
       <c r="AP113">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ113">
         <v>0.72</v>
@@ -25351,7 +25360,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -25638,7 +25647,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ117">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR117">
         <v>1.36</v>
@@ -25763,7 +25772,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q118">
         <v>3.1</v>
@@ -26175,7 +26184,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q120">
         <v>1.91</v>
@@ -26381,7 +26390,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26587,7 +26596,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q122">
         <v>4.1</v>
@@ -26668,7 +26677,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR122">
         <v>1.23</v>
@@ -27283,7 +27292,7 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ125">
         <v>0.8</v>
@@ -27411,7 +27420,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27617,7 +27626,7 @@
         <v>89</v>
       </c>
       <c r="P127" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27901,7 +27910,7 @@
         <v>1.14</v>
       </c>
       <c r="AP128">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ128">
         <v>0.65</v>
@@ -28029,7 +28038,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28107,10 +28116,10 @@
         <v>1.43</v>
       </c>
       <c r="AP129">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ129">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR129">
         <v>2</v>
@@ -28235,7 +28244,7 @@
         <v>106</v>
       </c>
       <c r="P130" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q130">
         <v>3.1</v>
@@ -28441,7 +28450,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -29265,7 +29274,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q135">
         <v>5.5</v>
@@ -29346,7 +29355,7 @@
         <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR135">
         <v>1.28</v>
@@ -29471,7 +29480,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q136">
         <v>1.85</v>
@@ -29677,7 +29686,7 @@
         <v>181</v>
       </c>
       <c r="P137" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q137">
         <v>4.6</v>
@@ -30089,7 +30098,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q139">
         <v>4</v>
@@ -30170,7 +30179,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ139">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR139">
         <v>1.26</v>
@@ -30785,7 +30794,7 @@
         <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ142">
         <v>1.6</v>
@@ -30991,7 +31000,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ143">
         <v>1.35</v>
@@ -31119,7 +31128,7 @@
         <v>187</v>
       </c>
       <c r="P144" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q144">
         <v>2.5</v>
@@ -31197,10 +31206,10 @@
         <v>1.67</v>
       </c>
       <c r="AP144">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ144">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR144">
         <v>1.92</v>
@@ -32149,7 +32158,7 @@
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q149">
         <v>6.2</v>
@@ -32355,7 +32364,7 @@
         <v>106</v>
       </c>
       <c r="P150" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q150">
         <v>8.119999999999999</v>
@@ -32561,7 +32570,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q151">
         <v>1.82</v>
@@ -32639,7 +32648,7 @@
         <v>1.11</v>
       </c>
       <c r="AP151">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ151">
         <v>0.84</v>
@@ -33054,7 +33063,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ153">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR153">
         <v>1.74</v>
@@ -33343,7 +33352,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>6573663</v>
+        <v>6573664</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -33358,190 +33367,190 @@
         <v>20</v>
       </c>
       <c r="G155" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H155" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O155" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
       <c r="P155" t="s">
-        <v>89</v>
+        <v>352</v>
       </c>
       <c r="Q155">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="R155">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="S155">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U155">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="V155">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="W155">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="X155">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="Y155">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="Z155">
-        <v>1.76</v>
+        <v>7.18</v>
       </c>
       <c r="AA155">
-        <v>4.05</v>
+        <v>5.27</v>
       </c>
       <c r="AB155">
-        <v>4</v>
+        <v>1.35</v>
       </c>
       <c r="AC155">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD155">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="AE155">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AF155">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="AG155">
+        <v>1.53</v>
+      </c>
+      <c r="AH155">
+        <v>2.35</v>
+      </c>
+      <c r="AI155">
         <v>1.7</v>
       </c>
-      <c r="AH155">
-        <v>2.16</v>
-      </c>
-      <c r="AI155">
-        <v>1.55</v>
-      </c>
       <c r="AJ155">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AK155">
-        <v>1.22</v>
+        <v>2.95</v>
       </c>
       <c r="AL155">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AM155">
-        <v>1.93</v>
+        <v>1.08</v>
       </c>
       <c r="AN155">
         <v>0.89</v>
       </c>
       <c r="AO155">
-        <v>0.78</v>
+        <v>1.44</v>
       </c>
       <c r="AP155">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ155">
-        <v>0.5600000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AR155">
         <v>1.23</v>
       </c>
       <c r="AS155">
-        <v>1.06</v>
+        <v>1.54</v>
       </c>
       <c r="AT155">
-        <v>2.29</v>
+        <v>2.77</v>
       </c>
       <c r="AU155">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV155">
+        <v>10</v>
+      </c>
+      <c r="AW155">
+        <v>2</v>
+      </c>
+      <c r="AX155">
         <v>7</v>
       </c>
-      <c r="AW155">
+      <c r="AY155">
+        <v>6</v>
+      </c>
+      <c r="AZ155">
+        <v>17</v>
+      </c>
+      <c r="BA155">
+        <v>4</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
         <v>9</v>
       </c>
-      <c r="AX155">
-        <v>4</v>
-      </c>
-      <c r="AY155">
-        <v>17</v>
-      </c>
-      <c r="AZ155">
+      <c r="BD155">
+        <v>6.75</v>
+      </c>
+      <c r="BE155">
         <v>11</v>
       </c>
-      <c r="BA155">
-        <v>7</v>
-      </c>
-      <c r="BB155">
-        <v>3</v>
-      </c>
-      <c r="BC155">
-        <v>10</v>
-      </c>
-      <c r="BD155">
-        <v>1.56</v>
-      </c>
-      <c r="BE155">
-        <v>8</v>
-      </c>
       <c r="BF155">
-        <v>2.9</v>
+        <v>1.15</v>
       </c>
       <c r="BG155">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="BH155">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="BI155">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BJ155">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="BK155">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BL155">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BM155">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="BN155">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="BO155">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BP155">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33549,7 +33558,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>6573664</v>
+        <v>6573663</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33564,190 +33573,190 @@
         <v>20</v>
       </c>
       <c r="G156" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H156" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O156" t="s">
+        <v>195</v>
+      </c>
+      <c r="P156" t="s">
         <v>89</v>
       </c>
-      <c r="P156" t="s">
-        <v>350</v>
-      </c>
       <c r="Q156">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="R156">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="T156">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U156">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="V156">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="W156">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="X156">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="Y156">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="Z156">
-        <v>7.18</v>
+        <v>1.76</v>
       </c>
       <c r="AA156">
-        <v>5.27</v>
+        <v>4.05</v>
       </c>
       <c r="AB156">
-        <v>1.35</v>
+        <v>4</v>
       </c>
       <c r="AC156">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD156">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="AE156">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AF156">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="AG156">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AH156">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="AI156">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AJ156">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AK156">
-        <v>2.95</v>
+        <v>1.22</v>
       </c>
       <c r="AL156">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AM156">
-        <v>1.08</v>
+        <v>1.93</v>
       </c>
       <c r="AN156">
         <v>0.89</v>
       </c>
       <c r="AO156">
-        <v>1.44</v>
+        <v>0.78</v>
       </c>
       <c r="AP156">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ156">
-        <v>1.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR156">
         <v>1.23</v>
       </c>
       <c r="AS156">
-        <v>1.54</v>
+        <v>1.06</v>
       </c>
       <c r="AT156">
-        <v>2.77</v>
+        <v>2.29</v>
       </c>
       <c r="AU156">
+        <v>8</v>
+      </c>
+      <c r="AV156">
+        <v>7</v>
+      </c>
+      <c r="AW156">
+        <v>9</v>
+      </c>
+      <c r="AX156">
         <v>4</v>
       </c>
-      <c r="AV156">
+      <c r="AY156">
+        <v>17</v>
+      </c>
+      <c r="AZ156">
+        <v>11</v>
+      </c>
+      <c r="BA156">
+        <v>7</v>
+      </c>
+      <c r="BB156">
+        <v>3</v>
+      </c>
+      <c r="BC156">
         <v>10</v>
       </c>
-      <c r="AW156">
-        <v>2</v>
-      </c>
-      <c r="AX156">
-        <v>7</v>
-      </c>
-      <c r="AY156">
-        <v>6</v>
-      </c>
-      <c r="AZ156">
-        <v>17</v>
-      </c>
-      <c r="BA156">
-        <v>4</v>
-      </c>
-      <c r="BB156">
-        <v>5</v>
-      </c>
-      <c r="BC156">
-        <v>9</v>
-      </c>
       <c r="BD156">
-        <v>6.75</v>
+        <v>1.56</v>
       </c>
       <c r="BE156">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BF156">
-        <v>1.15</v>
+        <v>2.9</v>
       </c>
       <c r="BG156">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="BH156">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="BI156">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="BJ156">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="BK156">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BL156">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="BM156">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="BN156">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="BO156">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="BP156">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -34081,7 +34090,7 @@
         <v>2.44</v>
       </c>
       <c r="AP158">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ158">
         <v>2.05</v>
@@ -34373,7 +34382,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>6573666</v>
+        <v>6573660</v>
       </c>
       <c r="C160" t="s">
         <v>68</v>
@@ -34388,190 +34397,190 @@
         <v>20</v>
       </c>
       <c r="G160" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H160" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
       <c r="K160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O160" t="s">
         <v>198</v>
       </c>
       <c r="P160" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="Q160">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="R160">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S160">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T160">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="U160">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="V160">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="W160">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="X160">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="Y160">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="Z160">
+        <v>1.95</v>
+      </c>
+      <c r="AA160">
+        <v>3.6</v>
+      </c>
+      <c r="AB160">
+        <v>3.6</v>
+      </c>
+      <c r="AC160">
+        <v>1.04</v>
+      </c>
+      <c r="AD160">
+        <v>10</v>
+      </c>
+      <c r="AE160">
+        <v>1.22</v>
+      </c>
+      <c r="AF160">
+        <v>4.2</v>
+      </c>
+      <c r="AG160">
+        <v>1.7</v>
+      </c>
+      <c r="AH160">
+        <v>2.05</v>
+      </c>
+      <c r="AI160">
+        <v>1.57</v>
+      </c>
+      <c r="AJ160">
         <v>2.2</v>
       </c>
-      <c r="AA160">
-        <v>3.25</v>
-      </c>
-      <c r="AB160">
-        <v>3.25</v>
-      </c>
-      <c r="AC160">
-        <v>1.05</v>
-      </c>
-      <c r="AD160">
-        <v>9</v>
-      </c>
-      <c r="AE160">
-        <v>1.3</v>
-      </c>
-      <c r="AF160">
-        <v>3.45</v>
-      </c>
-      <c r="AG160">
-        <v>2.05</v>
-      </c>
-      <c r="AH160">
-        <v>1.7</v>
-      </c>
-      <c r="AI160">
-        <v>1.67</v>
-      </c>
-      <c r="AJ160">
-        <v>2.05</v>
-      </c>
       <c r="AK160">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AL160">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM160">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AN160">
-        <v>1.67</v>
+        <v>2.56</v>
       </c>
       <c r="AO160">
-        <v>0.89</v>
+        <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>1.61</v>
+        <v>2.4</v>
       </c>
       <c r="AQ160">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AR160">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AS160">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="AT160">
-        <v>2.84</v>
+        <v>3.34</v>
       </c>
       <c r="AU160">
+        <v>5</v>
+      </c>
+      <c r="AV160">
+        <v>8</v>
+      </c>
+      <c r="AW160">
+        <v>2</v>
+      </c>
+      <c r="AX160">
+        <v>10</v>
+      </c>
+      <c r="AY160">
         <v>7</v>
       </c>
-      <c r="AV160">
-        <v>6</v>
-      </c>
-      <c r="AW160">
-        <v>8</v>
-      </c>
-      <c r="AX160">
-        <v>4</v>
-      </c>
-      <c r="AY160">
-        <v>15</v>
-      </c>
       <c r="AZ160">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB160">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BC160">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD160">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="BE160">
         <v>7.5</v>
       </c>
       <c r="BF160">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="BG160">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BH160">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="BI160">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BJ160">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="BK160">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="BL160">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="BM160">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="BN160">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BO160">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BP160">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="161" spans="1:68">
@@ -34579,7 +34588,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>6573660</v>
+        <v>6573666</v>
       </c>
       <c r="C161" t="s">
         <v>68</v>
@@ -34594,190 +34603,190 @@
         <v>20</v>
       </c>
       <c r="G161" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H161" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
       <c r="K161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O161" t="s">
         <v>199</v>
       </c>
       <c r="P161" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="Q161">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="R161">
+        <v>2.1</v>
+      </c>
+      <c r="S161">
+        <v>3.8</v>
+      </c>
+      <c r="T161">
+        <v>1.38</v>
+      </c>
+      <c r="U161">
+        <v>2.8</v>
+      </c>
+      <c r="V161">
+        <v>2.75</v>
+      </c>
+      <c r="W161">
+        <v>1.4</v>
+      </c>
+      <c r="X161">
+        <v>6.75</v>
+      </c>
+      <c r="Y161">
+        <v>1.09</v>
+      </c>
+      <c r="Z161">
         <v>2.2</v>
       </c>
-      <c r="S161">
+      <c r="AA161">
+        <v>3.25</v>
+      </c>
+      <c r="AB161">
+        <v>3.25</v>
+      </c>
+      <c r="AC161">
+        <v>1.05</v>
+      </c>
+      <c r="AD161">
+        <v>9</v>
+      </c>
+      <c r="AE161">
+        <v>1.3</v>
+      </c>
+      <c r="AF161">
+        <v>3.45</v>
+      </c>
+      <c r="AG161">
+        <v>2.05</v>
+      </c>
+      <c r="AH161">
+        <v>1.7</v>
+      </c>
+      <c r="AI161">
+        <v>1.67</v>
+      </c>
+      <c r="AJ161">
+        <v>2.05</v>
+      </c>
+      <c r="AK161">
+        <v>1.3</v>
+      </c>
+      <c r="AL161">
+        <v>1.25</v>
+      </c>
+      <c r="AM161">
+        <v>1.7</v>
+      </c>
+      <c r="AN161">
+        <v>1.67</v>
+      </c>
+      <c r="AO161">
+        <v>0.89</v>
+      </c>
+      <c r="AP161">
+        <v>1.61</v>
+      </c>
+      <c r="AQ161">
+        <v>1.35</v>
+      </c>
+      <c r="AR161">
+        <v>1.47</v>
+      </c>
+      <c r="AS161">
+        <v>1.37</v>
+      </c>
+      <c r="AT161">
+        <v>2.84</v>
+      </c>
+      <c r="AU161">
+        <v>7</v>
+      </c>
+      <c r="AV161">
+        <v>6</v>
+      </c>
+      <c r="AW161">
+        <v>8</v>
+      </c>
+      <c r="AX161">
         <v>4</v>
       </c>
-      <c r="T161">
-        <v>1.33</v>
-      </c>
-      <c r="U161">
-        <v>3</v>
-      </c>
-      <c r="V161">
-        <v>2.45</v>
-      </c>
-      <c r="W161">
-        <v>1.48</v>
-      </c>
-      <c r="X161">
-        <v>6</v>
-      </c>
-      <c r="Y161">
-        <v>1.11</v>
-      </c>
-      <c r="Z161">
-        <v>1.95</v>
-      </c>
-      <c r="AA161">
-        <v>3.6</v>
-      </c>
-      <c r="AB161">
-        <v>3.6</v>
-      </c>
-      <c r="AC161">
-        <v>1.04</v>
-      </c>
-      <c r="AD161">
+      <c r="AY161">
+        <v>15</v>
+      </c>
+      <c r="AZ161">
         <v>10</v>
       </c>
-      <c r="AE161">
-        <v>1.22</v>
-      </c>
-      <c r="AF161">
-        <v>4.2</v>
-      </c>
-      <c r="AG161">
-        <v>1.7</v>
-      </c>
-      <c r="AH161">
-        <v>2.05</v>
-      </c>
-      <c r="AI161">
-        <v>1.57</v>
-      </c>
-      <c r="AJ161">
-        <v>2.2</v>
-      </c>
-      <c r="AK161">
-        <v>1.25</v>
-      </c>
-      <c r="AL161">
-        <v>1.22</v>
-      </c>
-      <c r="AM161">
-        <v>1.85</v>
-      </c>
-      <c r="AN161">
-        <v>2.56</v>
-      </c>
-      <c r="AO161">
-        <v>1.44</v>
-      </c>
-      <c r="AP161">
-        <v>2.4</v>
-      </c>
-      <c r="AQ161">
-        <v>1.47</v>
-      </c>
-      <c r="AR161">
-        <v>1.66</v>
-      </c>
-      <c r="AS161">
-        <v>1.68</v>
-      </c>
-      <c r="AT161">
-        <v>3.34</v>
-      </c>
-      <c r="AU161">
+      <c r="BA161">
         <v>5</v>
       </c>
-      <c r="AV161">
-        <v>8</v>
-      </c>
-      <c r="AW161">
-        <v>2</v>
-      </c>
-      <c r="AX161">
-        <v>10</v>
-      </c>
-      <c r="AY161">
+      <c r="BB161">
         <v>7</v>
       </c>
-      <c r="AZ161">
-        <v>18</v>
-      </c>
-      <c r="BA161">
-        <v>2</v>
-      </c>
-      <c r="BB161">
+      <c r="BC161">
         <v>12</v>
       </c>
-      <c r="BC161">
-        <v>14</v>
-      </c>
       <c r="BD161">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="BE161">
         <v>7.5</v>
       </c>
       <c r="BF161">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="BG161">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="BH161">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="BI161">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="BJ161">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="BK161">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="BL161">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="BM161">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BN161">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="BO161">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BP161">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="162" spans="1:68">
@@ -34827,7 +34836,7 @@
         <v>200</v>
       </c>
       <c r="P162" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q162">
         <v>1.91</v>
@@ -35033,7 +35042,7 @@
         <v>201</v>
       </c>
       <c r="P163" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q163">
         <v>2.38</v>
@@ -35114,7 +35123,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ163">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR163">
         <v>2.06</v>
@@ -35523,7 +35532,7 @@
         <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ165">
         <v>0.84</v>
@@ -35651,7 +35660,7 @@
         <v>203</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35729,7 +35738,7 @@
         <v>0.3</v>
       </c>
       <c r="AP166">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ166">
         <v>0.89</v>
@@ -35935,7 +35944,7 @@
         <v>1.2</v>
       </c>
       <c r="AP167">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ167">
         <v>0.85</v>
@@ -36144,7 +36153,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ168">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR168">
         <v>1.31</v>
@@ -36269,7 +36278,7 @@
         <v>89</v>
       </c>
       <c r="P169" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36845,7 +36854,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>6573676</v>
+        <v>6573681</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36860,190 +36869,190 @@
         <v>22</v>
       </c>
       <c r="G172" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H172" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O172" t="s">
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q172">
-        <v>1.87</v>
+        <v>5.5</v>
       </c>
       <c r="R172">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="S172">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="T172">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U172">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="V172">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W172">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="X172">
-        <v>4.6</v>
+        <v>5.95</v>
       </c>
       <c r="Y172">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="Z172">
-        <v>1.34</v>
+        <v>5.5</v>
       </c>
       <c r="AA172">
-        <v>5.18</v>
+        <v>4.2</v>
       </c>
       <c r="AB172">
-        <v>6.86</v>
+        <v>1.5</v>
       </c>
       <c r="AC172">
         <v>1.02</v>
       </c>
       <c r="AD172">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE172">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AF172">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="AG172">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AH172">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="AI172">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AJ172">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK172">
-        <v>1.08</v>
+        <v>2.6</v>
       </c>
       <c r="AL172">
+        <v>1.17</v>
+      </c>
+      <c r="AM172">
         <v>1.12</v>
       </c>
-      <c r="AM172">
-        <v>3</v>
-      </c>
       <c r="AN172">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO172">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP172">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="AQ172">
-        <v>0.84</v>
+        <v>1.7</v>
       </c>
       <c r="AR172">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="AS172">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="AT172">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="AU172">
+        <v>7</v>
+      </c>
+      <c r="AV172">
+        <v>8</v>
+      </c>
+      <c r="AW172">
+        <v>4</v>
+      </c>
+      <c r="AX172">
         <v>6</v>
-      </c>
-      <c r="AV172">
-        <v>7</v>
-      </c>
-      <c r="AW172">
-        <v>5</v>
-      </c>
-      <c r="AX172">
-        <v>3</v>
       </c>
       <c r="AY172">
         <v>11</v>
       </c>
       <c r="AZ172">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA172">
+        <v>3</v>
+      </c>
+      <c r="BB172">
         <v>5</v>
-      </c>
-      <c r="BB172">
-        <v>3</v>
       </c>
       <c r="BC172">
         <v>8</v>
       </c>
       <c r="BD172">
-        <v>1.18</v>
+        <v>3.25</v>
       </c>
       <c r="BE172">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BF172">
-        <v>6</v>
+        <v>1.47</v>
       </c>
       <c r="BG172">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH172">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="BI172">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="BJ172">
+        <v>2.75</v>
+      </c>
+      <c r="BK172">
+        <v>1.74</v>
+      </c>
+      <c r="BL172">
+        <v>2.02</v>
+      </c>
+      <c r="BM172">
+        <v>2.23</v>
+      </c>
+      <c r="BN172">
+        <v>1.61</v>
+      </c>
+      <c r="BO172">
         <v>3</v>
       </c>
-      <c r="BK172">
-        <v>1.61</v>
-      </c>
-      <c r="BL172">
-        <v>2.23</v>
-      </c>
-      <c r="BM172">
-        <v>2.02</v>
-      </c>
-      <c r="BN172">
-        <v>1.74</v>
-      </c>
-      <c r="BO172">
-        <v>2.7</v>
-      </c>
       <c r="BP172">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -37051,7 +37060,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>6573681</v>
+        <v>6573676</v>
       </c>
       <c r="C173" t="s">
         <v>68</v>
@@ -37066,190 +37075,190 @@
         <v>22</v>
       </c>
       <c r="G173" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H173" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
         <v>4</v>
-      </c>
-      <c r="N173">
-        <v>5</v>
       </c>
       <c r="O173" t="s">
         <v>208</v>
       </c>
       <c r="P173" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q173">
-        <v>5.5</v>
+        <v>1.87</v>
       </c>
       <c r="R173">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="T173">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U173">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="V173">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W173">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="X173">
-        <v>5.95</v>
+        <v>4.6</v>
       </c>
       <c r="Y173">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="Z173">
-        <v>5.5</v>
+        <v>1.34</v>
       </c>
       <c r="AA173">
-        <v>4.2</v>
+        <v>5.18</v>
       </c>
       <c r="AB173">
-        <v>1.5</v>
+        <v>6.86</v>
       </c>
       <c r="AC173">
         <v>1.02</v>
       </c>
       <c r="AD173">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE173">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AF173">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AG173">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="AH173">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="AI173">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AJ173">
+        <v>2.1</v>
+      </c>
+      <c r="AK173">
+        <v>1.08</v>
+      </c>
+      <c r="AL173">
+        <v>1.12</v>
+      </c>
+      <c r="AM173">
+        <v>3</v>
+      </c>
+      <c r="AN173">
+        <v>2</v>
+      </c>
+      <c r="AO173">
+        <v>1</v>
+      </c>
+      <c r="AP173">
         <v>1.95</v>
       </c>
-      <c r="AK173">
-        <v>2.6</v>
-      </c>
-      <c r="AL173">
-        <v>1.17</v>
-      </c>
-      <c r="AM173">
-        <v>1.12</v>
-      </c>
-      <c r="AN173">
-        <v>1.8</v>
-      </c>
-      <c r="AO173">
-        <v>1.4</v>
-      </c>
-      <c r="AP173">
-        <v>1.61</v>
-      </c>
       <c r="AQ173">
-        <v>1.7</v>
+        <v>0.84</v>
       </c>
       <c r="AR173">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="AS173">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="AT173">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="AU173">
+        <v>6</v>
+      </c>
+      <c r="AV173">
         <v>7</v>
       </c>
-      <c r="AV173">
-        <v>8</v>
-      </c>
       <c r="AW173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY173">
         <v>11</v>
       </c>
       <c r="AZ173">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA173">
+        <v>5</v>
+      </c>
+      <c r="BB173">
         <v>3</v>
-      </c>
-      <c r="BB173">
-        <v>5</v>
       </c>
       <c r="BC173">
         <v>8</v>
       </c>
       <c r="BD173">
-        <v>3.25</v>
+        <v>1.18</v>
       </c>
       <c r="BE173">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="BF173">
-        <v>1.47</v>
+        <v>6</v>
       </c>
       <c r="BG173">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH173">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="BI173">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="BJ173">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="BK173">
+        <v>1.61</v>
+      </c>
+      <c r="BL173">
+        <v>2.23</v>
+      </c>
+      <c r="BM173">
+        <v>2.02</v>
+      </c>
+      <c r="BN173">
         <v>1.74</v>
       </c>
-      <c r="BL173">
-        <v>2.02</v>
-      </c>
-      <c r="BM173">
-        <v>2.23</v>
-      </c>
-      <c r="BN173">
-        <v>1.61</v>
-      </c>
       <c r="BO173">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="BP173">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="174" spans="1:68">
@@ -37380,7 +37389,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ174">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR174">
         <v>1.56</v>
@@ -37711,7 +37720,7 @@
         <v>210</v>
       </c>
       <c r="P176" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -38123,7 +38132,7 @@
         <v>212</v>
       </c>
       <c r="P178" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q178">
         <v>3.92</v>
@@ -38204,7 +38213,7 @@
         <v>1</v>
       </c>
       <c r="AQ178">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR178">
         <v>1.35</v>
@@ -38329,7 +38338,7 @@
         <v>213</v>
       </c>
       <c r="P179" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q179">
         <v>1.44</v>
@@ -38407,7 +38416,7 @@
         <v>0.45</v>
       </c>
       <c r="AP179">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ179">
         <v>0.72</v>
@@ -38616,7 +38625,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ180">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR180">
         <v>1.3</v>
@@ -38905,7 +38914,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>6573686</v>
+        <v>6573684</v>
       </c>
       <c r="C182" t="s">
         <v>68</v>
@@ -38920,190 +38929,190 @@
         <v>23</v>
       </c>
       <c r="G182" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H182" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L182">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>89</v>
+      </c>
+      <c r="P182" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q182">
+        <v>4.45</v>
+      </c>
+      <c r="R182">
+        <v>2.2</v>
+      </c>
+      <c r="S182">
+        <v>2.42</v>
+      </c>
+      <c r="T182">
+        <v>1.36</v>
+      </c>
+      <c r="U182">
+        <v>2.99</v>
+      </c>
+      <c r="V182">
+        <v>2.71</v>
+      </c>
+      <c r="W182">
+        <v>1.43</v>
+      </c>
+      <c r="X182">
+        <v>6.7</v>
+      </c>
+      <c r="Y182">
+        <v>1.09</v>
+      </c>
+      <c r="Z182">
+        <v>4.12</v>
+      </c>
+      <c r="AA182">
+        <v>3.68</v>
+      </c>
+      <c r="AB182">
+        <v>1.78</v>
+      </c>
+      <c r="AC182">
+        <v>1.01</v>
+      </c>
+      <c r="AD182">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE182">
+        <v>1.24</v>
+      </c>
+      <c r="AF182">
+        <v>3.5</v>
+      </c>
+      <c r="AG182">
+        <v>1.78</v>
+      </c>
+      <c r="AH182">
+        <v>1.98</v>
+      </c>
+      <c r="AI182">
+        <v>1.74</v>
+      </c>
+      <c r="AJ182">
+        <v>2.02</v>
+      </c>
+      <c r="AK182">
+        <v>1.92</v>
+      </c>
+      <c r="AL182">
+        <v>1.28</v>
+      </c>
+      <c r="AM182">
+        <v>1.25</v>
+      </c>
+      <c r="AN182">
+        <v>1.27</v>
+      </c>
+      <c r="AO182">
+        <v>0.91</v>
+      </c>
+      <c r="AP182">
+        <v>1.37</v>
+      </c>
+      <c r="AQ182">
+        <v>1.15</v>
+      </c>
+      <c r="AR182">
+        <v>1.29</v>
+      </c>
+      <c r="AS182">
+        <v>1.33</v>
+      </c>
+      <c r="AT182">
+        <v>2.62</v>
+      </c>
+      <c r="AU182">
         <v>5</v>
-      </c>
-      <c r="O182" t="s">
-        <v>215</v>
-      </c>
-      <c r="P182" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q182">
-        <v>1.55</v>
-      </c>
-      <c r="R182">
-        <v>2.9</v>
-      </c>
-      <c r="S182">
-        <v>7.5</v>
-      </c>
-      <c r="T182">
-        <v>1.22</v>
-      </c>
-      <c r="U182">
-        <v>3.9</v>
-      </c>
-      <c r="V182">
-        <v>2.05</v>
-      </c>
-      <c r="W182">
-        <v>1.7</v>
-      </c>
-      <c r="X182">
-        <v>4.2</v>
-      </c>
-      <c r="Y182">
-        <v>1.19</v>
-      </c>
-      <c r="Z182">
-        <v>1.18</v>
-      </c>
-      <c r="AA182">
-        <v>6.58</v>
-      </c>
-      <c r="AB182">
-        <v>10.77</v>
-      </c>
-      <c r="AC182">
-        <v>1.02</v>
-      </c>
-      <c r="AD182">
-        <v>13</v>
-      </c>
-      <c r="AE182">
-        <v>1.13</v>
-      </c>
-      <c r="AF182">
-        <v>6</v>
-      </c>
-      <c r="AG182">
-        <v>1.36</v>
-      </c>
-      <c r="AH182">
-        <v>2.74</v>
-      </c>
-      <c r="AI182">
-        <v>1.95</v>
-      </c>
-      <c r="AJ182">
-        <v>1.73</v>
-      </c>
-      <c r="AK182">
-        <v>1.04</v>
-      </c>
-      <c r="AL182">
-        <v>1.09</v>
-      </c>
-      <c r="AM182">
-        <v>4.33</v>
-      </c>
-      <c r="AN182">
-        <v>2.55</v>
-      </c>
-      <c r="AO182">
-        <v>0.73</v>
-      </c>
-      <c r="AP182">
-        <v>2.11</v>
-      </c>
-      <c r="AQ182">
-        <v>0.67</v>
-      </c>
-      <c r="AR182">
-        <v>2</v>
-      </c>
-      <c r="AS182">
-        <v>1.01</v>
-      </c>
-      <c r="AT182">
-        <v>3.01</v>
-      </c>
-      <c r="AU182">
-        <v>6</v>
       </c>
       <c r="AV182">
         <v>3</v>
       </c>
       <c r="AW182">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX182">
+        <v>1</v>
+      </c>
+      <c r="AY182">
+        <v>12</v>
+      </c>
+      <c r="AZ182">
         <v>4</v>
       </c>
-      <c r="AY182">
-        <v>9</v>
-      </c>
-      <c r="AZ182">
-        <v>7</v>
-      </c>
       <c r="BA182">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB182">
         <v>4</v>
       </c>
       <c r="BC182">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD182">
-        <v>1.07</v>
+        <v>3.05</v>
       </c>
       <c r="BE182">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="BF182">
-        <v>13</v>
+        <v>1.62</v>
       </c>
       <c r="BG182">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="BH182">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="BI182">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="BJ182">
-        <v>2.85</v>
+        <v>2.25</v>
       </c>
       <c r="BK182">
-        <v>1.65</v>
+        <v>1.97</v>
       </c>
       <c r="BL182">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="BM182">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="BN182">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="BO182">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="BP182">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="183" spans="1:68">
@@ -39111,7 +39120,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>6573684</v>
+        <v>6573686</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -39126,190 +39135,190 @@
         <v>23</v>
       </c>
       <c r="G183" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H183" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183">
         <v>0</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O183" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="P183" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="Q183">
-        <v>4.45</v>
+        <v>1.55</v>
       </c>
       <c r="R183">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="S183">
-        <v>2.42</v>
+        <v>7.5</v>
       </c>
       <c r="T183">
+        <v>1.22</v>
+      </c>
+      <c r="U183">
+        <v>3.9</v>
+      </c>
+      <c r="V183">
+        <v>2.05</v>
+      </c>
+      <c r="W183">
+        <v>1.7</v>
+      </c>
+      <c r="X183">
+        <v>4.2</v>
+      </c>
+      <c r="Y183">
+        <v>1.19</v>
+      </c>
+      <c r="Z183">
+        <v>1.18</v>
+      </c>
+      <c r="AA183">
+        <v>6.58</v>
+      </c>
+      <c r="AB183">
+        <v>10.77</v>
+      </c>
+      <c r="AC183">
+        <v>1.02</v>
+      </c>
+      <c r="AD183">
+        <v>13</v>
+      </c>
+      <c r="AE183">
+        <v>1.13</v>
+      </c>
+      <c r="AF183">
+        <v>6</v>
+      </c>
+      <c r="AG183">
         <v>1.36</v>
       </c>
-      <c r="U183">
-        <v>2.99</v>
-      </c>
-      <c r="V183">
-        <v>2.71</v>
-      </c>
-      <c r="W183">
-        <v>1.43</v>
-      </c>
-      <c r="X183">
-        <v>6.7</v>
-      </c>
-      <c r="Y183">
+      <c r="AH183">
+        <v>2.74</v>
+      </c>
+      <c r="AI183">
+        <v>1.95</v>
+      </c>
+      <c r="AJ183">
+        <v>1.73</v>
+      </c>
+      <c r="AK183">
+        <v>1.04</v>
+      </c>
+      <c r="AL183">
         <v>1.09</v>
       </c>
-      <c r="Z183">
-        <v>4.12</v>
-      </c>
-      <c r="AA183">
-        <v>3.68</v>
-      </c>
-      <c r="AB183">
-        <v>1.78</v>
-      </c>
-      <c r="AC183">
+      <c r="AM183">
+        <v>4.33</v>
+      </c>
+      <c r="AN183">
+        <v>2.55</v>
+      </c>
+      <c r="AO183">
+        <v>0.73</v>
+      </c>
+      <c r="AP183">
+        <v>2.15</v>
+      </c>
+      <c r="AQ183">
+        <v>0.67</v>
+      </c>
+      <c r="AR183">
+        <v>2</v>
+      </c>
+      <c r="AS183">
         <v>1.01</v>
       </c>
-      <c r="AD183">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AE183">
-        <v>1.24</v>
-      </c>
-      <c r="AF183">
-        <v>3.5</v>
-      </c>
-      <c r="AG183">
-        <v>1.78</v>
-      </c>
-      <c r="AH183">
-        <v>1.98</v>
-      </c>
-      <c r="AI183">
-        <v>1.74</v>
-      </c>
-      <c r="AJ183">
-        <v>2.02</v>
-      </c>
-      <c r="AK183">
-        <v>1.92</v>
-      </c>
-      <c r="AL183">
-        <v>1.28</v>
-      </c>
-      <c r="AM183">
-        <v>1.25</v>
-      </c>
-      <c r="AN183">
-        <v>1.27</v>
-      </c>
-      <c r="AO183">
-        <v>0.91</v>
-      </c>
-      <c r="AP183">
-        <v>1.37</v>
-      </c>
-      <c r="AQ183">
-        <v>1.15</v>
-      </c>
-      <c r="AR183">
-        <v>1.29</v>
-      </c>
-      <c r="AS183">
-        <v>1.33</v>
-      </c>
       <c r="AT183">
-        <v>2.62</v>
+        <v>3.01</v>
       </c>
       <c r="AU183">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV183">
         <v>3</v>
       </c>
       <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>4</v>
+      </c>
+      <c r="AY183">
+        <v>9</v>
+      </c>
+      <c r="AZ183">
         <v>7</v>
       </c>
-      <c r="AX183">
-        <v>1</v>
-      </c>
-      <c r="AY183">
-        <v>12</v>
-      </c>
-      <c r="AZ183">
-        <v>4</v>
-      </c>
       <c r="BA183">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB183">
         <v>4</v>
       </c>
       <c r="BC183">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD183">
-        <v>3.05</v>
+        <v>1.07</v>
       </c>
       <c r="BE183">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="BF183">
-        <v>1.62</v>
+        <v>13</v>
       </c>
       <c r="BG183">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="BH183">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="BI183">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="BJ183">
-        <v>2.25</v>
+        <v>2.85</v>
       </c>
       <c r="BK183">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="BL183">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="BM183">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BN183">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="BO183">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="BP183">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -39359,7 +39368,7 @@
         <v>216</v>
       </c>
       <c r="P184" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -39440,7 +39449,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ184">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR184">
         <v>1.72</v>
@@ -39771,7 +39780,7 @@
         <v>218</v>
       </c>
       <c r="P186" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39935,7 +39944,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>6573694</v>
+        <v>6573697</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39950,70 +39959,70 @@
         <v>24</v>
       </c>
       <c r="G187" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H187" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O187" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>89</v>
+        <v>363</v>
       </c>
       <c r="Q187">
-        <v>3.65</v>
+        <v>2.45</v>
       </c>
       <c r="R187">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S187">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="T187">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U187">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="V187">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="W187">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X187">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Y187">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="Z187">
-        <v>3.31</v>
+        <v>1.98</v>
       </c>
       <c r="AA187">
-        <v>3.68</v>
+        <v>3.93</v>
       </c>
       <c r="AB187">
-        <v>2.12</v>
+        <v>3.47</v>
       </c>
       <c r="AC187">
         <v>1.04</v>
@@ -40022,118 +40031,118 @@
         <v>10</v>
       </c>
       <c r="AE187">
+        <v>1.2</v>
+      </c>
+      <c r="AF187">
+        <v>4.5</v>
+      </c>
+      <c r="AG187">
+        <v>1.57</v>
+      </c>
+      <c r="AH187">
+        <v>2.25</v>
+      </c>
+      <c r="AI187">
+        <v>1.5</v>
+      </c>
+      <c r="AJ187">
+        <v>2.38</v>
+      </c>
+      <c r="AK187">
+        <v>1.28</v>
+      </c>
+      <c r="AL187">
         <v>1.22</v>
       </c>
-      <c r="AF187">
-        <v>4.2</v>
-      </c>
-      <c r="AG187">
-        <v>1.73</v>
-      </c>
-      <c r="AH187">
-        <v>2</v>
-      </c>
-      <c r="AI187">
-        <v>1.53</v>
-      </c>
-      <c r="AJ187">
+      <c r="AM187">
+        <v>1.8</v>
+      </c>
+      <c r="AN187">
+        <v>1.18</v>
+      </c>
+      <c r="AO187">
+        <v>0.55</v>
+      </c>
+      <c r="AP187">
+        <v>1</v>
+      </c>
+      <c r="AQ187">
+        <v>0.8</v>
+      </c>
+      <c r="AR187">
+        <v>1.34</v>
+      </c>
+      <c r="AS187">
+        <v>1.36</v>
+      </c>
+      <c r="AT187">
+        <v>2.7</v>
+      </c>
+      <c r="AU187">
+        <v>8</v>
+      </c>
+      <c r="AV187">
+        <v>7</v>
+      </c>
+      <c r="AW187">
+        <v>3</v>
+      </c>
+      <c r="AX187">
+        <v>3</v>
+      </c>
+      <c r="AY187">
+        <v>11</v>
+      </c>
+      <c r="AZ187">
+        <v>10</v>
+      </c>
+      <c r="BA187">
+        <v>15</v>
+      </c>
+      <c r="BB187">
+        <v>5</v>
+      </c>
+      <c r="BC187">
+        <v>20</v>
+      </c>
+      <c r="BD187">
+        <v>1.66</v>
+      </c>
+      <c r="BE187">
+        <v>9.5</v>
+      </c>
+      <c r="BF187">
+        <v>2.59</v>
+      </c>
+      <c r="BG187">
+        <v>1.14</v>
+      </c>
+      <c r="BH187">
+        <v>4.6</v>
+      </c>
+      <c r="BI187">
+        <v>1.3</v>
+      </c>
+      <c r="BJ187">
+        <v>3.08</v>
+      </c>
+      <c r="BK187">
+        <v>1.6</v>
+      </c>
+      <c r="BL187">
         <v>2.3</v>
       </c>
-      <c r="AK187">
-        <v>1.67</v>
-      </c>
-      <c r="AL187">
-        <v>1.25</v>
-      </c>
-      <c r="AM187">
-        <v>1.33</v>
-      </c>
-      <c r="AN187">
-        <v>0.82</v>
-      </c>
-      <c r="AO187">
-        <v>0.27</v>
-      </c>
-      <c r="AP187">
-        <v>1</v>
-      </c>
-      <c r="AQ187">
-        <v>0.89</v>
-      </c>
-      <c r="AR187">
-        <v>1.2</v>
-      </c>
-      <c r="AS187">
-        <v>1.27</v>
-      </c>
-      <c r="AT187">
-        <v>2.47</v>
-      </c>
-      <c r="AU187">
-        <v>5</v>
-      </c>
-      <c r="AV187">
-        <v>2</v>
-      </c>
-      <c r="AW187">
-        <v>4</v>
-      </c>
-      <c r="AX187">
-        <v>4</v>
-      </c>
-      <c r="AY187">
-        <v>9</v>
-      </c>
-      <c r="AZ187">
-        <v>6</v>
-      </c>
-      <c r="BA187">
-        <v>5</v>
-      </c>
-      <c r="BB187">
-        <v>4</v>
-      </c>
-      <c r="BC187">
-        <v>9</v>
-      </c>
-      <c r="BD187">
-        <v>2.33</v>
-      </c>
-      <c r="BE187">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BF187">
-        <v>1.8</v>
-      </c>
-      <c r="BG187">
-        <v>1.16</v>
-      </c>
-      <c r="BH187">
-        <v>4.3</v>
-      </c>
-      <c r="BI187">
-        <v>1.33</v>
-      </c>
-      <c r="BJ187">
-        <v>2.93</v>
-      </c>
-      <c r="BK187">
-        <v>1.65</v>
-      </c>
-      <c r="BL187">
-        <v>2.21</v>
-      </c>
       <c r="BM187">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="BN187">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="BO187">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="BP187">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -40141,7 +40150,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>6573697</v>
+        <v>6573694</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -40156,70 +40165,70 @@
         <v>24</v>
       </c>
       <c r="G188" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H188" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>219</v>
+      </c>
+      <c r="P188" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q188">
+        <v>3.65</v>
+      </c>
+      <c r="R188">
+        <v>2.15</v>
+      </c>
+      <c r="S188">
+        <v>2.62</v>
+      </c>
+      <c r="T188">
+        <v>1.33</v>
+      </c>
+      <c r="U188">
         <v>3</v>
       </c>
-      <c r="N188">
-        <v>3</v>
-      </c>
-      <c r="O188" t="s">
-        <v>89</v>
-      </c>
-      <c r="P188" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q188">
-        <v>2.45</v>
-      </c>
-      <c r="R188">
-        <v>2.3</v>
-      </c>
-      <c r="S188">
-        <v>3.75</v>
-      </c>
-      <c r="T188">
-        <v>1.28</v>
-      </c>
-      <c r="U188">
-        <v>3.35</v>
-      </c>
       <c r="V188">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="W188">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X188">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y188">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="Z188">
-        <v>1.98</v>
+        <v>3.31</v>
       </c>
       <c r="AA188">
-        <v>3.93</v>
+        <v>3.68</v>
       </c>
       <c r="AB188">
-        <v>3.47</v>
+        <v>2.12</v>
       </c>
       <c r="AC188">
         <v>1.04</v>
@@ -40228,118 +40237,118 @@
         <v>10</v>
       </c>
       <c r="AE188">
+        <v>1.22</v>
+      </c>
+      <c r="AF188">
+        <v>4.2</v>
+      </c>
+      <c r="AG188">
+        <v>1.73</v>
+      </c>
+      <c r="AH188">
+        <v>2</v>
+      </c>
+      <c r="AI188">
+        <v>1.53</v>
+      </c>
+      <c r="AJ188">
+        <v>2.3</v>
+      </c>
+      <c r="AK188">
+        <v>1.67</v>
+      </c>
+      <c r="AL188">
+        <v>1.25</v>
+      </c>
+      <c r="AM188">
+        <v>1.33</v>
+      </c>
+      <c r="AN188">
+        <v>0.82</v>
+      </c>
+      <c r="AO188">
+        <v>0.27</v>
+      </c>
+      <c r="AP188">
+        <v>1</v>
+      </c>
+      <c r="AQ188">
+        <v>0.89</v>
+      </c>
+      <c r="AR188">
         <v>1.2</v>
       </c>
-      <c r="AF188">
-        <v>4.5</v>
-      </c>
-      <c r="AG188">
-        <v>1.57</v>
-      </c>
-      <c r="AH188">
-        <v>2.25</v>
-      </c>
-      <c r="AI188">
-        <v>1.5</v>
-      </c>
-      <c r="AJ188">
-        <v>2.38</v>
-      </c>
-      <c r="AK188">
-        <v>1.28</v>
-      </c>
-      <c r="AL188">
-        <v>1.22</v>
-      </c>
-      <c r="AM188">
+      <c r="AS188">
+        <v>1.27</v>
+      </c>
+      <c r="AT188">
+        <v>2.47</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>2</v>
+      </c>
+      <c r="AW188">
+        <v>4</v>
+      </c>
+      <c r="AX188">
+        <v>4</v>
+      </c>
+      <c r="AY188">
+        <v>9</v>
+      </c>
+      <c r="AZ188">
+        <v>6</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
+        <v>4</v>
+      </c>
+      <c r="BC188">
+        <v>9</v>
+      </c>
+      <c r="BD188">
+        <v>2.33</v>
+      </c>
+      <c r="BE188">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF188">
         <v>1.8</v>
       </c>
-      <c r="AN188">
-        <v>1.18</v>
-      </c>
-      <c r="AO188">
-        <v>0.55</v>
-      </c>
-      <c r="AP188">
-        <v>1</v>
-      </c>
-      <c r="AQ188">
-        <v>0.8</v>
-      </c>
-      <c r="AR188">
-        <v>1.34</v>
-      </c>
-      <c r="AS188">
-        <v>1.36</v>
-      </c>
-      <c r="AT188">
-        <v>2.7</v>
-      </c>
-      <c r="AU188">
-        <v>8</v>
-      </c>
-      <c r="AV188">
-        <v>7</v>
-      </c>
-      <c r="AW188">
-        <v>3</v>
-      </c>
-      <c r="AX188">
-        <v>3</v>
-      </c>
-      <c r="AY188">
-        <v>11</v>
-      </c>
-      <c r="AZ188">
-        <v>10</v>
-      </c>
-      <c r="BA188">
-        <v>15</v>
-      </c>
-      <c r="BB188">
-        <v>5</v>
-      </c>
-      <c r="BC188">
-        <v>20</v>
-      </c>
-      <c r="BD188">
-        <v>1.66</v>
-      </c>
-      <c r="BE188">
-        <v>9.5</v>
-      </c>
-      <c r="BF188">
-        <v>2.59</v>
-      </c>
       <c r="BG188">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="BH188">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="BI188">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BJ188">
-        <v>3.08</v>
+        <v>2.93</v>
       </c>
       <c r="BK188">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="BL188">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="BM188">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="BN188">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="BO188">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="BP188">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40673,7 +40682,7 @@
         <v>1.55</v>
       </c>
       <c r="AP190">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ190">
         <v>1.7</v>
@@ -41831,7 +41840,7 @@
         <v>223</v>
       </c>
       <c r="P196" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q196">
         <v>1.72</v>
@@ -41909,7 +41918,7 @@
         <v>1</v>
       </c>
       <c r="AP196">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ196">
         <v>0.84</v>
@@ -42115,7 +42124,7 @@
         <v>0.83</v>
       </c>
       <c r="AP197">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ197">
         <v>0.5600000000000001</v>
@@ -42243,7 +42252,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q198">
         <v>5.32</v>
@@ -42530,7 +42539,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ199">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR199">
         <v>1.71</v>
@@ -42655,7 +42664,7 @@
         <v>167</v>
       </c>
       <c r="P200" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q200">
         <v>3.95</v>
@@ -42736,7 +42745,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ200">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR200">
         <v>1.49</v>
@@ -42861,7 +42870,7 @@
         <v>225</v>
       </c>
       <c r="P201" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q201">
         <v>2.6</v>
@@ -42942,7 +42951,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ201">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR201">
         <v>1.84</v>
@@ -43685,7 +43694,7 @@
         <v>89</v>
       </c>
       <c r="P205" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q205">
         <v>2.13</v>
@@ -43763,7 +43772,7 @@
         <v>1.17</v>
       </c>
       <c r="AP205">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ205">
         <v>1.35</v>
@@ -44097,7 +44106,7 @@
         <v>186</v>
       </c>
       <c r="P207" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q207">
         <v>7</v>
@@ -44303,7 +44312,7 @@
         <v>229</v>
       </c>
       <c r="P208" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q208">
         <v>2.2</v>
@@ -44509,7 +44518,7 @@
         <v>89</v>
       </c>
       <c r="P209" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44715,7 +44724,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q210">
         <v>4.3</v>
@@ -44796,7 +44805,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ210">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR210">
         <v>1.52</v>
@@ -45539,7 +45548,7 @@
         <v>95</v>
       </c>
       <c r="P214" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q214">
         <v>2.25</v>
@@ -45617,10 +45626,10 @@
         <v>1.62</v>
       </c>
       <c r="AP214">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ214">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR214">
         <v>1.85</v>
@@ -45745,7 +45754,7 @@
         <v>232</v>
       </c>
       <c r="P215" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q215">
         <v>2.88</v>
@@ -45951,7 +45960,7 @@
         <v>233</v>
       </c>
       <c r="P216" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -46029,7 +46038,7 @@
         <v>0.85</v>
       </c>
       <c r="AP216">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ216">
         <v>0.65</v>
@@ -46157,7 +46166,7 @@
         <v>89</v>
       </c>
       <c r="P217" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -46238,7 +46247,7 @@
         <v>1</v>
       </c>
       <c r="AQ217">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR217">
         <v>1.2</v>
@@ -46569,7 +46578,7 @@
         <v>234</v>
       </c>
       <c r="P219" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q219">
         <v>2.3</v>
@@ -46775,7 +46784,7 @@
         <v>89</v>
       </c>
       <c r="P220" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q220">
         <v>5.91</v>
@@ -46981,7 +46990,7 @@
         <v>235</v>
       </c>
       <c r="P221" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q221">
         <v>3.4</v>
@@ -47187,7 +47196,7 @@
         <v>89</v>
       </c>
       <c r="P222" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q222">
         <v>3.1</v>
@@ -47471,7 +47480,7 @@
         <v>0.92</v>
       </c>
       <c r="AP223">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ223">
         <v>0.85</v>
@@ -47805,7 +47814,7 @@
         <v>237</v>
       </c>
       <c r="P225" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q225">
         <v>3.1</v>
@@ -48504,7 +48513,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ228">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR228">
         <v>1.48</v>
@@ -48629,7 +48638,7 @@
         <v>89</v>
       </c>
       <c r="P229" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -48710,7 +48719,7 @@
         <v>1</v>
       </c>
       <c r="AQ229">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR229">
         <v>1.26</v>
@@ -49119,7 +49128,7 @@
         <v>0.71</v>
       </c>
       <c r="AP231">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ231">
         <v>0.8</v>
@@ -49247,7 +49256,7 @@
         <v>92</v>
       </c>
       <c r="P232" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49325,7 +49334,7 @@
         <v>1.36</v>
       </c>
       <c r="AP232">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ232">
         <v>1.6</v>
@@ -50355,7 +50364,7 @@
         <v>2.36</v>
       </c>
       <c r="AP237">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ237">
         <v>2.05</v>
@@ -51182,7 +51191,7 @@
         <v>1</v>
       </c>
       <c r="AQ241">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR241">
         <v>1.42</v>
@@ -51513,7 +51522,7 @@
         <v>247</v>
       </c>
       <c r="P243" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q243">
         <v>3.3</v>
@@ -52543,7 +52552,7 @@
         <v>250</v>
       </c>
       <c r="P248" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q248">
         <v>2.66</v>
@@ -53239,10 +53248,10 @@
         <v>1.53</v>
       </c>
       <c r="AP251">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ251">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR251">
         <v>1.83</v>
@@ -53367,7 +53376,7 @@
         <v>251</v>
       </c>
       <c r="P252" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q252">
         <v>2.25</v>
@@ -53445,10 +53454,10 @@
         <v>1.4</v>
       </c>
       <c r="AP252">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ252">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR252">
         <v>1.89</v>
@@ -53573,7 +53582,7 @@
         <v>118</v>
       </c>
       <c r="P253" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q253">
         <v>2.88</v>
@@ -53857,10 +53866,10 @@
         <v>1.8</v>
       </c>
       <c r="AP254">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ254">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR254">
         <v>1.85</v>
@@ -53985,7 +53994,7 @@
         <v>89</v>
       </c>
       <c r="P255" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -54191,7 +54200,7 @@
         <v>253</v>
       </c>
       <c r="P256" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q256">
         <v>2.7</v>
@@ -54603,7 +54612,7 @@
         <v>255</v>
       </c>
       <c r="P258" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q258">
         <v>2.38</v>
@@ -54809,7 +54818,7 @@
         <v>95</v>
       </c>
       <c r="P259" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q259">
         <v>2.32</v>
@@ -54890,7 +54899,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ259">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR259">
         <v>1.83</v>
@@ -55093,7 +55102,7 @@
         <v>1.25</v>
       </c>
       <c r="AP260">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ260">
         <v>1.15</v>
@@ -55221,7 +55230,7 @@
         <v>257</v>
       </c>
       <c r="P261" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q261">
         <v>3.4</v>
@@ -56045,7 +56054,7 @@
         <v>261</v>
       </c>
       <c r="P265" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q265">
         <v>3.1</v>
@@ -56251,7 +56260,7 @@
         <v>262</v>
       </c>
       <c r="P266" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q266">
         <v>2.05</v>
@@ -56457,7 +56466,7 @@
         <v>263</v>
       </c>
       <c r="P267" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q267">
         <v>2.6</v>
@@ -56538,7 +56547,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ267">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR267">
         <v>1.8</v>
@@ -56869,7 +56878,7 @@
         <v>264</v>
       </c>
       <c r="P269" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q269">
         <v>2.7</v>
@@ -57075,7 +57084,7 @@
         <v>101</v>
       </c>
       <c r="P270" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q270">
         <v>2.85</v>
@@ -57153,7 +57162,7 @@
         <v>1.38</v>
       </c>
       <c r="AP270">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ270">
         <v>1.7</v>
@@ -57445,7 +57454,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>7389458</v>
+        <v>7389459</v>
       </c>
       <c r="C272" t="s">
         <v>68</v>
@@ -57460,190 +57469,190 @@
         <v>5</v>
       </c>
       <c r="G272" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H272" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I272">
         <v>0</v>
       </c>
       <c r="J272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L272">
         <v>0</v>
       </c>
       <c r="M272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O272" t="s">
         <v>89</v>
       </c>
       <c r="P272" t="s">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="Q272">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="R272">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="S272">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="T272">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="U272">
-        <v>3.14</v>
+        <v>2.91</v>
       </c>
       <c r="V272">
-        <v>2.55</v>
+        <v>2.78</v>
       </c>
       <c r="W272">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="X272">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="Y272">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z272">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="AA272">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AB272">
-        <v>1.95</v>
+        <v>2.85</v>
       </c>
       <c r="AC272">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD272">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE272">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AF272">
-        <v>3.75</v>
+        <v>3.34</v>
       </c>
       <c r="AG272">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AH272">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AI272">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AJ272">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AK272">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="AL272">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AM272">
-        <v>1.26</v>
+        <v>1.56</v>
       </c>
       <c r="AN272">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO272">
         <v>1.35</v>
       </c>
       <c r="AP272">
-        <v>1.8</v>
+        <v>1.37</v>
       </c>
       <c r="AQ272">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AR272">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AS272">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AT272">
-        <v>3.18</v>
+        <v>2.68</v>
       </c>
       <c r="AU272">
         <v>7</v>
       </c>
       <c r="AV272">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW272">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX272">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY272">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ272">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA272">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB272">
         <v>4</v>
       </c>
       <c r="BC272">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD272">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="BE272">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF272">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="BG272">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="BH272">
-        <v>3.64</v>
+        <v>4.25</v>
       </c>
       <c r="BI272">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="BJ272">
-        <v>2.57</v>
+        <v>2.88</v>
       </c>
       <c r="BK272">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="BL272">
-        <v>1.99</v>
+        <v>2.17</v>
       </c>
       <c r="BM272">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="BN272">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="BO272">
-        <v>2.98</v>
+        <v>2.65</v>
       </c>
       <c r="BP272">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="273" spans="1:68">
@@ -57651,7 +57660,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>7389459</v>
+        <v>7389458</v>
       </c>
       <c r="C273" t="s">
         <v>68</v>
@@ -57666,190 +57675,190 @@
         <v>5</v>
       </c>
       <c r="G273" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H273" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I273">
         <v>0</v>
       </c>
       <c r="J273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L273">
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O273" t="s">
         <v>89</v>
       </c>
       <c r="P273" t="s">
-        <v>89</v>
+        <v>394</v>
       </c>
       <c r="Q273">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="R273">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="S273">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="T273">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="U273">
-        <v>2.91</v>
+        <v>3.14</v>
       </c>
       <c r="V273">
-        <v>2.78</v>
+        <v>2.55</v>
       </c>
       <c r="W273">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="X273">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="Y273">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z273">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="AA273">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AB273">
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="AC273">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD273">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AE273">
+        <v>1.21</v>
+      </c>
+      <c r="AF273">
+        <v>3.75</v>
+      </c>
+      <c r="AG273">
+        <v>1.7</v>
+      </c>
+      <c r="AH273">
+        <v>1.95</v>
+      </c>
+      <c r="AI273">
+        <v>1.67</v>
+      </c>
+      <c r="AJ273">
+        <v>2.12</v>
+      </c>
+      <c r="AK273">
+        <v>1.93</v>
+      </c>
+      <c r="AL273">
+        <v>1.27</v>
+      </c>
+      <c r="AM273">
         <v>1.26</v>
       </c>
-      <c r="AF273">
-        <v>3.34</v>
-      </c>
-      <c r="AG273">
-        <v>1.83</v>
-      </c>
-      <c r="AH273">
-        <v>1.83</v>
-      </c>
-      <c r="AI273">
-        <v>1.71</v>
-      </c>
-      <c r="AJ273">
-        <v>2.06</v>
-      </c>
-      <c r="AK273">
-        <v>1.44</v>
-      </c>
-      <c r="AL273">
-        <v>1.31</v>
-      </c>
-      <c r="AM273">
-        <v>1.56</v>
-      </c>
       <c r="AN273">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO273">
         <v>1.35</v>
       </c>
       <c r="AP273">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="AQ273">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AR273">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AS273">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AT273">
-        <v>2.68</v>
+        <v>3.18</v>
       </c>
       <c r="AU273">
         <v>7</v>
       </c>
       <c r="AV273">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW273">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX273">
+        <v>4</v>
+      </c>
+      <c r="AY273">
+        <v>16</v>
+      </c>
+      <c r="AZ273">
+        <v>10</v>
+      </c>
+      <c r="BA273">
         <v>5</v>
-      </c>
-      <c r="AY273">
-        <v>15</v>
-      </c>
-      <c r="AZ273">
-        <v>7</v>
-      </c>
-      <c r="BA273">
-        <v>8</v>
       </c>
       <c r="BB273">
         <v>4</v>
       </c>
       <c r="BC273">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD273">
-        <v>1.76</v>
+        <v>2.38</v>
       </c>
       <c r="BE273">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BF273">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="BG273">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="BH273">
-        <v>4.25</v>
+        <v>3.64</v>
       </c>
       <c r="BI273">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="BJ273">
-        <v>2.88</v>
+        <v>2.57</v>
       </c>
       <c r="BK273">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="BL273">
-        <v>2.17</v>
+        <v>1.99</v>
       </c>
       <c r="BM273">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="BN273">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="BO273">
-        <v>2.65</v>
+        <v>2.98</v>
       </c>
       <c r="BP273">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="274" spans="1:68">
@@ -57899,7 +57908,7 @@
         <v>114</v>
       </c>
       <c r="P274" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q274">
         <v>2.7</v>
@@ -58186,7 +58195,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ275">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR275">
         <v>1.59</v>
@@ -58389,10 +58398,10 @@
         <v>1.63</v>
       </c>
       <c r="AP276">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ276">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR276">
         <v>1.84</v>
@@ -58517,7 +58526,7 @@
         <v>89</v>
       </c>
       <c r="P277" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q277">
         <v>3.3</v>
@@ -58595,7 +58604,7 @@
         <v>2</v>
       </c>
       <c r="AP277">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ277">
         <v>2.05</v>
@@ -58723,7 +58732,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q278">
         <v>3.45</v>
@@ -59135,7 +59144,7 @@
         <v>269</v>
       </c>
       <c r="P280" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q280">
         <v>2.9</v>
@@ -59341,7 +59350,7 @@
         <v>270</v>
       </c>
       <c r="P281" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q281">
         <v>1.83</v>
@@ -59547,7 +59556,7 @@
         <v>89</v>
       </c>
       <c r="P282" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q282">
         <v>3.44</v>
@@ -59834,7 +59843,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ283">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR283">
         <v>1.69</v>
@@ -60037,7 +60046,7 @@
         <v>1.28</v>
       </c>
       <c r="AP284">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ284">
         <v>1.15</v>
@@ -60165,7 +60174,7 @@
         <v>89</v>
       </c>
       <c r="P285" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q285">
         <v>2.95</v>
@@ -60371,7 +60380,7 @@
         <v>272</v>
       </c>
       <c r="P286" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q286">
         <v>2.95</v>
@@ -60577,7 +60586,7 @@
         <v>269</v>
       </c>
       <c r="P287" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q287">
         <v>3.25</v>
@@ -60783,7 +60792,7 @@
         <v>273</v>
       </c>
       <c r="P288" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q288">
         <v>3.65</v>
@@ -61070,7 +61079,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ289">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR289">
         <v>1.69</v>
@@ -61195,7 +61204,7 @@
         <v>130</v>
       </c>
       <c r="P290" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q290">
         <v>4.2</v>
@@ -61273,7 +61282,7 @@
         <v>1.56</v>
       </c>
       <c r="AP290">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ290">
         <v>1.7</v>
@@ -61401,7 +61410,7 @@
         <v>275</v>
       </c>
       <c r="P291" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q291">
         <v>2.88</v>
@@ -61685,10 +61694,10 @@
         <v>1.56</v>
       </c>
       <c r="AP292">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AQ292">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR292">
         <v>1.9</v>
@@ -62225,7 +62234,7 @@
         <v>278</v>
       </c>
       <c r="P295" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q295">
         <v>2.8</v>
@@ -62431,7 +62440,7 @@
         <v>279</v>
       </c>
       <c r="P296" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q296">
         <v>2.55</v>
@@ -62512,7 +62521,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ296">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR296">
         <v>1.59</v>
@@ -63049,7 +63058,7 @@
         <v>281</v>
       </c>
       <c r="P299" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q299">
         <v>2.7</v>
@@ -63127,10 +63136,10 @@
         <v>1.39</v>
       </c>
       <c r="AP299">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ299">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AR299">
         <v>1.73</v>
@@ -63255,7 +63264,7 @@
         <v>282</v>
       </c>
       <c r="P300" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q300">
         <v>2.8</v>
@@ -63333,7 +63342,7 @@
         <v>2.06</v>
       </c>
       <c r="AP300">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ300">
         <v>2.05</v>
@@ -63667,7 +63676,7 @@
         <v>89</v>
       </c>
       <c r="P302" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q302">
         <v>3</v>
@@ -63873,7 +63882,7 @@
         <v>283</v>
       </c>
       <c r="P303" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q303">
         <v>4</v>
@@ -64079,7 +64088,7 @@
         <v>124</v>
       </c>
       <c r="P304" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q304">
         <v>3.8</v>
@@ -64285,7 +64294,7 @@
         <v>89</v>
       </c>
       <c r="P305" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q305">
         <v>3.6</v>
@@ -64697,7 +64706,7 @@
         <v>225</v>
       </c>
       <c r="P307" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q307">
         <v>2.5</v>
@@ -64903,7 +64912,7 @@
         <v>285</v>
       </c>
       <c r="P308" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q308">
         <v>2.35</v>
@@ -65266,6 +65275,624 @@
       </c>
       <c r="BP309">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="310" spans="1:68">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>7389497</v>
+      </c>
+      <c r="C310" t="s">
+        <v>68</v>
+      </c>
+      <c r="D310" t="s">
+        <v>69</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45438.5625</v>
+      </c>
+      <c r="F310">
+        <v>10</v>
+      </c>
+      <c r="G310" t="s">
+        <v>74</v>
+      </c>
+      <c r="H310" t="s">
+        <v>82</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+      <c r="L310">
+        <v>3</v>
+      </c>
+      <c r="M310">
+        <v>1</v>
+      </c>
+      <c r="N310">
+        <v>4</v>
+      </c>
+      <c r="O310" t="s">
+        <v>287</v>
+      </c>
+      <c r="P310" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q310">
+        <v>4.2</v>
+      </c>
+      <c r="R310">
+        <v>2.3</v>
+      </c>
+      <c r="S310">
+        <v>2.45</v>
+      </c>
+      <c r="T310">
+        <v>1.33</v>
+      </c>
+      <c r="U310">
+        <v>3.16</v>
+      </c>
+      <c r="V310">
+        <v>2.55</v>
+      </c>
+      <c r="W310">
+        <v>1.48</v>
+      </c>
+      <c r="X310">
+        <v>6.1</v>
+      </c>
+      <c r="Y310">
+        <v>1.11</v>
+      </c>
+      <c r="Z310">
+        <v>3.06</v>
+      </c>
+      <c r="AA310">
+        <v>3.13</v>
+      </c>
+      <c r="AB310">
+        <v>2.07</v>
+      </c>
+      <c r="AC310">
+        <v>1.02</v>
+      </c>
+      <c r="AD310">
+        <v>12</v>
+      </c>
+      <c r="AE310">
+        <v>1.22</v>
+      </c>
+      <c r="AF310">
+        <v>4</v>
+      </c>
+      <c r="AG310">
+        <v>1.8</v>
+      </c>
+      <c r="AH310">
+        <v>2.08</v>
+      </c>
+      <c r="AI310">
+        <v>1.68</v>
+      </c>
+      <c r="AJ310">
+        <v>2.15</v>
+      </c>
+      <c r="AK310">
+        <v>1.95</v>
+      </c>
+      <c r="AL310">
+        <v>1.2</v>
+      </c>
+      <c r="AM310">
+        <v>1.25</v>
+      </c>
+      <c r="AN310">
+        <v>1.68</v>
+      </c>
+      <c r="AO310">
+        <v>1.53</v>
+      </c>
+      <c r="AP310">
+        <v>1.75</v>
+      </c>
+      <c r="AQ310">
+        <v>1.45</v>
+      </c>
+      <c r="AR310">
+        <v>1.7</v>
+      </c>
+      <c r="AS310">
+        <v>1.49</v>
+      </c>
+      <c r="AT310">
+        <v>3.19</v>
+      </c>
+      <c r="AU310">
+        <v>6</v>
+      </c>
+      <c r="AV310">
+        <v>6</v>
+      </c>
+      <c r="AW310">
+        <v>16</v>
+      </c>
+      <c r="AX310">
+        <v>10</v>
+      </c>
+      <c r="AY310">
+        <v>22</v>
+      </c>
+      <c r="AZ310">
+        <v>16</v>
+      </c>
+      <c r="BA310">
+        <v>4</v>
+      </c>
+      <c r="BB310">
+        <v>2</v>
+      </c>
+      <c r="BC310">
+        <v>6</v>
+      </c>
+      <c r="BD310">
+        <v>2.43</v>
+      </c>
+      <c r="BE310">
+        <v>7</v>
+      </c>
+      <c r="BF310">
+        <v>1.81</v>
+      </c>
+      <c r="BG310">
+        <v>1.27</v>
+      </c>
+      <c r="BH310">
+        <v>3.4</v>
+      </c>
+      <c r="BI310">
+        <v>1.5</v>
+      </c>
+      <c r="BJ310">
+        <v>2.43</v>
+      </c>
+      <c r="BK310">
+        <v>1.86</v>
+      </c>
+      <c r="BL310">
+        <v>1.86</v>
+      </c>
+      <c r="BM310">
+        <v>2.45</v>
+      </c>
+      <c r="BN310">
+        <v>1.5</v>
+      </c>
+      <c r="BO310">
+        <v>3.25</v>
+      </c>
+      <c r="BP310">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="311" spans="1:68">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>7389498</v>
+      </c>
+      <c r="C311" t="s">
+        <v>68</v>
+      </c>
+      <c r="D311" t="s">
+        <v>69</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45438.5625</v>
+      </c>
+      <c r="F311">
+        <v>10</v>
+      </c>
+      <c r="G311" t="s">
+        <v>76</v>
+      </c>
+      <c r="H311" t="s">
+        <v>80</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+      <c r="O311" t="s">
+        <v>89</v>
+      </c>
+      <c r="P311" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q311">
+        <v>1.95</v>
+      </c>
+      <c r="R311">
+        <v>2.5</v>
+      </c>
+      <c r="S311">
+        <v>4.75</v>
+      </c>
+      <c r="T311">
+        <v>1.25</v>
+      </c>
+      <c r="U311">
+        <v>3.55</v>
+      </c>
+      <c r="V311">
+        <v>2.2</v>
+      </c>
+      <c r="W311">
+        <v>1.6</v>
+      </c>
+      <c r="X311">
+        <v>4.5</v>
+      </c>
+      <c r="Y311">
+        <v>1.17</v>
+      </c>
+      <c r="Z311">
+        <v>1.52</v>
+      </c>
+      <c r="AA311">
+        <v>4.09</v>
+      </c>
+      <c r="AB311">
+        <v>5</v>
+      </c>
+      <c r="AC311">
+        <v>1.02</v>
+      </c>
+      <c r="AD311">
+        <v>21.5</v>
+      </c>
+      <c r="AE311">
+        <v>1.15</v>
+      </c>
+      <c r="AF311">
+        <v>5.25</v>
+      </c>
+      <c r="AG311">
+        <v>1.6</v>
+      </c>
+      <c r="AH311">
+        <v>2.34</v>
+      </c>
+      <c r="AI311">
+        <v>1.57</v>
+      </c>
+      <c r="AJ311">
+        <v>2.2</v>
+      </c>
+      <c r="AK311">
+        <v>1.15</v>
+      </c>
+      <c r="AL311">
+        <v>1.15</v>
+      </c>
+      <c r="AM311">
+        <v>2.45</v>
+      </c>
+      <c r="AN311">
+        <v>2.11</v>
+      </c>
+      <c r="AO311">
+        <v>1.47</v>
+      </c>
+      <c r="AP311">
+        <v>2.05</v>
+      </c>
+      <c r="AQ311">
+        <v>1.45</v>
+      </c>
+      <c r="AR311">
+        <v>1.83</v>
+      </c>
+      <c r="AS311">
+        <v>1.56</v>
+      </c>
+      <c r="AT311">
+        <v>3.39</v>
+      </c>
+      <c r="AU311">
+        <v>4</v>
+      </c>
+      <c r="AV311">
+        <v>0</v>
+      </c>
+      <c r="AW311">
+        <v>6</v>
+      </c>
+      <c r="AX311">
+        <v>7</v>
+      </c>
+      <c r="AY311">
+        <v>10</v>
+      </c>
+      <c r="AZ311">
+        <v>7</v>
+      </c>
+      <c r="BA311">
+        <v>5</v>
+      </c>
+      <c r="BB311">
+        <v>2</v>
+      </c>
+      <c r="BC311">
+        <v>7</v>
+      </c>
+      <c r="BD311">
+        <v>1.2</v>
+      </c>
+      <c r="BE311">
+        <v>10</v>
+      </c>
+      <c r="BF311">
+        <v>6</v>
+      </c>
+      <c r="BG311">
+        <v>1.22</v>
+      </c>
+      <c r="BH311">
+        <v>3.8</v>
+      </c>
+      <c r="BI311">
+        <v>1.42</v>
+      </c>
+      <c r="BJ311">
+        <v>2.65</v>
+      </c>
+      <c r="BK311">
+        <v>1.73</v>
+      </c>
+      <c r="BL311">
+        <v>2.02</v>
+      </c>
+      <c r="BM311">
+        <v>2.2</v>
+      </c>
+      <c r="BN311">
+        <v>1.61</v>
+      </c>
+      <c r="BO311">
+        <v>2.9</v>
+      </c>
+      <c r="BP311">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="312" spans="1:68">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>7389496</v>
+      </c>
+      <c r="C312" t="s">
+        <v>68</v>
+      </c>
+      <c r="D312" t="s">
+        <v>69</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45438.5625</v>
+      </c>
+      <c r="F312">
+        <v>10</v>
+      </c>
+      <c r="G312" t="s">
+        <v>70</v>
+      </c>
+      <c r="H312" t="s">
+        <v>79</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>1</v>
+      </c>
+      <c r="L312">
+        <v>2</v>
+      </c>
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312">
+        <v>2</v>
+      </c>
+      <c r="O312" t="s">
+        <v>288</v>
+      </c>
+      <c r="P312" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q312">
+        <v>2.25</v>
+      </c>
+      <c r="R312">
+        <v>2.45</v>
+      </c>
+      <c r="S312">
+        <v>4.5</v>
+      </c>
+      <c r="T312">
+        <v>1.28</v>
+      </c>
+      <c r="U312">
+        <v>3.3</v>
+      </c>
+      <c r="V312">
+        <v>2.25</v>
+      </c>
+      <c r="W312">
+        <v>1.55</v>
+      </c>
+      <c r="X312">
+        <v>5.2</v>
+      </c>
+      <c r="Y312">
+        <v>1.13</v>
+      </c>
+      <c r="Z312">
+        <v>1.78</v>
+      </c>
+      <c r="AA312">
+        <v>3.6</v>
+      </c>
+      <c r="AB312">
+        <v>3.83</v>
+      </c>
+      <c r="AC312">
+        <v>1.01</v>
+      </c>
+      <c r="AD312">
+        <v>13</v>
+      </c>
+      <c r="AE312">
+        <v>1.16</v>
+      </c>
+      <c r="AF312">
+        <v>4.9</v>
+      </c>
+      <c r="AG312">
+        <v>1.6</v>
+      </c>
+      <c r="AH312">
+        <v>2.34</v>
+      </c>
+      <c r="AI312">
+        <v>1.6</v>
+      </c>
+      <c r="AJ312">
+        <v>2.3</v>
+      </c>
+      <c r="AK312">
+        <v>1.2</v>
+      </c>
+      <c r="AL312">
+        <v>1.2</v>
+      </c>
+      <c r="AM312">
+        <v>2.15</v>
+      </c>
+      <c r="AN312">
+        <v>2.11</v>
+      </c>
+      <c r="AO312">
+        <v>1.37</v>
+      </c>
+      <c r="AP312">
+        <v>2.15</v>
+      </c>
+      <c r="AQ312">
+        <v>1.3</v>
+      </c>
+      <c r="AR312">
+        <v>1.92</v>
+      </c>
+      <c r="AS312">
+        <v>1.64</v>
+      </c>
+      <c r="AT312">
+        <v>3.56</v>
+      </c>
+      <c r="AU312">
+        <v>7</v>
+      </c>
+      <c r="AV312">
+        <v>3</v>
+      </c>
+      <c r="AW312">
+        <v>13</v>
+      </c>
+      <c r="AX312">
+        <v>8</v>
+      </c>
+      <c r="AY312">
+        <v>20</v>
+      </c>
+      <c r="AZ312">
+        <v>11</v>
+      </c>
+      <c r="BA312">
+        <v>10</v>
+      </c>
+      <c r="BB312">
+        <v>4</v>
+      </c>
+      <c r="BC312">
+        <v>14</v>
+      </c>
+      <c r="BD312">
+        <v>1.43</v>
+      </c>
+      <c r="BE312">
+        <v>8</v>
+      </c>
+      <c r="BF312">
+        <v>3.55</v>
+      </c>
+      <c r="BG312">
+        <v>1.2</v>
+      </c>
+      <c r="BH312">
+        <v>4</v>
+      </c>
+      <c r="BI312">
+        <v>1.38</v>
+      </c>
+      <c r="BJ312">
+        <v>2.8</v>
+      </c>
+      <c r="BK312">
+        <v>1.67</v>
+      </c>
+      <c r="BL312">
+        <v>2.1</v>
+      </c>
+      <c r="BM312">
+        <v>2.1</v>
+      </c>
+      <c r="BN312">
+        <v>1.67</v>
+      </c>
+      <c r="BO312">
+        <v>2.85</v>
+      </c>
+      <c r="BP312">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -65023,13 +65023,13 @@
         <v>9</v>
       </c>
       <c r="BA308">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB308">
         <v>3</v>
       </c>
       <c r="BC308">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD308">
         <v>1.66</v>
@@ -65229,13 +65229,13 @@
         <v>16</v>
       </c>
       <c r="BA309">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB309">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC309">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD309">
         <v>1.27</v>
@@ -65417,22 +65417,22 @@
         <v>3.19</v>
       </c>
       <c r="AU310">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV310">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW310">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AX310">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY310">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AZ310">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA310">
         <v>4</v>
@@ -65829,22 +65829,22 @@
         <v>3.56</v>
       </c>
       <c r="AU312">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV312">
+        <v>2</v>
+      </c>
+      <c r="AW312">
+        <v>8</v>
+      </c>
+      <c r="AX312">
         <v>3</v>
       </c>
-      <c r="AW312">
-        <v>13</v>
-      </c>
-      <c r="AX312">
-        <v>8</v>
-      </c>
       <c r="AY312">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AZ312">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BA312">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -65417,22 +65417,22 @@
         <v>3.19</v>
       </c>
       <c r="AU310">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV310">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW310">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AX310">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY310">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AZ310">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA310">
         <v>4</v>
@@ -65626,19 +65626,19 @@
         <v>4</v>
       </c>
       <c r="AV311">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW311">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX311">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY311">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ311">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA311">
         <v>5</v>
@@ -65829,22 +65829,22 @@
         <v>3.56</v>
       </c>
       <c r="AU312">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW312">
+        <v>13</v>
+      </c>
+      <c r="AX312">
         <v>8</v>
       </c>
-      <c r="AX312">
-        <v>3</v>
-      </c>
       <c r="AY312">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ312">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA312">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="415">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1231,6 +1231,9 @@
     <t>['48', '64']</t>
   </si>
   <si>
+    <t>['-1', '-1', '-1', '-1', '-1']</t>
+  </si>
+  <si>
     <t>['33', '44']</t>
   </si>
   <si>
@@ -1617,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP312"/>
+  <dimension ref="A1:BP313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2163,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -3602,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ10">
         <v>2.05</v>
@@ -7104,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ27">
         <v>1.45</v>
@@ -7519,7 +7522,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ29">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR29">
         <v>1.02</v>
@@ -9785,7 +9788,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ40">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR40">
         <v>1.46</v>
@@ -10194,7 +10197,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ42">
         <v>0.67</v>
@@ -12872,10 +12875,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ55">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR55">
         <v>1.21</v>
@@ -16171,7 +16174,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ71">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR71">
         <v>1.87</v>
@@ -17610,7 +17613,7 @@
         <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ78">
         <v>1.7</v>
@@ -18849,7 +18852,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -19670,7 +19673,7 @@
         <v>1.6</v>
       </c>
       <c r="AP88">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ88">
         <v>1.45</v>
@@ -22145,7 +22148,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ100">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR100">
         <v>1.31</v>
@@ -22760,7 +22763,7 @@
         <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ103">
         <v>1.35</v>
@@ -25441,7 +25444,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ116">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR116">
         <v>1.49</v>
@@ -25644,7 +25647,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ117">
         <v>1.3</v>
@@ -28325,7 +28328,7 @@
         <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR130">
         <v>1.15</v>
@@ -30588,7 +30591,7 @@
         <v>0.25</v>
       </c>
       <c r="AP141">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ141">
         <v>0.89</v>
@@ -32651,7 +32654,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ151">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR151">
         <v>1.93</v>
@@ -34296,7 +34299,7 @@
         <v>1.22</v>
       </c>
       <c r="AP159">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ159">
         <v>0.85</v>
@@ -35326,7 +35329,7 @@
         <v>0.2</v>
       </c>
       <c r="AP164">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ164">
         <v>0.72</v>
@@ -35535,7 +35538,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ165">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR165">
         <v>1.71</v>
@@ -37183,7 +37186,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ173">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR173">
         <v>1.87</v>
@@ -39034,7 +39037,7 @@
         <v>0.91</v>
       </c>
       <c r="AP182">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ182">
         <v>1.15</v>
@@ -41712,7 +41715,7 @@
         <v>0.75</v>
       </c>
       <c r="AP195">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ195">
         <v>0.8</v>
@@ -41921,7 +41924,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ196">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR196">
         <v>1.96</v>
@@ -45217,7 +45220,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ212">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR212">
         <v>1.63</v>
@@ -47068,7 +47071,7 @@
         <v>1.46</v>
       </c>
       <c r="AP221">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ221">
         <v>1.6</v>
@@ -48101,7 +48104,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ226">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR226">
         <v>1.64</v>
@@ -49746,7 +49749,7 @@
         <v>0.71</v>
       </c>
       <c r="AP234">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ234">
         <v>0.5600000000000001</v>
@@ -52015,7 +52018,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ245">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR245">
         <v>1.6</v>
@@ -53042,7 +53045,7 @@
         <v>0.67</v>
       </c>
       <c r="AP250">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ250">
         <v>0.8</v>
@@ -54693,7 +54696,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ258">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR258">
         <v>1.61</v>
@@ -57574,7 +57577,7 @@
         <v>1.35</v>
       </c>
       <c r="AP272">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ272">
         <v>1.35</v>
@@ -59222,7 +59225,7 @@
         <v>0.88</v>
       </c>
       <c r="AP280">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ280">
         <v>0.85</v>
@@ -59431,7 +59434,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ281">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR281">
         <v>1.85</v>
@@ -61986,7 +61989,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>7389480</v>
+        <v>7389479</v>
       </c>
       <c r="C294" t="s">
         <v>68</v>
@@ -61995,16 +61998,16 @@
         <v>69</v>
       </c>
       <c r="E294" s="2">
-        <v>45423.55208333334</v>
+        <v>45422.65625</v>
       </c>
       <c r="F294">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G294" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H294" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -62016,175 +62019,175 @@
         <v>0</v>
       </c>
       <c r="L294">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M294">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N294">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O294" t="s">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="P294" t="s">
-        <v>89</v>
+        <v>405</v>
       </c>
       <c r="Q294">
-        <v>3.55</v>
+        <v>2.4</v>
       </c>
       <c r="R294">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S294">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="T294">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U294">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="V294">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="W294">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="X294">
-        <v>6.05</v>
+        <v>5.25</v>
       </c>
       <c r="Y294">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z294">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="AA294">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AB294">
-        <v>2.83</v>
+        <v>3.6</v>
       </c>
       <c r="AC294">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD294">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE294">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AF294">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AG294">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="AH294">
-        <v>1.89</v>
+        <v>2.11</v>
       </c>
       <c r="AI294">
+        <v>1.48</v>
+      </c>
+      <c r="AJ294">
+        <v>2.4</v>
+      </c>
+      <c r="AK294">
+        <v>1.28</v>
+      </c>
+      <c r="AL294">
+        <v>1.2</v>
+      </c>
+      <c r="AM294">
+        <v>1.83</v>
+      </c>
+      <c r="AN294">
+        <v>1.44</v>
+      </c>
+      <c r="AO294">
+        <v>0.72</v>
+      </c>
+      <c r="AP294">
+        <v>1.3</v>
+      </c>
+      <c r="AQ294">
+        <v>0.95</v>
+      </c>
+      <c r="AR294">
+        <v>1.43</v>
+      </c>
+      <c r="AS294">
+        <v>1.36</v>
+      </c>
+      <c r="AT294">
+        <v>2.79</v>
+      </c>
+      <c r="AU294">
+        <v>-1</v>
+      </c>
+      <c r="AV294">
+        <v>-1</v>
+      </c>
+      <c r="AW294">
+        <v>-1</v>
+      </c>
+      <c r="AX294">
+        <v>-1</v>
+      </c>
+      <c r="AY294">
+        <v>-1</v>
+      </c>
+      <c r="AZ294">
+        <v>-1</v>
+      </c>
+      <c r="BA294">
+        <v>-1</v>
+      </c>
+      <c r="BB294">
+        <v>-1</v>
+      </c>
+      <c r="BC294">
+        <v>-1</v>
+      </c>
+      <c r="BD294">
+        <v>1.43</v>
+      </c>
+      <c r="BE294">
+        <v>8</v>
+      </c>
+      <c r="BF294">
+        <v>3.5</v>
+      </c>
+      <c r="BG294">
+        <v>1.28</v>
+      </c>
+      <c r="BH294">
+        <v>3.5</v>
+      </c>
+      <c r="BI294">
+        <v>1.48</v>
+      </c>
+      <c r="BJ294">
+        <v>2.5</v>
+      </c>
+      <c r="BK294">
+        <v>1.82</v>
+      </c>
+      <c r="BL294">
+        <v>1.98</v>
+      </c>
+      <c r="BM294">
+        <v>2.25</v>
+      </c>
+      <c r="BN294">
         <v>1.57</v>
       </c>
-      <c r="AJ294">
-        <v>2.2</v>
-      </c>
-      <c r="AK294">
-        <v>1.73</v>
-      </c>
-      <c r="AL294">
-        <v>1.22</v>
-      </c>
-      <c r="AM294">
-        <v>1.33</v>
-      </c>
-      <c r="AN294">
-        <v>0.88</v>
-      </c>
-      <c r="AO294">
-        <v>0.71</v>
-      </c>
-      <c r="AP294">
-        <v>1</v>
-      </c>
-      <c r="AQ294">
-        <v>0.67</v>
-      </c>
-      <c r="AR294">
-        <v>1.16</v>
-      </c>
-      <c r="AS294">
-        <v>1.06</v>
-      </c>
-      <c r="AT294">
-        <v>2.22</v>
-      </c>
-      <c r="AU294">
-        <v>5</v>
-      </c>
-      <c r="AV294">
-        <v>8</v>
-      </c>
-      <c r="AW294">
-        <v>5</v>
-      </c>
-      <c r="AX294">
-        <v>8</v>
-      </c>
-      <c r="AY294">
-        <v>10</v>
-      </c>
-      <c r="AZ294">
-        <v>16</v>
-      </c>
-      <c r="BA294">
-        <v>2</v>
-      </c>
-      <c r="BB294">
-        <v>7</v>
-      </c>
-      <c r="BC294">
-        <v>9</v>
-      </c>
-      <c r="BD294">
-        <v>2.88</v>
-      </c>
-      <c r="BE294">
-        <v>7.5</v>
-      </c>
-      <c r="BF294">
-        <v>1.58</v>
-      </c>
-      <c r="BG294">
-        <v>1.16</v>
-      </c>
-      <c r="BH294">
-        <v>4.33</v>
-      </c>
-      <c r="BI294">
-        <v>1.38</v>
-      </c>
-      <c r="BJ294">
-        <v>2.88</v>
-      </c>
-      <c r="BK294">
-        <v>1.67</v>
-      </c>
-      <c r="BL294">
-        <v>2.08</v>
-      </c>
-      <c r="BM294">
-        <v>2.12</v>
-      </c>
-      <c r="BN294">
-        <v>1.66</v>
-      </c>
       <c r="BO294">
-        <v>2.58</v>
+        <v>2.95</v>
       </c>
       <c r="BP294">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="295" spans="1:68">
@@ -62192,7 +62195,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>7389481</v>
+        <v>7389480</v>
       </c>
       <c r="C295" t="s">
         <v>68</v>
@@ -62207,166 +62210,166 @@
         <v>6</v>
       </c>
       <c r="G295" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H295" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J295">
         <v>0</v>
       </c>
       <c r="K295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L295">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O295" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P295" t="s">
-        <v>354</v>
+        <v>89</v>
       </c>
       <c r="Q295">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="R295">
+        <v>2.2</v>
+      </c>
+      <c r="S295">
+        <v>2.6</v>
+      </c>
+      <c r="T295">
+        <v>1.33</v>
+      </c>
+      <c r="U295">
+        <v>3.1</v>
+      </c>
+      <c r="V295">
+        <v>2.55</v>
+      </c>
+      <c r="W295">
+        <v>1.45</v>
+      </c>
+      <c r="X295">
+        <v>6.05</v>
+      </c>
+      <c r="Y295">
+        <v>1.11</v>
+      </c>
+      <c r="Z295">
         <v>2.15</v>
       </c>
-      <c r="S295">
-        <v>3.6</v>
-      </c>
-      <c r="T295">
-        <v>1.36</v>
-      </c>
-      <c r="U295">
-        <v>2.88</v>
-      </c>
-      <c r="V295">
-        <v>2.7</v>
-      </c>
-      <c r="W295">
-        <v>1.4</v>
-      </c>
-      <c r="X295">
-        <v>6.5</v>
-      </c>
-      <c r="Y295">
-        <v>1.08</v>
-      </c>
-      <c r="Z295">
-        <v>1.65</v>
-      </c>
       <c r="AA295">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB295">
-        <v>4.1</v>
+        <v>2.83</v>
       </c>
       <c r="AC295">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD295">
         <v>10</v>
       </c>
       <c r="AE295">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AF295">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AG295">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="AH295">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AI295">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AJ295">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK295">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="AL295">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM295">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="AN295">
-        <v>1.53</v>
+        <v>0.88</v>
       </c>
       <c r="AO295">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="AP295">
-        <v>1.61</v>
+        <v>1</v>
       </c>
       <c r="AQ295">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="AR295">
-        <v>1.47</v>
+        <v>1.16</v>
       </c>
       <c r="AS295">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AT295">
-        <v>2.54</v>
+        <v>2.22</v>
       </c>
       <c r="AU295">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV295">
+        <v>8</v>
+      </c>
+      <c r="AW295">
         <v>5</v>
       </c>
-      <c r="AW295">
-        <v>1</v>
-      </c>
       <c r="AX295">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY295">
         <v>10</v>
       </c>
       <c r="AZ295">
+        <v>16</v>
+      </c>
+      <c r="BA295">
+        <v>2</v>
+      </c>
+      <c r="BB295">
+        <v>7</v>
+      </c>
+      <c r="BC295">
         <v>9</v>
       </c>
-      <c r="BA295">
-        <v>5</v>
-      </c>
-      <c r="BB295">
-        <v>5</v>
-      </c>
-      <c r="BC295">
-        <v>10</v>
-      </c>
       <c r="BD295">
-        <v>2.16</v>
+        <v>2.88</v>
       </c>
       <c r="BE295">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF295">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="BG295">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="BH295">
-        <v>4.45</v>
+        <v>4.33</v>
       </c>
       <c r="BI295">
         <v>1.38</v>
@@ -62387,10 +62390,10 @@
         <v>1.66</v>
       </c>
       <c r="BO295">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="BP295">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="296" spans="1:68">
@@ -62398,7 +62401,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>7389482</v>
+        <v>7389481</v>
       </c>
       <c r="C296" t="s">
         <v>68</v>
@@ -62407,196 +62410,196 @@
         <v>69</v>
       </c>
       <c r="E296" s="2">
-        <v>45423.65625</v>
+        <v>45423.55208333334</v>
       </c>
       <c r="F296">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G296" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H296" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J296">
         <v>0</v>
       </c>
       <c r="K296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L296">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M296">
         <v>1</v>
       </c>
       <c r="N296">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O296" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P296" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="Q296">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="R296">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S296">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T296">
+        <v>1.36</v>
+      </c>
+      <c r="U296">
+        <v>2.88</v>
+      </c>
+      <c r="V296">
+        <v>2.7</v>
+      </c>
+      <c r="W296">
+        <v>1.4</v>
+      </c>
+      <c r="X296">
+        <v>6.5</v>
+      </c>
+      <c r="Y296">
+        <v>1.08</v>
+      </c>
+      <c r="Z296">
+        <v>1.65</v>
+      </c>
+      <c r="AA296">
+        <v>3.6</v>
+      </c>
+      <c r="AB296">
+        <v>4.1</v>
+      </c>
+      <c r="AC296">
+        <v>1.02</v>
+      </c>
+      <c r="AD296">
+        <v>10</v>
+      </c>
+      <c r="AE296">
+        <v>1.29</v>
+      </c>
+      <c r="AF296">
+        <v>3.4</v>
+      </c>
+      <c r="AG296">
+        <v>1.75</v>
+      </c>
+      <c r="AH296">
+        <v>1.79</v>
+      </c>
+      <c r="AI296">
+        <v>1.7</v>
+      </c>
+      <c r="AJ296">
+        <v>2.05</v>
+      </c>
+      <c r="AK296">
         <v>1.35</v>
       </c>
-      <c r="U296">
-        <v>3.1</v>
-      </c>
-      <c r="V296">
-        <v>2.5</v>
-      </c>
-      <c r="W296">
-        <v>1.48</v>
-      </c>
-      <c r="X296">
-        <v>5.5</v>
-      </c>
-      <c r="Y296">
-        <v>1.11</v>
-      </c>
-      <c r="Z296">
-        <v>1.99</v>
-      </c>
-      <c r="AA296">
-        <v>3.55</v>
-      </c>
-      <c r="AB296">
-        <v>3.25</v>
-      </c>
-      <c r="AC296">
-        <v>1.04</v>
-      </c>
-      <c r="AD296">
-        <v>14</v>
-      </c>
-      <c r="AE296">
-        <v>1.23</v>
-      </c>
-      <c r="AF296">
-        <v>4.17</v>
-      </c>
-      <c r="AG296">
-        <v>1.7</v>
-      </c>
-      <c r="AH296">
-        <v>2.17</v>
-      </c>
-      <c r="AI296">
-        <v>1.6</v>
-      </c>
-      <c r="AJ296">
-        <v>2.2</v>
-      </c>
-      <c r="AK296">
-        <v>1.32</v>
-      </c>
       <c r="AL296">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM296">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AN296">
-        <v>2.5</v>
+        <v>1.53</v>
       </c>
       <c r="AO296">
-        <v>1.44</v>
+        <v>0.76</v>
       </c>
       <c r="AP296">
+        <v>1.61</v>
+      </c>
+      <c r="AQ296">
+        <v>0.72</v>
+      </c>
+      <c r="AR296">
+        <v>1.47</v>
+      </c>
+      <c r="AS296">
+        <v>1.07</v>
+      </c>
+      <c r="AT296">
+        <v>2.54</v>
+      </c>
+      <c r="AU296">
+        <v>9</v>
+      </c>
+      <c r="AV296">
+        <v>5</v>
+      </c>
+      <c r="AW296">
+        <v>1</v>
+      </c>
+      <c r="AX296">
+        <v>4</v>
+      </c>
+      <c r="AY296">
+        <v>10</v>
+      </c>
+      <c r="AZ296">
+        <v>9</v>
+      </c>
+      <c r="BA296">
+        <v>5</v>
+      </c>
+      <c r="BB296">
+        <v>5</v>
+      </c>
+      <c r="BC296">
+        <v>10</v>
+      </c>
+      <c r="BD296">
+        <v>2.16</v>
+      </c>
+      <c r="BE296">
+        <v>7</v>
+      </c>
+      <c r="BF296">
+        <v>1.96</v>
+      </c>
+      <c r="BG296">
+        <v>1.15</v>
+      </c>
+      <c r="BH296">
+        <v>4.45</v>
+      </c>
+      <c r="BI296">
+        <v>1.38</v>
+      </c>
+      <c r="BJ296">
+        <v>2.88</v>
+      </c>
+      <c r="BK296">
+        <v>1.67</v>
+      </c>
+      <c r="BL296">
+        <v>2.08</v>
+      </c>
+      <c r="BM296">
+        <v>2.12</v>
+      </c>
+      <c r="BN296">
+        <v>1.66</v>
+      </c>
+      <c r="BO296">
         <v>2.4</v>
       </c>
-      <c r="AQ296">
-        <v>1.3</v>
-      </c>
-      <c r="AR296">
-        <v>1.59</v>
-      </c>
-      <c r="AS296">
-        <v>1.65</v>
-      </c>
-      <c r="AT296">
-        <v>3.24</v>
-      </c>
-      <c r="AU296">
-        <v>5</v>
-      </c>
-      <c r="AV296">
-        <v>4</v>
-      </c>
-      <c r="AW296">
-        <v>10</v>
-      </c>
-      <c r="AX296">
-        <v>7</v>
-      </c>
-      <c r="AY296">
-        <v>15</v>
-      </c>
-      <c r="AZ296">
-        <v>11</v>
-      </c>
-      <c r="BA296">
-        <v>4</v>
-      </c>
-      <c r="BB296">
-        <v>3</v>
-      </c>
-      <c r="BC296">
-        <v>7</v>
-      </c>
-      <c r="BD296">
-        <v>1.64</v>
-      </c>
-      <c r="BE296">
-        <v>7.5</v>
-      </c>
-      <c r="BF296">
-        <v>2.7</v>
-      </c>
-      <c r="BG296">
-        <v>1.23</v>
-      </c>
-      <c r="BH296">
-        <v>3.56</v>
-      </c>
-      <c r="BI296">
-        <v>1.42</v>
-      </c>
-      <c r="BJ296">
-        <v>2.65</v>
-      </c>
-      <c r="BK296">
-        <v>1.73</v>
-      </c>
-      <c r="BL296">
-        <v>2</v>
-      </c>
-      <c r="BM296">
-        <v>2.2</v>
-      </c>
-      <c r="BN296">
-        <v>1.61</v>
-      </c>
-      <c r="BO296">
-        <v>3.04</v>
-      </c>
       <c r="BP296">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="297" spans="1:68">
@@ -62604,7 +62607,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>7389483</v>
+        <v>7389482</v>
       </c>
       <c r="C297" t="s">
         <v>68</v>
@@ -62613,196 +62616,196 @@
         <v>69</v>
       </c>
       <c r="E297" s="2">
-        <v>45424.35416666666</v>
+        <v>45423.65625</v>
       </c>
       <c r="F297">
         <v>8</v>
       </c>
       <c r="G297" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H297" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K297">
         <v>1</v>
       </c>
       <c r="L297">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M297">
         <v>1</v>
       </c>
       <c r="N297">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O297" t="s">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c r="P297" t="s">
-        <v>122</v>
+        <v>391</v>
       </c>
       <c r="Q297">
-        <v>1.78</v>
+        <v>2.55</v>
       </c>
       <c r="R297">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="S297">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="T297">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="U297">
+        <v>3.1</v>
+      </c>
+      <c r="V297">
+        <v>2.5</v>
+      </c>
+      <c r="W297">
+        <v>1.48</v>
+      </c>
+      <c r="X297">
+        <v>5.5</v>
+      </c>
+      <c r="Y297">
+        <v>1.11</v>
+      </c>
+      <c r="Z297">
+        <v>1.99</v>
+      </c>
+      <c r="AA297">
+        <v>3.55</v>
+      </c>
+      <c r="AB297">
+        <v>3.25</v>
+      </c>
+      <c r="AC297">
+        <v>1.04</v>
+      </c>
+      <c r="AD297">
+        <v>14</v>
+      </c>
+      <c r="AE297">
+        <v>1.23</v>
+      </c>
+      <c r="AF297">
+        <v>4.17</v>
+      </c>
+      <c r="AG297">
+        <v>1.7</v>
+      </c>
+      <c r="AH297">
+        <v>2.17</v>
+      </c>
+      <c r="AI297">
+        <v>1.6</v>
+      </c>
+      <c r="AJ297">
+        <v>2.2</v>
+      </c>
+      <c r="AK297">
+        <v>1.32</v>
+      </c>
+      <c r="AL297">
+        <v>1.3</v>
+      </c>
+      <c r="AM297">
+        <v>1.72</v>
+      </c>
+      <c r="AN297">
+        <v>2.5</v>
+      </c>
+      <c r="AO297">
+        <v>1.44</v>
+      </c>
+      <c r="AP297">
+        <v>2.4</v>
+      </c>
+      <c r="AQ297">
+        <v>1.3</v>
+      </c>
+      <c r="AR297">
+        <v>1.59</v>
+      </c>
+      <c r="AS297">
+        <v>1.65</v>
+      </c>
+      <c r="AT297">
+        <v>3.24</v>
+      </c>
+      <c r="AU297">
+        <v>5</v>
+      </c>
+      <c r="AV297">
         <v>4</v>
       </c>
-      <c r="V297">
-        <v>1.95</v>
-      </c>
-      <c r="W297">
-        <v>1.75</v>
-      </c>
-      <c r="X297">
-        <v>3.8</v>
-      </c>
-      <c r="Y297">
-        <v>1.22</v>
-      </c>
-      <c r="Z297">
-        <v>1.36</v>
-      </c>
-      <c r="AA297">
-        <v>5</v>
-      </c>
-      <c r="AB297">
-        <v>6.25</v>
-      </c>
-      <c r="AC297">
-        <v>1.01</v>
-      </c>
-      <c r="AD297">
-        <v>28.5</v>
-      </c>
-      <c r="AE297">
-        <v>1.09</v>
-      </c>
-      <c r="AF297">
-        <v>6</v>
-      </c>
-      <c r="AG297">
-        <v>1.36</v>
-      </c>
-      <c r="AH297">
-        <v>2.9</v>
-      </c>
-      <c r="AI297">
-        <v>1.55</v>
-      </c>
-      <c r="AJ297">
-        <v>2.3</v>
-      </c>
-      <c r="AK297">
-        <v>1.05</v>
-      </c>
-      <c r="AL297">
-        <v>1.16</v>
-      </c>
-      <c r="AM297">
+      <c r="AW297">
+        <v>10</v>
+      </c>
+      <c r="AX297">
+        <v>7</v>
+      </c>
+      <c r="AY297">
+        <v>15</v>
+      </c>
+      <c r="AZ297">
+        <v>11</v>
+      </c>
+      <c r="BA297">
+        <v>4</v>
+      </c>
+      <c r="BB297">
         <v>3</v>
       </c>
-      <c r="AN297">
-        <v>2</v>
-      </c>
-      <c r="AO297">
-        <v>0.67</v>
-      </c>
-      <c r="AP297">
-        <v>1.95</v>
-      </c>
-      <c r="AQ297">
-        <v>0.8</v>
-      </c>
-      <c r="AR297">
-        <v>1.84</v>
-      </c>
-      <c r="AS297">
-        <v>1.33</v>
-      </c>
-      <c r="AT297">
-        <v>3.17</v>
-      </c>
-      <c r="AU297">
-        <v>3</v>
-      </c>
-      <c r="AV297">
-        <v>5</v>
-      </c>
-      <c r="AW297">
-        <v>3</v>
-      </c>
-      <c r="AX297">
-        <v>2</v>
-      </c>
-      <c r="AY297">
-        <v>6</v>
-      </c>
-      <c r="AZ297">
+      <c r="BC297">
         <v>7</v>
       </c>
-      <c r="BA297">
-        <v>10</v>
-      </c>
-      <c r="BB297">
-        <v>1</v>
-      </c>
-      <c r="BC297">
-        <v>11</v>
-      </c>
       <c r="BD297">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="BE297">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BF297">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="BG297">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="BH297">
-        <v>5.35</v>
+        <v>3.56</v>
       </c>
       <c r="BI297">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="BJ297">
-        <v>3.56</v>
+        <v>2.65</v>
       </c>
       <c r="BK297">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="BL297">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="BM297">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BN297">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="BO297">
-        <v>2.45</v>
+        <v>3.04</v>
       </c>
       <c r="BP297">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="298" spans="1:68">
@@ -62810,7 +62813,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>7389484</v>
+        <v>7389483</v>
       </c>
       <c r="C298" t="s">
         <v>68</v>
@@ -62819,196 +62822,196 @@
         <v>69</v>
       </c>
       <c r="E298" s="2">
-        <v>45424.45833333334</v>
+        <v>45424.35416666666</v>
       </c>
       <c r="F298">
         <v>8</v>
       </c>
       <c r="G298" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H298" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I298">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J298">
         <v>1</v>
       </c>
       <c r="K298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L298">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M298">
         <v>1</v>
       </c>
       <c r="N298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O298" t="s">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c r="P298" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="Q298">
-        <v>2.8</v>
+        <v>1.78</v>
       </c>
       <c r="R298">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="S298">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="T298">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="U298">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="V298">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="W298">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="X298">
+        <v>3.8</v>
+      </c>
+      <c r="Y298">
+        <v>1.22</v>
+      </c>
+      <c r="Z298">
+        <v>1.36</v>
+      </c>
+      <c r="AA298">
         <v>5</v>
       </c>
-      <c r="Y298">
-        <v>1.13</v>
-      </c>
-      <c r="Z298">
-        <v>2.4</v>
-      </c>
-      <c r="AA298">
-        <v>3.4</v>
-      </c>
       <c r="AB298">
-        <v>2.62</v>
+        <v>6.25</v>
       </c>
       <c r="AC298">
         <v>1.01</v>
       </c>
       <c r="AD298">
-        <v>12</v>
+        <v>28.5</v>
       </c>
       <c r="AE298">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AF298">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AG298">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="AH298">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="AI298">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AJ298">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AK298">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="AL298">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AM298">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="AN298">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AO298">
+        <v>0.67</v>
+      </c>
+      <c r="AP298">
+        <v>1.95</v>
+      </c>
+      <c r="AQ298">
+        <v>0.8</v>
+      </c>
+      <c r="AR298">
+        <v>1.84</v>
+      </c>
+      <c r="AS298">
         <v>1.33</v>
       </c>
-      <c r="AP298">
-        <v>1.8</v>
-      </c>
-      <c r="AQ298">
-        <v>1.35</v>
-      </c>
-      <c r="AR298">
-        <v>1.64</v>
-      </c>
-      <c r="AS298">
-        <v>1.28</v>
-      </c>
       <c r="AT298">
-        <v>2.92</v>
+        <v>3.17</v>
       </c>
       <c r="AU298">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV298">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW298">
         <v>3</v>
       </c>
       <c r="AX298">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY298">
+        <v>6</v>
+      </c>
+      <c r="AZ298">
+        <v>7</v>
+      </c>
+      <c r="BA298">
+        <v>10</v>
+      </c>
+      <c r="BB298">
+        <v>1</v>
+      </c>
+      <c r="BC298">
+        <v>11</v>
+      </c>
+      <c r="BD298">
+        <v>1.25</v>
+      </c>
+      <c r="BE298">
         <v>9</v>
       </c>
-      <c r="AZ298">
-        <v>8</v>
-      </c>
-      <c r="BA298">
-        <v>2</v>
-      </c>
-      <c r="BB298">
-        <v>1</v>
-      </c>
-      <c r="BC298">
-        <v>3</v>
-      </c>
-      <c r="BD298">
-        <v>1.79</v>
-      </c>
-      <c r="BE298">
-        <v>7</v>
-      </c>
       <c r="BF298">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="BG298">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="BH298">
-        <v>3.9</v>
+        <v>5.35</v>
       </c>
       <c r="BI298">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="BJ298">
-        <v>2.65</v>
+        <v>3.56</v>
       </c>
       <c r="BK298">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="BL298">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="BM298">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BN298">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="BO298">
-        <v>2.79</v>
+        <v>2.45</v>
       </c>
       <c r="BP298">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="299" spans="1:68">
@@ -63016,7 +63019,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>7389485</v>
+        <v>7389484</v>
       </c>
       <c r="C299" t="s">
         <v>68</v>
@@ -63025,172 +63028,172 @@
         <v>69</v>
       </c>
       <c r="E299" s="2">
-        <v>45424.5625</v>
+        <v>45424.45833333334</v>
       </c>
       <c r="F299">
         <v>8</v>
       </c>
       <c r="G299" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H299" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K299">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N299">
         <v>3</v>
       </c>
       <c r="O299" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P299" t="s">
-        <v>405</v>
+        <v>88</v>
       </c>
       <c r="Q299">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R299">
+        <v>2.38</v>
+      </c>
+      <c r="S299">
+        <v>3.1</v>
+      </c>
+      <c r="T299">
+        <v>1.29</v>
+      </c>
+      <c r="U299">
+        <v>3.3</v>
+      </c>
+      <c r="V299">
         <v>2.25</v>
       </c>
-      <c r="S299">
-        <v>3.5</v>
-      </c>
-      <c r="T299">
-        <v>1.33</v>
-      </c>
-      <c r="U299">
-        <v>3</v>
-      </c>
-      <c r="V299">
+      <c r="W299">
+        <v>1.57</v>
+      </c>
+      <c r="X299">
+        <v>5</v>
+      </c>
+      <c r="Y299">
+        <v>1.13</v>
+      </c>
+      <c r="Z299">
         <v>2.4</v>
       </c>
-      <c r="W299">
+      <c r="AA299">
+        <v>3.4</v>
+      </c>
+      <c r="AB299">
+        <v>2.62</v>
+      </c>
+      <c r="AC299">
+        <v>1.01</v>
+      </c>
+      <c r="AD299">
+        <v>12</v>
+      </c>
+      <c r="AE299">
+        <v>1.17</v>
+      </c>
+      <c r="AF299">
+        <v>4.5</v>
+      </c>
+      <c r="AG299">
+        <v>1.61</v>
+      </c>
+      <c r="AH299">
+        <v>2.05</v>
+      </c>
+      <c r="AI299">
         <v>1.5</v>
       </c>
-      <c r="X299">
-        <v>5.5</v>
-      </c>
-      <c r="Y299">
-        <v>1.11</v>
-      </c>
-      <c r="Z299">
-        <v>2.25</v>
-      </c>
-      <c r="AA299">
-        <v>3.48</v>
-      </c>
-      <c r="AB299">
-        <v>3.1</v>
-      </c>
-      <c r="AC299">
-        <v>1.02</v>
-      </c>
-      <c r="AD299">
-        <v>10</v>
-      </c>
-      <c r="AE299">
-        <v>1.22</v>
-      </c>
-      <c r="AF299">
-        <v>3.8</v>
-      </c>
-      <c r="AG299">
-        <v>1.74</v>
-      </c>
-      <c r="AH299">
-        <v>2.09</v>
-      </c>
-      <c r="AI299">
-        <v>1.57</v>
-      </c>
       <c r="AJ299">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AK299">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AL299">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AM299">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AN299">
         <v>1.78</v>
       </c>
       <c r="AO299">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AP299">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AQ299">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AR299">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="AS299">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="AT299">
-        <v>3.29</v>
+        <v>2.92</v>
       </c>
       <c r="AU299">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV299">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW299">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX299">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY299">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ299">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA299">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC299">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BD299">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="BE299">
         <v>7</v>
       </c>
       <c r="BF299">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="BG299">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="BH299">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BI299">
         <v>1.42</v>
@@ -63211,10 +63214,10 @@
         <v>1.61</v>
       </c>
       <c r="BO299">
-        <v>2.98</v>
+        <v>2.79</v>
       </c>
       <c r="BP299">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="300" spans="1:68">
@@ -63222,7 +63225,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>7389486</v>
+        <v>7389485</v>
       </c>
       <c r="C300" t="s">
         <v>68</v>
@@ -63231,172 +63234,172 @@
         <v>69</v>
       </c>
       <c r="E300" s="2">
-        <v>45425.64583333334</v>
+        <v>45424.5625</v>
       </c>
       <c r="F300">
         <v>8</v>
       </c>
       <c r="G300" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H300" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I300">
         <v>0</v>
       </c>
       <c r="J300">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K300">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M300">
         <v>2</v>
       </c>
       <c r="N300">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O300" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P300" t="s">
         <v>406</v>
       </c>
       <c r="Q300">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R300">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S300">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T300">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="U300">
         <v>3</v>
       </c>
       <c r="V300">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="W300">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="X300">
-        <v>6.45</v>
+        <v>5.5</v>
       </c>
       <c r="Y300">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="Z300">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="AA300">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="AB300">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AC300">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD300">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE300">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AF300">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AG300">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AH300">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AI300">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AJ300">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK300">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AL300">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AM300">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AN300">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AO300">
-        <v>2.06</v>
+        <v>1.39</v>
       </c>
       <c r="AP300">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AQ300">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="AR300">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AS300">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="AT300">
-        <v>3.52</v>
+        <v>3.29</v>
       </c>
       <c r="AU300">
         <v>5</v>
       </c>
       <c r="AV300">
+        <v>6</v>
+      </c>
+      <c r="AW300">
+        <v>6</v>
+      </c>
+      <c r="AX300">
+        <v>6</v>
+      </c>
+      <c r="AY300">
+        <v>11</v>
+      </c>
+      <c r="AZ300">
+        <v>12</v>
+      </c>
+      <c r="BA300">
+        <v>6</v>
+      </c>
+      <c r="BB300">
+        <v>2</v>
+      </c>
+      <c r="BC300">
         <v>8</v>
       </c>
-      <c r="AW300">
-        <v>11</v>
-      </c>
-      <c r="AX300">
-        <v>8</v>
-      </c>
-      <c r="AY300">
-        <v>16</v>
-      </c>
-      <c r="AZ300">
-        <v>16</v>
-      </c>
-      <c r="BA300">
-        <v>8</v>
-      </c>
-      <c r="BB300">
-        <v>3</v>
-      </c>
-      <c r="BC300">
-        <v>11</v>
-      </c>
       <c r="BD300">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="BE300">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BF300">
-        <v>2.88</v>
+        <v>2.28</v>
       </c>
       <c r="BG300">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="BH300">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="BI300">
         <v>1.42</v>
@@ -63405,22 +63408,22 @@
         <v>2.65</v>
       </c>
       <c r="BK300">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="BL300">
         <v>2</v>
       </c>
       <c r="BM300">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="BN300">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="BO300">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="BP300">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="301" spans="1:68">
@@ -63428,7 +63431,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>7389487</v>
+        <v>7389486</v>
       </c>
       <c r="C301" t="s">
         <v>68</v>
@@ -63437,16 +63440,16 @@
         <v>69</v>
       </c>
       <c r="E301" s="2">
-        <v>45429.65625</v>
+        <v>45425.64583333334</v>
       </c>
       <c r="F301">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G301" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H301" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -63458,22 +63461,22 @@
         <v>0</v>
       </c>
       <c r="L301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N301">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O301" t="s">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="P301" t="s">
-        <v>98</v>
+        <v>407</v>
       </c>
       <c r="Q301">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="R301">
         <v>2.2</v>
@@ -63482,151 +63485,151 @@
         <v>3.75</v>
       </c>
       <c r="T301">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="U301">
+        <v>3</v>
+      </c>
+      <c r="V301">
+        <v>2.7</v>
+      </c>
+      <c r="W301">
+        <v>1.41</v>
+      </c>
+      <c r="X301">
+        <v>6.45</v>
+      </c>
+      <c r="Y301">
+        <v>1.09</v>
+      </c>
+      <c r="Z301">
+        <v>2.17</v>
+      </c>
+      <c r="AA301">
         <v>3.2</v>
       </c>
-      <c r="V301">
-        <v>2.35</v>
-      </c>
-      <c r="W301">
-        <v>1.53</v>
-      </c>
-      <c r="X301">
-        <v>5.6</v>
-      </c>
-      <c r="Y301">
-        <v>1.12</v>
-      </c>
-      <c r="Z301">
-        <v>2</v>
-      </c>
-      <c r="AA301">
-        <v>3.4</v>
-      </c>
       <c r="AB301">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AC301">
         <v>1.04</v>
       </c>
       <c r="AD301">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE301">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AF301">
-        <v>4.52</v>
+        <v>3.6</v>
       </c>
       <c r="AG301">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AH301">
         <v>2.05</v>
       </c>
       <c r="AI301">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AJ301">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="AK301">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AL301">
         <v>1.25</v>
       </c>
       <c r="AM301">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AN301">
-        <v>1.84</v>
+        <v>2.17</v>
       </c>
       <c r="AO301">
-        <v>0.79</v>
+        <v>2.06</v>
       </c>
       <c r="AP301">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AQ301">
-        <v>0.8</v>
+        <v>2.05</v>
       </c>
       <c r="AR301">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AS301">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="AT301">
-        <v>2.93</v>
+        <v>3.52</v>
       </c>
       <c r="AU301">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV301">
+        <v>8</v>
+      </c>
+      <c r="AW301">
+        <v>11</v>
+      </c>
+      <c r="AX301">
+        <v>8</v>
+      </c>
+      <c r="AY301">
+        <v>16</v>
+      </c>
+      <c r="AZ301">
+        <v>16</v>
+      </c>
+      <c r="BA301">
+        <v>8</v>
+      </c>
+      <c r="BB301">
         <v>3</v>
       </c>
-      <c r="AW301">
-        <v>6</v>
-      </c>
-      <c r="AX301">
-        <v>6</v>
-      </c>
-      <c r="AY301">
-        <v>10</v>
-      </c>
-      <c r="AZ301">
-        <v>9</v>
-      </c>
-      <c r="BA301">
-        <v>2</v>
-      </c>
-      <c r="BB301">
-        <v>1</v>
-      </c>
       <c r="BC301">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BD301">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="BE301">
-        <v>8.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="BF301">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="BG301">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="BH301">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
       <c r="BI301">
         <v>1.42</v>
       </c>
       <c r="BJ301">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="BK301">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="BL301">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BM301">
-        <v>2.1</v>
+        <v>2.21</v>
       </c>
       <c r="BN301">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="BO301">
-        <v>2.7</v>
+        <v>2.93</v>
       </c>
       <c r="BP301">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="302" spans="1:68">
@@ -63634,7 +63637,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>7389488</v>
+        <v>7389487</v>
       </c>
       <c r="C302" t="s">
         <v>68</v>
@@ -63643,76 +63646,76 @@
         <v>69</v>
       </c>
       <c r="E302" s="2">
-        <v>45430.55208333334</v>
+        <v>45429.65625</v>
       </c>
       <c r="F302">
         <v>9</v>
       </c>
       <c r="G302" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H302" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I302">
         <v>0</v>
       </c>
       <c r="J302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N302">
         <v>2</v>
       </c>
       <c r="O302" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="P302" t="s">
-        <v>407</v>
+        <v>98</v>
       </c>
       <c r="Q302">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R302">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S302">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="T302">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="U302">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="V302">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="W302">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X302">
-        <v>5.15</v>
+        <v>5.6</v>
       </c>
       <c r="Y302">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="Z302">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="AA302">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AB302">
-        <v>2.36</v>
+        <v>3.1</v>
       </c>
       <c r="AC302">
         <v>1.04</v>
@@ -63721,118 +63724,118 @@
         <v>10</v>
       </c>
       <c r="AE302">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF302">
-        <v>4.75</v>
+        <v>4.52</v>
       </c>
       <c r="AG302">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AH302">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AI302">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AJ302">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AK302">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AL302">
         <v>1.25</v>
       </c>
       <c r="AM302">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="AN302">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="AO302">
-        <v>1.26</v>
+        <v>0.79</v>
       </c>
       <c r="AP302">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AQ302">
-        <v>1.35</v>
+        <v>0.8</v>
       </c>
       <c r="AR302">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="AS302">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AT302">
+        <v>2.93</v>
+      </c>
+      <c r="AU302">
+        <v>4</v>
+      </c>
+      <c r="AV302">
+        <v>3</v>
+      </c>
+      <c r="AW302">
+        <v>6</v>
+      </c>
+      <c r="AX302">
+        <v>6</v>
+      </c>
+      <c r="AY302">
+        <v>10</v>
+      </c>
+      <c r="AZ302">
+        <v>9</v>
+      </c>
+      <c r="BA302">
+        <v>2</v>
+      </c>
+      <c r="BB302">
+        <v>1</v>
+      </c>
+      <c r="BC302">
+        <v>3</v>
+      </c>
+      <c r="BD302">
+        <v>1.7</v>
+      </c>
+      <c r="BE302">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF302">
+        <v>2.65</v>
+      </c>
+      <c r="BG302">
+        <v>1.25</v>
+      </c>
+      <c r="BH302">
+        <v>3.8</v>
+      </c>
+      <c r="BI302">
+        <v>1.42</v>
+      </c>
+      <c r="BJ302">
         <v>2.7</v>
       </c>
-      <c r="AU302">
-        <v>3</v>
-      </c>
-      <c r="AV302">
-        <v>8</v>
-      </c>
-      <c r="AW302">
-        <v>8</v>
-      </c>
-      <c r="AX302">
-        <v>10</v>
-      </c>
-      <c r="AY302">
-        <v>11</v>
-      </c>
-      <c r="AZ302">
-        <v>18</v>
-      </c>
-      <c r="BA302">
-        <v>10</v>
-      </c>
-      <c r="BB302">
-        <v>5</v>
-      </c>
-      <c r="BC302">
-        <v>15</v>
-      </c>
-      <c r="BD302">
-        <v>2.05</v>
-      </c>
-      <c r="BE302">
-        <v>8</v>
-      </c>
-      <c r="BF302">
-        <v>1.95</v>
-      </c>
-      <c r="BG302">
-        <v>1.16</v>
-      </c>
-      <c r="BH302">
-        <v>4.33</v>
-      </c>
-      <c r="BI302">
-        <v>1.33</v>
-      </c>
-      <c r="BJ302">
-        <v>2.93</v>
-      </c>
       <c r="BK302">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="BL302">
         <v>2.1</v>
       </c>
       <c r="BM302">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BN302">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="BO302">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BP302">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="303" spans="1:68">
@@ -63840,7 +63843,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>7389489</v>
+        <v>7389488</v>
       </c>
       <c r="C303" t="s">
         <v>68</v>
@@ -63849,196 +63852,196 @@
         <v>69</v>
       </c>
       <c r="E303" s="2">
-        <v>45430.65625</v>
+        <v>45430.55208333334</v>
       </c>
       <c r="F303">
         <v>9</v>
       </c>
       <c r="G303" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H303" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303">
         <v>1</v>
       </c>
       <c r="K303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M303">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N303">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O303" t="s">
-        <v>283</v>
+        <v>89</v>
       </c>
       <c r="P303" t="s">
         <v>408</v>
       </c>
       <c r="Q303">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R303">
-        <v>2.56</v>
+        <v>2.25</v>
       </c>
       <c r="S303">
-        <v>2.41</v>
+        <v>2.9</v>
       </c>
       <c r="T303">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="U303">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="V303">
         <v>2.25</v>
       </c>
       <c r="W303">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="X303">
-        <v>4.9</v>
+        <v>5.15</v>
       </c>
       <c r="Y303">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="Z303">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AA303">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="AB303">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="AC303">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD303">
-        <v>20.5</v>
+        <v>10</v>
       </c>
       <c r="AE303">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF303">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AG303">
+        <v>1.55</v>
+      </c>
+      <c r="AH303">
+        <v>2.3</v>
+      </c>
+      <c r="AI303">
+        <v>1.44</v>
+      </c>
+      <c r="AJ303">
+        <v>2.55</v>
+      </c>
+      <c r="AK303">
         <v>1.5</v>
       </c>
-      <c r="AH303">
-        <v>2.4</v>
-      </c>
-      <c r="AI303">
+      <c r="AL303">
+        <v>1.25</v>
+      </c>
+      <c r="AM303">
         <v>1.48</v>
       </c>
-      <c r="AJ303">
-        <v>2.4</v>
-      </c>
-      <c r="AK303">
-        <v>1.91</v>
-      </c>
-      <c r="AL303">
-        <v>1.2</v>
-      </c>
-      <c r="AM303">
-        <v>1.28</v>
-      </c>
       <c r="AN303">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="AO303">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="AP303">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AQ303">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AR303">
         <v>1.43</v>
       </c>
       <c r="AS303">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="AT303">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="AU303">
         <v>3</v>
       </c>
       <c r="AV303">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW303">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX303">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY303">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ303">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA303">
+        <v>10</v>
+      </c>
+      <c r="BB303">
         <v>5</v>
       </c>
-      <c r="BB303">
-        <v>11</v>
-      </c>
       <c r="BC303">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD303">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="BE303">
         <v>8</v>
       </c>
       <c r="BF303">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BG303">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH303">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="BI303">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="BJ303">
-        <v>2.4</v>
+        <v>2.93</v>
       </c>
       <c r="BK303">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BL303">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BM303">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BN303">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="BO303">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="BP303">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="304" spans="1:68">
@@ -64046,7 +64049,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>7389490</v>
+        <v>7389489</v>
       </c>
       <c r="C304" t="s">
         <v>68</v>
@@ -64055,16 +64058,16 @@
         <v>69</v>
       </c>
       <c r="E304" s="2">
-        <v>45431.35416666666</v>
+        <v>45430.65625</v>
       </c>
       <c r="F304">
         <v>9</v>
       </c>
       <c r="G304" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H304" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I304">
         <v>1</v>
@@ -64079,133 +64082,133 @@
         <v>1</v>
       </c>
       <c r="M304">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N304">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O304" t="s">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="P304" t="s">
         <v>409</v>
       </c>
       <c r="Q304">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="R304">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="S304">
-        <v>2.55</v>
+        <v>2.41</v>
       </c>
       <c r="T304">
+        <v>1.25</v>
+      </c>
+      <c r="U304">
+        <v>3.5</v>
+      </c>
+      <c r="V304">
+        <v>2.25</v>
+      </c>
+      <c r="W304">
+        <v>1.64</v>
+      </c>
+      <c r="X304">
+        <v>4.9</v>
+      </c>
+      <c r="Y304">
+        <v>1.16</v>
+      </c>
+      <c r="Z304">
+        <v>3.5</v>
+      </c>
+      <c r="AA304">
+        <v>3.85</v>
+      </c>
+      <c r="AB304">
+        <v>1.9</v>
+      </c>
+      <c r="AC304">
+        <v>1.02</v>
+      </c>
+      <c r="AD304">
+        <v>20.5</v>
+      </c>
+      <c r="AE304">
+        <v>1.17</v>
+      </c>
+      <c r="AF304">
+        <v>5</v>
+      </c>
+      <c r="AG304">
+        <v>1.5</v>
+      </c>
+      <c r="AH304">
+        <v>2.4</v>
+      </c>
+      <c r="AI304">
+        <v>1.48</v>
+      </c>
+      <c r="AJ304">
+        <v>2.4</v>
+      </c>
+      <c r="AK304">
+        <v>1.91</v>
+      </c>
+      <c r="AL304">
+        <v>1.2</v>
+      </c>
+      <c r="AM304">
         <v>1.28</v>
       </c>
-      <c r="U304">
-        <v>3.4</v>
-      </c>
-      <c r="V304">
-        <v>2.5</v>
-      </c>
-      <c r="W304">
-        <v>1.48</v>
-      </c>
-      <c r="X304">
-        <v>6.25</v>
-      </c>
-      <c r="Y304">
-        <v>1.11</v>
-      </c>
-      <c r="Z304">
-        <v>3.2</v>
-      </c>
-      <c r="AA304">
-        <v>3.45</v>
-      </c>
-      <c r="AB304">
-        <v>2.23</v>
-      </c>
-      <c r="AC304">
-        <v>1.01</v>
-      </c>
-      <c r="AD304">
-        <v>11</v>
-      </c>
-      <c r="AE304">
-        <v>1.2</v>
-      </c>
-      <c r="AF304">
-        <v>4</v>
-      </c>
-      <c r="AG304">
-        <v>1.7</v>
-      </c>
-      <c r="AH304">
-        <v>2.15</v>
-      </c>
-      <c r="AI304">
-        <v>1.57</v>
-      </c>
-      <c r="AJ304">
-        <v>2.33</v>
-      </c>
-      <c r="AK304">
-        <v>1.76</v>
-      </c>
-      <c r="AL304">
-        <v>1.28</v>
-      </c>
-      <c r="AM304">
+      <c r="AN304">
+        <v>1.37</v>
+      </c>
+      <c r="AO304">
+        <v>1.53</v>
+      </c>
+      <c r="AP304">
         <v>1.3</v>
       </c>
-      <c r="AN304">
-        <v>1.63</v>
-      </c>
-      <c r="AO304">
-        <v>2</v>
-      </c>
-      <c r="AP304">
-        <v>1.55</v>
-      </c>
       <c r="AQ304">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="AR304">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="AS304">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="AT304">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="AU304">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV304">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW304">
         <v>6</v>
       </c>
       <c r="AX304">
+        <v>12</v>
+      </c>
+      <c r="AY304">
         <v>9</v>
       </c>
-      <c r="AY304">
-        <v>10</v>
-      </c>
       <c r="AZ304">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA304">
         <v>5</v>
       </c>
       <c r="BB304">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BC304">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BD304">
         <v>2.3</v>
@@ -64217,34 +64220,34 @@
         <v>1.8</v>
       </c>
       <c r="BG304">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BH304">
-        <v>3.74</v>
+        <v>4.1</v>
       </c>
       <c r="BI304">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="BJ304">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="BK304">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BL304">
         <v>2</v>
       </c>
       <c r="BM304">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="BN304">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="BO304">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="BP304">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="305" spans="1:68">
@@ -64252,7 +64255,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>7389491</v>
+        <v>7389490</v>
       </c>
       <c r="C305" t="s">
         <v>68</v>
@@ -64261,196 +64264,196 @@
         <v>69</v>
       </c>
       <c r="E305" s="2">
-        <v>45431.5625</v>
+        <v>45431.35416666666</v>
       </c>
       <c r="F305">
         <v>9</v>
       </c>
       <c r="G305" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H305" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305">
         <v>1</v>
       </c>
       <c r="K305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N305">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O305" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="P305" t="s">
         <v>410</v>
       </c>
       <c r="Q305">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="R305">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S305">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="T305">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="U305">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V305">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="W305">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="X305">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="Y305">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="Z305">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AA305">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AB305">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="AC305">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD305">
+        <v>11</v>
+      </c>
+      <c r="AE305">
+        <v>1.2</v>
+      </c>
+      <c r="AF305">
+        <v>4</v>
+      </c>
+      <c r="AG305">
+        <v>1.7</v>
+      </c>
+      <c r="AH305">
+        <v>2.15</v>
+      </c>
+      <c r="AI305">
+        <v>1.57</v>
+      </c>
+      <c r="AJ305">
+        <v>2.33</v>
+      </c>
+      <c r="AK305">
+        <v>1.76</v>
+      </c>
+      <c r="AL305">
+        <v>1.28</v>
+      </c>
+      <c r="AM305">
+        <v>1.3</v>
+      </c>
+      <c r="AN305">
+        <v>1.63</v>
+      </c>
+      <c r="AO305">
+        <v>2</v>
+      </c>
+      <c r="AP305">
+        <v>1.55</v>
+      </c>
+      <c r="AQ305">
+        <v>2.05</v>
+      </c>
+      <c r="AR305">
+        <v>1.69</v>
+      </c>
+      <c r="AS305">
+        <v>1.71</v>
+      </c>
+      <c r="AT305">
+        <v>3.4</v>
+      </c>
+      <c r="AU305">
+        <v>4</v>
+      </c>
+      <c r="AV305">
+        <v>6</v>
+      </c>
+      <c r="AW305">
+        <v>6</v>
+      </c>
+      <c r="AX305">
+        <v>9</v>
+      </c>
+      <c r="AY305">
         <v>10</v>
       </c>
-      <c r="AE305">
-        <v>1.22</v>
-      </c>
-      <c r="AF305">
-        <v>3.8</v>
-      </c>
-      <c r="AG305">
-        <v>1.67</v>
-      </c>
-      <c r="AH305">
-        <v>2</v>
-      </c>
-      <c r="AI305">
-        <v>1.61</v>
-      </c>
-      <c r="AJ305">
-        <v>2.25</v>
-      </c>
-      <c r="AK305">
-        <v>1.64</v>
-      </c>
-      <c r="AL305">
-        <v>1.3</v>
-      </c>
-      <c r="AM305">
-        <v>1.35</v>
-      </c>
-      <c r="AN305">
-        <v>2.53</v>
-      </c>
-      <c r="AO305">
-        <v>1.63</v>
-      </c>
-      <c r="AP305">
-        <v>2.4</v>
-      </c>
-      <c r="AQ305">
-        <v>1.7</v>
-      </c>
-      <c r="AR305">
-        <v>1.59</v>
-      </c>
-      <c r="AS305">
-        <v>1.57</v>
-      </c>
-      <c r="AT305">
-        <v>3.16</v>
-      </c>
-      <c r="AU305">
+      <c r="AZ305">
+        <v>15</v>
+      </c>
+      <c r="BA305">
         <v>5</v>
       </c>
-      <c r="AV305">
-        <v>3</v>
-      </c>
-      <c r="AW305">
-        <v>8</v>
-      </c>
-      <c r="AX305">
+      <c r="BB305">
+        <v>5</v>
+      </c>
+      <c r="BC305">
         <v>10</v>
       </c>
-      <c r="AY305">
-        <v>13</v>
-      </c>
-      <c r="AZ305">
-        <v>13</v>
-      </c>
-      <c r="BA305">
-        <v>4</v>
-      </c>
-      <c r="BB305">
-        <v>4</v>
-      </c>
-      <c r="BC305">
-        <v>8</v>
-      </c>
       <c r="BD305">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="BE305">
         <v>8</v>
       </c>
       <c r="BF305">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BG305">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BH305">
-        <v>3.28</v>
+        <v>3.74</v>
       </c>
       <c r="BI305">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="BJ305">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="BK305">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="BL305">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BM305">
-        <v>2.42</v>
+        <v>2.21</v>
       </c>
       <c r="BN305">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="BO305">
-        <v>3.28</v>
+        <v>2.91</v>
       </c>
       <c r="BP305">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="306" spans="1:68">
@@ -64458,7 +64461,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>7389492</v>
+        <v>7389491</v>
       </c>
       <c r="C306" t="s">
         <v>68</v>
@@ -64467,196 +64470,196 @@
         <v>69</v>
       </c>
       <c r="E306" s="2">
-        <v>45432.5625</v>
+        <v>45431.5625</v>
       </c>
       <c r="F306">
         <v>9</v>
       </c>
       <c r="G306" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H306" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K306">
         <v>1</v>
       </c>
       <c r="L306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N306">
         <v>1</v>
       </c>
       <c r="O306" t="s">
-        <v>284</v>
+        <v>89</v>
       </c>
       <c r="P306" t="s">
-        <v>89</v>
+        <v>411</v>
       </c>
       <c r="Q306">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="R306">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S306">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T306">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U306">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="V306">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="W306">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X306">
-        <v>5</v>
+        <v>6.75</v>
       </c>
       <c r="Y306">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="Z306">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="AA306">
         <v>3.5</v>
       </c>
       <c r="AB306">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="AC306">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD306">
         <v>10</v>
       </c>
       <c r="AE306">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF306">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="AG306">
+        <v>1.67</v>
+      </c>
+      <c r="AH306">
+        <v>2</v>
+      </c>
+      <c r="AI306">
+        <v>1.61</v>
+      </c>
+      <c r="AJ306">
+        <v>2.25</v>
+      </c>
+      <c r="AK306">
         <v>1.64</v>
       </c>
-      <c r="AH306">
-        <v>1.92</v>
-      </c>
-      <c r="AI306">
+      <c r="AL306">
+        <v>1.3</v>
+      </c>
+      <c r="AM306">
+        <v>1.35</v>
+      </c>
+      <c r="AN306">
+        <v>2.53</v>
+      </c>
+      <c r="AO306">
+        <v>1.63</v>
+      </c>
+      <c r="AP306">
+        <v>2.4</v>
+      </c>
+      <c r="AQ306">
+        <v>1.7</v>
+      </c>
+      <c r="AR306">
+        <v>1.59</v>
+      </c>
+      <c r="AS306">
         <v>1.57</v>
       </c>
-      <c r="AJ306">
-        <v>2.2</v>
-      </c>
-      <c r="AK306">
-        <v>1.25</v>
-      </c>
-      <c r="AL306">
-        <v>1.2</v>
-      </c>
-      <c r="AM306">
-        <v>1.95</v>
-      </c>
-      <c r="AN306">
-        <v>1.63</v>
-      </c>
-      <c r="AO306">
-        <v>1.21</v>
-      </c>
-      <c r="AP306">
-        <v>1.7</v>
-      </c>
-      <c r="AQ306">
-        <v>1.15</v>
-      </c>
-      <c r="AR306">
-        <v>1.82</v>
-      </c>
-      <c r="AS306">
-        <v>1.33</v>
-      </c>
       <c r="AT306">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="AU306">
+        <v>5</v>
+      </c>
+      <c r="AV306">
+        <v>3</v>
+      </c>
+      <c r="AW306">
+        <v>8</v>
+      </c>
+      <c r="AX306">
+        <v>10</v>
+      </c>
+      <c r="AY306">
+        <v>13</v>
+      </c>
+      <c r="AZ306">
+        <v>13</v>
+      </c>
+      <c r="BA306">
         <v>4</v>
       </c>
-      <c r="AV306">
-        <v>7</v>
-      </c>
-      <c r="AW306">
-        <v>6</v>
-      </c>
-      <c r="AX306">
-        <v>9</v>
-      </c>
-      <c r="AY306">
-        <v>10</v>
-      </c>
-      <c r="AZ306">
-        <v>16</v>
-      </c>
-      <c r="BA306">
-        <v>2</v>
-      </c>
       <c r="BB306">
+        <v>4</v>
+      </c>
+      <c r="BC306">
         <v>8</v>
       </c>
-      <c r="BC306">
-        <v>10</v>
-      </c>
       <c r="BD306">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="BE306">
         <v>8</v>
       </c>
       <c r="BF306">
-        <v>2.62</v>
+        <v>1.67</v>
       </c>
       <c r="BG306">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BH306">
-        <v>3.65</v>
+        <v>3.28</v>
       </c>
       <c r="BI306">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="BJ306">
-        <v>2.55</v>
+        <v>2.39</v>
       </c>
       <c r="BK306">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BL306">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="BM306">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="BN306">
         <v>1.54</v>
       </c>
       <c r="BO306">
-        <v>2.98</v>
+        <v>3.28</v>
       </c>
       <c r="BP306">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="307" spans="1:68">
@@ -64664,7 +64667,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>7389493</v>
+        <v>7389492</v>
       </c>
       <c r="C307" t="s">
         <v>68</v>
@@ -64673,196 +64676,196 @@
         <v>69</v>
       </c>
       <c r="E307" s="2">
-        <v>45437.64583333334</v>
+        <v>45432.5625</v>
       </c>
       <c r="F307">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G307" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H307" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L307">
         <v>1</v>
       </c>
       <c r="M307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N307">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O307" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="P307" t="s">
-        <v>411</v>
+        <v>89</v>
       </c>
       <c r="Q307">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R307">
         <v>2.3</v>
       </c>
       <c r="S307">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T307">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U307">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="V307">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="W307">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="X307">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Y307">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="Z307">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA307">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB307">
         <v>3.3</v>
       </c>
       <c r="AC307">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD307">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE307">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AF307">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AG307">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="AH307">
-        <v>2.6</v>
+        <v>1.92</v>
       </c>
       <c r="AI307">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="AJ307">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AK307">
+        <v>1.25</v>
+      </c>
+      <c r="AL307">
+        <v>1.2</v>
+      </c>
+      <c r="AM307">
+        <v>1.95</v>
+      </c>
+      <c r="AN307">
+        <v>1.63</v>
+      </c>
+      <c r="AO307">
+        <v>1.21</v>
+      </c>
+      <c r="AP307">
+        <v>1.7</v>
+      </c>
+      <c r="AQ307">
+        <v>1.15</v>
+      </c>
+      <c r="AR307">
+        <v>1.82</v>
+      </c>
+      <c r="AS307">
         <v>1.33</v>
       </c>
-      <c r="AL307">
-        <v>1.22</v>
-      </c>
-      <c r="AM307">
-        <v>1.73</v>
-      </c>
-      <c r="AN307">
-        <v>1.47</v>
-      </c>
-      <c r="AO307">
-        <v>0.72</v>
-      </c>
-      <c r="AP307">
-        <v>1.4</v>
-      </c>
-      <c r="AQ307">
-        <v>0.84</v>
-      </c>
-      <c r="AR307">
-        <v>1.39</v>
-      </c>
-      <c r="AS307">
-        <v>1.36</v>
-      </c>
       <c r="AT307">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="AU307">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV307">
+        <v>7</v>
+      </c>
+      <c r="AW307">
         <v>6</v>
       </c>
-      <c r="AW307">
-        <v>7</v>
-      </c>
       <c r="AX307">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AY307">
         <v>10</v>
       </c>
       <c r="AZ307">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB307">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC307">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD307">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="BE307">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF307">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="BG307">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BH307">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="BI307">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="BJ307">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="BK307">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="BL307">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="BM307">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="BN307">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="BO307">
-        <v>2.6</v>
+        <v>2.98</v>
       </c>
       <c r="BP307">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="308" spans="1:68">
@@ -64870,7 +64873,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>7389494</v>
+        <v>7389493</v>
       </c>
       <c r="C308" t="s">
         <v>68</v>
@@ -64885,190 +64888,190 @@
         <v>10</v>
       </c>
       <c r="G308" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H308" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K308">
         <v>2</v>
       </c>
       <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308">
+        <v>2</v>
+      </c>
+      <c r="N308">
         <v>3</v>
       </c>
-      <c r="M308">
-        <v>2</v>
-      </c>
-      <c r="N308">
-        <v>5</v>
-      </c>
       <c r="O308" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="P308" t="s">
         <v>412</v>
       </c>
       <c r="Q308">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R308">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S308">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="T308">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="U308">
+        <v>3.45</v>
+      </c>
+      <c r="V308">
+        <v>2.15</v>
+      </c>
+      <c r="W308">
+        <v>1.62</v>
+      </c>
+      <c r="X308">
+        <v>4.8</v>
+      </c>
+      <c r="Y308">
+        <v>1.16</v>
+      </c>
+      <c r="Z308">
+        <v>2</v>
+      </c>
+      <c r="AA308">
+        <v>3.6</v>
+      </c>
+      <c r="AB308">
         <v>3.3</v>
       </c>
-      <c r="V308">
-        <v>2.25</v>
-      </c>
-      <c r="W308">
-        <v>1.57</v>
-      </c>
-      <c r="X308">
-        <v>5.35</v>
-      </c>
-      <c r="Y308">
-        <v>1.14</v>
-      </c>
-      <c r="Z308">
-        <v>1.85</v>
-      </c>
-      <c r="AA308">
-        <v>3.8</v>
-      </c>
-      <c r="AB308">
-        <v>3.6</v>
-      </c>
       <c r="AC308">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD308">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE308">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AF308">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AG308">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="AH308">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="AI308">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AJ308">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AK308">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AL308">
         <v>1.22</v>
       </c>
       <c r="AM308">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AN308">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AO308">
-        <v>0.68</v>
+        <v>0.84</v>
       </c>
       <c r="AP308">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AQ308">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="AR308">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="AS308">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AT308">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="AU308">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AV308">
         <v>6</v>
       </c>
       <c r="AW308">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AX308">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AY308">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AZ308">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="BA308">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BB308">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC308">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD308">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="BE308">
         <v>7.5</v>
       </c>
       <c r="BF308">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="BG308">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH308">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="BI308">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="BJ308">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="BK308">
+        <v>1.61</v>
+      </c>
+      <c r="BL308">
+        <v>2.2</v>
+      </c>
+      <c r="BM308">
+        <v>2</v>
+      </c>
+      <c r="BN308">
         <v>1.73</v>
       </c>
-      <c r="BL308">
-        <v>2</v>
-      </c>
-      <c r="BM308">
-        <v>2.2</v>
-      </c>
-      <c r="BN308">
-        <v>1.61</v>
-      </c>
       <c r="BO308">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="BP308">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="309" spans="1:68">
@@ -65076,7 +65079,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>7389495</v>
+        <v>7389494</v>
       </c>
       <c r="C309" t="s">
         <v>68</v>
@@ -65091,88 +65094,88 @@
         <v>10</v>
       </c>
       <c r="G309" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H309" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J309">
         <v>0</v>
       </c>
       <c r="K309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N309">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O309" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P309" t="s">
-        <v>89</v>
+        <v>413</v>
       </c>
       <c r="Q309">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="R309">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="S309">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T309">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="U309">
+        <v>3.3</v>
+      </c>
+      <c r="V309">
+        <v>2.25</v>
+      </c>
+      <c r="W309">
+        <v>1.57</v>
+      </c>
+      <c r="X309">
+        <v>5.35</v>
+      </c>
+      <c r="Y309">
+        <v>1.14</v>
+      </c>
+      <c r="Z309">
+        <v>1.85</v>
+      </c>
+      <c r="AA309">
         <v>3.8</v>
       </c>
-      <c r="V309">
-        <v>2.05</v>
-      </c>
-      <c r="W309">
-        <v>1.7</v>
-      </c>
-      <c r="X309">
-        <v>4.33</v>
-      </c>
-      <c r="Y309">
+      <c r="AB309">
+        <v>3.6</v>
+      </c>
+      <c r="AC309">
+        <v>1.04</v>
+      </c>
+      <c r="AD309">
+        <v>10</v>
+      </c>
+      <c r="AE309">
         <v>1.2</v>
       </c>
-      <c r="Z309">
-        <v>1.5</v>
-      </c>
-      <c r="AA309">
+      <c r="AF309">
         <v>4.5</v>
       </c>
-      <c r="AB309">
-        <v>5</v>
-      </c>
-      <c r="AC309">
-        <v>1.02</v>
-      </c>
-      <c r="AD309">
-        <v>26</v>
-      </c>
-      <c r="AE309">
-        <v>1.12</v>
-      </c>
-      <c r="AF309">
-        <v>5.75</v>
-      </c>
       <c r="AG309">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AH309">
-        <v>2.9</v>
+        <v>2.33</v>
       </c>
       <c r="AI309">
         <v>1.48</v>
@@ -65181,100 +65184,100 @@
         <v>2.4</v>
       </c>
       <c r="AK309">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AL309">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AM309">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AN309">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="AO309">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
       <c r="AP309">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AQ309">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="AR309">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AS309">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT309">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="AU309">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV309">
+        <v>6</v>
+      </c>
+      <c r="AW309">
+        <v>11</v>
+      </c>
+      <c r="AX309">
         <v>3</v>
       </c>
-      <c r="AW309">
+      <c r="AY309">
+        <v>21</v>
+      </c>
+      <c r="AZ309">
+        <v>9</v>
+      </c>
+      <c r="BA309">
+        <v>9</v>
+      </c>
+      <c r="BB309">
         <v>3</v>
       </c>
-      <c r="AX309">
-        <v>13</v>
-      </c>
-      <c r="AY309">
-        <v>8</v>
-      </c>
-      <c r="AZ309">
-        <v>16</v>
-      </c>
-      <c r="BA309">
-        <v>8</v>
-      </c>
-      <c r="BB309">
-        <v>8</v>
-      </c>
       <c r="BC309">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BD309">
-        <v>1.27</v>
+        <v>1.66</v>
       </c>
       <c r="BE309">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BF309">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="BG309">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BH309">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="BI309">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="BJ309">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="BK309">
+        <v>1.73</v>
+      </c>
+      <c r="BL309">
+        <v>2</v>
+      </c>
+      <c r="BM309">
+        <v>2.2</v>
+      </c>
+      <c r="BN309">
         <v>1.61</v>
       </c>
-      <c r="BL309">
-        <v>2.2</v>
-      </c>
-      <c r="BM309">
-        <v>2</v>
-      </c>
-      <c r="BN309">
-        <v>1.73</v>
-      </c>
       <c r="BO309">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="BP309">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="310" spans="1:68">
@@ -65282,7 +65285,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>7389497</v>
+        <v>7389495</v>
       </c>
       <c r="C310" t="s">
         <v>68</v>
@@ -65291,196 +65294,196 @@
         <v>69</v>
       </c>
       <c r="E310" s="2">
-        <v>45438.5625</v>
+        <v>45437.64583333334</v>
       </c>
       <c r="F310">
         <v>10</v>
       </c>
       <c r="G310" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H310" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I310">
         <v>0</v>
       </c>
       <c r="J310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L310">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N310">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O310" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P310" t="s">
-        <v>413</v>
+        <v>89</v>
       </c>
       <c r="Q310">
-        <v>4.2</v>
+        <v>1.93</v>
       </c>
       <c r="R310">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="S310">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="T310">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U310">
-        <v>3.16</v>
+        <v>3.8</v>
       </c>
       <c r="V310">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="W310">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="X310">
-        <v>6.1</v>
+        <v>4.33</v>
       </c>
       <c r="Y310">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="Z310">
-        <v>3.06</v>
+        <v>1.5</v>
       </c>
       <c r="AA310">
-        <v>3.13</v>
+        <v>4.5</v>
       </c>
       <c r="AB310">
-        <v>2.07</v>
+        <v>5</v>
       </c>
       <c r="AC310">
         <v>1.02</v>
       </c>
       <c r="AD310">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AE310">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AF310">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="AG310">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AH310">
-        <v>2.08</v>
+        <v>2.9</v>
       </c>
       <c r="AI310">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="AJ310">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="AK310">
+        <v>1.15</v>
+      </c>
+      <c r="AL310">
+        <v>1.14</v>
+      </c>
+      <c r="AM310">
+        <v>2.5</v>
+      </c>
+      <c r="AN310">
+        <v>1.89</v>
+      </c>
+      <c r="AO310">
+        <v>0.89</v>
+      </c>
+      <c r="AP310">
         <v>1.95</v>
       </c>
-      <c r="AL310">
-        <v>1.2</v>
-      </c>
-      <c r="AM310">
-        <v>1.25</v>
-      </c>
-      <c r="AN310">
-        <v>1.68</v>
-      </c>
-      <c r="AO310">
-        <v>1.53</v>
-      </c>
-      <c r="AP310">
-        <v>1.75</v>
-      </c>
       <c r="AQ310">
-        <v>1.45</v>
+        <v>0.85</v>
       </c>
       <c r="AR310">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="AS310">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="AT310">
-        <v>3.19</v>
+        <v>3.04</v>
       </c>
       <c r="AU310">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV310">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW310">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AX310">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AY310">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AZ310">
         <v>16</v>
       </c>
       <c r="BA310">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB310">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC310">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BD310">
-        <v>2.43</v>
+        <v>1.27</v>
       </c>
       <c r="BE310">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BF310">
-        <v>1.81</v>
+        <v>4.75</v>
       </c>
       <c r="BG310">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BH310">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="BI310">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="BJ310">
-        <v>2.43</v>
+        <v>2.95</v>
       </c>
       <c r="BK310">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="BL310">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="BM310">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="BN310">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="BO310">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="BP310">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="311" spans="1:68">
@@ -65488,7 +65491,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>7389498</v>
+        <v>7389497</v>
       </c>
       <c r="C311" t="s">
         <v>68</v>
@@ -65503,190 +65506,190 @@
         <v>10</v>
       </c>
       <c r="G311" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H311" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I311">
         <v>0</v>
       </c>
       <c r="J311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L311">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N311">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O311" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
       <c r="P311" t="s">
-        <v>89</v>
+        <v>414</v>
       </c>
       <c r="Q311">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="R311">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S311">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="T311">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U311">
-        <v>3.55</v>
+        <v>3.16</v>
       </c>
       <c r="V311">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="W311">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="X311">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="Y311">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="Z311">
-        <v>1.52</v>
+        <v>3.06</v>
       </c>
       <c r="AA311">
-        <v>4.09</v>
+        <v>3.13</v>
       </c>
       <c r="AB311">
-        <v>5</v>
+        <v>2.07</v>
       </c>
       <c r="AC311">
         <v>1.02</v>
       </c>
       <c r="AD311">
-        <v>21.5</v>
+        <v>12</v>
       </c>
       <c r="AE311">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AF311">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="AG311">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AH311">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="AI311">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AJ311">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AK311">
-        <v>1.15</v>
+        <v>1.95</v>
       </c>
       <c r="AL311">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AM311">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="AN311">
-        <v>2.11</v>
+        <v>1.68</v>
       </c>
       <c r="AO311">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AP311">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AQ311">
         <v>1.45</v>
       </c>
       <c r="AR311">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AS311">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AT311">
-        <v>3.39</v>
+        <v>3.19</v>
       </c>
       <c r="AU311">
+        <v>6</v>
+      </c>
+      <c r="AV311">
+        <v>6</v>
+      </c>
+      <c r="AW311">
+        <v>16</v>
+      </c>
+      <c r="AX311">
+        <v>10</v>
+      </c>
+      <c r="AY311">
+        <v>22</v>
+      </c>
+      <c r="AZ311">
+        <v>16</v>
+      </c>
+      <c r="BA311">
         <v>4</v>
       </c>
-      <c r="AV311">
-        <v>2</v>
-      </c>
-      <c r="AW311">
-        <v>10</v>
-      </c>
-      <c r="AX311">
-        <v>9</v>
-      </c>
-      <c r="AY311">
-        <v>14</v>
-      </c>
-      <c r="AZ311">
-        <v>11</v>
-      </c>
-      <c r="BA311">
-        <v>5</v>
-      </c>
       <c r="BB311">
         <v>2</v>
       </c>
       <c r="BC311">
+        <v>6</v>
+      </c>
+      <c r="BD311">
+        <v>2.43</v>
+      </c>
+      <c r="BE311">
         <v>7</v>
       </c>
-      <c r="BD311">
-        <v>1.2</v>
-      </c>
-      <c r="BE311">
-        <v>10</v>
-      </c>
       <c r="BF311">
-        <v>6</v>
+        <v>1.81</v>
       </c>
       <c r="BG311">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BH311">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BI311">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BJ311">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="BK311">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="BL311">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="BM311">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="BN311">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BO311">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="BP311">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="312" spans="1:68">
@@ -65694,7 +65697,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>7389496</v>
+        <v>7389498</v>
       </c>
       <c r="C312" t="s">
         <v>68</v>
@@ -65709,82 +65712,82 @@
         <v>10</v>
       </c>
       <c r="G312" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H312" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312">
         <v>0</v>
       </c>
       <c r="K312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L312">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M312">
         <v>0</v>
       </c>
       <c r="N312">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O312" t="s">
-        <v>288</v>
+        <v>89</v>
       </c>
       <c r="P312" t="s">
         <v>89</v>
       </c>
       <c r="Q312">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="R312">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S312">
+        <v>4.75</v>
+      </c>
+      <c r="T312">
+        <v>1.25</v>
+      </c>
+      <c r="U312">
+        <v>3.55</v>
+      </c>
+      <c r="V312">
+        <v>2.2</v>
+      </c>
+      <c r="W312">
+        <v>1.6</v>
+      </c>
+      <c r="X312">
         <v>4.5</v>
       </c>
-      <c r="T312">
-        <v>1.28</v>
-      </c>
-      <c r="U312">
-        <v>3.3</v>
-      </c>
-      <c r="V312">
-        <v>2.25</v>
-      </c>
-      <c r="W312">
-        <v>1.55</v>
-      </c>
-      <c r="X312">
-        <v>5.2</v>
-      </c>
       <c r="Y312">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="Z312">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="AA312">
-        <v>3.6</v>
+        <v>4.09</v>
       </c>
       <c r="AB312">
-        <v>3.83</v>
+        <v>5</v>
       </c>
       <c r="AC312">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD312">
-        <v>13</v>
+        <v>21.5</v>
       </c>
       <c r="AE312">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AF312">
-        <v>4.9</v>
+        <v>5.25</v>
       </c>
       <c r="AG312">
         <v>1.6</v>
@@ -65793,105 +65796,311 @@
         <v>2.34</v>
       </c>
       <c r="AI312">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AJ312">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AK312">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AL312">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AM312">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="AN312">
         <v>2.11</v>
       </c>
       <c r="AO312">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AP312">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AQ312">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR312">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="AS312">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="AT312">
-        <v>3.56</v>
+        <v>3.39</v>
       </c>
       <c r="AU312">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW312">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX312">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY312">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AZ312">
         <v>11</v>
       </c>
       <c r="BA312">
+        <v>5</v>
+      </c>
+      <c r="BB312">
+        <v>2</v>
+      </c>
+      <c r="BC312">
+        <v>7</v>
+      </c>
+      <c r="BD312">
+        <v>1.2</v>
+      </c>
+      <c r="BE312">
         <v>10</v>
       </c>
-      <c r="BB312">
+      <c r="BF312">
+        <v>6</v>
+      </c>
+      <c r="BG312">
+        <v>1.22</v>
+      </c>
+      <c r="BH312">
+        <v>3.8</v>
+      </c>
+      <c r="BI312">
+        <v>1.42</v>
+      </c>
+      <c r="BJ312">
+        <v>2.65</v>
+      </c>
+      <c r="BK312">
+        <v>1.73</v>
+      </c>
+      <c r="BL312">
+        <v>2.02</v>
+      </c>
+      <c r="BM312">
+        <v>2.2</v>
+      </c>
+      <c r="BN312">
+        <v>1.61</v>
+      </c>
+      <c r="BO312">
+        <v>2.9</v>
+      </c>
+      <c r="BP312">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="313" spans="1:68">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>7389496</v>
+      </c>
+      <c r="C313" t="s">
+        <v>68</v>
+      </c>
+      <c r="D313" t="s">
+        <v>69</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45438.5625</v>
+      </c>
+      <c r="F313">
+        <v>10</v>
+      </c>
+      <c r="G313" t="s">
+        <v>70</v>
+      </c>
+      <c r="H313" t="s">
+        <v>79</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>1</v>
+      </c>
+      <c r="L313">
+        <v>2</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>2</v>
+      </c>
+      <c r="O313" t="s">
+        <v>288</v>
+      </c>
+      <c r="P313" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q313">
+        <v>2.25</v>
+      </c>
+      <c r="R313">
+        <v>2.45</v>
+      </c>
+      <c r="S313">
+        <v>4.5</v>
+      </c>
+      <c r="T313">
+        <v>1.28</v>
+      </c>
+      <c r="U313">
+        <v>3.3</v>
+      </c>
+      <c r="V313">
+        <v>2.25</v>
+      </c>
+      <c r="W313">
+        <v>1.55</v>
+      </c>
+      <c r="X313">
+        <v>5.2</v>
+      </c>
+      <c r="Y313">
+        <v>1.13</v>
+      </c>
+      <c r="Z313">
+        <v>1.78</v>
+      </c>
+      <c r="AA313">
+        <v>3.6</v>
+      </c>
+      <c r="AB313">
+        <v>3.83</v>
+      </c>
+      <c r="AC313">
+        <v>1.01</v>
+      </c>
+      <c r="AD313">
+        <v>13</v>
+      </c>
+      <c r="AE313">
+        <v>1.16</v>
+      </c>
+      <c r="AF313">
+        <v>4.9</v>
+      </c>
+      <c r="AG313">
+        <v>1.6</v>
+      </c>
+      <c r="AH313">
+        <v>2.34</v>
+      </c>
+      <c r="AI313">
+        <v>1.6</v>
+      </c>
+      <c r="AJ313">
+        <v>2.3</v>
+      </c>
+      <c r="AK313">
+        <v>1.2</v>
+      </c>
+      <c r="AL313">
+        <v>1.2</v>
+      </c>
+      <c r="AM313">
+        <v>2.15</v>
+      </c>
+      <c r="AN313">
+        <v>2.11</v>
+      </c>
+      <c r="AO313">
+        <v>1.37</v>
+      </c>
+      <c r="AP313">
+        <v>2.15</v>
+      </c>
+      <c r="AQ313">
+        <v>1.3</v>
+      </c>
+      <c r="AR313">
+        <v>1.92</v>
+      </c>
+      <c r="AS313">
+        <v>1.64</v>
+      </c>
+      <c r="AT313">
+        <v>3.56</v>
+      </c>
+      <c r="AU313">
+        <v>7</v>
+      </c>
+      <c r="AV313">
+        <v>3</v>
+      </c>
+      <c r="AW313">
+        <v>13</v>
+      </c>
+      <c r="AX313">
+        <v>8</v>
+      </c>
+      <c r="AY313">
+        <v>20</v>
+      </c>
+      <c r="AZ313">
+        <v>11</v>
+      </c>
+      <c r="BA313">
+        <v>10</v>
+      </c>
+      <c r="BB313">
         <v>4</v>
       </c>
-      <c r="BC312">
+      <c r="BC313">
         <v>14</v>
       </c>
-      <c r="BD312">
+      <c r="BD313">
         <v>1.43</v>
       </c>
-      <c r="BE312">
+      <c r="BE313">
         <v>8</v>
       </c>
-      <c r="BF312">
+      <c r="BF313">
         <v>3.55</v>
       </c>
-      <c r="BG312">
+      <c r="BG313">
         <v>1.2</v>
       </c>
-      <c r="BH312">
+      <c r="BH313">
         <v>4</v>
       </c>
-      <c r="BI312">
+      <c r="BI313">
         <v>1.38</v>
       </c>
-      <c r="BJ312">
+      <c r="BJ313">
         <v>2.8</v>
       </c>
-      <c r="BK312">
+      <c r="BK313">
         <v>1.67</v>
       </c>
-      <c r="BL312">
+      <c r="BL313">
         <v>2.1</v>
       </c>
-      <c r="BM312">
+      <c r="BM313">
         <v>2.1</v>
       </c>
-      <c r="BN312">
+      <c r="BN313">
         <v>1.67</v>
       </c>
-      <c r="BO312">
+      <c r="BO313">
         <v>2.85</v>
       </c>
-      <c r="BP312">
+      <c r="BP313">
         <v>1.38</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="415">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1620,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP313"/>
+  <dimension ref="A1:BP314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ11">
         <v>0.5600000000000001</v>
@@ -4638,7 +4638,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>1.16</v>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ30">
         <v>0.89</v>
@@ -10815,7 +10815,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ45">
         <v>1.45</v>
@@ -12466,7 +12466,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR53">
         <v>1.51</v>
@@ -13699,7 +13699,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ59">
         <v>0.85</v>
@@ -14526,7 +14526,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.84</v>
@@ -16171,7 +16171,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ71">
         <v>0.95</v>
@@ -16586,7 +16586,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR73">
         <v>1.49</v>
@@ -19261,7 +19261,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ86">
         <v>1.35</v>
@@ -19470,7 +19470,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ87">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
         <v>1.53</v>
@@ -23178,7 +23178,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ105">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR105">
         <v>1.52</v>
@@ -24411,7 +24411,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ111">
         <v>0.8</v>
@@ -27501,10 +27501,10 @@
         <v>1.71</v>
       </c>
       <c r="AP126">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ126">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR126">
         <v>1.97</v>
@@ -30800,7 +30800,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ142">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR142">
         <v>1.84</v>
@@ -31415,7 +31415,7 @@
         <v>0.25</v>
       </c>
       <c r="AP145">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ145">
         <v>0.72</v>
@@ -33269,7 +33269,7 @@
         <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ154">
         <v>1.15</v>
@@ -33478,7 +33478,7 @@
         <v>1</v>
       </c>
       <c r="AQ155">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR155">
         <v>1.23</v>
@@ -35123,7 +35123,7 @@
         <v>1.3</v>
       </c>
       <c r="AP163">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ163">
         <v>1.45</v>
@@ -39658,7 +39658,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ185">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR185">
         <v>1.54</v>
@@ -40479,7 +40479,7 @@
         <v>2.18</v>
       </c>
       <c r="AP189">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ189">
         <v>2.05</v>
@@ -41100,7 +41100,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ192">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR192">
         <v>1.55</v>
@@ -43363,7 +43363,7 @@
         <v>0.67</v>
       </c>
       <c r="AP203">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ203">
         <v>0.67</v>
@@ -44602,7 +44602,7 @@
         <v>1</v>
       </c>
       <c r="AQ209">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR209">
         <v>1.23</v>
@@ -47074,7 +47074,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ221">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR221">
         <v>1.32</v>
@@ -47277,7 +47277,7 @@
         <v>1.38</v>
       </c>
       <c r="AP222">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ222">
         <v>1.7</v>
@@ -48925,7 +48925,7 @@
         <v>0.79</v>
       </c>
       <c r="AP230">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ230">
         <v>0.65</v>
@@ -49340,7 +49340,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ232">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR232">
         <v>1.9</v>
@@ -52427,7 +52427,7 @@
         <v>2.27</v>
       </c>
       <c r="AP247">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ247">
         <v>2.05</v>
@@ -54078,7 +54078,7 @@
         <v>1</v>
       </c>
       <c r="AQ255">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR255">
         <v>1.42</v>
@@ -54899,7 +54899,7 @@
         <v>1.5</v>
       </c>
       <c r="AP259">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ259">
         <v>1.45</v>
@@ -55726,7 +55726,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ263">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR263">
         <v>1.31</v>
@@ -56547,7 +56547,7 @@
         <v>1.69</v>
       </c>
       <c r="AP267">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ267">
         <v>1.45</v>
@@ -57786,7 +57786,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ273">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR273">
         <v>1.63</v>
@@ -59637,7 +59637,7 @@
         <v>1.47</v>
       </c>
       <c r="AP282">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ282">
         <v>1.7</v>
@@ -60876,7 +60876,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ288">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR288">
         <v>1.66</v>
@@ -64172,7 +64172,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ304">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AR304">
         <v>1.43</v>
@@ -64787,7 +64787,7 @@
         <v>1.21</v>
       </c>
       <c r="AP307">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AQ307">
         <v>1.15</v>
@@ -66102,6 +66102,212 @@
       </c>
       <c r="BP313">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="314" spans="1:68">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>7440670</v>
+      </c>
+      <c r="C314" t="s">
+        <v>68</v>
+      </c>
+      <c r="D314" t="s">
+        <v>69</v>
+      </c>
+      <c r="E314" s="2">
+        <v>45445.35416666666</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314" t="s">
+        <v>79</v>
+      </c>
+      <c r="H314" t="s">
+        <v>75</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+      <c r="M314">
+        <v>1</v>
+      </c>
+      <c r="N314">
+        <v>1</v>
+      </c>
+      <c r="O314" t="s">
+        <v>89</v>
+      </c>
+      <c r="P314" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q314">
+        <v>2.88</v>
+      </c>
+      <c r="R314">
+        <v>2.3</v>
+      </c>
+      <c r="S314">
+        <v>3.25</v>
+      </c>
+      <c r="T314">
+        <v>1.3</v>
+      </c>
+      <c r="U314">
+        <v>3.4</v>
+      </c>
+      <c r="V314">
+        <v>2.5</v>
+      </c>
+      <c r="W314">
+        <v>1.5</v>
+      </c>
+      <c r="X314">
+        <v>6</v>
+      </c>
+      <c r="Y314">
+        <v>1.13</v>
+      </c>
+      <c r="Z314">
+        <v>2.32</v>
+      </c>
+      <c r="AA314">
+        <v>3.42</v>
+      </c>
+      <c r="AB314">
+        <v>2.64</v>
+      </c>
+      <c r="AC314">
+        <v>1.02</v>
+      </c>
+      <c r="AD314">
+        <v>17</v>
+      </c>
+      <c r="AE314">
+        <v>1.18</v>
+      </c>
+      <c r="AF314">
+        <v>4.75</v>
+      </c>
+      <c r="AG314">
+        <v>1.8</v>
+      </c>
+      <c r="AH314">
+        <v>2.01</v>
+      </c>
+      <c r="AI314">
+        <v>1.53</v>
+      </c>
+      <c r="AJ314">
+        <v>2.38</v>
+      </c>
+      <c r="AK314">
+        <v>1.45</v>
+      </c>
+      <c r="AL314">
+        <v>1.22</v>
+      </c>
+      <c r="AM314">
+        <v>1.6</v>
+      </c>
+      <c r="AN314">
+        <v>1.5</v>
+      </c>
+      <c r="AO314">
+        <v>1.78</v>
+      </c>
+      <c r="AP314">
+        <v>1.46</v>
+      </c>
+      <c r="AQ314">
+        <v>1.8</v>
+      </c>
+      <c r="AR314">
+        <v>1.79</v>
+      </c>
+      <c r="AS314">
+        <v>1.55</v>
+      </c>
+      <c r="AT314">
+        <v>3.34</v>
+      </c>
+      <c r="AU314">
+        <v>0</v>
+      </c>
+      <c r="AV314">
+        <v>3</v>
+      </c>
+      <c r="AW314">
+        <v>2</v>
+      </c>
+      <c r="AX314">
+        <v>3</v>
+      </c>
+      <c r="AY314">
+        <v>2</v>
+      </c>
+      <c r="AZ314">
+        <v>6</v>
+      </c>
+      <c r="BA314">
+        <v>4</v>
+      </c>
+      <c r="BB314">
+        <v>2</v>
+      </c>
+      <c r="BC314">
+        <v>6</v>
+      </c>
+      <c r="BD314">
+        <v>1.75</v>
+      </c>
+      <c r="BE314">
+        <v>8.5</v>
+      </c>
+      <c r="BF314">
+        <v>2.3</v>
+      </c>
+      <c r="BG314">
+        <v>1.15</v>
+      </c>
+      <c r="BH314">
+        <v>4.5</v>
+      </c>
+      <c r="BI314">
+        <v>1.31</v>
+      </c>
+      <c r="BJ314">
+        <v>3.04</v>
+      </c>
+      <c r="BK314">
+        <v>1.61</v>
+      </c>
+      <c r="BL314">
+        <v>2.26</v>
+      </c>
+      <c r="BM314">
+        <v>2</v>
+      </c>
+      <c r="BN314">
+        <v>1.73</v>
+      </c>
+      <c r="BO314">
+        <v>2.53</v>
+      </c>
+      <c r="BP314">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -66244,22 +66244,22 @@
         <v>3.34</v>
       </c>
       <c r="AU314">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV314">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW314">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX314">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY314">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AZ314">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA314">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -66235,13 +66235,13 @@
         <v>1.8</v>
       </c>
       <c r="AR314">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AS314">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="AT314">
-        <v>3.34</v>
+        <v>3.36</v>
       </c>
       <c r="AU314">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -51391,25 +51391,25 @@
         <v>2.2</v>
       </c>
       <c r="AN242">
+        <v>1.57</v>
+      </c>
+      <c r="AO242">
+        <v>1.13</v>
+      </c>
+      <c r="AP242">
         <v>1.8</v>
       </c>
-      <c r="AO242">
-        <v>0.73</v>
-      </c>
-      <c r="AP242">
-        <v>1.95</v>
-      </c>
       <c r="AQ242">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR242">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AS242">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AT242">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
       <c r="AU242">
         <v>9</v>
@@ -51597,25 +51597,25 @@
         <v>1.47</v>
       </c>
       <c r="AN243">
-        <v>1.27</v>
+        <v>0.97</v>
       </c>
       <c r="AO243">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP243">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ243">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR243">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AS243">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT243">
-        <v>2.61</v>
+        <v>2.76</v>
       </c>
       <c r="AU243">
         <v>6</v>
@@ -52009,25 +52009,25 @@
         <v>1.68</v>
       </c>
       <c r="AN245">
-        <v>1.87</v>
+        <v>1.33</v>
       </c>
       <c r="AO245">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AP245">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ245">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR245">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AS245">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AT245">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="AU245">
         <v>7</v>
@@ -52627,25 +52627,25 @@
         <v>1.77</v>
       </c>
       <c r="AN248">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AO248">
-        <v>0.8</v>
+        <v>1.39</v>
       </c>
       <c r="AP248">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ248">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR248">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AS248">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="AT248">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -52833,25 +52833,25 @@
         <v>2.1</v>
       </c>
       <c r="AN249">
-        <v>1.47</v>
+        <v>0.97</v>
       </c>
       <c r="AO249">
-        <v>0.53</v>
+        <v>0.77</v>
       </c>
       <c r="AP249">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ249">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR249">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AS249">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="AT249">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="AU249">
         <v>4</v>
@@ -53039,25 +53039,25 @@
         <v>1.91</v>
       </c>
       <c r="AN250">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="AO250">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP250">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ250">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR250">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AS250">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT250">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="AU250">
         <v>7</v>
@@ -53657,25 +53657,25 @@
         <v>1.57</v>
       </c>
       <c r="AN253">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="AO253">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AP253">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ253">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR253">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AS253">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AT253">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU253">
         <v>3</v>
@@ -54069,25 +54069,25 @@
         <v>1.27</v>
       </c>
       <c r="AN255">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="AO255">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AP255">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ255">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR255">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AS255">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AT255">
-        <v>2.92</v>
+        <v>3.04</v>
       </c>
       <c r="AU255">
         <v>4</v>
@@ -54275,25 +54275,25 @@
         <v>1.67</v>
       </c>
       <c r="AN256">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="AO256">
-        <v>0.6899999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AP256">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ256">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR256">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS256">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="AT256">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AU256">
         <v>9</v>
@@ -54481,25 +54481,25 @@
         <v>1.6</v>
       </c>
       <c r="AN257">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AO257">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP257">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ257">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR257">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AS257">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AT257">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="AU257">
         <v>6</v>
@@ -54687,25 +54687,25 @@
         <v>2</v>
       </c>
       <c r="AN258">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AO258">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP258">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ258">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR258">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AS258">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT258">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU258">
         <v>7</v>
@@ -55305,25 +55305,25 @@
         <v>1.4</v>
       </c>
       <c r="AN261">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO261">
-        <v>0.47</v>
+        <v>0.97</v>
       </c>
       <c r="AP261">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ261">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR261">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AS261">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="AT261">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="AU261">
         <v>3</v>
@@ -55717,25 +55717,25 @@
         <v>1.25</v>
       </c>
       <c r="AN263">
-        <v>1.19</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO263">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AP263">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ263">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR263">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AS263">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AT263">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AU263">
         <v>5</v>
@@ -55923,25 +55923,25 @@
         <v>1.48</v>
       </c>
       <c r="AN264">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO264">
-        <v>0.9399999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="AP264">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ264">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR264">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AS264">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AT264">
-        <v>2.59</v>
+        <v>2.76</v>
       </c>
       <c r="AU264">
         <v>12</v>
@@ -56129,25 +56129,25 @@
         <v>1.51</v>
       </c>
       <c r="AN265">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="AO265">
-        <v>0.71</v>
+        <v>1.09</v>
       </c>
       <c r="AP265">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ265">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR265">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS265">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AT265">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="AU265">
         <v>7</v>
@@ -56335,22 +56335,22 @@
         <v>2.4</v>
       </c>
       <c r="AN266">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="AO266">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AP266">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ266">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR266">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="AS266">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AT266">
         <v>3.2</v>
@@ -56953,25 +56953,25 @@
         <v>1.7</v>
       </c>
       <c r="AN269">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AO269">
-        <v>0.5600000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AP269">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ269">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR269">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AS269">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="AT269">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="AU269">
         <v>9</v>
@@ -57365,25 +57365,25 @@
         <v>2.15</v>
       </c>
       <c r="AN271">
-        <v>1.44</v>
+        <v>1.03</v>
       </c>
       <c r="AO271">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="AP271">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ271">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR271">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AS271">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AT271">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="AU271">
         <v>8</v>
@@ -57571,25 +57571,25 @@
         <v>1.56</v>
       </c>
       <c r="AN272">
+        <v>1.09</v>
+      </c>
+      <c r="AO272">
         <v>1.5</v>
       </c>
-      <c r="AO272">
-        <v>1.35</v>
-      </c>
       <c r="AP272">
+        <v>0.98</v>
+      </c>
+      <c r="AQ272">
+        <v>1.53</v>
+      </c>
+      <c r="AR272">
         <v>1.3</v>
       </c>
-      <c r="AQ272">
-        <v>1.35</v>
-      </c>
-      <c r="AR272">
-        <v>1.38</v>
-      </c>
       <c r="AS272">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AT272">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="AU272">
         <v>7</v>
@@ -57777,25 +57777,25 @@
         <v>1.26</v>
       </c>
       <c r="AN273">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO273">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AP273">
+        <v>1.33</v>
+      </c>
+      <c r="AQ273">
         <v>1.8</v>
       </c>
-      <c r="AQ273">
-        <v>1.67</v>
-      </c>
       <c r="AR273">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AS273">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AT273">
-        <v>3.18</v>
+        <v>3.13</v>
       </c>
       <c r="AU273">
         <v>7</v>
@@ -57983,25 +57983,25 @@
         <v>1.62</v>
       </c>
       <c r="AN274">
+        <v>0.91</v>
+      </c>
+      <c r="AO274">
         <v>1.06</v>
       </c>
-      <c r="AO274">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AP274">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ274">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR274">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AS274">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT274">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58807,25 +58807,25 @@
         <v>1.38</v>
       </c>
       <c r="AN278">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="AO278">
-        <v>0.63</v>
+        <v>1.09</v>
       </c>
       <c r="AP278">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ278">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR278">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AS278">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT278">
-        <v>2.33</v>
+        <v>2.47</v>
       </c>
       <c r="AU278">
         <v>3</v>
@@ -59013,25 +59013,25 @@
         <v>1.8</v>
       </c>
       <c r="AN279">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="AO279">
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
       <c r="AP279">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ279">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR279">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AS279">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT279">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="AU279">
         <v>8</v>
@@ -59219,25 +59219,25 @@
         <v>1.57</v>
       </c>
       <c r="AN280">
-        <v>1.47</v>
+        <v>1.09</v>
       </c>
       <c r="AO280">
-        <v>0.88</v>
+        <v>1.34</v>
       </c>
       <c r="AP280">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ280">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR280">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AS280">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AT280">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU280">
         <v>7</v>
@@ -59425,25 +59425,25 @@
         <v>2.88</v>
       </c>
       <c r="AN281">
-        <v>1.94</v>
+        <v>1.69</v>
       </c>
       <c r="AO281">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="AP281">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ281">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR281">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="AS281">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AT281">
-        <v>3.16</v>
+        <v>3.05</v>
       </c>
       <c r="AU281">
         <v>7</v>
@@ -60249,25 +60249,25 @@
         <v>1.55</v>
       </c>
       <c r="AN285">
-        <v>1.13</v>
+        <v>0.91</v>
       </c>
       <c r="AO285">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AP285">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ285">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR285">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AS285">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AT285">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AU285">
         <v>5</v>
@@ -60455,25 +60455,25 @@
         <v>1.54</v>
       </c>
       <c r="AN286">
-        <v>1.06</v>
+        <v>0.89</v>
       </c>
       <c r="AO286">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="AP286">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ286">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR286">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AS286">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="AT286">
-        <v>2.63</v>
+        <v>2.81</v>
       </c>
       <c r="AU286">
         <v>7</v>
@@ -60661,25 +60661,25 @@
         <v>1.48</v>
       </c>
       <c r="AN287">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AO287">
-        <v>0.76</v>
+        <v>1.15</v>
       </c>
       <c r="AP287">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ287">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR287">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AS287">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT287">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU287">
         <v>7</v>
@@ -60867,25 +60867,25 @@
         <v>1.3</v>
       </c>
       <c r="AN288">
+        <v>1.53</v>
+      </c>
+      <c r="AO288">
         <v>1.72</v>
       </c>
-      <c r="AO288">
-        <v>1.44</v>
-      </c>
       <c r="AP288">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ288">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR288">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AS288">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AT288">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="AU288">
         <v>9</v>
@@ -61485,25 +61485,25 @@
         <v>1.57</v>
       </c>
       <c r="AN291">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="AO291">
-        <v>0.72</v>
+        <v>1.08</v>
       </c>
       <c r="AP291">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ291">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR291">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AS291">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AT291">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="AU291">
         <v>8</v>
@@ -61897,25 +61897,25 @@
         <v>1.72</v>
       </c>
       <c r="AN293">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AO293">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="AP293">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ293">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR293">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AS293">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AT293">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="AU293">
         <v>5</v>
@@ -62103,25 +62103,25 @@
         <v>1.83</v>
       </c>
       <c r="AN294">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="AO294">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="AP294">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ294">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR294">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AS294">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AT294">
-        <v>2.79</v>
+        <v>2.72</v>
       </c>
       <c r="AU294">
         <v>-1</v>
@@ -62309,25 +62309,25 @@
         <v>1.33</v>
       </c>
       <c r="AN295">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="AO295">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AP295">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ295">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR295">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AS295">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT295">
-        <v>2.22</v>
+        <v>2.31</v>
       </c>
       <c r="AU295">
         <v>5</v>
@@ -62515,25 +62515,25 @@
         <v>1.65</v>
       </c>
       <c r="AN296">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="AO296">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AP296">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ296">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR296">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AS296">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AT296">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="AU296">
         <v>9</v>
@@ -62927,25 +62927,25 @@
         <v>3</v>
       </c>
       <c r="AN298">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="AO298">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AP298">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ298">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR298">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="AS298">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AT298">
-        <v>3.17</v>
+        <v>3.04</v>
       </c>
       <c r="AU298">
         <v>3</v>
@@ -63133,25 +63133,25 @@
         <v>1.55</v>
       </c>
       <c r="AN299">
-        <v>1.78</v>
+        <v>1.32</v>
       </c>
       <c r="AO299">
+        <v>1.49</v>
+      </c>
+      <c r="AP299">
         <v>1.33</v>
       </c>
-      <c r="AP299">
-        <v>1.8</v>
-      </c>
       <c r="AQ299">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR299">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="AS299">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AT299">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="AU299">
         <v>6</v>
@@ -63751,25 +63751,25 @@
         <v>1.75</v>
       </c>
       <c r="AN302">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="AO302">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="AP302">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ302">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR302">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AS302">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AT302">
-        <v>2.93</v>
+        <v>2.77</v>
       </c>
       <c r="AU302">
         <v>4</v>
@@ -63957,25 +63957,25 @@
         <v>1.48</v>
       </c>
       <c r="AN303">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AO303">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="AP303">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ303">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR303">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AS303">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="AT303">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="AU303">
         <v>3</v>
@@ -64163,25 +64163,25 @@
         <v>1.28</v>
       </c>
       <c r="AN304">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
       <c r="AO304">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="AP304">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ304">
+        <v>1.8</v>
+      </c>
+      <c r="AR304">
+        <v>1.32</v>
+      </c>
+      <c r="AS304">
         <v>1.67</v>
       </c>
-      <c r="AR304">
-        <v>1.43</v>
-      </c>
-      <c r="AS304">
-        <v>1.53</v>
-      </c>
       <c r="AT304">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="AU304">
         <v>3</v>
@@ -64987,25 +64987,25 @@
         <v>1.73</v>
       </c>
       <c r="AN308">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AO308">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AP308">
+        <v>1.1</v>
+      </c>
+      <c r="AQ308">
+        <v>0.98</v>
+      </c>
+      <c r="AR308">
+        <v>1.34</v>
+      </c>
+      <c r="AS308">
         <v>1.4</v>
       </c>
-      <c r="AQ308">
-        <v>0.95</v>
-      </c>
-      <c r="AR308">
-        <v>1.39</v>
-      </c>
-      <c r="AS308">
-        <v>1.36</v>
-      </c>
       <c r="AT308">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU308">
         <v>3</v>
@@ -65193,25 +65193,25 @@
         <v>1.9</v>
       </c>
       <c r="AN309">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="AO309">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="AP309">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ309">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR309">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AS309">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AT309">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="AU309">
         <v>10</v>
@@ -65399,25 +65399,25 @@
         <v>2.5</v>
       </c>
       <c r="AN310">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="AO310">
-        <v>0.89</v>
+        <v>1.36</v>
       </c>
       <c r="AP310">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ310">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR310">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="AS310">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="AT310">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="AU310">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -51391,25 +51391,25 @@
         <v>2.2</v>
       </c>
       <c r="AN242">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AO242">
-        <v>1.13</v>
+        <v>0.73</v>
       </c>
       <c r="AP242">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ242">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR242">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AS242">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AT242">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="AU242">
         <v>9</v>
@@ -51597,25 +51597,25 @@
         <v>1.47</v>
       </c>
       <c r="AN243">
-        <v>0.97</v>
+        <v>1.27</v>
       </c>
       <c r="AO243">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP243">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ243">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR243">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AS243">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT243">
-        <v>2.76</v>
+        <v>2.61</v>
       </c>
       <c r="AU243">
         <v>6</v>
@@ -52009,25 +52009,25 @@
         <v>1.68</v>
       </c>
       <c r="AN245">
-        <v>1.33</v>
+        <v>1.87</v>
       </c>
       <c r="AO245">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AP245">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ245">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR245">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AS245">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AT245">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="AU245">
         <v>7</v>
@@ -52627,25 +52627,25 @@
         <v>1.77</v>
       </c>
       <c r="AN248">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AO248">
-        <v>1.39</v>
+        <v>0.8</v>
       </c>
       <c r="AP248">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ248">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR248">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AS248">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="AT248">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -52833,25 +52833,25 @@
         <v>2.1</v>
       </c>
       <c r="AN249">
-        <v>0.97</v>
+        <v>1.47</v>
       </c>
       <c r="AO249">
-        <v>0.77</v>
+        <v>0.53</v>
       </c>
       <c r="AP249">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ249">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR249">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AS249">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="AT249">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="AU249">
         <v>4</v>
@@ -53039,25 +53039,25 @@
         <v>1.91</v>
       </c>
       <c r="AN250">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="AO250">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AP250">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ250">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR250">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AS250">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AT250">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="AU250">
         <v>7</v>
@@ -53657,25 +53657,25 @@
         <v>1.57</v>
       </c>
       <c r="AN253">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AO253">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AP253">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ253">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR253">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AS253">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="AT253">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU253">
         <v>3</v>
@@ -54069,25 +54069,25 @@
         <v>1.27</v>
       </c>
       <c r="AN255">
-        <v>0.97</v>
+        <v>1.13</v>
       </c>
       <c r="AO255">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="AP255">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ255">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR255">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AS255">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AT255">
-        <v>3.04</v>
+        <v>2.92</v>
       </c>
       <c r="AU255">
         <v>4</v>
@@ -54275,25 +54275,25 @@
         <v>1.67</v>
       </c>
       <c r="AN256">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="AO256">
-        <v>1.09</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP256">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ256">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR256">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS256">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="AT256">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU256">
         <v>9</v>
@@ -54481,25 +54481,25 @@
         <v>1.6</v>
       </c>
       <c r="AN257">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AO257">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AP257">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ257">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR257">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AS257">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT257">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="AU257">
         <v>6</v>
@@ -54687,25 +54687,25 @@
         <v>2</v>
       </c>
       <c r="AN258">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AO258">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP258">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ258">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR258">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="AS258">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT258">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AU258">
         <v>7</v>
@@ -55305,25 +55305,25 @@
         <v>1.4</v>
       </c>
       <c r="AN261">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AO261">
-        <v>0.97</v>
+        <v>0.47</v>
       </c>
       <c r="AP261">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ261">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR261">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AS261">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="AT261">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AU261">
         <v>3</v>
@@ -55717,25 +55717,25 @@
         <v>1.25</v>
       </c>
       <c r="AN263">
-        <v>0.9399999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="AO263">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AP263">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ263">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR263">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AS263">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AT263">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AU263">
         <v>5</v>
@@ -55923,25 +55923,25 @@
         <v>1.48</v>
       </c>
       <c r="AN264">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO264">
-        <v>1.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP264">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ264">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR264">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AS264">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AT264">
-        <v>2.76</v>
+        <v>2.59</v>
       </c>
       <c r="AU264">
         <v>12</v>
@@ -56129,25 +56129,25 @@
         <v>1.51</v>
       </c>
       <c r="AN265">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="AO265">
-        <v>1.09</v>
+        <v>0.71</v>
       </c>
       <c r="AP265">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ265">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR265">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS265">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AT265">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="AU265">
         <v>7</v>
@@ -56335,22 +56335,22 @@
         <v>2.4</v>
       </c>
       <c r="AN266">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="AO266">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AP266">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ266">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR266">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="AS266">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AT266">
         <v>3.2</v>
@@ -56953,25 +56953,25 @@
         <v>1.7</v>
       </c>
       <c r="AN269">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO269">
-        <v>0.84</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP269">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ269">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR269">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AS269">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="AT269">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AU269">
         <v>9</v>
@@ -57365,25 +57365,25 @@
         <v>2.15</v>
       </c>
       <c r="AN271">
-        <v>1.03</v>
+        <v>1.44</v>
       </c>
       <c r="AO271">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="AP271">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ271">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR271">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AS271">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT271">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="AU271">
         <v>8</v>
@@ -57571,25 +57571,25 @@
         <v>1.56</v>
       </c>
       <c r="AN272">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AO272">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AP272">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ272">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR272">
+        <v>1.38</v>
+      </c>
+      <c r="AS272">
         <v>1.3</v>
       </c>
-      <c r="AS272">
-        <v>1.48</v>
-      </c>
       <c r="AT272">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AU272">
         <v>7</v>
@@ -57777,25 +57777,25 @@
         <v>1.26</v>
       </c>
       <c r="AN273">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="AO273">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AP273">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ273">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR273">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AS273">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT273">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
       <c r="AU273">
         <v>7</v>
@@ -57983,25 +57983,25 @@
         <v>1.62</v>
       </c>
       <c r="AN274">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="AO274">
-        <v>1.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP274">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ274">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR274">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AS274">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT274">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58807,25 +58807,25 @@
         <v>1.38</v>
       </c>
       <c r="AN278">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO278">
-        <v>1.09</v>
+        <v>0.63</v>
       </c>
       <c r="AP278">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ278">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR278">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AS278">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AT278">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU278">
         <v>3</v>
@@ -59013,25 +59013,25 @@
         <v>1.8</v>
       </c>
       <c r="AN279">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AO279">
-        <v>1.06</v>
+        <v>0.71</v>
       </c>
       <c r="AP279">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ279">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR279">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AS279">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT279">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="AU279">
         <v>8</v>
@@ -59219,25 +59219,25 @@
         <v>1.57</v>
       </c>
       <c r="AN280">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="AO280">
-        <v>1.34</v>
+        <v>0.88</v>
       </c>
       <c r="AP280">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ280">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR280">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AS280">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AT280">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="AU280">
         <v>7</v>
@@ -59425,25 +59425,25 @@
         <v>2.88</v>
       </c>
       <c r="AN281">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="AO281">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="AP281">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ281">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR281">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="AS281">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AT281">
-        <v>3.05</v>
+        <v>3.16</v>
       </c>
       <c r="AU281">
         <v>7</v>
@@ -60249,25 +60249,25 @@
         <v>1.55</v>
       </c>
       <c r="AN285">
-        <v>0.91</v>
+        <v>1.13</v>
       </c>
       <c r="AO285">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="AP285">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ285">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR285">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AS285">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT285">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU285">
         <v>5</v>
@@ -60455,25 +60455,25 @@
         <v>1.54</v>
       </c>
       <c r="AN286">
+        <v>1.06</v>
+      </c>
+      <c r="AO286">
         <v>0.89</v>
       </c>
-      <c r="AO286">
-        <v>1.33</v>
-      </c>
       <c r="AP286">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ286">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR286">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AS286">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="AT286">
-        <v>2.81</v>
+        <v>2.63</v>
       </c>
       <c r="AU286">
         <v>7</v>
@@ -60661,25 +60661,25 @@
         <v>1.48</v>
       </c>
       <c r="AN287">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AO287">
-        <v>1.15</v>
+        <v>0.76</v>
       </c>
       <c r="AP287">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ287">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR287">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AS287">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AT287">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AU287">
         <v>7</v>
@@ -60867,25 +60867,25 @@
         <v>1.3</v>
       </c>
       <c r="AN288">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AO288">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AP288">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ288">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR288">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AS288">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AT288">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="AU288">
         <v>9</v>
@@ -61485,25 +61485,25 @@
         <v>1.57</v>
       </c>
       <c r="AN291">
-        <v>1.03</v>
+        <v>1.39</v>
       </c>
       <c r="AO291">
-        <v>1.08</v>
+        <v>0.72</v>
       </c>
       <c r="AP291">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ291">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR291">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AS291">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT291">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="AU291">
         <v>8</v>
@@ -61897,25 +61897,25 @@
         <v>1.72</v>
       </c>
       <c r="AN293">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="AO293">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="AP293">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ293">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR293">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AS293">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AT293">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="AU293">
         <v>5</v>
@@ -62103,25 +62103,25 @@
         <v>1.83</v>
       </c>
       <c r="AN294">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="AO294">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="AP294">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ294">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR294">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS294">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT294">
-        <v>2.72</v>
+        <v>2.79</v>
       </c>
       <c r="AU294">
         <v>-1</v>
@@ -62309,25 +62309,25 @@
         <v>1.33</v>
       </c>
       <c r="AN295">
+        <v>0.88</v>
+      </c>
+      <c r="AO295">
         <v>0.71</v>
       </c>
-      <c r="AO295">
-        <v>0.86</v>
-      </c>
       <c r="AP295">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ295">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR295">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AS295">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AT295">
-        <v>2.31</v>
+        <v>2.22</v>
       </c>
       <c r="AU295">
         <v>5</v>
@@ -62515,25 +62515,25 @@
         <v>1.65</v>
       </c>
       <c r="AN296">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="AO296">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="AP296">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ296">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR296">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AS296">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT296">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="AU296">
         <v>9</v>
@@ -62927,25 +62927,25 @@
         <v>3</v>
       </c>
       <c r="AN298">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="AO298">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="AP298">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ298">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR298">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="AS298">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT298">
-        <v>3.04</v>
+        <v>3.17</v>
       </c>
       <c r="AU298">
         <v>3</v>
@@ -63133,25 +63133,25 @@
         <v>1.55</v>
       </c>
       <c r="AN299">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="AO299">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AP299">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ299">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR299">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AS299">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AT299">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="AU299">
         <v>6</v>
@@ -63751,25 +63751,25 @@
         <v>1.75</v>
       </c>
       <c r="AN302">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="AO302">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="AP302">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ302">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR302">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AS302">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AT302">
-        <v>2.77</v>
+        <v>2.93</v>
       </c>
       <c r="AU302">
         <v>4</v>
@@ -63957,25 +63957,25 @@
         <v>1.48</v>
       </c>
       <c r="AN303">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AO303">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AP303">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ303">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR303">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS303">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="AT303">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="AU303">
         <v>3</v>
@@ -64163,25 +64163,25 @@
         <v>1.28</v>
       </c>
       <c r="AN304">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="AO304">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="AP304">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ304">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR304">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS304">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AT304">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="AU304">
         <v>3</v>
@@ -64987,25 +64987,25 @@
         <v>1.73</v>
       </c>
       <c r="AN308">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="AO308">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AP308">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ308">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR308">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AS308">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT308">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU308">
         <v>3</v>
@@ -65193,25 +65193,25 @@
         <v>1.9</v>
       </c>
       <c r="AN309">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="AO309">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="AP309">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ309">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR309">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="AS309">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT309">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="AU309">
         <v>10</v>
@@ -65399,25 +65399,25 @@
         <v>2.5</v>
       </c>
       <c r="AN310">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="AO310">
-        <v>1.36</v>
+        <v>0.89</v>
       </c>
       <c r="AP310">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ310">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR310">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="AS310">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="AT310">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="AU310">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -1957,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ2">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ4">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2781,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
+        <v>1.75</v>
+      </c>
+      <c r="AQ6">
         <v>1.45</v>
-      </c>
-      <c r="AQ6">
-        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2987,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ8">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3602,22 +3602,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ10">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR10">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>4</v>
@@ -3805,25 +3805,25 @@
         <v>3.75</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ11">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR11">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>4.71</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>4</v>
@@ -4014,22 +4014,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -4217,25 +4217,25 @@
         <v>2</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -4426,22 +4426,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ14">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR14">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4629,25 +4629,25 @@
         <v>1.25</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ15">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -4835,25 +4835,25 @@
         <v>1.3</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR16">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -5044,22 +5044,22 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR17">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>2</v>
@@ -5247,25 +5247,25 @@
         <v>3.4</v>
       </c>
       <c r="AN18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR18">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="AS18">
-        <v>0.83</v>
+        <v>1.03</v>
       </c>
       <c r="AT18">
-        <v>2.15</v>
+        <v>2.56</v>
       </c>
       <c r="AU18">
         <v>10</v>
@@ -5453,25 +5453,25 @@
         <v>1.6</v>
       </c>
       <c r="AN19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR19">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="AS19">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="AT19">
-        <v>2.51</v>
+        <v>2.31</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -5662,22 +5662,22 @@
         <v>3</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ20">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="AS20">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="AT20">
-        <v>3.66</v>
+        <v>3.34</v>
       </c>
       <c r="AU20">
         <v>10</v>
@@ -5868,22 +5868,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR21">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AS21">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="AT21">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -6071,25 +6071,25 @@
         <v>1.44</v>
       </c>
       <c r="AN22">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO22">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ22">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR22">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AS22">
-        <v>2.65</v>
+        <v>3.08</v>
       </c>
       <c r="AT22">
-        <v>3.92</v>
+        <v>4.62</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6277,25 +6277,25 @@
         <v>1.16</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR23">
-        <v>1.16</v>
+        <v>1.63</v>
       </c>
       <c r="AS23">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="AT23">
-        <v>3.13</v>
+        <v>3.65</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -6483,25 +6483,25 @@
         <v>1.73</v>
       </c>
       <c r="AN24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ24">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR24">
+        <v>0.67</v>
+      </c>
+      <c r="AS24">
         <v>0.86</v>
       </c>
-      <c r="AS24">
-        <v>0.91</v>
-      </c>
       <c r="AT24">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6689,25 +6689,25 @@
         <v>1.32</v>
       </c>
       <c r="AN25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
-        <v>1.64</v>
+        <v>1.16</v>
       </c>
       <c r="AS25">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="AT25">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6895,25 +6895,25 @@
         <v>1.23</v>
       </c>
       <c r="AN26">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR26">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="AS26">
-        <v>1.74</v>
+        <v>1.11</v>
       </c>
       <c r="AT26">
-        <v>3.23</v>
+        <v>2.78</v>
       </c>
       <c r="AU26">
         <v>3</v>
@@ -7101,25 +7101,25 @@
         <v>1.42</v>
       </c>
       <c r="AN27">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR27">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AS27">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AT27">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="AU27">
         <v>4</v>
@@ -7307,25 +7307,25 @@
         <v>1.22</v>
       </c>
       <c r="AN28">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO28">
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ28">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR28">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AS28">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="AT28">
-        <v>2.97</v>
+        <v>3.48</v>
       </c>
       <c r="AU28">
         <v>8</v>
@@ -7513,25 +7513,25 @@
         <v>1.91</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ29">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR29">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AS29">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="AT29">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="AU29">
         <v>9</v>
@@ -7719,25 +7719,25 @@
         <v>2.22</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="AS30">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="AT30">
-        <v>3.31</v>
+        <v>3.28</v>
       </c>
       <c r="AU30">
         <v>8</v>
@@ -7928,22 +7928,22 @@
         <v>3</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP31">
+        <v>1.95</v>
+      </c>
+      <c r="AQ31">
+        <v>0.85</v>
+      </c>
+      <c r="AR31">
         <v>1.8</v>
       </c>
-      <c r="AQ31">
-        <v>1.33</v>
-      </c>
-      <c r="AR31">
-        <v>1.68</v>
-      </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AT31">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -8131,25 +8131,25 @@
         <v>3.66</v>
       </c>
       <c r="AN32">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ32">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="AS32">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AT32">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="AU32">
         <v>10</v>
@@ -8340,22 +8340,22 @@
         <v>0</v>
       </c>
       <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR33">
+        <v>0.64</v>
+      </c>
+      <c r="AS33">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT33">
         <v>1.33</v>
-      </c>
-      <c r="AP33">
-        <v>0.86</v>
-      </c>
-      <c r="AQ33">
-        <v>0.78</v>
-      </c>
-      <c r="AR33">
-        <v>0.74</v>
-      </c>
-      <c r="AS33">
-        <v>1.01</v>
-      </c>
-      <c r="AT33">
-        <v>1.75</v>
       </c>
       <c r="AU33">
         <v>5</v>
@@ -8543,25 +8543,25 @@
         <v>1.78</v>
       </c>
       <c r="AN34">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR34">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="AS34">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AT34">
-        <v>2.7</v>
+        <v>2.36</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8749,25 +8749,25 @@
         <v>1.39</v>
       </c>
       <c r="AN35">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO35">
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR35">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AS35">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AT35">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8958,22 +8958,22 @@
         <v>0</v>
       </c>
       <c r="AO36">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR36">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="AS36">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="AT36">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="AU36">
         <v>7</v>
@@ -9161,25 +9161,25 @@
         <v>1.33</v>
       </c>
       <c r="AN37">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR37">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AS37">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT37">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -9367,25 +9367,25 @@
         <v>1.95</v>
       </c>
       <c r="AN38">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR38">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="AS38">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="AT38">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
       <c r="AU38">
         <v>9</v>
@@ -9573,25 +9573,25 @@
         <v>2.2</v>
       </c>
       <c r="AN39">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO39">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR39">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="AS39">
-        <v>1.03</v>
+        <v>0.78</v>
       </c>
       <c r="AT39">
-        <v>2.52</v>
+        <v>2.01</v>
       </c>
       <c r="AU39">
         <v>10</v>
@@ -9779,25 +9779,25 @@
         <v>2.25</v>
       </c>
       <c r="AN40">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO40">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ40">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR40">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AS40">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="AT40">
-        <v>3.06</v>
+        <v>3.18</v>
       </c>
       <c r="AU40">
         <v>7</v>
@@ -9985,25 +9985,25 @@
         <v>2.06</v>
       </c>
       <c r="AN41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ41">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR41">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AS41">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AT41">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="AU41">
         <v>7</v>
@@ -10191,25 +10191,25 @@
         <v>1.8</v>
       </c>
       <c r="AN42">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO42">
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="AS42">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AT42">
-        <v>2.55</v>
+        <v>2.24</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -10397,25 +10397,25 @@
         <v>1.58</v>
       </c>
       <c r="AN43">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO43">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ43">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR43">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AS43">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="AT43">
-        <v>3.69</v>
+        <v>3.59</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10603,25 +10603,25 @@
         <v>1.6</v>
       </c>
       <c r="AN44">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO44">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ44">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR44">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AS44">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="AT44">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AU44">
         <v>8</v>
@@ -10809,25 +10809,25 @@
         <v>1.88</v>
       </c>
       <c r="AN45">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO45">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ45">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR45">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="AS45">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="AT45">
-        <v>3.54</v>
+        <v>3.18</v>
       </c>
       <c r="AU45">
         <v>5</v>
@@ -11015,25 +11015,25 @@
         <v>1.65</v>
       </c>
       <c r="AN46">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR46">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AS46">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AT46">
-        <v>2.71</v>
+        <v>2.49</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -11221,25 +11221,25 @@
         <v>1.2</v>
       </c>
       <c r="AN47">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AP47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR47">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AS47">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="AT47">
-        <v>2.93</v>
+        <v>2.51</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11427,25 +11427,25 @@
         <v>1.22</v>
       </c>
       <c r="AN48">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR48">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="AS48">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AT48">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -11633,25 +11633,25 @@
         <v>1.85</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO49">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ49">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR49">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS49">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AT49">
-        <v>3.74</v>
+        <v>3.87</v>
       </c>
       <c r="AU49">
         <v>5</v>
@@ -11842,22 +11842,22 @@
         <v>2</v>
       </c>
       <c r="AO50">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR50">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="AS50">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AT50">
-        <v>3.33</v>
+        <v>3.48</v>
       </c>
       <c r="AU50">
         <v>11</v>
@@ -12045,25 +12045,25 @@
         <v>1.42</v>
       </c>
       <c r="AN51">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO51">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP51">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR51">
+        <v>1.28</v>
+      </c>
+      <c r="AS51">
         <v>1.2</v>
       </c>
-      <c r="AS51">
-        <v>1.21</v>
-      </c>
       <c r="AT51">
-        <v>2.41</v>
+        <v>2.48</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -12251,25 +12251,25 @@
         <v>1.2</v>
       </c>
       <c r="AN52">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AO52">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR52">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AS52">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="AT52">
-        <v>2.57</v>
+        <v>2.39</v>
       </c>
       <c r="AU52">
         <v>5</v>
@@ -12457,25 +12457,25 @@
         <v>1.22</v>
       </c>
       <c r="AN53">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO53">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR53">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="AS53">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AT53">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="AU53">
         <v>3</v>
@@ -12663,25 +12663,25 @@
         <v>1.6</v>
       </c>
       <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>1.33</v>
       </c>
-      <c r="AO54">
-        <v>1.67</v>
-      </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ54">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR54">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AS54">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AT54">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12869,25 +12869,25 @@
         <v>1.95</v>
       </c>
       <c r="AN55">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="AO55">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ55">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR55">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AS55">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="AT55">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -13075,25 +13075,25 @@
         <v>2.2</v>
       </c>
       <c r="AN56">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AO56">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ56">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
       </c>
       <c r="AS56">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT56">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -13281,25 +13281,25 @@
         <v>1.77</v>
       </c>
       <c r="AN57">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AO57">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ57">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR57">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AS57">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="AT57">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="AU57">
         <v>5</v>
@@ -13487,25 +13487,25 @@
         <v>3.3</v>
       </c>
       <c r="AN58">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="AO58">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
       <c r="AS58">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AT58">
-        <v>2.9</v>
+        <v>3.22</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13693,25 +13693,25 @@
         <v>2.38</v>
       </c>
       <c r="AN59">
-        <v>1.83</v>
+        <v>0.67</v>
       </c>
       <c r="AO59">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR59">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AS59">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AT59">
-        <v>3.19</v>
+        <v>3.09</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13899,25 +13899,25 @@
         <v>1.49</v>
       </c>
       <c r="AN60">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO60">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ60">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR60">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="AS60">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="AT60">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -14105,25 +14105,25 @@
         <v>1.36</v>
       </c>
       <c r="AN61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ61">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR61">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AS61">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="AT61">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="AU61">
         <v>3</v>
@@ -14314,22 +14314,22 @@
         <v>2.33</v>
       </c>
       <c r="AO62">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ62">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR62">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="AS62">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AT62">
-        <v>2.94</v>
+        <v>2.73</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -14517,25 +14517,25 @@
         <v>1.63</v>
       </c>
       <c r="AN63">
-        <v>1.71</v>
+        <v>2.33</v>
       </c>
       <c r="AO63">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="AS63">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AT63">
-        <v>3.25</v>
+        <v>3.67</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14723,25 +14723,25 @@
         <v>1.2</v>
       </c>
       <c r="AN64">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR64">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="AS64">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="AT64">
-        <v>3.08</v>
+        <v>3.27</v>
       </c>
       <c r="AU64">
         <v>8</v>
@@ -14929,25 +14929,25 @@
         <v>1.78</v>
       </c>
       <c r="AN65">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO65">
+        <v>3</v>
+      </c>
+      <c r="AP65">
+        <v>2.05</v>
+      </c>
+      <c r="AQ65">
+        <v>1.3</v>
+      </c>
+      <c r="AR65">
+        <v>2.24</v>
+      </c>
+      <c r="AS65">
         <v>1.71</v>
       </c>
-      <c r="AP65">
-        <v>1.88</v>
-      </c>
-      <c r="AQ65">
-        <v>1.46</v>
-      </c>
-      <c r="AR65">
-        <v>1.93</v>
-      </c>
-      <c r="AS65">
-        <v>1.8</v>
-      </c>
       <c r="AT65">
-        <v>3.73</v>
+        <v>3.95</v>
       </c>
       <c r="AU65">
         <v>4</v>
@@ -15135,25 +15135,25 @@
         <v>1.2</v>
       </c>
       <c r="AN66">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO66">
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR66">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AS66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT66">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -15341,25 +15341,25 @@
         <v>1.2</v>
       </c>
       <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>1.25</v>
       </c>
-      <c r="AO67">
-        <v>1.88</v>
-      </c>
       <c r="AP67">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR67">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AS67">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AT67">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -15547,25 +15547,25 @@
         <v>1.6</v>
       </c>
       <c r="AN68">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AO68">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR68">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AS68">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AT68">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15753,25 +15753,25 @@
         <v>1.22</v>
       </c>
       <c r="AN69">
+        <v>1.5</v>
+      </c>
+      <c r="AO69">
         <v>1.25</v>
       </c>
-      <c r="AO69">
-        <v>1.63</v>
-      </c>
       <c r="AP69">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ69">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR69">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AS69">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="AT69">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15959,25 +15959,25 @@
         <v>2.33</v>
       </c>
       <c r="AN70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO70">
-        <v>0.88</v>
+        <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR70">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT70">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -16165,25 +16165,25 @@
         <v>2.6</v>
       </c>
       <c r="AN71">
-        <v>1.63</v>
+        <v>0.75</v>
       </c>
       <c r="AO71">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ71">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR71">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AS71">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AT71">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -16371,25 +16371,25 @@
         <v>2.85</v>
       </c>
       <c r="AN72">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AO72">
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR72">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="AS72">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AT72">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="AU72">
         <v>8</v>
@@ -16577,25 +16577,25 @@
         <v>1.18</v>
       </c>
       <c r="AN73">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR73">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="AS73">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AT73">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16783,25 +16783,25 @@
         <v>1.88</v>
       </c>
       <c r="AN74">
-        <v>0.78</v>
+        <v>1.5</v>
       </c>
       <c r="AO74">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ74">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS74">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
       <c r="AT74">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="AU74">
         <v>8</v>
@@ -16989,25 +16989,25 @@
         <v>2.45</v>
       </c>
       <c r="AN75">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO75">
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ75">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="AS75">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="AT75">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
       <c r="AU75">
         <v>8</v>
@@ -17195,25 +17195,25 @@
         <v>1.96</v>
       </c>
       <c r="AN76">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO76">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR76">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS76">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AT76">
-        <v>2.36</v>
+        <v>2.23</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17401,25 +17401,25 @@
         <v>2.15</v>
       </c>
       <c r="AN77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO77">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ77">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR77">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AS77">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT77">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="AU77">
         <v>10</v>
@@ -17607,25 +17607,25 @@
         <v>1.2</v>
       </c>
       <c r="AN78">
-        <v>1.11</v>
+        <v>0.5</v>
       </c>
       <c r="AO78">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ78">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR78">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AS78">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="AT78">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17813,25 +17813,25 @@
         <v>4</v>
       </c>
       <c r="AN79">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO79">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR79">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="AS79">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AT79">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="AU79">
         <v>13</v>
@@ -18019,25 +18019,25 @@
         <v>1.83</v>
       </c>
       <c r="AN80">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="AO80">
-        <v>1.56</v>
+        <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ80">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR80">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AS80">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="AT80">
-        <v>3.43</v>
+        <v>3.26</v>
       </c>
       <c r="AU80">
         <v>10</v>
@@ -18225,25 +18225,25 @@
         <v>1.25</v>
       </c>
       <c r="AN81">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AO81">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ81">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR81">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AS81">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AT81">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="AU81">
         <v>2</v>
@@ -18431,25 +18431,25 @@
         <v>3.75</v>
       </c>
       <c r="AN82">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO82">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP82">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ82">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR82">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AS82">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AT82">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="AU82">
         <v>12</v>
@@ -18637,25 +18637,25 @@
         <v>1.09</v>
       </c>
       <c r="AN83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO83">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR83">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AS83">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="AT83">
-        <v>3.01</v>
+        <v>2.89</v>
       </c>
       <c r="AU83">
         <v>3</v>
@@ -18843,25 +18843,25 @@
         <v>1.57</v>
       </c>
       <c r="AN84">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO84">
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR84">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="AS84">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AT84">
-        <v>2.41</v>
+        <v>2.72</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -19049,25 +19049,25 @@
         <v>1.33</v>
       </c>
       <c r="AN85">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AO85">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AP85">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ85">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR85">
+        <v>1.58</v>
+      </c>
+      <c r="AS85">
         <v>1.43</v>
       </c>
-      <c r="AS85">
-        <v>1.73</v>
-      </c>
       <c r="AT85">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -19255,25 +19255,25 @@
         <v>2.5</v>
       </c>
       <c r="AN86">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO86">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ86">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR86">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AS86">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT86">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="AU86">
         <v>10</v>
@@ -19461,25 +19461,25 @@
         <v>1.44</v>
       </c>
       <c r="AN87">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ87">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="AS87">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AT87">
-        <v>3.29</v>
+        <v>3.21</v>
       </c>
       <c r="AU87">
         <v>6</v>
@@ -19667,25 +19667,25 @@
         <v>1.4</v>
       </c>
       <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>1.6</v>
+      </c>
+      <c r="AP88">
         <v>1.3</v>
       </c>
-      <c r="AO88">
-        <v>2.1</v>
-      </c>
-      <c r="AP88">
-        <v>0.98</v>
-      </c>
       <c r="AQ88">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
       </c>
       <c r="AS88">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT88">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="AU88">
         <v>9</v>
@@ -19873,25 +19873,25 @@
         <v>1.62</v>
       </c>
       <c r="AN89">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO89">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR89">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AS89">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT89">
-        <v>2.83</v>
+        <v>2.61</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -20079,25 +20079,25 @@
         <v>1.9</v>
       </c>
       <c r="AN90">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AO90">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ90">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR90">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AS90">
-        <v>1.22</v>
+        <v>0.95</v>
       </c>
       <c r="AT90">
-        <v>2.55</v>
+        <v>2.34</v>
       </c>
       <c r="AU90">
         <v>6</v>
@@ -20285,25 +20285,25 @@
         <v>1.36</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO91">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AP91">
+        <v>1.7</v>
+      </c>
+      <c r="AQ91">
+        <v>1.45</v>
+      </c>
+      <c r="AR91">
         <v>1.53</v>
       </c>
-      <c r="AQ91">
-        <v>1.5</v>
-      </c>
-      <c r="AR91">
-        <v>1.42</v>
-      </c>
       <c r="AS91">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AT91">
-        <v>3.01</v>
+        <v>3.18</v>
       </c>
       <c r="AU91">
         <v>8</v>
@@ -20491,25 +20491,25 @@
         <v>1.33</v>
       </c>
       <c r="AN92">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="AO92">
-        <v>1.18</v>
+        <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR92">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AS92">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AT92">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20697,25 +20697,25 @@
         <v>2.55</v>
       </c>
       <c r="AN93">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="AO93">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ93">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR93">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AS93">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AT93">
-        <v>3.02</v>
+        <v>3.24</v>
       </c>
       <c r="AU93">
         <v>10</v>
@@ -20903,25 +20903,25 @@
         <v>1.83</v>
       </c>
       <c r="AN94">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AO94">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ94">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR94">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="AS94">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="AT94">
-        <v>3.52</v>
+        <v>3.39</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -21109,25 +21109,25 @@
         <v>1.18</v>
       </c>
       <c r="AN95">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AO95">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="AP95">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR95">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS95">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="AT95">
-        <v>3.13</v>
+        <v>2.92</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -21315,25 +21315,25 @@
         <v>2.2</v>
       </c>
       <c r="AN96">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="AO96">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ96">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR96">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="AS96">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AT96">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="AU96">
         <v>11</v>
@@ -21521,25 +21521,25 @@
         <v>1.15</v>
       </c>
       <c r="AN97">
-        <v>0.73</v>
+        <v>1.33</v>
       </c>
       <c r="AO97">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="AP97">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR97">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AS97">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AT97">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21727,25 +21727,25 @@
         <v>1.9</v>
       </c>
       <c r="AN98">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO98">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ98">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR98">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AS98">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="AT98">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AU98">
         <v>5</v>
@@ -21933,25 +21933,25 @@
         <v>1.85</v>
       </c>
       <c r="AN99">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AO99">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP99">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR99">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="AS99">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AT99">
-        <v>2.29</v>
+        <v>2.57</v>
       </c>
       <c r="AU99">
         <v>6</v>
@@ -22139,25 +22139,25 @@
         <v>1.76</v>
       </c>
       <c r="AN100">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO100">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="AP100">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ100">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR100">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="AS100">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AT100">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22345,25 +22345,25 @@
         <v>1.68</v>
       </c>
       <c r="AN101">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="AO101">
+        <v>2.33</v>
+      </c>
+      <c r="AP101">
         <v>1.75</v>
       </c>
-      <c r="AP101">
-        <v>1.45</v>
-      </c>
       <c r="AQ101">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR101">
-        <v>1.63</v>
+        <v>2.03</v>
       </c>
       <c r="AS101">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="AT101">
-        <v>3.52</v>
+        <v>3.86</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -22551,25 +22551,25 @@
         <v>1.6</v>
       </c>
       <c r="AN102">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO102">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ102">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR102">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AS102">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AT102">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="AU102">
         <v>3</v>
@@ -22760,22 +22760,22 @@
         <v>1.33</v>
       </c>
       <c r="AO103">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ103">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR103">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS103">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="AT103">
-        <v>2.79</v>
+        <v>2.72</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22963,25 +22963,25 @@
         <v>1.66</v>
       </c>
       <c r="AN104">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="AO104">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ104">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR104">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AS104">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT104">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
       <c r="AU104">
         <v>7</v>
@@ -23169,25 +23169,25 @@
         <v>1.33</v>
       </c>
       <c r="AN105">
-        <v>1.08</v>
+        <v>2</v>
       </c>
       <c r="AO105">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ105">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR105">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AS105">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="AT105">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU105">
         <v>4</v>
@@ -23375,25 +23375,25 @@
         <v>1.5</v>
       </c>
       <c r="AN106">
-        <v>0.77</v>
+        <v>0.5</v>
       </c>
       <c r="AO106">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR106">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AS106">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT106">
-        <v>2.61</v>
+        <v>2.47</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23581,25 +23581,25 @@
         <v>2.2</v>
       </c>
       <c r="AN107">
-        <v>1.54</v>
+        <v>2.33</v>
       </c>
       <c r="AO107">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ107">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR107">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AS107">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT107">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="AU107">
         <v>10</v>
@@ -23787,25 +23787,25 @@
         <v>1.5</v>
       </c>
       <c r="AN108">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AO108">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="AP108">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR108">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AS108">
-        <v>1.21</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT108">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23993,25 +23993,25 @@
         <v>1.53</v>
       </c>
       <c r="AN109">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="AO109">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="AP109">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR109">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="AS109">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AT109">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="AU109">
         <v>8</v>
@@ -24199,25 +24199,25 @@
         <v>2.1</v>
       </c>
       <c r="AN110">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="AO110">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AP110">
+        <v>2.05</v>
+      </c>
+      <c r="AQ110">
+        <v>1.45</v>
+      </c>
+      <c r="AR110">
         <v>1.88</v>
       </c>
-      <c r="AQ110">
-        <v>1.5</v>
-      </c>
-      <c r="AR110">
-        <v>1.71</v>
-      </c>
       <c r="AS110">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="AT110">
-        <v>3.29</v>
+        <v>3.58</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24405,25 +24405,25 @@
         <v>2.95</v>
       </c>
       <c r="AN111">
+        <v>1.17</v>
+      </c>
+      <c r="AO111">
+        <v>0.67</v>
+      </c>
+      <c r="AP111">
         <v>1.62</v>
       </c>
-      <c r="AO111">
-        <v>0.92</v>
-      </c>
-      <c r="AP111">
-        <v>1.46</v>
-      </c>
       <c r="AQ111">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AS111">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="AT111">
-        <v>3.34</v>
+        <v>3.61</v>
       </c>
       <c r="AU111">
         <v>7</v>
@@ -24611,25 +24611,25 @@
         <v>1.7</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO112">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="AP112">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ112">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR112">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AS112">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AT112">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="AU112">
         <v>6</v>
@@ -24817,25 +24817,25 @@
         <v>4.2</v>
       </c>
       <c r="AN113">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AO113">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AP113">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ113">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR113">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AS113">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AT113">
-        <v>2.99</v>
+        <v>3.03</v>
       </c>
       <c r="AU113">
         <v>9</v>
@@ -25023,25 +25023,25 @@
         <v>1.28</v>
       </c>
       <c r="AN114">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AO114">
-        <v>1.64</v>
+        <v>0.86</v>
       </c>
       <c r="AP114">
+        <v>1.8</v>
+      </c>
+      <c r="AQ114">
+        <v>1.15</v>
+      </c>
+      <c r="AR114">
+        <v>1.4</v>
+      </c>
+      <c r="AS114">
         <v>1.33</v>
       </c>
-      <c r="AQ114">
-        <v>1.45</v>
-      </c>
-      <c r="AR114">
-        <v>1.35</v>
-      </c>
-      <c r="AS114">
-        <v>1.62</v>
-      </c>
       <c r="AT114">
-        <v>2.97</v>
+        <v>2.73</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25229,25 +25229,25 @@
         <v>3.15</v>
       </c>
       <c r="AN115">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AO115">
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ115">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR115">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AS115">
-        <v>1.11</v>
+        <v>0.96</v>
       </c>
       <c r="AT115">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AU115">
         <v>12</v>
@@ -25435,25 +25435,25 @@
         <v>1.95</v>
       </c>
       <c r="AN116">
-        <v>0.93</v>
+        <v>1.71</v>
       </c>
       <c r="AO116">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ116">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR116">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AS116">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AT116">
-        <v>2.68</v>
+        <v>2.81</v>
       </c>
       <c r="AU116">
         <v>5</v>
@@ -25641,25 +25641,25 @@
         <v>1.32</v>
       </c>
       <c r="AN117">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AO117">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AP117">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ117">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR117">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AS117">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT117">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="AU117">
         <v>5</v>
@@ -25847,25 +25847,25 @@
         <v>1.45</v>
       </c>
       <c r="AN118">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="AO118">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AP118">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ118">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR118">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="AS118">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="AT118">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -26053,25 +26053,25 @@
         <v>1.17</v>
       </c>
       <c r="AN119">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AO119">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ119">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR119">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AS119">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="AT119">
-        <v>3.14</v>
+        <v>2.84</v>
       </c>
       <c r="AU119">
         <v>4</v>
@@ -26259,25 +26259,25 @@
         <v>2.95</v>
       </c>
       <c r="AN120">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AO120">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ120">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AT120">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="AU120">
         <v>9</v>
@@ -26465,25 +26465,25 @@
         <v>1.42</v>
       </c>
       <c r="AN121">
-        <v>0.64</v>
+        <v>1.14</v>
       </c>
       <c r="AO121">
-        <v>1.07</v>
+        <v>0.71</v>
       </c>
       <c r="AP121">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR121">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AS121">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AT121">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26671,25 +26671,25 @@
         <v>1.23</v>
       </c>
       <c r="AN122">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="AO122">
-        <v>2.07</v>
+        <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR122">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AS122">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AT122">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="AU122">
         <v>8</v>
@@ -26877,25 +26877,25 @@
         <v>1.45</v>
       </c>
       <c r="AN123">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AO123">
-        <v>1.07</v>
+        <v>0.14</v>
       </c>
       <c r="AP123">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR123">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AS123">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AT123">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="AU123">
         <v>5</v>
@@ -27083,25 +27083,25 @@
         <v>1.68</v>
       </c>
       <c r="AN124">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AO124">
-        <v>0.6</v>
+        <v>0.14</v>
       </c>
       <c r="AP124">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR124">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="AS124">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AT124">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="AU124">
         <v>4</v>
@@ -27289,25 +27289,25 @@
         <v>2.95</v>
       </c>
       <c r="AN125">
-        <v>1.6</v>
+        <v>2.43</v>
       </c>
       <c r="AO125">
+        <v>0.57</v>
+      </c>
+      <c r="AP125">
+        <v>1.75</v>
+      </c>
+      <c r="AQ125">
         <v>0.8</v>
       </c>
-      <c r="AP125">
-        <v>1.45</v>
-      </c>
-      <c r="AQ125">
-        <v>1.1</v>
-      </c>
       <c r="AR125">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="AS125">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
-        <v>2.98</v>
+        <v>3.45</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27495,25 +27495,25 @@
         <v>1.73</v>
       </c>
       <c r="AN126">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AO126">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="AP126">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ126">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR126">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="AS126">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AT126">
-        <v>3.53</v>
+        <v>3.6</v>
       </c>
       <c r="AU126">
         <v>7</v>
@@ -27701,25 +27701,25 @@
         <v>1.74</v>
       </c>
       <c r="AN127">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AO127">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AP127">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ127">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR127">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AS127">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT127">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="AU127">
         <v>6</v>
@@ -27907,25 +27907,25 @@
         <v>2.8</v>
       </c>
       <c r="AN128">
-        <v>1.53</v>
+        <v>1.86</v>
       </c>
       <c r="AO128">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP128">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ128">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR128">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="AS128">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AT128">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU128">
         <v>7</v>
@@ -28113,25 +28113,25 @@
         <v>2.15</v>
       </c>
       <c r="AN129">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AO129">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AP129">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR129">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AS129">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AT129">
-        <v>3.57</v>
+        <v>3.7</v>
       </c>
       <c r="AU129">
         <v>7</v>
@@ -28319,25 +28319,25 @@
         <v>1.42</v>
       </c>
       <c r="AN130">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO130">
-        <v>0.6899999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AP130">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR130">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AS130">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="AU130">
         <v>7</v>
@@ -28525,25 +28525,25 @@
         <v>1.44</v>
       </c>
       <c r="AN131">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="AO131">
-        <v>1.69</v>
+        <v>0.88</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ131">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR131">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AS131">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="AT131">
-        <v>3.29</v>
+        <v>2.97</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28734,22 +28734,22 @@
         <v>1.38</v>
       </c>
       <c r="AO132">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ132">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR132">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS132">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AT132">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="AU132">
         <v>14</v>
@@ -28937,25 +28937,25 @@
         <v>3.1</v>
       </c>
       <c r="AN133">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="AO133">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ133">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR133">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AS133">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="AT133">
-        <v>2.91</v>
+        <v>2.77</v>
       </c>
       <c r="AU133">
         <v>11</v>
@@ -29143,25 +29143,25 @@
         <v>1.12</v>
       </c>
       <c r="AN134">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AO134">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AP134">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ134">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR134">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AS134">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="AT134">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29349,25 +29349,25 @@
         <v>1.1</v>
       </c>
       <c r="AN135">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO135">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AP135">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR135">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="AS135">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AT135">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="AU135">
         <v>5</v>
@@ -29555,25 +29555,25 @@
         <v>2.4</v>
       </c>
       <c r="AN136">
-        <v>2.13</v>
+        <v>2.71</v>
       </c>
       <c r="AO136">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP136">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ136">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR136">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="AS136">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AT136">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29761,25 +29761,25 @@
         <v>1.15</v>
       </c>
       <c r="AN137">
-        <v>1.06</v>
+        <v>1.88</v>
       </c>
       <c r="AO137">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AP137">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ137">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR137">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AT137">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AU137">
         <v>4</v>
@@ -29967,25 +29967,25 @@
         <v>2</v>
       </c>
       <c r="AN138">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="AO138">
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ138">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR138">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AS138">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="AT138">
-        <v>2.45</v>
+        <v>2.31</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -30173,25 +30173,25 @@
         <v>1.25</v>
       </c>
       <c r="AN139">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="AO139">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR139">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AS139">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="AT139">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="AU139">
         <v>4</v>
@@ -30379,25 +30379,25 @@
         <v>1.35</v>
       </c>
       <c r="AN140">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AO140">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AP140">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ140">
+        <v>0.85</v>
+      </c>
+      <c r="AR140">
+        <v>1.4</v>
+      </c>
+      <c r="AS140">
         <v>1.33</v>
       </c>
-      <c r="AR140">
-        <v>1.19</v>
-      </c>
-      <c r="AS140">
-        <v>1.45</v>
-      </c>
       <c r="AT140">
-        <v>2.64</v>
+        <v>2.73</v>
       </c>
       <c r="AU140">
         <v>7</v>
@@ -30585,25 +30585,25 @@
         <v>1.73</v>
       </c>
       <c r="AN141">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AO141">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP141">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ141">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR141">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AS141">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT141">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -30791,25 +30791,25 @@
         <v>2.2</v>
       </c>
       <c r="AN142">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="AO142">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ142">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR142">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="AS142">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="AT142">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -30997,25 +30997,25 @@
         <v>3.2</v>
       </c>
       <c r="AN143">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AO143">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ143">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR143">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="AS143">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT143">
-        <v>3.34</v>
+        <v>3.31</v>
       </c>
       <c r="AU143">
         <v>9</v>
@@ -31203,25 +31203,25 @@
         <v>1.85</v>
       </c>
       <c r="AN144">
-        <v>1.76</v>
+        <v>2.5</v>
       </c>
       <c r="AO144">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="AP144">
+        <v>1.75</v>
+      </c>
+      <c r="AQ144">
         <v>1.45</v>
       </c>
-      <c r="AQ144">
-        <v>1.93</v>
-      </c>
       <c r="AR144">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="AS144">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="AT144">
-        <v>3.27</v>
+        <v>3.44</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31409,22 +31409,22 @@
         <v>4</v>
       </c>
       <c r="AN145">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="AO145">
-        <v>0.59</v>
+        <v>0.25</v>
       </c>
       <c r="AP145">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ145">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR145">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="AS145">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="AT145">
         <v>3.04</v>
@@ -31615,25 +31615,25 @@
         <v>3</v>
       </c>
       <c r="AN146">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AO146">
-        <v>0.5600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="AP146">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ146">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR146">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AS146">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AT146">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="AU146">
         <v>14</v>
@@ -31821,25 +31821,25 @@
         <v>1.53</v>
       </c>
       <c r="AN147">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AO147">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ147">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR147">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AS147">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AT147">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="AU147">
         <v>9</v>
@@ -32027,25 +32027,25 @@
         <v>3.4</v>
       </c>
       <c r="AN148">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="AO148">
-        <v>0.72</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP148">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ148">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR148">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="AS148">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AT148">
-        <v>3.01</v>
+        <v>3.24</v>
       </c>
       <c r="AU148">
         <v>7</v>
@@ -32233,25 +32233,25 @@
         <v>1.1</v>
       </c>
       <c r="AN149">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="AO149">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="AP149">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR149">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AS149">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT149">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="AU149">
         <v>4</v>
@@ -32439,22 +32439,22 @@
         <v>1.06</v>
       </c>
       <c r="AN150">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="AO150">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="AP150">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ150">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR150">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AS150">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT150">
         <v>3.11</v>
@@ -32645,25 +32645,25 @@
         <v>2.95</v>
       </c>
       <c r="AN151">
-        <v>1.72</v>
+        <v>2.33</v>
       </c>
       <c r="AO151">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AP151">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ151">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR151">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="AS151">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT151">
-        <v>2.99</v>
+        <v>3.23</v>
       </c>
       <c r="AU151">
         <v>7</v>
@@ -32851,25 +32851,25 @@
         <v>1.72</v>
       </c>
       <c r="AN152">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AO152">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP152">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ152">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR152">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AS152">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT152">
-        <v>2.84</v>
+        <v>2.91</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -33057,25 +33057,25 @@
         <v>1.63</v>
       </c>
       <c r="AN153">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO153">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="AP153">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ153">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR153">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="AS153">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AT153">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="AU153">
         <v>4</v>
@@ -33263,25 +33263,25 @@
         <v>1.6</v>
       </c>
       <c r="AN154">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AO154">
-        <v>1.68</v>
+        <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ154">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR154">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="AS154">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="AT154">
-        <v>3.61</v>
+        <v>3.46</v>
       </c>
       <c r="AU154">
         <v>9</v>
@@ -33469,25 +33469,25 @@
         <v>1.08</v>
       </c>
       <c r="AN155">
-        <v>0.53</v>
+        <v>0.89</v>
       </c>
       <c r="AO155">
-        <v>1.84</v>
+        <v>1.44</v>
       </c>
       <c r="AP155">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ155">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR155">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="AS155">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AT155">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33675,25 +33675,25 @@
         <v>1.93</v>
       </c>
       <c r="AN156">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="AO156">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="AP156">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ156">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR156">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AS156">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT156">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="AU156">
         <v>8</v>
@@ -33881,25 +33881,25 @@
         <v>1.75</v>
       </c>
       <c r="AN157">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="AO157">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AP157">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ157">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR157">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AS157">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="AT157">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="AU157">
         <v>4</v>
@@ -34087,25 +34087,25 @@
         <v>1.59</v>
       </c>
       <c r="AN158">
-        <v>1.74</v>
+        <v>2.11</v>
       </c>
       <c r="AO158">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AP158">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ158">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR158">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AS158">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT158">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -34293,25 +34293,25 @@
         <v>1.55</v>
       </c>
       <c r="AN159">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AO159">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="AP159">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ159">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR159">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AS159">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT159">
-        <v>2.67</v>
+        <v>2.59</v>
       </c>
       <c r="AU159">
         <v>3</v>
@@ -34499,25 +34499,25 @@
         <v>1.85</v>
       </c>
       <c r="AN160">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="AO160">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ160">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR160">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="AS160">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AT160">
-        <v>3.27</v>
+        <v>3.34</v>
       </c>
       <c r="AU160">
         <v>5</v>
@@ -34705,25 +34705,25 @@
         <v>1.7</v>
       </c>
       <c r="AN161">
-        <v>0.95</v>
+        <v>1.67</v>
       </c>
       <c r="AO161">
-        <v>1.16</v>
+        <v>0.89</v>
       </c>
       <c r="AP161">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ161">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR161">
+        <v>1.47</v>
+      </c>
+      <c r="AS161">
         <v>1.37</v>
       </c>
-      <c r="AS161">
-        <v>1.5</v>
-      </c>
       <c r="AT161">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="AU161">
         <v>7</v>
@@ -34911,25 +34911,25 @@
         <v>2.75</v>
       </c>
       <c r="AN162">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AO162">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP162">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ162">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR162">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AS162">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="AT162">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="AU162">
         <v>8</v>
@@ -35120,22 +35120,22 @@
         <v>1.7</v>
       </c>
       <c r="AO163">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AP163">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ163">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR163">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="AS163">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AT163">
-        <v>3.68</v>
+        <v>3.8</v>
       </c>
       <c r="AU163">
         <v>4</v>
@@ -35323,25 +35323,25 @@
         <v>2.3</v>
       </c>
       <c r="AN164">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AO164">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AP164">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ164">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR164">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AS164">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AT164">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="AU164">
         <v>5</v>
@@ -35529,25 +35529,25 @@
         <v>3.4</v>
       </c>
       <c r="AN165">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AO165">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ165">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR165">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="AS165">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT165">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="AU165">
         <v>10</v>
@@ -35735,25 +35735,25 @@
         <v>1.77</v>
       </c>
       <c r="AN166">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AO166">
-        <v>1.05</v>
+        <v>0.3</v>
       </c>
       <c r="AP166">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ166">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR166">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AS166">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AT166">
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="AU166">
         <v>10</v>
@@ -35941,25 +35941,25 @@
         <v>3.2</v>
       </c>
       <c r="AN167">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AO167">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AP167">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ167">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR167">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AS167">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AT167">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="AU167">
         <v>6</v>
@@ -36147,25 +36147,25 @@
         <v>1.19</v>
       </c>
       <c r="AN168">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AO168">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AP168">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ168">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR168">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AS168">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AT168">
-        <v>2.89</v>
+        <v>2.79</v>
       </c>
       <c r="AU168">
         <v>5</v>
@@ -36353,25 +36353,25 @@
         <v>1.85</v>
       </c>
       <c r="AN169">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="AO169">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AP169">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR169">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AS169">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AT169">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
       <c r="AU169">
         <v>2</v>
@@ -36559,25 +36559,25 @@
         <v>2.45</v>
       </c>
       <c r="AN170">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="AO170">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AP170">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ170">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR170">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AS170">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AT170">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="AU170">
         <v>8</v>
@@ -36765,25 +36765,25 @@
         <v>1.44</v>
       </c>
       <c r="AN171">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="AO171">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AP171">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR171">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AS171">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AT171">
-        <v>2.43</v>
+        <v>2.59</v>
       </c>
       <c r="AU171">
         <v>4</v>
@@ -36971,25 +36971,25 @@
         <v>1.12</v>
       </c>
       <c r="AN172">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AO172">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
       <c r="AP172">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ172">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR172">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AS172">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT172">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37177,25 +37177,25 @@
         <v>3</v>
       </c>
       <c r="AN173">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="AO173">
         <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ173">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR173">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AS173">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AT173">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU173">
         <v>6</v>
@@ -37383,25 +37383,25 @@
         <v>1.27</v>
       </c>
       <c r="AN174">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AO174">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AP174">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ174">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR174">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AS174">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AT174">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="AU174">
         <v>5</v>
@@ -37589,25 +37589,25 @@
         <v>1.06</v>
       </c>
       <c r="AN175">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AO175">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP175">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ175">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR175">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AS175">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="AT175">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="AU175">
         <v>4</v>
@@ -37795,25 +37795,25 @@
         <v>1.28</v>
       </c>
       <c r="AN176">
+        <v>2.6</v>
+      </c>
+      <c r="AO176">
+        <v>2.3</v>
+      </c>
+      <c r="AP176">
+        <v>2.4</v>
+      </c>
+      <c r="AQ176">
         <v>2.05</v>
       </c>
-      <c r="AO176">
-        <v>2.43</v>
-      </c>
-      <c r="AP176">
-        <v>1.93</v>
-      </c>
-      <c r="AQ176">
-        <v>2.1</v>
-      </c>
       <c r="AR176">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AS176">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="AT176">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="AU176">
         <v>3</v>
@@ -38001,22 +38001,22 @@
         <v>2.15</v>
       </c>
       <c r="AN177">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="AO177">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP177">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ177">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR177">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="AS177">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="AT177">
         <v>2.67</v>
@@ -38210,22 +38210,22 @@
         <v>1</v>
       </c>
       <c r="AO178">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AP178">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ178">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR178">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AS178">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AT178">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU178">
         <v>6</v>
@@ -38413,25 +38413,25 @@
         <v>6.5</v>
       </c>
       <c r="AN179">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AO179">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="AP179">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ179">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR179">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AS179">
-        <v>1.1</v>
+        <v>0.99</v>
       </c>
       <c r="AT179">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="AU179">
         <v>11</v>
@@ -38619,25 +38619,25 @@
         <v>1.2</v>
       </c>
       <c r="AN180">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="AO180">
         <v>1.64</v>
       </c>
       <c r="AP180">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ180">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR180">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AS180">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AT180">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="AU180">
         <v>5</v>
@@ -38825,25 +38825,25 @@
         <v>2.31</v>
       </c>
       <c r="AN181">
-        <v>0.95</v>
+        <v>1.64</v>
       </c>
       <c r="AO181">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AP181">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ181">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR181">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="AS181">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AT181">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
       <c r="AU181">
         <v>4</v>
@@ -39031,25 +39031,25 @@
         <v>1.25</v>
       </c>
       <c r="AN182">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="AO182">
-        <v>1.59</v>
+        <v>0.91</v>
       </c>
       <c r="AP182">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ182">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR182">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AS182">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="AT182">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39237,25 +39237,25 @@
         <v>4.33</v>
       </c>
       <c r="AN183">
-        <v>2.36</v>
+        <v>2.55</v>
       </c>
       <c r="AO183">
-        <v>0.95</v>
+        <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ183">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR183">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AS183">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AT183">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39443,25 +39443,25 @@
         <v>1.3</v>
       </c>
       <c r="AN184">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AO184">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AP184">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ184">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR184">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AS184">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AT184">
-        <v>3.05</v>
+        <v>3.21</v>
       </c>
       <c r="AU184">
         <v>8</v>
@@ -39649,25 +39649,25 @@
         <v>1.29</v>
       </c>
       <c r="AN185">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AO185">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="AP185">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ185">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR185">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="AS185">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="AT185">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="AU185">
         <v>13</v>
@@ -39855,25 +39855,25 @@
         <v>1.28</v>
       </c>
       <c r="AN186">
+        <v>1.18</v>
+      </c>
+      <c r="AO186">
         <v>0.91</v>
       </c>
-      <c r="AO186">
-        <v>1.04</v>
-      </c>
       <c r="AP186">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR186">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="AS186">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AT186">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="AU186">
         <v>5</v>
@@ -40061,25 +40061,25 @@
         <v>1.8</v>
       </c>
       <c r="AN187">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AO187">
-        <v>0.91</v>
+        <v>0.55</v>
       </c>
       <c r="AP187">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR187">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS187">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AT187">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="AU187">
         <v>8</v>
@@ -40267,25 +40267,25 @@
         <v>1.33</v>
       </c>
       <c r="AN188">
-        <v>0.65</v>
+        <v>0.82</v>
       </c>
       <c r="AO188">
-        <v>1.04</v>
+        <v>0.27</v>
       </c>
       <c r="AP188">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ188">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR188">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AS188">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AT188">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="AU188">
         <v>5</v>
@@ -40473,25 +40473,25 @@
         <v>1.43</v>
       </c>
       <c r="AN189">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AO189">
-        <v>2.39</v>
+        <v>2.18</v>
       </c>
       <c r="AP189">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ189">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR189">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="AS189">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="AT189">
-        <v>3.73</v>
+        <v>3.76</v>
       </c>
       <c r="AU189">
         <v>4</v>
@@ -40679,25 +40679,25 @@
         <v>1.3</v>
       </c>
       <c r="AN190">
-        <v>1.65</v>
+        <v>2.27</v>
       </c>
       <c r="AO190">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="AP190">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ190">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR190">
-        <v>1.58</v>
+        <v>1.91</v>
       </c>
       <c r="AS190">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AT190">
-        <v>3.31</v>
+        <v>3.53</v>
       </c>
       <c r="AU190">
         <v>4</v>
@@ -40885,25 +40885,25 @@
         <v>1.36</v>
       </c>
       <c r="AN191">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO191">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ191">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR191">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AS191">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="AT191">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -41091,25 +41091,25 @@
         <v>1.56</v>
       </c>
       <c r="AN192">
-        <v>1.96</v>
+        <v>2.45</v>
       </c>
       <c r="AO192">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="AP192">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ192">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR192">
+        <v>1.55</v>
+      </c>
+      <c r="AS192">
         <v>1.51</v>
       </c>
-      <c r="AS192">
-        <v>1.68</v>
-      </c>
       <c r="AT192">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="AU192">
         <v>5</v>
@@ -41297,25 +41297,25 @@
         <v>1.89</v>
       </c>
       <c r="AN193">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AO193">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="AP193">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ193">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR193">
         <v>1.74</v>
       </c>
       <c r="AS193">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AT193">
-        <v>3.23</v>
+        <v>3.06</v>
       </c>
       <c r="AU193">
         <v>7</v>
@@ -41503,25 +41503,25 @@
         <v>2.4</v>
       </c>
       <c r="AN194">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="AO194">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP194">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ194">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR194">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AS194">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT194">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="AU194">
         <v>4</v>
@@ -41709,25 +41709,25 @@
         <v>1.9</v>
       </c>
       <c r="AN195">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AO195">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP195">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ195">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR195">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AS195">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AT195">
-        <v>2.57</v>
+        <v>2.69</v>
       </c>
       <c r="AU195">
         <v>6</v>
@@ -41915,25 +41915,25 @@
         <v>3.6</v>
       </c>
       <c r="AN196">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="AO196">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AP196">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ196">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR196">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="AS196">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT196">
-        <v>3.19</v>
+        <v>3.21</v>
       </c>
       <c r="AU196">
         <v>4</v>
@@ -42121,25 +42121,25 @@
         <v>4.1</v>
       </c>
       <c r="AN197">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO197">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AP197">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ197">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR197">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AS197">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT197">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="AU197">
         <v>7</v>
@@ -42327,25 +42327,25 @@
         <v>1.18</v>
       </c>
       <c r="AN198">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="AO198">
-        <v>1.71</v>
+        <v>1.08</v>
       </c>
       <c r="AP198">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ198">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR198">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="AS198">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="AT198">
-        <v>2.73</v>
+        <v>2.62</v>
       </c>
       <c r="AU198">
         <v>2</v>
@@ -42533,25 +42533,25 @@
         <v>1.28</v>
       </c>
       <c r="AN199">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO199">
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ199">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR199">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AS199">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AT199">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="AU199">
         <v>3</v>
@@ -42739,25 +42739,25 @@
         <v>1.28</v>
       </c>
       <c r="AN200">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO200">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP200">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ200">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR200">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="AS200">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="AT200">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="AU200">
         <v>7</v>
@@ -42945,25 +42945,25 @@
         <v>1.7</v>
       </c>
       <c r="AN201">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AO201">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP201">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ201">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR201">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="AS201">
         <v>1.74</v>
       </c>
       <c r="AT201">
-        <v>3.42</v>
+        <v>3.58</v>
       </c>
       <c r="AU201">
         <v>11</v>
@@ -43151,25 +43151,25 @@
         <v>1.57</v>
       </c>
       <c r="AN202">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AO202">
-        <v>1.12</v>
+        <v>0.92</v>
       </c>
       <c r="AP202">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ202">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR202">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AS202">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AT202">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="AU202">
         <v>6</v>
@@ -43357,25 +43357,25 @@
         <v>3.6</v>
       </c>
       <c r="AN203">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AO203">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AP203">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ203">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR203">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS203">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="AT203">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="AU203">
         <v>10</v>
@@ -43563,25 +43563,25 @@
         <v>1.57</v>
       </c>
       <c r="AN204">
-        <v>0.96</v>
+        <v>1.25</v>
       </c>
       <c r="AO204">
-        <v>0.96</v>
+        <v>0.25</v>
       </c>
       <c r="AP204">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ204">
+        <v>0.89</v>
+      </c>
+      <c r="AR204">
+        <v>1.3</v>
+      </c>
+      <c r="AS204">
         <v>1.25</v>
       </c>
-      <c r="AR204">
-        <v>1.32</v>
-      </c>
-      <c r="AS204">
-        <v>1.39</v>
-      </c>
       <c r="AT204">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="AU204">
         <v>2</v>
@@ -43769,25 +43769,25 @@
         <v>2.35</v>
       </c>
       <c r="AN205">
-        <v>1.76</v>
+        <v>2.33</v>
       </c>
       <c r="AO205">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="AP205">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ205">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR205">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="AS205">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="AT205">
-        <v>3.07</v>
+        <v>3.14</v>
       </c>
       <c r="AU205">
         <v>4</v>
@@ -43975,25 +43975,25 @@
         <v>1.33</v>
       </c>
       <c r="AN206">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AO206">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="AP206">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ206">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR206">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AS206">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="AT206">
-        <v>3.45</v>
+        <v>3.36</v>
       </c>
       <c r="AU206">
         <v>5</v>
@@ -44181,25 +44181,25 @@
         <v>1.05</v>
       </c>
       <c r="AN207">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="AO207">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AP207">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ207">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR207">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AS207">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="AT207">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
       <c r="AU207">
         <v>3</v>
@@ -44387,25 +44387,25 @@
         <v>2.2</v>
       </c>
       <c r="AN208">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="AO208">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AP208">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ208">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR208">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS208">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AT208">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="AU208">
         <v>9</v>
@@ -44593,25 +44593,25 @@
         <v>1.2</v>
       </c>
       <c r="AN209">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AO209">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AP209">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ209">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR209">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AS209">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="AT209">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="AU209">
         <v>4</v>
@@ -44799,25 +44799,25 @@
         <v>1.26</v>
       </c>
       <c r="AN210">
-        <v>0.96</v>
+        <v>1.62</v>
       </c>
       <c r="AO210">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AP210">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ210">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR210">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="AS210">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AT210">
-        <v>3.17</v>
+        <v>3.22</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -45005,25 +45005,25 @@
         <v>1.44</v>
       </c>
       <c r="AN211">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AO211">
-        <v>0.96</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP211">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ211">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR211">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="AS211">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT211">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="AU211">
         <v>4</v>
@@ -45211,25 +45211,25 @@
         <v>1.75</v>
       </c>
       <c r="AN212">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="AO212">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AP212">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ212">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR212">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="AS212">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AT212">
-        <v>2.78</v>
+        <v>2.87</v>
       </c>
       <c r="AU212">
         <v>5</v>
@@ -45417,25 +45417,25 @@
         <v>2.26</v>
       </c>
       <c r="AN213">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AO213">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="AP213">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ213">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR213">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AS213">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
       <c r="AT213">
-        <v>2.55</v>
+        <v>2.66</v>
       </c>
       <c r="AU213">
         <v>5</v>
@@ -45623,25 +45623,25 @@
         <v>2.16</v>
       </c>
       <c r="AN214">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="AO214">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="AP214">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ214">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR214">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="AS214">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AT214">
-        <v>3.23</v>
+        <v>3.32</v>
       </c>
       <c r="AU214">
         <v>7</v>
@@ -45829,25 +45829,25 @@
         <v>1.62</v>
       </c>
       <c r="AN215">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AO215">
-        <v>1.69</v>
+        <v>1.23</v>
       </c>
       <c r="AP215">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ215">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR215">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="AS215">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AT215">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="AU215">
         <v>6</v>
@@ -46035,25 +46035,25 @@
         <v>2.9</v>
       </c>
       <c r="AN216">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="AO216">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="AP216">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ216">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR216">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AS216">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT216">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="AU216">
         <v>8</v>
@@ -46241,25 +46241,25 @@
         <v>1.12</v>
       </c>
       <c r="AN217">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AO217">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AP217">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ217">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR217">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AS217">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AT217">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="AU217">
         <v>2</v>
@@ -46447,25 +46447,25 @@
         <v>1.73</v>
       </c>
       <c r="AN218">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="AO218">
-        <v>0.93</v>
+        <v>0.31</v>
       </c>
       <c r="AP218">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ218">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR218">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AS218">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AT218">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="AU218">
         <v>4</v>
@@ -46653,25 +46653,25 @@
         <v>1.98</v>
       </c>
       <c r="AN219">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
       <c r="AO219">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AP219">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ219">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR219">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AS219">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AT219">
-        <v>3.15</v>
+        <v>2.97</v>
       </c>
       <c r="AU219">
         <v>7</v>
@@ -46859,25 +46859,25 @@
         <v>1.15</v>
       </c>
       <c r="AN220">
-        <v>0.96</v>
+        <v>1.23</v>
       </c>
       <c r="AO220">
-        <v>2.41</v>
+        <v>2.31</v>
       </c>
       <c r="AP220">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ220">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR220">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AS220">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AT220">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="AU220">
         <v>3</v>
@@ -47065,25 +47065,25 @@
         <v>1.36</v>
       </c>
       <c r="AN221">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="AO221">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="AP221">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ221">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR221">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AS221">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="AT221">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="AU221">
         <v>8</v>
@@ -47271,25 +47271,25 @@
         <v>1.44</v>
       </c>
       <c r="AN222">
+        <v>1.62</v>
+      </c>
+      <c r="AO222">
+        <v>1.38</v>
+      </c>
+      <c r="AP222">
+        <v>1.62</v>
+      </c>
+      <c r="AQ222">
+        <v>1.7</v>
+      </c>
+      <c r="AR222">
+        <v>1.93</v>
+      </c>
+      <c r="AS222">
         <v>1.59</v>
       </c>
-      <c r="AO222">
-        <v>1.67</v>
-      </c>
-      <c r="AP222">
-        <v>1.46</v>
-      </c>
-      <c r="AQ222">
-        <v>1.88</v>
-      </c>
-      <c r="AR222">
-        <v>1.82</v>
-      </c>
-      <c r="AS222">
-        <v>1.72</v>
-      </c>
       <c r="AT222">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47477,25 +47477,25 @@
         <v>2.2</v>
       </c>
       <c r="AN223">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="AO223">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AP223">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ223">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR223">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AS223">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT223">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="AU223">
         <v>12</v>
@@ -47683,25 +47683,25 @@
         <v>3.5</v>
       </c>
       <c r="AN224">
-        <v>2.11</v>
+        <v>2.54</v>
       </c>
       <c r="AO224">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="AP224">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ224">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR224">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AS224">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AT224">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="AU224">
         <v>6</v>
@@ -47889,25 +47889,25 @@
         <v>1.55</v>
       </c>
       <c r="AN225">
+        <v>0.92</v>
+      </c>
+      <c r="AO225">
+        <v>0.62</v>
+      </c>
+      <c r="AP225">
+        <v>1</v>
+      </c>
+      <c r="AQ225">
         <v>0.67</v>
       </c>
-      <c r="AO225">
-        <v>0.85</v>
-      </c>
-      <c r="AP225">
-        <v>0.86</v>
-      </c>
-      <c r="AQ225">
-        <v>0.83</v>
-      </c>
       <c r="AR225">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AS225">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="AT225">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="AU225">
         <v>8</v>
@@ -48095,25 +48095,25 @@
         <v>2.01</v>
       </c>
       <c r="AN226">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AO226">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="AP226">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ226">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR226">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="AS226">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AT226">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="AU226">
         <v>5</v>
@@ -48301,25 +48301,25 @@
         <v>1.11</v>
       </c>
       <c r="AN227">
-        <v>0.75</v>
+        <v>1.07</v>
       </c>
       <c r="AO227">
-        <v>1.71</v>
+        <v>1.21</v>
       </c>
       <c r="AP227">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ227">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR227">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AS227">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT227">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="AU227">
         <v>2</v>
@@ -48507,25 +48507,25 @@
         <v>1.25</v>
       </c>
       <c r="AN228">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO228">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AP228">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ228">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR228">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AS228">
         <v>1.69</v>
       </c>
       <c r="AT228">
-        <v>3.01</v>
+        <v>3.17</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48713,25 +48713,25 @@
         <v>1.14</v>
       </c>
       <c r="AN229">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
       <c r="AO229">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AP229">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ229">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR229">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AS229">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AT229">
-        <v>2.67</v>
+        <v>2.74</v>
       </c>
       <c r="AU229">
         <v>3</v>
@@ -48919,25 +48919,25 @@
         <v>2.3</v>
       </c>
       <c r="AN230">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AO230">
-        <v>1.11</v>
+        <v>0.79</v>
       </c>
       <c r="AP230">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ230">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR230">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AS230">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT230">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
       <c r="AU230">
         <v>6</v>
@@ -49125,25 +49125,25 @@
         <v>3.5</v>
       </c>
       <c r="AN231">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="AO231">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AP231">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ231">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR231">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AS231">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AT231">
-        <v>3.02</v>
+        <v>3.17</v>
       </c>
       <c r="AU231">
         <v>9</v>
@@ -49331,25 +49331,25 @@
         <v>2.3</v>
       </c>
       <c r="AN232">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AO232">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="AP232">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ232">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR232">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AS232">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AT232">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU232">
         <v>6</v>
@@ -49537,25 +49537,25 @@
         <v>1.3</v>
       </c>
       <c r="AN233">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="AO233">
-        <v>1.32</v>
+        <v>0.86</v>
       </c>
       <c r="AP233">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ233">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR233">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AS233">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AT233">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AU233">
         <v>3</v>
@@ -49743,25 +49743,25 @@
         <v>2.1</v>
       </c>
       <c r="AN234">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="AO234">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AP234">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ234">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR234">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AS234">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AT234">
-        <v>2.37</v>
+        <v>2.44</v>
       </c>
       <c r="AU234">
         <v>7</v>
@@ -49949,25 +49949,25 @@
         <v>3.75</v>
       </c>
       <c r="AN235">
-        <v>2.17</v>
+        <v>2.57</v>
       </c>
       <c r="AO235">
+        <v>0.43</v>
+      </c>
+      <c r="AP235">
+        <v>2.4</v>
+      </c>
+      <c r="AQ235">
         <v>0.72</v>
       </c>
-      <c r="AP235">
-        <v>1.93</v>
-      </c>
-      <c r="AQ235">
-        <v>0.86</v>
-      </c>
       <c r="AR235">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AS235">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="AT235">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="AU235">
         <v>6</v>
@@ -50155,25 +50155,25 @@
         <v>1.09</v>
       </c>
       <c r="AN236">
-        <v>1.28</v>
+        <v>1.79</v>
       </c>
       <c r="AO236">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="AP236">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ236">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR236">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="AS236">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="AT236">
-        <v>3.14</v>
+        <v>3.19</v>
       </c>
       <c r="AU236">
         <v>6</v>
@@ -50361,25 +50361,25 @@
         <v>1.5</v>
       </c>
       <c r="AN237">
-        <v>1.76</v>
+        <v>2.21</v>
       </c>
       <c r="AO237">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="AP237">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ237">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR237">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="AS237">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AT237">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
       <c r="AU237">
         <v>4</v>
@@ -50567,25 +50567,25 @@
         <v>2.4</v>
       </c>
       <c r="AN238">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="AO238">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP238">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ238">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR238">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="AS238">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT238">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="AU238">
         <v>10</v>
@@ -50773,25 +50773,25 @@
         <v>1.33</v>
       </c>
       <c r="AN239">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
       <c r="AO239">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AP239">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ239">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR239">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS239">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AT239">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="AU239">
         <v>5</v>
@@ -50979,25 +50979,25 @@
         <v>3.35</v>
       </c>
       <c r="AN240">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="AO240">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AP240">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ240">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR240">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AS240">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AT240">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="AU240">
         <v>9</v>
@@ -51185,25 +51185,25 @@
         <v>1.28</v>
       </c>
       <c r="AN241">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO241">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AP241">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ241">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR241">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AS241">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="AT241">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="AU241">
         <v>5</v>
@@ -52833,25 +52833,25 @@
         <v>2.1</v>
       </c>
       <c r="AN249">
-        <v>0.97</v>
+        <v>1.47</v>
       </c>
       <c r="AO249">
-        <v>0.77</v>
+        <v>0.53</v>
       </c>
       <c r="AP249">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ249">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR249">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AS249">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="AT249">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="AU249">
         <v>4</v>
@@ -53657,25 +53657,25 @@
         <v>1.57</v>
       </c>
       <c r="AN253">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AO253">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AP253">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ253">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR253">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AS253">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="AT253">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU253">
         <v>3</v>
@@ -54481,25 +54481,25 @@
         <v>1.6</v>
       </c>
       <c r="AN257">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AO257">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AP257">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ257">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR257">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AS257">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT257">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="AU257">
         <v>6</v>
@@ -55305,25 +55305,25 @@
         <v>1.4</v>
       </c>
       <c r="AN261">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AO261">
-        <v>0.97</v>
+        <v>0.47</v>
       </c>
       <c r="AP261">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ261">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR261">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AS261">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="AT261">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AU261">
         <v>3</v>
@@ -56953,25 +56953,25 @@
         <v>1.7</v>
       </c>
       <c r="AN269">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO269">
-        <v>0.84</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP269">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ269">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR269">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AS269">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="AT269">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AU269">
         <v>9</v>
@@ -57365,25 +57365,25 @@
         <v>2.15</v>
       </c>
       <c r="AN271">
-        <v>1.03</v>
+        <v>1.44</v>
       </c>
       <c r="AO271">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="AP271">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ271">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR271">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AS271">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT271">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="AU271">
         <v>8</v>
@@ -58807,25 +58807,25 @@
         <v>1.38</v>
       </c>
       <c r="AN278">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO278">
-        <v>1.09</v>
+        <v>0.63</v>
       </c>
       <c r="AP278">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ278">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR278">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AS278">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AT278">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AU278">
         <v>3</v>
@@ -60249,25 +60249,25 @@
         <v>1.55</v>
       </c>
       <c r="AN285">
-        <v>0.91</v>
+        <v>1.13</v>
       </c>
       <c r="AO285">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="AP285">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ285">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR285">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AS285">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT285">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU285">
         <v>5</v>
@@ -60661,25 +60661,25 @@
         <v>1.48</v>
       </c>
       <c r="AN287">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AO287">
-        <v>1.15</v>
+        <v>0.76</v>
       </c>
       <c r="AP287">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ287">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR287">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AS287">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AT287">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AU287">
         <v>7</v>
@@ -61897,25 +61897,25 @@
         <v>1.72</v>
       </c>
       <c r="AN293">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="AO293">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="AP293">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ293">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR293">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AS293">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AT293">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="AU293">
         <v>5</v>
@@ -62309,25 +62309,25 @@
         <v>1.33</v>
       </c>
       <c r="AN295">
+        <v>0.88</v>
+      </c>
+      <c r="AO295">
         <v>0.71</v>
       </c>
-      <c r="AO295">
-        <v>0.86</v>
-      </c>
       <c r="AP295">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ295">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR295">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AS295">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AT295">
-        <v>2.31</v>
+        <v>2.22</v>
       </c>
       <c r="AU295">
         <v>5</v>
@@ -62515,25 +62515,25 @@
         <v>1.65</v>
       </c>
       <c r="AN296">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="AO296">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="AP296">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ296">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR296">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AS296">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT296">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="AU296">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -1957,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ2">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ3">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ5">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2781,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ6">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2987,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ7">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3602,22 +3602,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ10">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AU10">
         <v>4</v>
@@ -3805,25 +3805,25 @@
         <v>3.75</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ11">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="AU11">
         <v>4</v>
@@ -4014,22 +4014,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -4217,25 +4217,25 @@
         <v>2</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -4426,22 +4426,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ14">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4629,25 +4629,25 @@
         <v>1.25</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -4835,25 +4835,25 @@
         <v>1.3</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ16">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -5044,22 +5044,22 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ17">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AU17">
         <v>2</v>
@@ -5247,25 +5247,25 @@
         <v>3.4</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ18">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR18">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="AS18">
-        <v>1.03</v>
+        <v>0.83</v>
       </c>
       <c r="AT18">
-        <v>2.56</v>
+        <v>2.15</v>
       </c>
       <c r="AU18">
         <v>10</v>
@@ -5453,25 +5453,25 @@
         <v>1.6</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR19">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AS19">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="AT19">
-        <v>2.31</v>
+        <v>2.51</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -5662,22 +5662,22 @@
         <v>3</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP20">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR20">
-        <v>1.2</v>
+        <v>1.76</v>
       </c>
       <c r="AS20">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="AT20">
-        <v>3.34</v>
+        <v>3.66</v>
       </c>
       <c r="AU20">
         <v>10</v>
@@ -5868,22 +5868,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR21">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AS21">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="AT21">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -6071,25 +6071,25 @@
         <v>1.44</v>
       </c>
       <c r="AN22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR22">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="AS22">
-        <v>3.08</v>
+        <v>2.65</v>
       </c>
       <c r="AT22">
-        <v>4.62</v>
+        <v>3.92</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6277,25 +6277,25 @@
         <v>1.16</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ23">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR23">
-        <v>1.63</v>
+        <v>1.16</v>
       </c>
       <c r="AS23">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="AT23">
-        <v>3.65</v>
+        <v>3.13</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -6483,25 +6483,25 @@
         <v>1.73</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR24">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AS24">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="AT24">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6689,25 +6689,25 @@
         <v>1.32</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO25">
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR25">
-        <v>1.16</v>
+        <v>1.64</v>
       </c>
       <c r="AS25">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="AT25">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6895,25 +6895,25 @@
         <v>1.23</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ26">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR26">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="AS26">
-        <v>1.11</v>
+        <v>1.74</v>
       </c>
       <c r="AT26">
-        <v>2.78</v>
+        <v>3.23</v>
       </c>
       <c r="AU26">
         <v>3</v>
@@ -7101,25 +7101,25 @@
         <v>1.42</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27">
+        <v>0.98</v>
+      </c>
+      <c r="AQ27">
+        <v>1.5</v>
+      </c>
+      <c r="AR27">
+        <v>0.84</v>
+      </c>
+      <c r="AS27">
         <v>1.3</v>
       </c>
-      <c r="AQ27">
-        <v>1.45</v>
-      </c>
-      <c r="AR27">
-        <v>0.95</v>
-      </c>
-      <c r="AS27">
-        <v>1</v>
-      </c>
       <c r="AT27">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="AU27">
         <v>4</v>
@@ -7307,25 +7307,25 @@
         <v>1.22</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO28">
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ28">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR28">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AS28">
-        <v>2.32</v>
+        <v>1.87</v>
       </c>
       <c r="AT28">
-        <v>3.48</v>
+        <v>2.97</v>
       </c>
       <c r="AU28">
         <v>8</v>
@@ -7513,25 +7513,25 @@
         <v>1.91</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP29">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ29">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR29">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AS29">
-        <v>2.13</v>
+        <v>1.57</v>
       </c>
       <c r="AT29">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="AU29">
         <v>9</v>
@@ -7719,25 +7719,25 @@
         <v>2.22</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP30">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="AS30">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT30">
-        <v>3.28</v>
+        <v>3.31</v>
       </c>
       <c r="AU30">
         <v>8</v>
@@ -7928,22 +7928,22 @@
         <v>3</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AS31">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT31">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -8131,25 +8131,25 @@
         <v>3.66</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR32">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="AS32">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AT32">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="AU32">
         <v>10</v>
@@ -8340,22 +8340,22 @@
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ33">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR33">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="AS33">
-        <v>0.6899999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU33">
         <v>5</v>
@@ -8543,25 +8543,25 @@
         <v>1.78</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ34">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR34">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="AS34">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT34">
-        <v>2.36</v>
+        <v>2.7</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8749,25 +8749,25 @@
         <v>1.39</v>
       </c>
       <c r="AN35">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO35">
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ35">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR35">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AS35">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AT35">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8958,22 +8958,22 @@
         <v>0</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ36">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR36">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
       <c r="AS36">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AT36">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AU36">
         <v>7</v>
@@ -9161,25 +9161,25 @@
         <v>1.33</v>
       </c>
       <c r="AN37">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO37">
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AT37">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -9367,25 +9367,25 @@
         <v>1.95</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO38">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP38">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ38">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
-        <v>1.67</v>
+        <v>1.37</v>
       </c>
       <c r="AS38">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="AT38">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AU38">
         <v>9</v>
@@ -9573,25 +9573,25 @@
         <v>2.2</v>
       </c>
       <c r="AN39">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ39">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR39">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="AS39">
-        <v>0.78</v>
+        <v>1.03</v>
       </c>
       <c r="AT39">
-        <v>2.01</v>
+        <v>2.52</v>
       </c>
       <c r="AU39">
         <v>10</v>
@@ -9779,25 +9779,25 @@
         <v>2.25</v>
       </c>
       <c r="AN40">
+        <v>1.8</v>
+      </c>
+      <c r="AO40">
+        <v>0.2</v>
+      </c>
+      <c r="AP40">
         <v>1.5</v>
       </c>
-      <c r="AO40">
-        <v>0.5</v>
-      </c>
-      <c r="AP40">
-        <v>1.55</v>
-      </c>
       <c r="AQ40">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR40">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AS40">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="AT40">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="AU40">
         <v>7</v>
@@ -9985,25 +9985,25 @@
         <v>2.06</v>
       </c>
       <c r="AN41">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ41">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR41">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AS41">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AT41">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="AU41">
         <v>7</v>
@@ -10191,25 +10191,25 @@
         <v>1.8</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO42">
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR42">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="AS42">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AT42">
-        <v>2.24</v>
+        <v>2.55</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -10397,25 +10397,25 @@
         <v>1.58</v>
       </c>
       <c r="AN43">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO43">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP43">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ43">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR43">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AS43">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="AT43">
-        <v>3.59</v>
+        <v>3.69</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10603,25 +10603,25 @@
         <v>1.6</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO44">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP44">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ44">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR44">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="AS44">
-        <v>1.26</v>
+        <v>1.66</v>
       </c>
       <c r="AT44">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AU44">
         <v>8</v>
@@ -10809,25 +10809,25 @@
         <v>1.88</v>
       </c>
       <c r="AN45">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO45">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AP45">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ45">
+        <v>1.93</v>
+      </c>
+      <c r="AR45">
+        <v>2.09</v>
+      </c>
+      <c r="AS45">
         <v>1.45</v>
       </c>
-      <c r="AR45">
-        <v>2.1</v>
-      </c>
-      <c r="AS45">
-        <v>1.08</v>
-      </c>
       <c r="AT45">
-        <v>3.18</v>
+        <v>3.54</v>
       </c>
       <c r="AU45">
         <v>5</v>
@@ -11015,25 +11015,25 @@
         <v>1.65</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO46">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AP46">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AS46">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="AT46">
-        <v>2.49</v>
+        <v>2.71</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -11221,25 +11221,25 @@
         <v>1.2</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AO47">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ47">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR47">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AS47">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="AT47">
-        <v>2.51</v>
+        <v>2.93</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11427,25 +11427,25 @@
         <v>1.22</v>
       </c>
       <c r="AN48">
+        <v>1.4</v>
+      </c>
+      <c r="AO48">
+        <v>2</v>
+      </c>
+      <c r="AP48">
+        <v>0.83</v>
+      </c>
+      <c r="AQ48">
         <v>1.5</v>
       </c>
-      <c r="AO48">
-        <v>2</v>
-      </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
-      <c r="AQ48">
-        <v>1.45</v>
-      </c>
       <c r="AR48">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="AS48">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="AT48">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -11633,25 +11633,25 @@
         <v>1.85</v>
       </c>
       <c r="AN49">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO49">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AP49">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ49">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR49">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS49">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AT49">
-        <v>3.87</v>
+        <v>3.74</v>
       </c>
       <c r="AU49">
         <v>5</v>
@@ -11842,22 +11842,22 @@
         <v>2</v>
       </c>
       <c r="AO50">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ50">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="AS50">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AT50">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="AU50">
         <v>11</v>
@@ -12045,25 +12045,25 @@
         <v>1.42</v>
       </c>
       <c r="AN51">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO51">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ51">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR51">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AS51">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AT51">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -12251,25 +12251,25 @@
         <v>1.2</v>
       </c>
       <c r="AN52">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR52">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AS52">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="AT52">
-        <v>2.39</v>
+        <v>2.57</v>
       </c>
       <c r="AU52">
         <v>5</v>
@@ -12457,25 +12457,25 @@
         <v>1.22</v>
       </c>
       <c r="AN53">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AO53">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR53">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="AS53">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AT53">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="AU53">
         <v>3</v>
@@ -12663,25 +12663,25 @@
         <v>1.6</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO54">
+        <v>1.67</v>
+      </c>
+      <c r="AP54">
         <v>1.33</v>
       </c>
-      <c r="AP54">
-        <v>1.8</v>
-      </c>
       <c r="AQ54">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR54">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AS54">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AT54">
-        <v>2.81</v>
+        <v>2.79</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12869,25 +12869,25 @@
         <v>1.95</v>
       </c>
       <c r="AN55">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="AO55">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="AP55">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ55">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR55">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AS55">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT55">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -13075,25 +13075,25 @@
         <v>2.2</v>
       </c>
       <c r="AN56">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AP56">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
       </c>
       <c r="AS56">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AT56">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -13281,25 +13281,25 @@
         <v>1.77</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AO57">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="AP57">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ57">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR57">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AS57">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="AT57">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="AU57">
         <v>5</v>
@@ -13487,25 +13487,25 @@
         <v>3.3</v>
       </c>
       <c r="AN58">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="AO58">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR58">
-        <v>2.06</v>
+        <v>1.58</v>
       </c>
       <c r="AS58">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="AT58">
-        <v>3.22</v>
+        <v>2.9</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13693,25 +13693,25 @@
         <v>2.38</v>
       </c>
       <c r="AN59">
-        <v>0.67</v>
+        <v>1.83</v>
       </c>
       <c r="AO59">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AP59">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ59">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AS59">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AT59">
-        <v>3.09</v>
+        <v>3.19</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13899,25 +13899,25 @@
         <v>1.49</v>
       </c>
       <c r="AN60">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO60">
+        <v>1.67</v>
+      </c>
+      <c r="AP60">
         <v>1.5</v>
       </c>
-      <c r="AP60">
-        <v>1.55</v>
-      </c>
       <c r="AQ60">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR60">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="AS60">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="AT60">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -14105,25 +14105,25 @@
         <v>1.36</v>
       </c>
       <c r="AN61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO61">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP61">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ61">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR61">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AS61">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="AT61">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AU61">
         <v>3</v>
@@ -14314,22 +14314,22 @@
         <v>2.33</v>
       </c>
       <c r="AO62">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AP62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR62">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="AS62">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT62">
-        <v>2.73</v>
+        <v>2.94</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -14517,25 +14517,25 @@
         <v>1.63</v>
       </c>
       <c r="AN63">
-        <v>2.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO63">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR63">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="AS63">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AT63">
-        <v>3.67</v>
+        <v>3.25</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14723,25 +14723,25 @@
         <v>1.2</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO64">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ64">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR64">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="AS64">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="AT64">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="AU64">
         <v>8</v>
@@ -14929,25 +14929,25 @@
         <v>1.78</v>
       </c>
       <c r="AN65">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO65">
-        <v>3</v>
+        <v>1.71</v>
       </c>
       <c r="AP65">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR65">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="AS65">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT65">
-        <v>3.95</v>
+        <v>3.73</v>
       </c>
       <c r="AU65">
         <v>4</v>
@@ -15135,25 +15135,25 @@
         <v>1.2</v>
       </c>
       <c r="AN66">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO66">
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ66">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AS66">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AT66">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -15341,25 +15341,25 @@
         <v>1.2</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO67">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ67">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR67">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AS67">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AT67">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -15547,25 +15547,25 @@
         <v>1.6</v>
       </c>
       <c r="AN68">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO68">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ68">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR68">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AS68">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AT68">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15753,25 +15753,25 @@
         <v>1.22</v>
       </c>
       <c r="AN69">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO69">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AP69">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ69">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR69">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AS69">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="AT69">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15959,25 +15959,25 @@
         <v>2.33</v>
       </c>
       <c r="AN70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO70">
-        <v>0.25</v>
+        <v>0.88</v>
       </c>
       <c r="AP70">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ70">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AS70">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -16165,25 +16165,25 @@
         <v>2.6</v>
       </c>
       <c r="AN71">
-        <v>0.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO71">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP71">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ71">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR71">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AS71">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AT71">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -16371,25 +16371,25 @@
         <v>2.85</v>
       </c>
       <c r="AN72">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AO72">
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ72">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="AS72">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AT72">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="AU72">
         <v>8</v>
@@ -16577,25 +16577,25 @@
         <v>1.18</v>
       </c>
       <c r="AN73">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO73">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ73">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR73">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="AS73">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="AT73">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16783,25 +16783,25 @@
         <v>1.88</v>
       </c>
       <c r="AN74">
-        <v>1.5</v>
+        <v>0.78</v>
       </c>
       <c r="AO74">
+        <v>1.33</v>
+      </c>
+      <c r="AP74">
         <v>1.25</v>
       </c>
-      <c r="AP74">
-        <v>1.61</v>
-      </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR74">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS74">
-        <v>0.99</v>
+        <v>1.23</v>
       </c>
       <c r="AT74">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="AU74">
         <v>8</v>
@@ -16989,25 +16989,25 @@
         <v>2.45</v>
       </c>
       <c r="AN75">
+        <v>1.33</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
         <v>1.5</v>
       </c>
-      <c r="AO75">
-        <v>1</v>
-      </c>
-      <c r="AP75">
-        <v>1.55</v>
-      </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR75">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AS75">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="AT75">
-        <v>3.11</v>
+        <v>3.05</v>
       </c>
       <c r="AU75">
         <v>8</v>
@@ -17195,25 +17195,25 @@
         <v>1.96</v>
       </c>
       <c r="AN76">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO76">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ76">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS76">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AT76">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17401,25 +17401,25 @@
         <v>2.15</v>
       </c>
       <c r="AN77">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AP77">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ77">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR77">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AT77">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="AU77">
         <v>10</v>
@@ -17607,25 +17607,25 @@
         <v>1.2</v>
       </c>
       <c r="AN78">
-        <v>0.5</v>
+        <v>1.11</v>
       </c>
       <c r="AO78">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AP78">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ78">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR78">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AS78">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="AT78">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17813,25 +17813,25 @@
         <v>4</v>
       </c>
       <c r="AN79">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO79">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="AP79">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ79">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR79">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="AS79">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AT79">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="AU79">
         <v>13</v>
@@ -18019,25 +18019,25 @@
         <v>1.83</v>
       </c>
       <c r="AN80">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="AO80">
-        <v>2.5</v>
+        <v>1.56</v>
       </c>
       <c r="AP80">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ80">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR80">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AS80">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="AT80">
-        <v>3.26</v>
+        <v>3.43</v>
       </c>
       <c r="AU80">
         <v>10</v>
@@ -18225,25 +18225,25 @@
         <v>1.25</v>
       </c>
       <c r="AN81">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AO81">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP81">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR81">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AS81">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="AT81">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="AU81">
         <v>2</v>
@@ -18431,25 +18431,25 @@
         <v>3.75</v>
       </c>
       <c r="AN82">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO82">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ82">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR82">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AS82">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AT82">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
       <c r="AU82">
         <v>12</v>
@@ -18637,25 +18637,25 @@
         <v>1.09</v>
       </c>
       <c r="AN83">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO83">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ83">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR83">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="AT83">
-        <v>2.89</v>
+        <v>3.01</v>
       </c>
       <c r="AU83">
         <v>3</v>
@@ -18843,25 +18843,25 @@
         <v>1.57</v>
       </c>
       <c r="AN84">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AO84">
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ84">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR84">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="AS84">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AT84">
-        <v>2.72</v>
+        <v>2.41</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -19049,25 +19049,25 @@
         <v>1.33</v>
       </c>
       <c r="AN85">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AO85">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AP85">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ85">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR85">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="AS85">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AT85">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -19255,25 +19255,25 @@
         <v>2.5</v>
       </c>
       <c r="AN86">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO86">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AP86">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ86">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR86">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="AS86">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT86">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="AU86">
         <v>10</v>
@@ -19461,25 +19461,25 @@
         <v>1.44</v>
       </c>
       <c r="AN87">
+        <v>1.5</v>
+      </c>
+      <c r="AO87">
+        <v>2</v>
+      </c>
+      <c r="AP87">
+        <v>1.5</v>
+      </c>
+      <c r="AQ87">
         <v>1.8</v>
       </c>
-      <c r="AO87">
-        <v>1.8</v>
-      </c>
-      <c r="AP87">
-        <v>1.55</v>
-      </c>
-      <c r="AQ87">
-        <v>1.67</v>
-      </c>
       <c r="AR87">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="AS87">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AT87">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="AU87">
         <v>6</v>
@@ -19667,25 +19667,25 @@
         <v>1.4</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AO88">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AP88">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ88">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
       </c>
       <c r="AS88">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AT88">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="AU88">
         <v>9</v>
@@ -19873,25 +19873,25 @@
         <v>1.62</v>
       </c>
       <c r="AN89">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AO89">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ89">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR89">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AT89">
-        <v>2.61</v>
+        <v>2.83</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -20079,25 +20079,25 @@
         <v>1.9</v>
       </c>
       <c r="AN90">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AP90">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ90">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR90">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>0.95</v>
+        <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>2.34</v>
+        <v>2.55</v>
       </c>
       <c r="AU90">
         <v>6</v>
@@ -20285,25 +20285,25 @@
         <v>1.36</v>
       </c>
       <c r="AN91">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AO91">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AP91">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ91">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AS91">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="AT91">
-        <v>3.18</v>
+        <v>3.01</v>
       </c>
       <c r="AU91">
         <v>8</v>
@@ -20491,25 +20491,25 @@
         <v>1.33</v>
       </c>
       <c r="AN92">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="AO92">
-        <v>0.2</v>
+        <v>1.18</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ92">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR92">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AS92">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AT92">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20697,25 +20697,25 @@
         <v>2.55</v>
       </c>
       <c r="AN93">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="AO93">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AP93">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ93">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR93">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AS93">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AT93">
-        <v>3.24</v>
+        <v>3.02</v>
       </c>
       <c r="AU93">
         <v>10</v>
@@ -20903,25 +20903,25 @@
         <v>1.83</v>
       </c>
       <c r="AN94">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="AO94">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AP94">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ94">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR94">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="AS94">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="AT94">
-        <v>3.39</v>
+        <v>3.52</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -21109,25 +21109,25 @@
         <v>1.18</v>
       </c>
       <c r="AN95">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AO95">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ95">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR95">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS95">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="AT95">
-        <v>2.92</v>
+        <v>3.13</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -21315,25 +21315,25 @@
         <v>2.2</v>
       </c>
       <c r="AN96">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="AO96">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP96">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ96">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR96">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="AS96">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AT96">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="AU96">
         <v>11</v>
@@ -21521,25 +21521,25 @@
         <v>1.15</v>
       </c>
       <c r="AN97">
-        <v>1.33</v>
+        <v>0.73</v>
       </c>
       <c r="AO97">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="AP97">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ97">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR97">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AS97">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AT97">
-        <v>2.81</v>
+        <v>2.95</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21727,25 +21727,25 @@
         <v>1.9</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO98">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP98">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ98">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR98">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AS98">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="AT98">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AU98">
         <v>5</v>
@@ -21933,25 +21933,25 @@
         <v>1.85</v>
       </c>
       <c r="AN99">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AO99">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ99">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR99">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="AS99">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AT99">
-        <v>2.57</v>
+        <v>2.29</v>
       </c>
       <c r="AU99">
         <v>6</v>
@@ -22139,25 +22139,25 @@
         <v>1.76</v>
       </c>
       <c r="AN100">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO100">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="AP100">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ100">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR100">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="AS100">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AT100">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22345,25 +22345,25 @@
         <v>1.68</v>
       </c>
       <c r="AN101">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="AO101">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ101">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR101">
-        <v>2.03</v>
+        <v>1.63</v>
       </c>
       <c r="AS101">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT101">
-        <v>3.86</v>
+        <v>3.52</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -22551,25 +22551,25 @@
         <v>1.6</v>
       </c>
       <c r="AN102">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO102">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR102">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AS102">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AT102">
-        <v>3.08</v>
+        <v>3.22</v>
       </c>
       <c r="AU102">
         <v>3</v>
@@ -22760,22 +22760,22 @@
         <v>1.33</v>
       </c>
       <c r="AO103">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP103">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ103">
+        <v>1.53</v>
+      </c>
+      <c r="AR103">
         <v>1.35</v>
       </c>
-      <c r="AR103">
-        <v>1.38</v>
-      </c>
       <c r="AS103">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AT103">
-        <v>2.72</v>
+        <v>2.79</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22963,25 +22963,25 @@
         <v>1.66</v>
       </c>
       <c r="AN104">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="AO104">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="AP104">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ104">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR104">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AS104">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="AT104">
-        <v>3.68</v>
+        <v>3.71</v>
       </c>
       <c r="AU104">
         <v>7</v>
@@ -23169,25 +23169,25 @@
         <v>1.33</v>
       </c>
       <c r="AN105">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="AO105">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="AP105">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR105">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AS105">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="AT105">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU105">
         <v>4</v>
@@ -23375,25 +23375,25 @@
         <v>1.5</v>
       </c>
       <c r="AN106">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="AO106">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ106">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR106">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AS106">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AT106">
-        <v>2.47</v>
+        <v>2.61</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23581,25 +23581,25 @@
         <v>2.2</v>
       </c>
       <c r="AN107">
-        <v>2.33</v>
+        <v>1.54</v>
       </c>
       <c r="AO107">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AP107">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ107">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR107">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AS107">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT107">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="AU107">
         <v>10</v>
@@ -23787,25 +23787,25 @@
         <v>1.5</v>
       </c>
       <c r="AN108">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AO108">
+        <v>1.08</v>
+      </c>
+      <c r="AP108">
+        <v>0.78</v>
+      </c>
+      <c r="AQ108">
         <v>0.83</v>
       </c>
-      <c r="AP108">
-        <v>1</v>
-      </c>
-      <c r="AQ108">
-        <v>0.67</v>
-      </c>
       <c r="AR108">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AS108">
-        <v>0.9399999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="AT108">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23993,25 +23993,25 @@
         <v>1.53</v>
       </c>
       <c r="AN109">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="AO109">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ109">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AS109">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AT109">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="AU109">
         <v>8</v>
@@ -24199,25 +24199,25 @@
         <v>2.1</v>
       </c>
       <c r="AN110">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="AO110">
+        <v>1.62</v>
+      </c>
+      <c r="AP110">
+        <v>1.88</v>
+      </c>
+      <c r="AQ110">
         <v>1.5</v>
       </c>
-      <c r="AP110">
-        <v>2.05</v>
-      </c>
-      <c r="AQ110">
-        <v>1.45</v>
-      </c>
       <c r="AR110">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AS110">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="AT110">
-        <v>3.58</v>
+        <v>3.29</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24405,25 +24405,25 @@
         <v>2.95</v>
       </c>
       <c r="AN111">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AO111">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP111">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ111">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR111">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AS111">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="AT111">
-        <v>3.61</v>
+        <v>3.34</v>
       </c>
       <c r="AU111">
         <v>7</v>
@@ -24611,25 +24611,25 @@
         <v>1.7</v>
       </c>
       <c r="AN112">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO112">
+        <v>2.08</v>
+      </c>
+      <c r="AP112">
+        <v>1.8</v>
+      </c>
+      <c r="AQ112">
+        <v>1.93</v>
+      </c>
+      <c r="AR112">
+        <v>1.72</v>
+      </c>
+      <c r="AS112">
         <v>1.57</v>
       </c>
-      <c r="AP112">
-        <v>1.95</v>
-      </c>
-      <c r="AQ112">
-        <v>1.45</v>
-      </c>
-      <c r="AR112">
-        <v>1.83</v>
-      </c>
-      <c r="AS112">
-        <v>1.48</v>
-      </c>
       <c r="AT112">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="AU112">
         <v>6</v>
@@ -24817,25 +24817,25 @@
         <v>4.2</v>
       </c>
       <c r="AN113">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AO113">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP113">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ113">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR113">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AS113">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AT113">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="AU113">
         <v>9</v>
@@ -25023,25 +25023,25 @@
         <v>1.28</v>
       </c>
       <c r="AN114">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AO114">
-        <v>0.86</v>
+        <v>1.64</v>
       </c>
       <c r="AP114">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR114">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AS114">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="AT114">
-        <v>2.73</v>
+        <v>2.97</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25229,25 +25229,25 @@
         <v>3.15</v>
       </c>
       <c r="AN115">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AO115">
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ115">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR115">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AS115">
-        <v>0.96</v>
+        <v>1.11</v>
       </c>
       <c r="AT115">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="AU115">
         <v>12</v>
@@ -25435,25 +25435,25 @@
         <v>1.95</v>
       </c>
       <c r="AN116">
-        <v>1.71</v>
+        <v>0.93</v>
       </c>
       <c r="AO116">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AP116">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ116">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR116">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AS116">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AT116">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
       <c r="AU116">
         <v>5</v>
@@ -25641,25 +25641,25 @@
         <v>1.32</v>
       </c>
       <c r="AN117">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AO117">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AP117">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ117">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR117">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AS117">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AT117">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="AU117">
         <v>5</v>
@@ -25847,25 +25847,25 @@
         <v>1.45</v>
       </c>
       <c r="AN118">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="AO118">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AP118">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ118">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR118">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="AS118">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT118">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -26053,25 +26053,25 @@
         <v>1.17</v>
       </c>
       <c r="AN119">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ119">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR119">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AS119">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="AT119">
-        <v>2.84</v>
+        <v>3.14</v>
       </c>
       <c r="AU119">
         <v>4</v>
@@ -26259,25 +26259,25 @@
         <v>2.95</v>
       </c>
       <c r="AN120">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AO120">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AP120">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ120">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR120">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="AS120">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AT120">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AU120">
         <v>9</v>
@@ -26465,25 +26465,25 @@
         <v>1.42</v>
       </c>
       <c r="AN121">
-        <v>1.14</v>
+        <v>0.64</v>
       </c>
       <c r="AO121">
-        <v>0.71</v>
+        <v>1.07</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ121">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR121">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AS121">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AT121">
-        <v>2.41</v>
+        <v>2.52</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26671,25 +26671,25 @@
         <v>1.23</v>
       </c>
       <c r="AN122">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AO122">
-        <v>1.5</v>
+        <v>2.07</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ122">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR122">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AS122">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AT122">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="AU122">
         <v>8</v>
@@ -26877,25 +26877,25 @@
         <v>1.45</v>
       </c>
       <c r="AN123">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AO123">
-        <v>0.14</v>
+        <v>1.07</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ123">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR123">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AS123">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AT123">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="AU123">
         <v>5</v>
@@ -27083,25 +27083,25 @@
         <v>1.68</v>
       </c>
       <c r="AN124">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AO124">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="AP124">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ124">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR124">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="AS124">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AT124">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AU124">
         <v>4</v>
@@ -27289,25 +27289,25 @@
         <v>2.95</v>
       </c>
       <c r="AN125">
-        <v>2.43</v>
+        <v>1.6</v>
       </c>
       <c r="AO125">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="AP125">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ125">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR125">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="AS125">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="AT125">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27495,25 +27495,25 @@
         <v>1.73</v>
       </c>
       <c r="AN126">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AO126">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="AP126">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ126">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR126">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="AS126">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AT126">
-        <v>3.6</v>
+        <v>3.53</v>
       </c>
       <c r="AU126">
         <v>7</v>
@@ -27701,25 +27701,25 @@
         <v>1.74</v>
       </c>
       <c r="AN127">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="AO127">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AP127">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ127">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR127">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AS127">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AT127">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="AU127">
         <v>6</v>
@@ -27907,25 +27907,25 @@
         <v>2.8</v>
       </c>
       <c r="AN128">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="AO128">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ128">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR128">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="AS128">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT128">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU128">
         <v>7</v>
@@ -28113,25 +28113,25 @@
         <v>2.15</v>
       </c>
       <c r="AN129">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="AO129">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AP129">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ129">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AS129">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AT129">
-        <v>3.7</v>
+        <v>3.57</v>
       </c>
       <c r="AU129">
         <v>7</v>
@@ -28319,25 +28319,25 @@
         <v>1.42</v>
       </c>
       <c r="AN130">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO130">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ130">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR130">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AS130">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT130">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="AU130">
         <v>7</v>
@@ -28525,25 +28525,25 @@
         <v>1.44</v>
       </c>
       <c r="AN131">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="AO131">
-        <v>0.88</v>
+        <v>1.69</v>
       </c>
       <c r="AP131">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR131">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AS131">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="AT131">
-        <v>2.97</v>
+        <v>3.29</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28734,22 +28734,22 @@
         <v>1.38</v>
       </c>
       <c r="AO132">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP132">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR132">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS132">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AT132">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="AU132">
         <v>14</v>
@@ -28937,25 +28937,25 @@
         <v>3.1</v>
       </c>
       <c r="AN133">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="AO133">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AP133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ133">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR133">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AS133">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="AT133">
-        <v>2.77</v>
+        <v>2.91</v>
       </c>
       <c r="AU133">
         <v>11</v>
@@ -29143,25 +29143,25 @@
         <v>1.12</v>
       </c>
       <c r="AN134">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO134">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AP134">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ134">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR134">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AS134">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="AT134">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29349,25 +29349,25 @@
         <v>1.1</v>
       </c>
       <c r="AN135">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO135">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ135">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR135">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="AS135">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT135">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="AU135">
         <v>5</v>
@@ -29555,25 +29555,25 @@
         <v>2.4</v>
       </c>
       <c r="AN136">
-        <v>2.71</v>
+        <v>2.13</v>
       </c>
       <c r="AO136">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ136">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR136">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="AS136">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AT136">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29761,25 +29761,25 @@
         <v>1.15</v>
       </c>
       <c r="AN137">
-        <v>1.88</v>
+        <v>1.06</v>
       </c>
       <c r="AO137">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AP137">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ137">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR137">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AS137">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AT137">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU137">
         <v>4</v>
@@ -29967,25 +29967,25 @@
         <v>2</v>
       </c>
       <c r="AN138">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="AO138">
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ138">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR138">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AS138">
-        <v>0.97</v>
+        <v>1.13</v>
       </c>
       <c r="AT138">
-        <v>2.31</v>
+        <v>2.45</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -30173,25 +30173,25 @@
         <v>1.25</v>
       </c>
       <c r="AN139">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="AO139">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="AP139">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ139">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AS139">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="AT139">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
       <c r="AU139">
         <v>4</v>
@@ -30379,25 +30379,25 @@
         <v>1.35</v>
       </c>
       <c r="AN140">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AO140">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AP140">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ140">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR140">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="AS140">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AT140">
-        <v>2.73</v>
+        <v>2.64</v>
       </c>
       <c r="AU140">
         <v>7</v>
@@ -30585,25 +30585,25 @@
         <v>1.73</v>
       </c>
       <c r="AN141">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AO141">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP141">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ141">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR141">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AS141">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT141">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -30791,25 +30791,25 @@
         <v>2.2</v>
       </c>
       <c r="AN142">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="AO142">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AP142">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ142">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR142">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="AS142">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT142">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -30997,25 +30997,25 @@
         <v>3.2</v>
       </c>
       <c r="AN143">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AP143">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ143">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR143">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="AS143">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AT143">
-        <v>3.31</v>
+        <v>3.34</v>
       </c>
       <c r="AU143">
         <v>9</v>
@@ -31203,25 +31203,25 @@
         <v>1.85</v>
       </c>
       <c r="AN144">
-        <v>2.5</v>
+        <v>1.76</v>
       </c>
       <c r="AO144">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="AP144">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ144">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR144">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="AS144">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AT144">
-        <v>3.44</v>
+        <v>3.27</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31409,22 +31409,22 @@
         <v>4</v>
       </c>
       <c r="AN145">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="AO145">
-        <v>0.25</v>
+        <v>0.59</v>
       </c>
       <c r="AP145">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ145">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR145">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AS145">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AT145">
         <v>3.04</v>
@@ -31615,25 +31615,25 @@
         <v>3</v>
       </c>
       <c r="AN146">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AO146">
-        <v>0.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP146">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR146">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AS146">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AT146">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="AU146">
         <v>14</v>
@@ -31821,25 +31821,25 @@
         <v>1.53</v>
       </c>
       <c r="AN147">
+        <v>1.06</v>
+      </c>
+      <c r="AO147">
         <v>1.22</v>
       </c>
-      <c r="AO147">
-        <v>1</v>
-      </c>
       <c r="AP147">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR147">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AS147">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AT147">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="AU147">
         <v>9</v>
@@ -32027,25 +32027,25 @@
         <v>3.4</v>
       </c>
       <c r="AN148">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="AO148">
-        <v>0.5600000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AP148">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ148">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR148">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="AS148">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT148">
-        <v>3.24</v>
+        <v>3.01</v>
       </c>
       <c r="AU148">
         <v>7</v>
@@ -32233,25 +32233,25 @@
         <v>1.1</v>
       </c>
       <c r="AN149">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="AO149">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ149">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR149">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AS149">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AT149">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="AU149">
         <v>4</v>
@@ -32439,22 +32439,22 @@
         <v>1.06</v>
       </c>
       <c r="AN150">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="AO150">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AP150">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ150">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR150">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AS150">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="AT150">
         <v>3.11</v>
@@ -32645,25 +32645,25 @@
         <v>2.95</v>
       </c>
       <c r="AN151">
-        <v>2.33</v>
+        <v>1.72</v>
       </c>
       <c r="AO151">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP151">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ151">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR151">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="AS151">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT151">
-        <v>3.23</v>
+        <v>2.99</v>
       </c>
       <c r="AU151">
         <v>7</v>
@@ -32851,25 +32851,25 @@
         <v>1.72</v>
       </c>
       <c r="AN152">
+        <v>1.28</v>
+      </c>
+      <c r="AO152">
+        <v>1</v>
+      </c>
+      <c r="AP152">
         <v>1.33</v>
       </c>
-      <c r="AO152">
-        <v>0.33</v>
-      </c>
-      <c r="AP152">
-        <v>1.8</v>
-      </c>
       <c r="AQ152">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR152">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AS152">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AT152">
-        <v>2.91</v>
+        <v>2.84</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -33057,25 +33057,25 @@
         <v>1.63</v>
       </c>
       <c r="AN153">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO153">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="AP153">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ153">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR153">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="AS153">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="AT153">
-        <v>3.55</v>
+        <v>3.53</v>
       </c>
       <c r="AU153">
         <v>4</v>
@@ -33263,25 +33263,25 @@
         <v>1.6</v>
       </c>
       <c r="AN154">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AO154">
-        <v>1.11</v>
+        <v>1.68</v>
       </c>
       <c r="AP154">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ154">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR154">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AS154">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="AT154">
-        <v>3.46</v>
+        <v>3.61</v>
       </c>
       <c r="AU154">
         <v>9</v>
@@ -33469,25 +33469,25 @@
         <v>1.08</v>
       </c>
       <c r="AN155">
-        <v>0.89</v>
+        <v>0.53</v>
       </c>
       <c r="AO155">
-        <v>1.44</v>
+        <v>1.84</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ155">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR155">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="AS155">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AT155">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33675,25 +33675,25 @@
         <v>1.93</v>
       </c>
       <c r="AN156">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
       <c r="AO156">
+        <v>0.79</v>
+      </c>
+      <c r="AP156">
+        <v>1.1</v>
+      </c>
+      <c r="AQ156">
         <v>0.78</v>
       </c>
-      <c r="AP156">
-        <v>1.4</v>
-      </c>
-      <c r="AQ156">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="AR156">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AS156">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AT156">
-        <v>2.29</v>
+        <v>2.45</v>
       </c>
       <c r="AU156">
         <v>8</v>
@@ -33881,25 +33881,25 @@
         <v>1.75</v>
       </c>
       <c r="AN157">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AO157">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ157">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR157">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AS157">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="AT157">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="AU157">
         <v>4</v>
@@ -34087,25 +34087,25 @@
         <v>1.59</v>
       </c>
       <c r="AN158">
-        <v>2.11</v>
+        <v>1.74</v>
       </c>
       <c r="AO158">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AP158">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ158">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR158">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="AS158">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AT158">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -34293,25 +34293,25 @@
         <v>1.55</v>
       </c>
       <c r="AN159">
+        <v>1.16</v>
+      </c>
+      <c r="AO159">
+        <v>1.37</v>
+      </c>
+      <c r="AP159">
+        <v>0.98</v>
+      </c>
+      <c r="AQ159">
+        <v>1.33</v>
+      </c>
+      <c r="AR159">
+        <v>1.23</v>
+      </c>
+      <c r="AS159">
         <v>1.44</v>
       </c>
-      <c r="AO159">
-        <v>1.22</v>
-      </c>
-      <c r="AP159">
-        <v>1.3</v>
-      </c>
-      <c r="AQ159">
-        <v>0.85</v>
-      </c>
-      <c r="AR159">
-        <v>1.29</v>
-      </c>
-      <c r="AS159">
-        <v>1.3</v>
-      </c>
       <c r="AT159">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="AU159">
         <v>3</v>
@@ -34499,25 +34499,25 @@
         <v>1.85</v>
       </c>
       <c r="AN160">
-        <v>2.56</v>
+        <v>2.05</v>
       </c>
       <c r="AO160">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AP160">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ160">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR160">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="AS160">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AT160">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="AU160">
         <v>5</v>
@@ -34705,25 +34705,25 @@
         <v>1.7</v>
       </c>
       <c r="AN161">
-        <v>1.67</v>
+        <v>0.95</v>
       </c>
       <c r="AO161">
-        <v>0.89</v>
+        <v>1.16</v>
       </c>
       <c r="AP161">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ161">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR161">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS161">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AT161">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="AU161">
         <v>7</v>
@@ -34911,25 +34911,25 @@
         <v>2.75</v>
       </c>
       <c r="AN162">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AO162">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AP162">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ162">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR162">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AS162">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AT162">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="AU162">
         <v>8</v>
@@ -35120,22 +35120,22 @@
         <v>1.7</v>
       </c>
       <c r="AO163">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AP163">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ163">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR163">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AS163">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AT163">
-        <v>3.8</v>
+        <v>3.68</v>
       </c>
       <c r="AU163">
         <v>4</v>
@@ -35323,25 +35323,25 @@
         <v>2.3</v>
       </c>
       <c r="AN164">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AO164">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP164">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ164">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR164">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AS164">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AT164">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="AU164">
         <v>5</v>
@@ -35529,25 +35529,25 @@
         <v>3.4</v>
       </c>
       <c r="AN165">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AO165">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AP165">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ165">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR165">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="AS165">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT165">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="AU165">
         <v>10</v>
@@ -35735,25 +35735,25 @@
         <v>1.77</v>
       </c>
       <c r="AN166">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO166">
-        <v>0.3</v>
+        <v>1.05</v>
       </c>
       <c r="AP166">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ166">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR166">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AS166">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AT166">
-        <v>3.16</v>
+        <v>3</v>
       </c>
       <c r="AU166">
         <v>10</v>
@@ -35941,25 +35941,25 @@
         <v>3.2</v>
       </c>
       <c r="AN167">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO167">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AP167">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ167">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR167">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="AS167">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AT167">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="AU167">
         <v>6</v>
@@ -36147,25 +36147,25 @@
         <v>1.19</v>
       </c>
       <c r="AN168">
+        <v>0.8</v>
+      </c>
+      <c r="AO168">
+        <v>2.1</v>
+      </c>
+      <c r="AP168">
         <v>1.1</v>
       </c>
-      <c r="AO168">
-        <v>1.6</v>
-      </c>
-      <c r="AP168">
-        <v>1.4</v>
-      </c>
       <c r="AQ168">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR168">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AS168">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AT168">
-        <v>2.79</v>
+        <v>2.89</v>
       </c>
       <c r="AU168">
         <v>5</v>
@@ -36353,25 +36353,25 @@
         <v>1.85</v>
       </c>
       <c r="AN169">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="AO169">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AP169">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ169">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR169">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AS169">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AT169">
-        <v>2.45</v>
+        <v>2.34</v>
       </c>
       <c r="AU169">
         <v>2</v>
@@ -36559,25 +36559,25 @@
         <v>2.45</v>
       </c>
       <c r="AN170">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="AO170">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR170">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="AS170">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AT170">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="AU170">
         <v>8</v>
@@ -36765,25 +36765,25 @@
         <v>1.44</v>
       </c>
       <c r="AN171">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="AO171">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP171">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ171">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR171">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS171">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AT171">
-        <v>2.59</v>
+        <v>2.43</v>
       </c>
       <c r="AU171">
         <v>4</v>
@@ -36971,25 +36971,25 @@
         <v>1.12</v>
       </c>
       <c r="AN172">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AO172">
-        <v>1.4</v>
+        <v>1.76</v>
       </c>
       <c r="AP172">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ172">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR172">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AS172">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT172">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37177,25 +37177,25 @@
         <v>3</v>
       </c>
       <c r="AN173">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="AO173">
         <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ173">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR173">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AS173">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AT173">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU173">
         <v>6</v>
@@ -37383,25 +37383,25 @@
         <v>1.27</v>
       </c>
       <c r="AN174">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AO174">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ174">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR174">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AS174">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AT174">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="AU174">
         <v>5</v>
@@ -37589,25 +37589,25 @@
         <v>1.06</v>
       </c>
       <c r="AN175">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="AO175">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP175">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ175">
+        <v>1.45</v>
+      </c>
+      <c r="AR175">
         <v>1.15</v>
       </c>
-      <c r="AR175">
-        <v>1.2</v>
-      </c>
       <c r="AS175">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="AT175">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="AU175">
         <v>4</v>
@@ -37795,25 +37795,25 @@
         <v>1.28</v>
       </c>
       <c r="AN176">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="AO176">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="AP176">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ176">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR176">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AS176">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT176">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="AU176">
         <v>3</v>
@@ -38001,22 +38001,22 @@
         <v>2.15</v>
       </c>
       <c r="AN177">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="AO177">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ177">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR177">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="AS177">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="AT177">
         <v>2.67</v>
@@ -38210,22 +38210,22 @@
         <v>1</v>
       </c>
       <c r="AO178">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AP178">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ178">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR178">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AS178">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="AT178">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU178">
         <v>6</v>
@@ -38413,25 +38413,25 @@
         <v>6.5</v>
       </c>
       <c r="AN179">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AO179">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
       <c r="AP179">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ179">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR179">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AS179">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="AT179">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="AU179">
         <v>11</v>
@@ -38619,25 +38619,25 @@
         <v>1.2</v>
       </c>
       <c r="AN180">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="AO180">
         <v>1.64</v>
       </c>
       <c r="AP180">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ180">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR180">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AS180">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AT180">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="AU180">
         <v>5</v>
@@ -38825,25 +38825,25 @@
         <v>2.31</v>
       </c>
       <c r="AN181">
-        <v>1.64</v>
+        <v>0.95</v>
       </c>
       <c r="AO181">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AP181">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ181">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR181">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AS181">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AT181">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="AU181">
         <v>4</v>
@@ -39031,25 +39031,25 @@
         <v>1.25</v>
       </c>
       <c r="AN182">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AO182">
-        <v>0.91</v>
+        <v>1.59</v>
       </c>
       <c r="AP182">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ182">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR182">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AS182">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="AT182">
-        <v>2.62</v>
+        <v>2.83</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39237,25 +39237,25 @@
         <v>4.33</v>
       </c>
       <c r="AN183">
-        <v>2.55</v>
+        <v>2.36</v>
       </c>
       <c r="AO183">
-        <v>0.73</v>
+        <v>0.95</v>
       </c>
       <c r="AP183">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ183">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR183">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AS183">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="AT183">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39443,25 +39443,25 @@
         <v>1.3</v>
       </c>
       <c r="AN184">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AO184">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="AP184">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ184">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR184">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AS184">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AT184">
-        <v>3.21</v>
+        <v>3.05</v>
       </c>
       <c r="AU184">
         <v>8</v>
@@ -39649,25 +39649,25 @@
         <v>1.29</v>
       </c>
       <c r="AN185">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AO185">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="AP185">
+        <v>1.33</v>
+      </c>
+      <c r="AQ185">
         <v>1.8</v>
       </c>
-      <c r="AQ185">
-        <v>1.67</v>
-      </c>
       <c r="AR185">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AS185">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="AT185">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="AU185">
         <v>13</v>
@@ -39855,25 +39855,25 @@
         <v>1.28</v>
       </c>
       <c r="AN186">
-        <v>1.18</v>
+        <v>0.91</v>
       </c>
       <c r="AO186">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="AP186">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ186">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR186">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="AS186">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT186">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AU186">
         <v>5</v>
@@ -40061,25 +40061,25 @@
         <v>1.8</v>
       </c>
       <c r="AN187">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AO187">
-        <v>0.55</v>
+        <v>0.91</v>
       </c>
       <c r="AP187">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ187">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR187">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AS187">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT187">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AU187">
         <v>8</v>
@@ -40267,25 +40267,25 @@
         <v>1.33</v>
       </c>
       <c r="AN188">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="AO188">
-        <v>0.27</v>
+        <v>1.04</v>
       </c>
       <c r="AP188">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ188">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR188">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS188">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AT188">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="AU188">
         <v>5</v>
@@ -40473,25 +40473,25 @@
         <v>1.43</v>
       </c>
       <c r="AN189">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AO189">
-        <v>2.18</v>
+        <v>2.39</v>
       </c>
       <c r="AP189">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ189">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR189">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="AS189">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="AT189">
-        <v>3.76</v>
+        <v>3.73</v>
       </c>
       <c r="AU189">
         <v>4</v>
@@ -40679,25 +40679,25 @@
         <v>1.3</v>
       </c>
       <c r="AN190">
-        <v>2.27</v>
+        <v>1.65</v>
       </c>
       <c r="AO190">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AP190">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ190">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR190">
-        <v>1.91</v>
+        <v>1.58</v>
       </c>
       <c r="AS190">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AT190">
-        <v>3.53</v>
+        <v>3.31</v>
       </c>
       <c r="AU190">
         <v>4</v>
@@ -40885,25 +40885,25 @@
         <v>1.36</v>
       </c>
       <c r="AN191">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AO191">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="AP191">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ191">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR191">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AS191">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AT191">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -41091,25 +41091,25 @@
         <v>1.56</v>
       </c>
       <c r="AN192">
-        <v>2.45</v>
+        <v>1.96</v>
       </c>
       <c r="AO192">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="AP192">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ192">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR192">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AS192">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AT192">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="AU192">
         <v>5</v>
@@ -41297,25 +41297,25 @@
         <v>1.89</v>
       </c>
       <c r="AN193">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="AO193">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="AP193">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ193">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR193">
         <v>1.74</v>
       </c>
       <c r="AS193">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="AT193">
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="AU193">
         <v>7</v>
@@ -41503,25 +41503,25 @@
         <v>2.4</v>
       </c>
       <c r="AN194">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="AO194">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP194">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ194">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR194">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AS194">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT194">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU194">
         <v>4</v>
@@ -41709,25 +41709,25 @@
         <v>1.9</v>
       </c>
       <c r="AN195">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="AO195">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP195">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ195">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR195">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AS195">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AT195">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AU195">
         <v>6</v>
@@ -41915,25 +41915,25 @@
         <v>3.6</v>
       </c>
       <c r="AN196">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="AO196">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AP196">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ196">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR196">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="AS196">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AT196">
-        <v>3.21</v>
+        <v>3.19</v>
       </c>
       <c r="AU196">
         <v>4</v>
@@ -42121,25 +42121,25 @@
         <v>4.1</v>
       </c>
       <c r="AN197">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO197">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="AP197">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ197">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR197">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AS197">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AT197">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="AU197">
         <v>7</v>
@@ -42327,25 +42327,25 @@
         <v>1.18</v>
       </c>
       <c r="AN198">
+        <v>0.92</v>
+      </c>
+      <c r="AO198">
+        <v>1.71</v>
+      </c>
+      <c r="AP198">
+        <v>0.83</v>
+      </c>
+      <c r="AQ198">
+        <v>1.45</v>
+      </c>
+      <c r="AR198">
         <v>1.17</v>
       </c>
-      <c r="AO198">
-        <v>1.08</v>
-      </c>
-      <c r="AP198">
-        <v>1</v>
-      </c>
-      <c r="AQ198">
-        <v>1.15</v>
-      </c>
-      <c r="AR198">
-        <v>1.34</v>
-      </c>
       <c r="AS198">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="AT198">
-        <v>2.62</v>
+        <v>2.73</v>
       </c>
       <c r="AU198">
         <v>2</v>
@@ -42533,25 +42533,25 @@
         <v>1.28</v>
       </c>
       <c r="AN199">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO199">
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ199">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR199">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AS199">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AT199">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="AU199">
         <v>3</v>
@@ -42739,25 +42739,25 @@
         <v>1.28</v>
       </c>
       <c r="AN200">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO200">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP200">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ200">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR200">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AS200">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AT200">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="AU200">
         <v>7</v>
@@ -42945,25 +42945,25 @@
         <v>1.7</v>
       </c>
       <c r="AN201">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AO201">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP201">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ201">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR201">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="AS201">
         <v>1.74</v>
       </c>
       <c r="AT201">
-        <v>3.58</v>
+        <v>3.42</v>
       </c>
       <c r="AU201">
         <v>11</v>
@@ -43151,25 +43151,25 @@
         <v>1.57</v>
       </c>
       <c r="AN202">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AO202">
-        <v>0.92</v>
+        <v>1.12</v>
       </c>
       <c r="AP202">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ202">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR202">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AS202">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AT202">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="AU202">
         <v>6</v>
@@ -43357,25 +43357,25 @@
         <v>3.6</v>
       </c>
       <c r="AN203">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AO203">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AP203">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ203">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR203">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AS203">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AT203">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="AU203">
         <v>10</v>
@@ -43563,25 +43563,25 @@
         <v>1.57</v>
       </c>
       <c r="AN204">
+        <v>0.96</v>
+      </c>
+      <c r="AO204">
+        <v>0.96</v>
+      </c>
+      <c r="AP204">
+        <v>1.1</v>
+      </c>
+      <c r="AQ204">
         <v>1.25</v>
       </c>
-      <c r="AO204">
-        <v>0.25</v>
-      </c>
-      <c r="AP204">
-        <v>1.4</v>
-      </c>
-      <c r="AQ204">
-        <v>0.89</v>
-      </c>
       <c r="AR204">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AS204">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AT204">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="AU204">
         <v>2</v>
@@ -43769,25 +43769,25 @@
         <v>2.35</v>
       </c>
       <c r="AN205">
-        <v>2.33</v>
+        <v>1.76</v>
       </c>
       <c r="AO205">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="AP205">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ205">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR205">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="AS205">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="AT205">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="AU205">
         <v>4</v>
@@ -43975,25 +43975,25 @@
         <v>1.33</v>
       </c>
       <c r="AN206">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AO206">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="AP206">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ206">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR206">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AS206">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="AT206">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="AU206">
         <v>5</v>
@@ -44181,25 +44181,25 @@
         <v>1.05</v>
       </c>
       <c r="AN207">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AO207">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="AP207">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ207">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR207">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS207">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="AT207">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="AU207">
         <v>3</v>
@@ -44387,25 +44387,25 @@
         <v>2.2</v>
       </c>
       <c r="AN208">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="AO208">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AP208">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ208">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR208">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS208">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AT208">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
       <c r="AU208">
         <v>9</v>
@@ -44593,25 +44593,25 @@
         <v>1.2</v>
       </c>
       <c r="AN209">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AO209">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AP209">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ209">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR209">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AS209">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="AT209">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="AU209">
         <v>4</v>
@@ -44799,25 +44799,25 @@
         <v>1.26</v>
       </c>
       <c r="AN210">
-        <v>1.62</v>
+        <v>0.96</v>
       </c>
       <c r="AO210">
+        <v>1.54</v>
+      </c>
+      <c r="AP210">
+        <v>1.25</v>
+      </c>
+      <c r="AQ210">
         <v>1.46</v>
       </c>
-      <c r="AP210">
-        <v>1.61</v>
-      </c>
-      <c r="AQ210">
-        <v>1.3</v>
-      </c>
       <c r="AR210">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="AS210">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT210">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -45005,25 +45005,25 @@
         <v>1.44</v>
       </c>
       <c r="AN211">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="AO211">
-        <v>0.6899999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AP211">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ211">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR211">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AS211">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT211">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="AU211">
         <v>4</v>
@@ -45211,25 +45211,25 @@
         <v>1.75</v>
       </c>
       <c r="AN212">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="AO212">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AP212">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ212">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR212">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="AS212">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT212">
-        <v>2.87</v>
+        <v>2.78</v>
       </c>
       <c r="AU212">
         <v>5</v>
@@ -45417,25 +45417,25 @@
         <v>2.26</v>
       </c>
       <c r="AN213">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AO213">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP213">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ213">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR213">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AS213">
-        <v>0.99</v>
+        <v>1.08</v>
       </c>
       <c r="AT213">
-        <v>2.66</v>
+        <v>2.55</v>
       </c>
       <c r="AU213">
         <v>5</v>
@@ -45623,25 +45623,25 @@
         <v>2.16</v>
       </c>
       <c r="AN214">
+        <v>1.73</v>
+      </c>
+      <c r="AO214">
         <v>2.08</v>
       </c>
-      <c r="AO214">
-        <v>1.62</v>
-      </c>
       <c r="AP214">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ214">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR214">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="AS214">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT214">
-        <v>3.32</v>
+        <v>3.23</v>
       </c>
       <c r="AU214">
         <v>7</v>
@@ -45829,25 +45829,25 @@
         <v>1.62</v>
       </c>
       <c r="AN215">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AO215">
-        <v>1.23</v>
+        <v>1.69</v>
       </c>
       <c r="AP215">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ215">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR215">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AS215">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AT215">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="AU215">
         <v>6</v>
@@ -46035,25 +46035,25 @@
         <v>2.9</v>
       </c>
       <c r="AN216">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="AO216">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AP216">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ216">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR216">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AS216">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AT216">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="AU216">
         <v>8</v>
@@ -46241,25 +46241,25 @@
         <v>1.12</v>
       </c>
       <c r="AN217">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO217">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="AP217">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ217">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR217">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AS217">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AT217">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="AU217">
         <v>2</v>
@@ -46447,25 +46447,25 @@
         <v>1.73</v>
       </c>
       <c r="AN218">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AO218">
-        <v>0.31</v>
+        <v>0.93</v>
       </c>
       <c r="AP218">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ218">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR218">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AS218">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AT218">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="AU218">
         <v>4</v>
@@ -46653,25 +46653,25 @@
         <v>1.98</v>
       </c>
       <c r="AN219">
-        <v>1.77</v>
+        <v>1.59</v>
       </c>
       <c r="AO219">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AP219">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ219">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR219">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AS219">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AT219">
-        <v>2.97</v>
+        <v>3.15</v>
       </c>
       <c r="AU219">
         <v>7</v>
@@ -46859,25 +46859,25 @@
         <v>1.15</v>
       </c>
       <c r="AN220">
-        <v>1.23</v>
+        <v>0.96</v>
       </c>
       <c r="AO220">
-        <v>2.31</v>
+        <v>2.41</v>
       </c>
       <c r="AP220">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ220">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR220">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AS220">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AT220">
-        <v>3.1</v>
+        <v>3.17</v>
       </c>
       <c r="AU220">
         <v>3</v>
@@ -47065,25 +47065,25 @@
         <v>1.36</v>
       </c>
       <c r="AN221">
-        <v>1.31</v>
+        <v>1.04</v>
       </c>
       <c r="AO221">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="AP221">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ221">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR221">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AS221">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="AT221">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="AU221">
         <v>8</v>
@@ -47271,25 +47271,25 @@
         <v>1.44</v>
       </c>
       <c r="AN222">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AO222">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AP222">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ222">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR222">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="AS222">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="AT222">
-        <v>3.52</v>
+        <v>3.54</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47477,25 +47477,25 @@
         <v>2.2</v>
       </c>
       <c r="AN223">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="AO223">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AP223">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ223">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR223">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AS223">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="AT223">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="AU223">
         <v>12</v>
@@ -47683,25 +47683,25 @@
         <v>3.5</v>
       </c>
       <c r="AN224">
-        <v>2.54</v>
+        <v>2.11</v>
       </c>
       <c r="AO224">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AP224">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ224">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR224">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AS224">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AT224">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU224">
         <v>6</v>
@@ -47889,25 +47889,25 @@
         <v>1.55</v>
       </c>
       <c r="AN225">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AO225">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="AP225">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ225">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR225">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AS225">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AT225">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="AU225">
         <v>8</v>
@@ -48095,25 +48095,25 @@
         <v>2.01</v>
       </c>
       <c r="AN226">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AO226">
-        <v>0.93</v>
+        <v>1.04</v>
       </c>
       <c r="AP226">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ226">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR226">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AS226">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT226">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="AU226">
         <v>5</v>
@@ -48301,25 +48301,25 @@
         <v>1.11</v>
       </c>
       <c r="AN227">
-        <v>1.07</v>
+        <v>0.75</v>
       </c>
       <c r="AO227">
-        <v>1.21</v>
+        <v>1.71</v>
       </c>
       <c r="AP227">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ227">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR227">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="AS227">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AT227">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="AU227">
         <v>2</v>
@@ -48507,25 +48507,25 @@
         <v>1.25</v>
       </c>
       <c r="AN228">
+        <v>1</v>
+      </c>
+      <c r="AO228">
+        <v>1.54</v>
+      </c>
+      <c r="AP228">
+        <v>1.25</v>
+      </c>
+      <c r="AQ228">
         <v>1.5</v>
       </c>
-      <c r="AO228">
-        <v>1.43</v>
-      </c>
-      <c r="AP228">
-        <v>1.61</v>
-      </c>
-      <c r="AQ228">
-        <v>1.45</v>
-      </c>
       <c r="AR228">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AS228">
         <v>1.69</v>
       </c>
       <c r="AT228">
-        <v>3.17</v>
+        <v>3.01</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48713,25 +48713,25 @@
         <v>1.14</v>
       </c>
       <c r="AN229">
-        <v>1.07</v>
+        <v>0.82</v>
       </c>
       <c r="AO229">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AP229">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ229">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR229">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AS229">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AT229">
-        <v>2.74</v>
+        <v>2.67</v>
       </c>
       <c r="AU229">
         <v>3</v>
@@ -48919,25 +48919,25 @@
         <v>2.3</v>
       </c>
       <c r="AN230">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AO230">
-        <v>0.79</v>
+        <v>1.11</v>
       </c>
       <c r="AP230">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ230">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR230">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="AS230">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AT230">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="AU230">
         <v>6</v>
@@ -49125,25 +49125,25 @@
         <v>3.5</v>
       </c>
       <c r="AN231">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="AO231">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="AP231">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ231">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR231">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AS231">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AT231">
-        <v>3.17</v>
+        <v>3.02</v>
       </c>
       <c r="AU231">
         <v>9</v>
@@ -49331,25 +49331,25 @@
         <v>2.3</v>
       </c>
       <c r="AN232">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AO232">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="AP232">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ232">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR232">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AS232">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AT232">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU232">
         <v>6</v>
@@ -49537,25 +49537,25 @@
         <v>1.3</v>
       </c>
       <c r="AN233">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AO233">
-        <v>0.86</v>
+        <v>1.32</v>
       </c>
       <c r="AP233">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ233">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR233">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AS233">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AT233">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="AU233">
         <v>3</v>
@@ -49743,25 +49743,25 @@
         <v>2.1</v>
       </c>
       <c r="AN234">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AO234">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AP234">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ234">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR234">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AS234">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AT234">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="AU234">
         <v>7</v>
@@ -49949,25 +49949,25 @@
         <v>3.75</v>
       </c>
       <c r="AN235">
-        <v>2.57</v>
+        <v>2.17</v>
       </c>
       <c r="AO235">
-        <v>0.43</v>
+        <v>0.72</v>
       </c>
       <c r="AP235">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ235">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR235">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AS235">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="AT235">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="AU235">
         <v>6</v>
@@ -50155,25 +50155,25 @@
         <v>1.09</v>
       </c>
       <c r="AN236">
-        <v>1.79</v>
+        <v>1.28</v>
       </c>
       <c r="AO236">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="AP236">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ236">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR236">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="AS236">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="AT236">
-        <v>3.19</v>
+        <v>3.14</v>
       </c>
       <c r="AU236">
         <v>6</v>
@@ -50361,25 +50361,25 @@
         <v>1.5</v>
       </c>
       <c r="AN237">
-        <v>2.21</v>
+        <v>1.76</v>
       </c>
       <c r="AO237">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="AP237">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ237">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR237">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="AS237">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT237">
-        <v>3.61</v>
+        <v>3.42</v>
       </c>
       <c r="AU237">
         <v>4</v>
@@ -50567,25 +50567,25 @@
         <v>2.4</v>
       </c>
       <c r="AN238">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="AO238">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP238">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ238">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR238">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="AS238">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AT238">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="AU238">
         <v>10</v>
@@ -50773,25 +50773,25 @@
         <v>1.33</v>
       </c>
       <c r="AN239">
-        <v>1.14</v>
+        <v>0.9</v>
       </c>
       <c r="AO239">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AP239">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ239">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR239">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AS239">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="AT239">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="AU239">
         <v>5</v>
@@ -50979,25 +50979,25 @@
         <v>3.35</v>
       </c>
       <c r="AN240">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="AO240">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AP240">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ240">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR240">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AS240">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AT240">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU240">
         <v>9</v>
@@ -51185,25 +51185,25 @@
         <v>1.28</v>
       </c>
       <c r="AN241">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO241">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="AP241">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ241">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR241">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AS241">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="AT241">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="AU241">
         <v>5</v>
@@ -51391,25 +51391,25 @@
         <v>2.2</v>
       </c>
       <c r="AN242">
+        <v>1.57</v>
+      </c>
+      <c r="AO242">
+        <v>1.13</v>
+      </c>
+      <c r="AP242">
         <v>1.8</v>
       </c>
-      <c r="AO242">
-        <v>0.73</v>
-      </c>
-      <c r="AP242">
-        <v>1.95</v>
-      </c>
       <c r="AQ242">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR242">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AS242">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AT242">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
       <c r="AU242">
         <v>9</v>
@@ -51597,25 +51597,25 @@
         <v>1.47</v>
       </c>
       <c r="AN243">
-        <v>1.27</v>
+        <v>0.97</v>
       </c>
       <c r="AO243">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP243">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ243">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR243">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AS243">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT243">
-        <v>2.61</v>
+        <v>2.76</v>
       </c>
       <c r="AU243">
         <v>6</v>
@@ -52009,25 +52009,25 @@
         <v>1.68</v>
       </c>
       <c r="AN245">
-        <v>1.87</v>
+        <v>1.33</v>
       </c>
       <c r="AO245">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AP245">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ245">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR245">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AS245">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AT245">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="AU245">
         <v>7</v>
@@ -52627,25 +52627,25 @@
         <v>1.77</v>
       </c>
       <c r="AN248">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AO248">
-        <v>0.8</v>
+        <v>1.39</v>
       </c>
       <c r="AP248">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ248">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR248">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AS248">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="AT248">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -52833,25 +52833,25 @@
         <v>2.1</v>
       </c>
       <c r="AN249">
-        <v>1.47</v>
+        <v>0.97</v>
       </c>
       <c r="AO249">
-        <v>0.53</v>
+        <v>0.77</v>
       </c>
       <c r="AP249">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ249">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR249">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AS249">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="AT249">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="AU249">
         <v>4</v>
@@ -53039,25 +53039,25 @@
         <v>1.91</v>
       </c>
       <c r="AN250">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="AO250">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP250">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ250">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR250">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AS250">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT250">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="AU250">
         <v>7</v>
@@ -53657,25 +53657,25 @@
         <v>1.57</v>
       </c>
       <c r="AN253">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="AO253">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AP253">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ253">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR253">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AS253">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AT253">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU253">
         <v>3</v>
@@ -54069,25 +54069,25 @@
         <v>1.27</v>
       </c>
       <c r="AN255">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="AO255">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AP255">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ255">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR255">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AS255">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AT255">
-        <v>2.92</v>
+        <v>3.04</v>
       </c>
       <c r="AU255">
         <v>4</v>
@@ -54275,25 +54275,25 @@
         <v>1.67</v>
       </c>
       <c r="AN256">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="AO256">
-        <v>0.6899999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AP256">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ256">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR256">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS256">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="AT256">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AU256">
         <v>9</v>
@@ -54481,25 +54481,25 @@
         <v>1.6</v>
       </c>
       <c r="AN257">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AO257">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP257">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ257">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR257">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AS257">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AT257">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="AU257">
         <v>6</v>
@@ -54687,25 +54687,25 @@
         <v>2</v>
       </c>
       <c r="AN258">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AO258">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP258">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ258">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR258">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AS258">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT258">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU258">
         <v>7</v>
@@ -55305,25 +55305,25 @@
         <v>1.4</v>
       </c>
       <c r="AN261">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO261">
-        <v>0.47</v>
+        <v>0.97</v>
       </c>
       <c r="AP261">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ261">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR261">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AS261">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="AT261">
-        <v>2.35</v>
+        <v>2.44</v>
       </c>
       <c r="AU261">
         <v>3</v>
@@ -55717,25 +55717,25 @@
         <v>1.25</v>
       </c>
       <c r="AN263">
-        <v>1.19</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO263">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AP263">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ263">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR263">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AS263">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AT263">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AU263">
         <v>5</v>
@@ -55923,25 +55923,25 @@
         <v>1.48</v>
       </c>
       <c r="AN264">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO264">
-        <v>0.9399999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="AP264">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ264">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR264">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AS264">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AT264">
-        <v>2.59</v>
+        <v>2.76</v>
       </c>
       <c r="AU264">
         <v>12</v>
@@ -56129,25 +56129,25 @@
         <v>1.51</v>
       </c>
       <c r="AN265">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="AO265">
-        <v>0.71</v>
+        <v>1.09</v>
       </c>
       <c r="AP265">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ265">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR265">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS265">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AT265">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="AU265">
         <v>7</v>
@@ -56335,22 +56335,22 @@
         <v>2.4</v>
       </c>
       <c r="AN266">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="AO266">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AP266">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ266">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR266">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="AS266">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AT266">
         <v>3.2</v>
@@ -56953,25 +56953,25 @@
         <v>1.7</v>
       </c>
       <c r="AN269">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AO269">
-        <v>0.5600000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AP269">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ269">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR269">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AS269">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="AT269">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="AU269">
         <v>9</v>
@@ -57365,25 +57365,25 @@
         <v>2.15</v>
       </c>
       <c r="AN271">
-        <v>1.44</v>
+        <v>1.03</v>
       </c>
       <c r="AO271">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="AP271">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ271">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR271">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AS271">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AT271">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="AU271">
         <v>8</v>
@@ -57571,25 +57571,25 @@
         <v>1.56</v>
       </c>
       <c r="AN272">
+        <v>1.09</v>
+      </c>
+      <c r="AO272">
         <v>1.5</v>
       </c>
-      <c r="AO272">
-        <v>1.35</v>
-      </c>
       <c r="AP272">
+        <v>0.98</v>
+      </c>
+      <c r="AQ272">
+        <v>1.53</v>
+      </c>
+      <c r="AR272">
         <v>1.3</v>
       </c>
-      <c r="AQ272">
-        <v>1.35</v>
-      </c>
-      <c r="AR272">
-        <v>1.38</v>
-      </c>
       <c r="AS272">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AT272">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="AU272">
         <v>7</v>
@@ -57777,25 +57777,25 @@
         <v>1.26</v>
       </c>
       <c r="AN273">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO273">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AP273">
+        <v>1.33</v>
+      </c>
+      <c r="AQ273">
         <v>1.8</v>
       </c>
-      <c r="AQ273">
-        <v>1.67</v>
-      </c>
       <c r="AR273">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AS273">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AT273">
-        <v>3.18</v>
+        <v>3.13</v>
       </c>
       <c r="AU273">
         <v>7</v>
@@ -57983,25 +57983,25 @@
         <v>1.62</v>
       </c>
       <c r="AN274">
+        <v>0.91</v>
+      </c>
+      <c r="AO274">
         <v>1.06</v>
       </c>
-      <c r="AO274">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AP274">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ274">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR274">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AS274">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT274">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58807,25 +58807,25 @@
         <v>1.38</v>
       </c>
       <c r="AN278">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="AO278">
-        <v>0.63</v>
+        <v>1.09</v>
       </c>
       <c r="AP278">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ278">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR278">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AS278">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT278">
-        <v>2.33</v>
+        <v>2.47</v>
       </c>
       <c r="AU278">
         <v>3</v>
@@ -59013,25 +59013,25 @@
         <v>1.8</v>
       </c>
       <c r="AN279">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="AO279">
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
       <c r="AP279">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ279">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR279">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AS279">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT279">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="AU279">
         <v>8</v>
@@ -59219,25 +59219,25 @@
         <v>1.57</v>
       </c>
       <c r="AN280">
-        <v>1.47</v>
+        <v>1.09</v>
       </c>
       <c r="AO280">
-        <v>0.88</v>
+        <v>1.34</v>
       </c>
       <c r="AP280">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ280">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR280">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AS280">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AT280">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU280">
         <v>7</v>
@@ -59425,25 +59425,25 @@
         <v>2.88</v>
       </c>
       <c r="AN281">
-        <v>1.94</v>
+        <v>1.69</v>
       </c>
       <c r="AO281">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="AP281">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ281">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR281">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="AS281">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AT281">
-        <v>3.16</v>
+        <v>3.05</v>
       </c>
       <c r="AU281">
         <v>7</v>
@@ -60249,25 +60249,25 @@
         <v>1.55</v>
       </c>
       <c r="AN285">
-        <v>1.13</v>
+        <v>0.91</v>
       </c>
       <c r="AO285">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AP285">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ285">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR285">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AS285">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AT285">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AU285">
         <v>5</v>
@@ -60455,25 +60455,25 @@
         <v>1.54</v>
       </c>
       <c r="AN286">
-        <v>1.06</v>
+        <v>0.89</v>
       </c>
       <c r="AO286">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="AP286">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ286">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR286">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AS286">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="AT286">
-        <v>2.63</v>
+        <v>2.81</v>
       </c>
       <c r="AU286">
         <v>7</v>
@@ -60661,25 +60661,25 @@
         <v>1.48</v>
       </c>
       <c r="AN287">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AO287">
-        <v>0.76</v>
+        <v>1.15</v>
       </c>
       <c r="AP287">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ287">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR287">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AS287">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT287">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU287">
         <v>7</v>
@@ -60867,25 +60867,25 @@
         <v>1.3</v>
       </c>
       <c r="AN288">
+        <v>1.53</v>
+      </c>
+      <c r="AO288">
         <v>1.72</v>
       </c>
-      <c r="AO288">
-        <v>1.44</v>
-      </c>
       <c r="AP288">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ288">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR288">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AS288">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AT288">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="AU288">
         <v>9</v>
@@ -61485,25 +61485,25 @@
         <v>1.57</v>
       </c>
       <c r="AN291">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="AO291">
-        <v>0.72</v>
+        <v>1.08</v>
       </c>
       <c r="AP291">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ291">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR291">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AS291">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AT291">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="AU291">
         <v>8</v>
@@ -61897,25 +61897,25 @@
         <v>1.72</v>
       </c>
       <c r="AN293">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AO293">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="AP293">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ293">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR293">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AS293">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AT293">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="AU293">
         <v>5</v>
@@ -62103,25 +62103,25 @@
         <v>1.83</v>
       </c>
       <c r="AN294">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="AO294">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="AP294">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ294">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR294">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AS294">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AT294">
-        <v>2.79</v>
+        <v>2.72</v>
       </c>
       <c r="AU294">
         <v>-1</v>
@@ -62309,25 +62309,25 @@
         <v>1.33</v>
       </c>
       <c r="AN295">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="AO295">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AP295">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ295">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR295">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AS295">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT295">
-        <v>2.22</v>
+        <v>2.31</v>
       </c>
       <c r="AU295">
         <v>5</v>
@@ -62515,25 +62515,25 @@
         <v>1.65</v>
       </c>
       <c r="AN296">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="AO296">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AP296">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ296">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR296">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AS296">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AT296">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="AU296">
         <v>9</v>
@@ -62927,25 +62927,25 @@
         <v>3</v>
       </c>
       <c r="AN298">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="AO298">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AP298">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ298">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR298">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="AS298">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AT298">
-        <v>3.17</v>
+        <v>3.04</v>
       </c>
       <c r="AU298">
         <v>3</v>
@@ -63133,25 +63133,25 @@
         <v>1.55</v>
       </c>
       <c r="AN299">
-        <v>1.78</v>
+        <v>1.32</v>
       </c>
       <c r="AO299">
+        <v>1.49</v>
+      </c>
+      <c r="AP299">
         <v>1.33</v>
       </c>
-      <c r="AP299">
-        <v>1.8</v>
-      </c>
       <c r="AQ299">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR299">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="AS299">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AT299">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="AU299">
         <v>6</v>
@@ -63751,25 +63751,25 @@
         <v>1.75</v>
       </c>
       <c r="AN302">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="AO302">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="AP302">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ302">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR302">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AS302">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AT302">
-        <v>2.93</v>
+        <v>2.77</v>
       </c>
       <c r="AU302">
         <v>4</v>
@@ -63957,25 +63957,25 @@
         <v>1.48</v>
       </c>
       <c r="AN303">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AO303">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="AP303">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ303">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR303">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AS303">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="AT303">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="AU303">
         <v>3</v>
@@ -64163,25 +64163,25 @@
         <v>1.28</v>
       </c>
       <c r="AN304">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
       <c r="AO304">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="AP304">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ304">
+        <v>1.8</v>
+      </c>
+      <c r="AR304">
+        <v>1.32</v>
+      </c>
+      <c r="AS304">
         <v>1.67</v>
       </c>
-      <c r="AR304">
-        <v>1.43</v>
-      </c>
-      <c r="AS304">
-        <v>1.53</v>
-      </c>
       <c r="AT304">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="AU304">
         <v>3</v>
@@ -64987,25 +64987,25 @@
         <v>1.73</v>
       </c>
       <c r="AN308">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AO308">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AP308">
+        <v>1.1</v>
+      </c>
+      <c r="AQ308">
+        <v>0.98</v>
+      </c>
+      <c r="AR308">
+        <v>1.34</v>
+      </c>
+      <c r="AS308">
         <v>1.4</v>
       </c>
-      <c r="AQ308">
-        <v>0.95</v>
-      </c>
-      <c r="AR308">
-        <v>1.39</v>
-      </c>
-      <c r="AS308">
-        <v>1.36</v>
-      </c>
       <c r="AT308">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU308">
         <v>3</v>
@@ -65193,25 +65193,25 @@
         <v>1.9</v>
       </c>
       <c r="AN309">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="AO309">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="AP309">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ309">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR309">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AS309">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AT309">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="AU309">
         <v>10</v>
@@ -65399,25 +65399,25 @@
         <v>2.5</v>
       </c>
       <c r="AN310">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="AO310">
-        <v>0.89</v>
+        <v>1.36</v>
       </c>
       <c r="AP310">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ310">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR310">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="AS310">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="AT310">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="AU310">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -1957,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ2">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ3">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ5">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2781,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ6">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2987,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ7">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ8">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3602,22 +3602,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ10">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AU10">
         <v>4</v>
@@ -3805,25 +3805,25 @@
         <v>3.75</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ11">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="AU11">
         <v>4</v>
@@ -4014,22 +4014,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -4217,25 +4217,25 @@
         <v>2</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -4426,22 +4426,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ14">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4629,25 +4629,25 @@
         <v>1.25</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -4835,25 +4835,25 @@
         <v>1.3</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ16">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -5044,22 +5044,22 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ17">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AU17">
         <v>2</v>
@@ -5247,25 +5247,25 @@
         <v>3.4</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ18">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR18">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="AS18">
-        <v>1.03</v>
+        <v>0.83</v>
       </c>
       <c r="AT18">
-        <v>2.56</v>
+        <v>2.15</v>
       </c>
       <c r="AU18">
         <v>10</v>
@@ -5453,25 +5453,25 @@
         <v>1.6</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR19">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AS19">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="AT19">
-        <v>2.31</v>
+        <v>2.51</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -5662,22 +5662,22 @@
         <v>3</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP20">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR20">
-        <v>1.2</v>
+        <v>1.76</v>
       </c>
       <c r="AS20">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="AT20">
-        <v>3.34</v>
+        <v>3.66</v>
       </c>
       <c r="AU20">
         <v>10</v>
@@ -5868,22 +5868,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR21">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AS21">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="AT21">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -6071,25 +6071,25 @@
         <v>1.44</v>
       </c>
       <c r="AN22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR22">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="AS22">
-        <v>3.08</v>
+        <v>2.65</v>
       </c>
       <c r="AT22">
-        <v>4.62</v>
+        <v>3.92</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6277,25 +6277,25 @@
         <v>1.16</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ23">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR23">
-        <v>1.63</v>
+        <v>1.16</v>
       </c>
       <c r="AS23">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="AT23">
-        <v>3.65</v>
+        <v>3.13</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -6483,25 +6483,25 @@
         <v>1.73</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR24">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AS24">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="AT24">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6689,25 +6689,25 @@
         <v>1.32</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO25">
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR25">
-        <v>1.16</v>
+        <v>1.64</v>
       </c>
       <c r="AS25">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="AT25">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6895,25 +6895,25 @@
         <v>1.23</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ26">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR26">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="AS26">
-        <v>1.11</v>
+        <v>1.74</v>
       </c>
       <c r="AT26">
-        <v>2.78</v>
+        <v>3.23</v>
       </c>
       <c r="AU26">
         <v>3</v>
@@ -7101,25 +7101,25 @@
         <v>1.42</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27">
+        <v>0.98</v>
+      </c>
+      <c r="AQ27">
+        <v>1.5</v>
+      </c>
+      <c r="AR27">
+        <v>0.84</v>
+      </c>
+      <c r="AS27">
         <v>1.3</v>
       </c>
-      <c r="AQ27">
-        <v>1.45</v>
-      </c>
-      <c r="AR27">
-        <v>0.95</v>
-      </c>
-      <c r="AS27">
-        <v>1</v>
-      </c>
       <c r="AT27">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="AU27">
         <v>4</v>
@@ -7307,25 +7307,25 @@
         <v>1.22</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO28">
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ28">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR28">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AS28">
-        <v>2.32</v>
+        <v>1.87</v>
       </c>
       <c r="AT28">
-        <v>3.48</v>
+        <v>2.97</v>
       </c>
       <c r="AU28">
         <v>8</v>
@@ -7513,25 +7513,25 @@
         <v>1.91</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP29">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ29">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR29">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AS29">
-        <v>2.13</v>
+        <v>1.57</v>
       </c>
       <c r="AT29">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="AU29">
         <v>9</v>
@@ -7719,25 +7719,25 @@
         <v>2.22</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP30">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="AS30">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT30">
-        <v>3.28</v>
+        <v>3.31</v>
       </c>
       <c r="AU30">
         <v>8</v>
@@ -7928,22 +7928,22 @@
         <v>3</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AS31">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT31">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -8131,25 +8131,25 @@
         <v>3.66</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP32">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR32">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="AS32">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AT32">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="AU32">
         <v>10</v>
@@ -8340,22 +8340,22 @@
         <v>0</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ33">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR33">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="AS33">
-        <v>0.6899999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU33">
         <v>5</v>
@@ -8543,25 +8543,25 @@
         <v>1.78</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AO34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ34">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR34">
-        <v>1.29</v>
+        <v>1.51</v>
       </c>
       <c r="AS34">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT34">
-        <v>2.36</v>
+        <v>2.7</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8749,25 +8749,25 @@
         <v>1.39</v>
       </c>
       <c r="AN35">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO35">
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ35">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR35">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AS35">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AT35">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8958,22 +8958,22 @@
         <v>0</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ36">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR36">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
       <c r="AS36">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="AT36">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AU36">
         <v>7</v>
@@ -9161,25 +9161,25 @@
         <v>1.33</v>
       </c>
       <c r="AN37">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO37">
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AT37">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -9367,25 +9367,25 @@
         <v>1.95</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO38">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP38">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ38">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
-        <v>1.67</v>
+        <v>1.37</v>
       </c>
       <c r="AS38">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="AT38">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AU38">
         <v>9</v>
@@ -9573,25 +9573,25 @@
         <v>2.2</v>
       </c>
       <c r="AN39">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ39">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR39">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="AS39">
-        <v>0.78</v>
+        <v>1.03</v>
       </c>
       <c r="AT39">
-        <v>2.01</v>
+        <v>2.52</v>
       </c>
       <c r="AU39">
         <v>10</v>
@@ -9779,25 +9779,25 @@
         <v>2.25</v>
       </c>
       <c r="AN40">
+        <v>1.8</v>
+      </c>
+      <c r="AO40">
+        <v>0.2</v>
+      </c>
+      <c r="AP40">
         <v>1.5</v>
       </c>
-      <c r="AO40">
-        <v>0.5</v>
-      </c>
-      <c r="AP40">
-        <v>1.55</v>
-      </c>
       <c r="AQ40">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR40">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AS40">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="AT40">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="AU40">
         <v>7</v>
@@ -9985,25 +9985,25 @@
         <v>2.06</v>
       </c>
       <c r="AN41">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ41">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR41">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AS41">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AT41">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="AU41">
         <v>7</v>
@@ -10191,25 +10191,25 @@
         <v>1.8</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO42">
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR42">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="AS42">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AT42">
-        <v>2.24</v>
+        <v>2.55</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -10397,25 +10397,25 @@
         <v>1.58</v>
       </c>
       <c r="AN43">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO43">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP43">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ43">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR43">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AS43">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="AT43">
-        <v>3.59</v>
+        <v>3.69</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10603,25 +10603,25 @@
         <v>1.6</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO44">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP44">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ44">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR44">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="AS44">
-        <v>1.26</v>
+        <v>1.66</v>
       </c>
       <c r="AT44">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AU44">
         <v>8</v>
@@ -10809,25 +10809,25 @@
         <v>1.88</v>
       </c>
       <c r="AN45">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO45">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AP45">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ45">
+        <v>1.93</v>
+      </c>
+      <c r="AR45">
+        <v>2.09</v>
+      </c>
+      <c r="AS45">
         <v>1.45</v>
       </c>
-      <c r="AR45">
-        <v>2.1</v>
-      </c>
-      <c r="AS45">
-        <v>1.08</v>
-      </c>
       <c r="AT45">
-        <v>3.18</v>
+        <v>3.54</v>
       </c>
       <c r="AU45">
         <v>5</v>
@@ -11015,25 +11015,25 @@
         <v>1.65</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO46">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AP46">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AS46">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="AT46">
-        <v>2.49</v>
+        <v>2.71</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -11221,25 +11221,25 @@
         <v>1.2</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AO47">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ47">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR47">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AS47">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="AT47">
-        <v>2.51</v>
+        <v>2.93</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11427,25 +11427,25 @@
         <v>1.22</v>
       </c>
       <c r="AN48">
+        <v>1.4</v>
+      </c>
+      <c r="AO48">
+        <v>2</v>
+      </c>
+      <c r="AP48">
+        <v>0.83</v>
+      </c>
+      <c r="AQ48">
         <v>1.5</v>
       </c>
-      <c r="AO48">
-        <v>2</v>
-      </c>
-      <c r="AP48">
-        <v>1</v>
-      </c>
-      <c r="AQ48">
-        <v>1.45</v>
-      </c>
       <c r="AR48">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="AS48">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="AT48">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -11633,25 +11633,25 @@
         <v>1.85</v>
       </c>
       <c r="AN49">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO49">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AP49">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ49">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR49">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS49">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AT49">
-        <v>3.87</v>
+        <v>3.74</v>
       </c>
       <c r="AU49">
         <v>5</v>
@@ -11842,22 +11842,22 @@
         <v>2</v>
       </c>
       <c r="AO50">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ50">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="AS50">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AT50">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="AU50">
         <v>11</v>
@@ -12045,25 +12045,25 @@
         <v>1.42</v>
       </c>
       <c r="AN51">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO51">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ51">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR51">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AS51">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AT51">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -12251,25 +12251,25 @@
         <v>1.2</v>
       </c>
       <c r="AN52">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR52">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AS52">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="AT52">
-        <v>2.39</v>
+        <v>2.57</v>
       </c>
       <c r="AU52">
         <v>5</v>
@@ -12457,25 +12457,25 @@
         <v>1.22</v>
       </c>
       <c r="AN53">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AO53">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR53">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="AS53">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AT53">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="AU53">
         <v>3</v>
@@ -12663,25 +12663,25 @@
         <v>1.6</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO54">
+        <v>1.67</v>
+      </c>
+      <c r="AP54">
         <v>1.33</v>
       </c>
-      <c r="AP54">
-        <v>1.8</v>
-      </c>
       <c r="AQ54">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR54">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AS54">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AT54">
-        <v>2.81</v>
+        <v>2.79</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12869,25 +12869,25 @@
         <v>1.95</v>
       </c>
       <c r="AN55">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="AO55">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="AP55">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ55">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR55">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AS55">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT55">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -13075,25 +13075,25 @@
         <v>2.2</v>
       </c>
       <c r="AN56">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AP56">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
       </c>
       <c r="AS56">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AT56">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -13281,25 +13281,25 @@
         <v>1.77</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AO57">
-        <v>0.33</v>
+        <v>0.86</v>
       </c>
       <c r="AP57">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ57">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR57">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AS57">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="AT57">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="AU57">
         <v>5</v>
@@ -13487,25 +13487,25 @@
         <v>3.3</v>
       </c>
       <c r="AN58">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="AO58">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR58">
-        <v>2.06</v>
+        <v>1.58</v>
       </c>
       <c r="AS58">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="AT58">
-        <v>3.22</v>
+        <v>2.9</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13693,25 +13693,25 @@
         <v>2.38</v>
       </c>
       <c r="AN59">
-        <v>0.67</v>
+        <v>1.83</v>
       </c>
       <c r="AO59">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AP59">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ59">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AS59">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AT59">
-        <v>3.09</v>
+        <v>3.19</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13899,25 +13899,25 @@
         <v>1.49</v>
       </c>
       <c r="AN60">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO60">
+        <v>1.67</v>
+      </c>
+      <c r="AP60">
         <v>1.5</v>
       </c>
-      <c r="AP60">
-        <v>1.55</v>
-      </c>
       <c r="AQ60">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR60">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="AS60">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="AT60">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -14105,25 +14105,25 @@
         <v>1.36</v>
       </c>
       <c r="AN61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO61">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP61">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ61">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR61">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AS61">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="AT61">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AU61">
         <v>3</v>
@@ -14314,22 +14314,22 @@
         <v>2.33</v>
       </c>
       <c r="AO62">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AP62">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR62">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="AS62">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT62">
-        <v>2.73</v>
+        <v>2.94</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -14517,25 +14517,25 @@
         <v>1.63</v>
       </c>
       <c r="AN63">
-        <v>2.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO63">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR63">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="AS63">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AT63">
-        <v>3.67</v>
+        <v>3.25</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14723,25 +14723,25 @@
         <v>1.2</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO64">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ64">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR64">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="AS64">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="AT64">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="AU64">
         <v>8</v>
@@ -14929,25 +14929,25 @@
         <v>1.78</v>
       </c>
       <c r="AN65">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO65">
-        <v>3</v>
+        <v>1.71</v>
       </c>
       <c r="AP65">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR65">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="AS65">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT65">
-        <v>3.95</v>
+        <v>3.73</v>
       </c>
       <c r="AU65">
         <v>4</v>
@@ -15135,25 +15135,25 @@
         <v>1.2</v>
       </c>
       <c r="AN66">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO66">
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ66">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AS66">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AT66">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -15341,25 +15341,25 @@
         <v>1.2</v>
       </c>
       <c r="AN67">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO67">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ67">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR67">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AS67">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AT67">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -15547,25 +15547,25 @@
         <v>1.6</v>
       </c>
       <c r="AN68">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO68">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ68">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR68">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AS68">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AT68">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15753,25 +15753,25 @@
         <v>1.22</v>
       </c>
       <c r="AN69">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO69">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AP69">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ69">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR69">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AS69">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="AT69">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15959,25 +15959,25 @@
         <v>2.33</v>
       </c>
       <c r="AN70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO70">
-        <v>0.25</v>
+        <v>0.88</v>
       </c>
       <c r="AP70">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ70">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AS70">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -16165,25 +16165,25 @@
         <v>2.6</v>
       </c>
       <c r="AN71">
-        <v>0.75</v>
+        <v>1.63</v>
       </c>
       <c r="AO71">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP71">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ71">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR71">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AS71">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AT71">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -16371,25 +16371,25 @@
         <v>2.85</v>
       </c>
       <c r="AN72">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AO72">
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ72">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="AS72">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AT72">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="AU72">
         <v>8</v>
@@ -16577,25 +16577,25 @@
         <v>1.18</v>
       </c>
       <c r="AN73">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO73">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ73">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR73">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="AS73">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="AT73">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16783,25 +16783,25 @@
         <v>1.88</v>
       </c>
       <c r="AN74">
-        <v>1.5</v>
+        <v>0.78</v>
       </c>
       <c r="AO74">
+        <v>1.33</v>
+      </c>
+      <c r="AP74">
         <v>1.25</v>
       </c>
-      <c r="AP74">
-        <v>1.61</v>
-      </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR74">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS74">
-        <v>0.99</v>
+        <v>1.23</v>
       </c>
       <c r="AT74">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="AU74">
         <v>8</v>
@@ -16989,25 +16989,25 @@
         <v>2.45</v>
       </c>
       <c r="AN75">
+        <v>1.33</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
         <v>1.5</v>
       </c>
-      <c r="AO75">
-        <v>1</v>
-      </c>
-      <c r="AP75">
-        <v>1.55</v>
-      </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR75">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="AS75">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="AT75">
-        <v>3.11</v>
+        <v>3.05</v>
       </c>
       <c r="AU75">
         <v>8</v>
@@ -17195,25 +17195,25 @@
         <v>1.96</v>
       </c>
       <c r="AN76">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO76">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ76">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS76">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AT76">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17401,25 +17401,25 @@
         <v>2.15</v>
       </c>
       <c r="AN77">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AP77">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ77">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR77">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AT77">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="AU77">
         <v>10</v>
@@ -17607,25 +17607,25 @@
         <v>1.2</v>
       </c>
       <c r="AN78">
-        <v>0.5</v>
+        <v>1.11</v>
       </c>
       <c r="AO78">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AP78">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ78">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR78">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AS78">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="AT78">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17813,25 +17813,25 @@
         <v>4</v>
       </c>
       <c r="AN79">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO79">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="AP79">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ79">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR79">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="AS79">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AT79">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="AU79">
         <v>13</v>
@@ -18019,25 +18019,25 @@
         <v>1.83</v>
       </c>
       <c r="AN80">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="AO80">
-        <v>2.5</v>
+        <v>1.56</v>
       </c>
       <c r="AP80">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ80">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR80">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AS80">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="AT80">
-        <v>3.26</v>
+        <v>3.43</v>
       </c>
       <c r="AU80">
         <v>10</v>
@@ -18225,25 +18225,25 @@
         <v>1.25</v>
       </c>
       <c r="AN81">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AO81">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP81">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR81">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AS81">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="AT81">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="AU81">
         <v>2</v>
@@ -18431,25 +18431,25 @@
         <v>3.75</v>
       </c>
       <c r="AN82">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO82">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP82">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ82">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR82">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AS82">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AT82">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
       <c r="AU82">
         <v>12</v>
@@ -18637,25 +18637,25 @@
         <v>1.09</v>
       </c>
       <c r="AN83">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO83">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ83">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR83">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="AT83">
-        <v>2.89</v>
+        <v>3.01</v>
       </c>
       <c r="AU83">
         <v>3</v>
@@ -18843,25 +18843,25 @@
         <v>1.57</v>
       </c>
       <c r="AN84">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AO84">
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ84">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR84">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="AS84">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AT84">
-        <v>2.72</v>
+        <v>2.41</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -19049,25 +19049,25 @@
         <v>1.33</v>
       </c>
       <c r="AN85">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AO85">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AP85">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ85">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR85">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="AS85">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AT85">
-        <v>3.01</v>
+        <v>3.16</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -19255,25 +19255,25 @@
         <v>2.5</v>
       </c>
       <c r="AN86">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO86">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AP86">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ86">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR86">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="AS86">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT86">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="AU86">
         <v>10</v>
@@ -19461,25 +19461,25 @@
         <v>1.44</v>
       </c>
       <c r="AN87">
+        <v>1.5</v>
+      </c>
+      <c r="AO87">
+        <v>2</v>
+      </c>
+      <c r="AP87">
+        <v>1.5</v>
+      </c>
+      <c r="AQ87">
         <v>1.8</v>
       </c>
-      <c r="AO87">
-        <v>1.8</v>
-      </c>
-      <c r="AP87">
-        <v>1.55</v>
-      </c>
-      <c r="AQ87">
-        <v>1.67</v>
-      </c>
       <c r="AR87">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="AS87">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AT87">
-        <v>3.21</v>
+        <v>3.29</v>
       </c>
       <c r="AU87">
         <v>6</v>
@@ -19667,25 +19667,25 @@
         <v>1.4</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AO88">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AP88">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ88">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
       </c>
       <c r="AS88">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AT88">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="AU88">
         <v>9</v>
@@ -19873,25 +19873,25 @@
         <v>1.62</v>
       </c>
       <c r="AN89">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AO89">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ89">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR89">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AT89">
-        <v>2.61</v>
+        <v>2.83</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -20079,25 +20079,25 @@
         <v>1.9</v>
       </c>
       <c r="AN90">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AP90">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ90">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR90">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>0.95</v>
+        <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>2.34</v>
+        <v>2.55</v>
       </c>
       <c r="AU90">
         <v>6</v>
@@ -20285,25 +20285,25 @@
         <v>1.36</v>
       </c>
       <c r="AN91">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AO91">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AP91">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ91">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AS91">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="AT91">
-        <v>3.18</v>
+        <v>3.01</v>
       </c>
       <c r="AU91">
         <v>8</v>
@@ -20491,25 +20491,25 @@
         <v>1.33</v>
       </c>
       <c r="AN92">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="AO92">
-        <v>0.2</v>
+        <v>1.18</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ92">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR92">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AS92">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AT92">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20697,25 +20697,25 @@
         <v>2.55</v>
       </c>
       <c r="AN93">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="AO93">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AP93">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ93">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR93">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AS93">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AT93">
-        <v>3.24</v>
+        <v>3.02</v>
       </c>
       <c r="AU93">
         <v>10</v>
@@ -20903,25 +20903,25 @@
         <v>1.83</v>
       </c>
       <c r="AN94">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="AO94">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AP94">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ94">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR94">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="AS94">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="AT94">
-        <v>3.39</v>
+        <v>3.52</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -21109,25 +21109,25 @@
         <v>1.18</v>
       </c>
       <c r="AN95">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AO95">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ95">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR95">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS95">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="AT95">
-        <v>2.92</v>
+        <v>3.13</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -21315,25 +21315,25 @@
         <v>2.2</v>
       </c>
       <c r="AN96">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="AO96">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AP96">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ96">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR96">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="AS96">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AT96">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="AU96">
         <v>11</v>
@@ -21521,25 +21521,25 @@
         <v>1.15</v>
       </c>
       <c r="AN97">
-        <v>1.33</v>
+        <v>0.73</v>
       </c>
       <c r="AO97">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="AP97">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ97">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR97">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AS97">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AT97">
-        <v>2.81</v>
+        <v>2.95</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21727,25 +21727,25 @@
         <v>1.9</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO98">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP98">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ98">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR98">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AS98">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="AT98">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AU98">
         <v>5</v>
@@ -21933,25 +21933,25 @@
         <v>1.85</v>
       </c>
       <c r="AN99">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AO99">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ99">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR99">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="AS99">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AT99">
-        <v>2.57</v>
+        <v>2.29</v>
       </c>
       <c r="AU99">
         <v>6</v>
@@ -22139,25 +22139,25 @@
         <v>1.76</v>
       </c>
       <c r="AN100">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO100">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="AP100">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ100">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR100">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="AS100">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AT100">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22345,25 +22345,25 @@
         <v>1.68</v>
       </c>
       <c r="AN101">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="AO101">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ101">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR101">
-        <v>2.03</v>
+        <v>1.63</v>
       </c>
       <c r="AS101">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT101">
-        <v>3.86</v>
+        <v>3.52</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -22551,25 +22551,25 @@
         <v>1.6</v>
       </c>
       <c r="AN102">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO102">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP102">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR102">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AS102">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AT102">
-        <v>3.08</v>
+        <v>3.22</v>
       </c>
       <c r="AU102">
         <v>3</v>
@@ -22760,22 +22760,22 @@
         <v>1.33</v>
       </c>
       <c r="AO103">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP103">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ103">
+        <v>1.53</v>
+      </c>
+      <c r="AR103">
         <v>1.35</v>
       </c>
-      <c r="AR103">
-        <v>1.38</v>
-      </c>
       <c r="AS103">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AT103">
-        <v>2.72</v>
+        <v>2.79</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22963,25 +22963,25 @@
         <v>1.66</v>
       </c>
       <c r="AN104">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="AO104">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="AP104">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ104">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR104">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AS104">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="AT104">
-        <v>3.68</v>
+        <v>3.71</v>
       </c>
       <c r="AU104">
         <v>7</v>
@@ -23169,25 +23169,25 @@
         <v>1.33</v>
       </c>
       <c r="AN105">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="AO105">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="AP105">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR105">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AS105">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="AT105">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU105">
         <v>4</v>
@@ -23375,25 +23375,25 @@
         <v>1.5</v>
       </c>
       <c r="AN106">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
       <c r="AO106">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ106">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR106">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AS106">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AT106">
-        <v>2.47</v>
+        <v>2.61</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23581,25 +23581,25 @@
         <v>2.2</v>
       </c>
       <c r="AN107">
-        <v>2.33</v>
+        <v>1.54</v>
       </c>
       <c r="AO107">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AP107">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ107">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR107">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AS107">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT107">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="AU107">
         <v>10</v>
@@ -23787,25 +23787,25 @@
         <v>1.5</v>
       </c>
       <c r="AN108">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AO108">
+        <v>1.08</v>
+      </c>
+      <c r="AP108">
+        <v>0.78</v>
+      </c>
+      <c r="AQ108">
         <v>0.83</v>
       </c>
-      <c r="AP108">
-        <v>1</v>
-      </c>
-      <c r="AQ108">
-        <v>0.67</v>
-      </c>
       <c r="AR108">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AS108">
-        <v>0.9399999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="AT108">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23993,25 +23993,25 @@
         <v>1.53</v>
       </c>
       <c r="AN109">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="AO109">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ109">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AS109">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AT109">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="AU109">
         <v>8</v>
@@ -24199,25 +24199,25 @@
         <v>2.1</v>
       </c>
       <c r="AN110">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="AO110">
+        <v>1.62</v>
+      </c>
+      <c r="AP110">
+        <v>1.88</v>
+      </c>
+      <c r="AQ110">
         <v>1.5</v>
       </c>
-      <c r="AP110">
-        <v>2.05</v>
-      </c>
-      <c r="AQ110">
-        <v>1.45</v>
-      </c>
       <c r="AR110">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AS110">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="AT110">
-        <v>3.58</v>
+        <v>3.29</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24405,25 +24405,25 @@
         <v>2.95</v>
       </c>
       <c r="AN111">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AO111">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP111">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ111">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR111">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AS111">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="AT111">
-        <v>3.61</v>
+        <v>3.34</v>
       </c>
       <c r="AU111">
         <v>7</v>
@@ -24611,25 +24611,25 @@
         <v>1.7</v>
       </c>
       <c r="AN112">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO112">
+        <v>2.08</v>
+      </c>
+      <c r="AP112">
+        <v>1.8</v>
+      </c>
+      <c r="AQ112">
+        <v>1.93</v>
+      </c>
+      <c r="AR112">
+        <v>1.72</v>
+      </c>
+      <c r="AS112">
         <v>1.57</v>
       </c>
-      <c r="AP112">
-        <v>1.95</v>
-      </c>
-      <c r="AQ112">
-        <v>1.45</v>
-      </c>
-      <c r="AR112">
-        <v>1.83</v>
-      </c>
-      <c r="AS112">
-        <v>1.48</v>
-      </c>
       <c r="AT112">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="AU112">
         <v>6</v>
@@ -24817,25 +24817,25 @@
         <v>4.2</v>
       </c>
       <c r="AN113">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AO113">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP113">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ113">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR113">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AS113">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AT113">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="AU113">
         <v>9</v>
@@ -25023,25 +25023,25 @@
         <v>1.28</v>
       </c>
       <c r="AN114">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AO114">
-        <v>0.86</v>
+        <v>1.64</v>
       </c>
       <c r="AP114">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR114">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AS114">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="AT114">
-        <v>2.73</v>
+        <v>2.97</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25229,25 +25229,25 @@
         <v>3.15</v>
       </c>
       <c r="AN115">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AO115">
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ115">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR115">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AS115">
-        <v>0.96</v>
+        <v>1.11</v>
       </c>
       <c r="AT115">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="AU115">
         <v>12</v>
@@ -25435,25 +25435,25 @@
         <v>1.95</v>
       </c>
       <c r="AN116">
-        <v>1.71</v>
+        <v>0.93</v>
       </c>
       <c r="AO116">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="AP116">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ116">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR116">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AS116">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AT116">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
       <c r="AU116">
         <v>5</v>
@@ -25641,25 +25641,25 @@
         <v>1.32</v>
       </c>
       <c r="AN117">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AO117">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AP117">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ117">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR117">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AS117">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AT117">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="AU117">
         <v>5</v>
@@ -25847,25 +25847,25 @@
         <v>1.45</v>
       </c>
       <c r="AN118">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="AO118">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AP118">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ118">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR118">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="AS118">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT118">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -26053,25 +26053,25 @@
         <v>1.17</v>
       </c>
       <c r="AN119">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ119">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR119">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AS119">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="AT119">
-        <v>2.84</v>
+        <v>3.14</v>
       </c>
       <c r="AU119">
         <v>4</v>
@@ -26259,25 +26259,25 @@
         <v>2.95</v>
       </c>
       <c r="AN120">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AO120">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AP120">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ120">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR120">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="AS120">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AT120">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AU120">
         <v>9</v>
@@ -26465,25 +26465,25 @@
         <v>1.42</v>
       </c>
       <c r="AN121">
-        <v>1.14</v>
+        <v>0.64</v>
       </c>
       <c r="AO121">
-        <v>0.71</v>
+        <v>1.07</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ121">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR121">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AS121">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AT121">
-        <v>2.41</v>
+        <v>2.52</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26671,25 +26671,25 @@
         <v>1.23</v>
       </c>
       <c r="AN122">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AO122">
-        <v>1.5</v>
+        <v>2.07</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ122">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR122">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AS122">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AT122">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="AU122">
         <v>8</v>
@@ -26877,25 +26877,25 @@
         <v>1.45</v>
       </c>
       <c r="AN123">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AO123">
-        <v>0.14</v>
+        <v>1.07</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ123">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR123">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AS123">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AT123">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="AU123">
         <v>5</v>
@@ -27083,25 +27083,25 @@
         <v>1.68</v>
       </c>
       <c r="AN124">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AO124">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="AP124">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ124">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR124">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="AS124">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="AT124">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AU124">
         <v>4</v>
@@ -27289,25 +27289,25 @@
         <v>2.95</v>
       </c>
       <c r="AN125">
-        <v>2.43</v>
+        <v>1.6</v>
       </c>
       <c r="AO125">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="AP125">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ125">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR125">
-        <v>1.9</v>
+        <v>1.59</v>
       </c>
       <c r="AS125">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="AT125">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27495,25 +27495,25 @@
         <v>1.73</v>
       </c>
       <c r="AN126">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AO126">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="AP126">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ126">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR126">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="AS126">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AT126">
-        <v>3.6</v>
+        <v>3.53</v>
       </c>
       <c r="AU126">
         <v>7</v>
@@ -27701,25 +27701,25 @@
         <v>1.74</v>
       </c>
       <c r="AN127">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="AO127">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AP127">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ127">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR127">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AS127">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AT127">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="AU127">
         <v>6</v>
@@ -27907,25 +27907,25 @@
         <v>2.8</v>
       </c>
       <c r="AN128">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="AO128">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ128">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR128">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="AS128">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT128">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU128">
         <v>7</v>
@@ -28113,25 +28113,25 @@
         <v>2.15</v>
       </c>
       <c r="AN129">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="AO129">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AP129">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ129">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AS129">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AT129">
-        <v>3.7</v>
+        <v>3.57</v>
       </c>
       <c r="AU129">
         <v>7</v>
@@ -28319,25 +28319,25 @@
         <v>1.42</v>
       </c>
       <c r="AN130">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO130">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ130">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR130">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AS130">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT130">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="AU130">
         <v>7</v>
@@ -28525,25 +28525,25 @@
         <v>1.44</v>
       </c>
       <c r="AN131">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="AO131">
-        <v>0.88</v>
+        <v>1.69</v>
       </c>
       <c r="AP131">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR131">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AS131">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="AT131">
-        <v>2.97</v>
+        <v>3.29</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28734,22 +28734,22 @@
         <v>1.38</v>
       </c>
       <c r="AO132">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP132">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR132">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS132">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AT132">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="AU132">
         <v>14</v>
@@ -28937,25 +28937,25 @@
         <v>3.1</v>
       </c>
       <c r="AN133">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="AO133">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AP133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ133">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR133">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AS133">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="AT133">
-        <v>2.77</v>
+        <v>2.91</v>
       </c>
       <c r="AU133">
         <v>11</v>
@@ -29143,25 +29143,25 @@
         <v>1.12</v>
       </c>
       <c r="AN134">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO134">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AP134">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ134">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR134">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AS134">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="AT134">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29349,25 +29349,25 @@
         <v>1.1</v>
       </c>
       <c r="AN135">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO135">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ135">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR135">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="AS135">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT135">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="AU135">
         <v>5</v>
@@ -29555,25 +29555,25 @@
         <v>2.4</v>
       </c>
       <c r="AN136">
-        <v>2.71</v>
+        <v>2.13</v>
       </c>
       <c r="AO136">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP136">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ136">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR136">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="AS136">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AT136">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29761,25 +29761,25 @@
         <v>1.15</v>
       </c>
       <c r="AN137">
-        <v>1.88</v>
+        <v>1.06</v>
       </c>
       <c r="AO137">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AP137">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ137">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR137">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AS137">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AT137">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU137">
         <v>4</v>
@@ -29967,25 +29967,25 @@
         <v>2</v>
       </c>
       <c r="AN138">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="AO138">
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ138">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR138">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AS138">
-        <v>0.97</v>
+        <v>1.13</v>
       </c>
       <c r="AT138">
-        <v>2.31</v>
+        <v>2.45</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -30173,25 +30173,25 @@
         <v>1.25</v>
       </c>
       <c r="AN139">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="AO139">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="AP139">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ139">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AS139">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="AT139">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
       <c r="AU139">
         <v>4</v>
@@ -30379,25 +30379,25 @@
         <v>1.35</v>
       </c>
       <c r="AN140">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AO140">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AP140">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ140">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR140">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="AS140">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AT140">
-        <v>2.73</v>
+        <v>2.64</v>
       </c>
       <c r="AU140">
         <v>7</v>
@@ -30585,25 +30585,25 @@
         <v>1.73</v>
       </c>
       <c r="AN141">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AO141">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP141">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ141">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR141">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AS141">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT141">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -30791,25 +30791,25 @@
         <v>2.2</v>
       </c>
       <c r="AN142">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="AO142">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AP142">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ142">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR142">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="AS142">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT142">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -30997,25 +30997,25 @@
         <v>3.2</v>
       </c>
       <c r="AN143">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AP143">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ143">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR143">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="AS143">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AT143">
-        <v>3.31</v>
+        <v>3.34</v>
       </c>
       <c r="AU143">
         <v>9</v>
@@ -31203,25 +31203,25 @@
         <v>1.85</v>
       </c>
       <c r="AN144">
-        <v>2.5</v>
+        <v>1.76</v>
       </c>
       <c r="AO144">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="AP144">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ144">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR144">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="AS144">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AT144">
-        <v>3.44</v>
+        <v>3.27</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31409,22 +31409,22 @@
         <v>4</v>
       </c>
       <c r="AN145">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="AO145">
-        <v>0.25</v>
+        <v>0.59</v>
       </c>
       <c r="AP145">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ145">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR145">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AS145">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AT145">
         <v>3.04</v>
@@ -31615,25 +31615,25 @@
         <v>3</v>
       </c>
       <c r="AN146">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AO146">
-        <v>0.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP146">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR146">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AS146">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AT146">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="AU146">
         <v>14</v>
@@ -31821,25 +31821,25 @@
         <v>1.53</v>
       </c>
       <c r="AN147">
+        <v>1.06</v>
+      </c>
+      <c r="AO147">
         <v>1.22</v>
       </c>
-      <c r="AO147">
-        <v>1</v>
-      </c>
       <c r="AP147">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR147">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AS147">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AT147">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="AU147">
         <v>9</v>
@@ -32027,25 +32027,25 @@
         <v>3.4</v>
       </c>
       <c r="AN148">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="AO148">
-        <v>0.5600000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AP148">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ148">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR148">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="AS148">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT148">
-        <v>3.24</v>
+        <v>3.01</v>
       </c>
       <c r="AU148">
         <v>7</v>
@@ -32233,25 +32233,25 @@
         <v>1.1</v>
       </c>
       <c r="AN149">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="AO149">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ149">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR149">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AS149">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AT149">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="AU149">
         <v>4</v>
@@ -32439,22 +32439,22 @@
         <v>1.06</v>
       </c>
       <c r="AN150">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="AO150">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AP150">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ150">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR150">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AS150">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="AT150">
         <v>3.11</v>
@@ -32645,25 +32645,25 @@
         <v>2.95</v>
       </c>
       <c r="AN151">
-        <v>2.33</v>
+        <v>1.72</v>
       </c>
       <c r="AO151">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP151">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ151">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR151">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="AS151">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT151">
-        <v>3.23</v>
+        <v>2.99</v>
       </c>
       <c r="AU151">
         <v>7</v>
@@ -32851,25 +32851,25 @@
         <v>1.72</v>
       </c>
       <c r="AN152">
+        <v>1.28</v>
+      </c>
+      <c r="AO152">
+        <v>1</v>
+      </c>
+      <c r="AP152">
         <v>1.33</v>
       </c>
-      <c r="AO152">
-        <v>0.33</v>
-      </c>
-      <c r="AP152">
-        <v>1.8</v>
-      </c>
       <c r="AQ152">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR152">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AS152">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AT152">
-        <v>2.91</v>
+        <v>2.84</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -33057,25 +33057,25 @@
         <v>1.63</v>
       </c>
       <c r="AN153">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO153">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="AP153">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ153">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR153">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="AS153">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="AT153">
-        <v>3.55</v>
+        <v>3.53</v>
       </c>
       <c r="AU153">
         <v>4</v>
@@ -33263,25 +33263,25 @@
         <v>1.6</v>
       </c>
       <c r="AN154">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AO154">
-        <v>1.11</v>
+        <v>1.68</v>
       </c>
       <c r="AP154">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ154">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR154">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AS154">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="AT154">
-        <v>3.46</v>
+        <v>3.61</v>
       </c>
       <c r="AU154">
         <v>9</v>
@@ -33469,25 +33469,25 @@
         <v>1.08</v>
       </c>
       <c r="AN155">
-        <v>0.89</v>
+        <v>0.53</v>
       </c>
       <c r="AO155">
-        <v>1.44</v>
+        <v>1.84</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ155">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR155">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="AS155">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AT155">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33675,25 +33675,25 @@
         <v>1.93</v>
       </c>
       <c r="AN156">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
       <c r="AO156">
+        <v>0.79</v>
+      </c>
+      <c r="AP156">
+        <v>1.1</v>
+      </c>
+      <c r="AQ156">
         <v>0.78</v>
       </c>
-      <c r="AP156">
-        <v>1.4</v>
-      </c>
-      <c r="AQ156">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="AR156">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AS156">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AT156">
-        <v>2.29</v>
+        <v>2.45</v>
       </c>
       <c r="AU156">
         <v>8</v>
@@ -33881,25 +33881,25 @@
         <v>1.75</v>
       </c>
       <c r="AN157">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AO157">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ157">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR157">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AS157">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="AT157">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="AU157">
         <v>4</v>
@@ -34087,25 +34087,25 @@
         <v>1.59</v>
       </c>
       <c r="AN158">
-        <v>2.11</v>
+        <v>1.74</v>
       </c>
       <c r="AO158">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AP158">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ158">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR158">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="AS158">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AT158">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -34293,25 +34293,25 @@
         <v>1.55</v>
       </c>
       <c r="AN159">
+        <v>1.16</v>
+      </c>
+      <c r="AO159">
+        <v>1.37</v>
+      </c>
+      <c r="AP159">
+        <v>0.98</v>
+      </c>
+      <c r="AQ159">
+        <v>1.33</v>
+      </c>
+      <c r="AR159">
+        <v>1.23</v>
+      </c>
+      <c r="AS159">
         <v>1.44</v>
       </c>
-      <c r="AO159">
-        <v>1.22</v>
-      </c>
-      <c r="AP159">
-        <v>1.3</v>
-      </c>
-      <c r="AQ159">
-        <v>0.85</v>
-      </c>
-      <c r="AR159">
-        <v>1.29</v>
-      </c>
-      <c r="AS159">
-        <v>1.3</v>
-      </c>
       <c r="AT159">
-        <v>2.59</v>
+        <v>2.67</v>
       </c>
       <c r="AU159">
         <v>3</v>
@@ -34499,25 +34499,25 @@
         <v>1.85</v>
       </c>
       <c r="AN160">
-        <v>2.56</v>
+        <v>2.05</v>
       </c>
       <c r="AO160">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AP160">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ160">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR160">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="AS160">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AT160">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="AU160">
         <v>5</v>
@@ -34705,25 +34705,25 @@
         <v>1.7</v>
       </c>
       <c r="AN161">
-        <v>1.67</v>
+        <v>0.95</v>
       </c>
       <c r="AO161">
-        <v>0.89</v>
+        <v>1.16</v>
       </c>
       <c r="AP161">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ161">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR161">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS161">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AT161">
-        <v>2.84</v>
+        <v>2.87</v>
       </c>
       <c r="AU161">
         <v>7</v>
@@ -34911,25 +34911,25 @@
         <v>2.75</v>
       </c>
       <c r="AN162">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AO162">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AP162">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ162">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR162">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AS162">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AT162">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="AU162">
         <v>8</v>
@@ -35120,22 +35120,22 @@
         <v>1.7</v>
       </c>
       <c r="AO163">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AP163">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ163">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR163">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AS163">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AT163">
-        <v>3.8</v>
+        <v>3.68</v>
       </c>
       <c r="AU163">
         <v>4</v>
@@ -35323,25 +35323,25 @@
         <v>2.3</v>
       </c>
       <c r="AN164">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AO164">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP164">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ164">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR164">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AS164">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AT164">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="AU164">
         <v>5</v>
@@ -35529,25 +35529,25 @@
         <v>3.4</v>
       </c>
       <c r="AN165">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AO165">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AP165">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ165">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR165">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="AS165">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT165">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="AU165">
         <v>10</v>
@@ -35735,25 +35735,25 @@
         <v>1.77</v>
       </c>
       <c r="AN166">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO166">
-        <v>0.3</v>
+        <v>1.05</v>
       </c>
       <c r="AP166">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ166">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR166">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AS166">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AT166">
-        <v>3.16</v>
+        <v>3</v>
       </c>
       <c r="AU166">
         <v>10</v>
@@ -35941,25 +35941,25 @@
         <v>3.2</v>
       </c>
       <c r="AN167">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO167">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AP167">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ167">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR167">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="AS167">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AT167">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="AU167">
         <v>6</v>
@@ -36147,25 +36147,25 @@
         <v>1.19</v>
       </c>
       <c r="AN168">
+        <v>0.8</v>
+      </c>
+      <c r="AO168">
+        <v>2.1</v>
+      </c>
+      <c r="AP168">
         <v>1.1</v>
       </c>
-      <c r="AO168">
-        <v>1.6</v>
-      </c>
-      <c r="AP168">
-        <v>1.4</v>
-      </c>
       <c r="AQ168">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR168">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AS168">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AT168">
-        <v>2.79</v>
+        <v>2.89</v>
       </c>
       <c r="AU168">
         <v>5</v>
@@ -36353,25 +36353,25 @@
         <v>1.85</v>
       </c>
       <c r="AN169">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="AO169">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AP169">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ169">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR169">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AS169">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="AT169">
-        <v>2.45</v>
+        <v>2.34</v>
       </c>
       <c r="AU169">
         <v>2</v>
@@ -36559,25 +36559,25 @@
         <v>2.45</v>
       </c>
       <c r="AN170">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="AO170">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AP170">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR170">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="AS170">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AT170">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="AU170">
         <v>8</v>
@@ -36765,25 +36765,25 @@
         <v>1.44</v>
       </c>
       <c r="AN171">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="AO171">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP171">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ171">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR171">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS171">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AT171">
-        <v>2.59</v>
+        <v>2.43</v>
       </c>
       <c r="AU171">
         <v>4</v>
@@ -36971,25 +36971,25 @@
         <v>1.12</v>
       </c>
       <c r="AN172">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AO172">
-        <v>1.4</v>
+        <v>1.76</v>
       </c>
       <c r="AP172">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ172">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR172">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AS172">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT172">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37177,25 +37177,25 @@
         <v>3</v>
       </c>
       <c r="AN173">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="AO173">
         <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ173">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR173">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AS173">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AT173">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU173">
         <v>6</v>
@@ -37383,25 +37383,25 @@
         <v>1.27</v>
       </c>
       <c r="AN174">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AO174">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ174">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR174">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="AS174">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AT174">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="AU174">
         <v>5</v>
@@ -37589,25 +37589,25 @@
         <v>1.06</v>
       </c>
       <c r="AN175">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="AO175">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP175">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ175">
+        <v>1.45</v>
+      </c>
+      <c r="AR175">
         <v>1.15</v>
       </c>
-      <c r="AR175">
-        <v>1.2</v>
-      </c>
       <c r="AS175">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="AT175">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="AU175">
         <v>4</v>
@@ -37795,25 +37795,25 @@
         <v>1.28</v>
       </c>
       <c r="AN176">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="AO176">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="AP176">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ176">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR176">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AS176">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT176">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="AU176">
         <v>3</v>
@@ -38001,22 +38001,22 @@
         <v>2.15</v>
       </c>
       <c r="AN177">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="AO177">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ177">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR177">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="AS177">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="AT177">
         <v>2.67</v>
@@ -38210,22 +38210,22 @@
         <v>1</v>
       </c>
       <c r="AO178">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AP178">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ178">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR178">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AS178">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="AT178">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU178">
         <v>6</v>
@@ -38413,25 +38413,25 @@
         <v>6.5</v>
       </c>
       <c r="AN179">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AO179">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
       <c r="AP179">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ179">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR179">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AS179">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="AT179">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="AU179">
         <v>11</v>
@@ -38619,25 +38619,25 @@
         <v>1.2</v>
       </c>
       <c r="AN180">
-        <v>1.09</v>
+        <v>0.82</v>
       </c>
       <c r="AO180">
         <v>1.64</v>
       </c>
       <c r="AP180">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ180">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR180">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AS180">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AT180">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="AU180">
         <v>5</v>
@@ -38825,25 +38825,25 @@
         <v>2.31</v>
       </c>
       <c r="AN181">
-        <v>1.64</v>
+        <v>0.95</v>
       </c>
       <c r="AO181">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="AP181">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ181">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR181">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AS181">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AT181">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="AU181">
         <v>4</v>
@@ -39031,25 +39031,25 @@
         <v>1.25</v>
       </c>
       <c r="AN182">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AO182">
-        <v>0.91</v>
+        <v>1.59</v>
       </c>
       <c r="AP182">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ182">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR182">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AS182">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="AT182">
-        <v>2.62</v>
+        <v>2.83</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39237,25 +39237,25 @@
         <v>4.33</v>
       </c>
       <c r="AN183">
-        <v>2.55</v>
+        <v>2.36</v>
       </c>
       <c r="AO183">
-        <v>0.73</v>
+        <v>0.95</v>
       </c>
       <c r="AP183">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ183">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR183">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AS183">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="AT183">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39443,25 +39443,25 @@
         <v>1.3</v>
       </c>
       <c r="AN184">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AO184">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="AP184">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ184">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR184">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AS184">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AT184">
-        <v>3.21</v>
+        <v>3.05</v>
       </c>
       <c r="AU184">
         <v>8</v>
@@ -39649,25 +39649,25 @@
         <v>1.29</v>
       </c>
       <c r="AN185">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AO185">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="AP185">
+        <v>1.33</v>
+      </c>
+      <c r="AQ185">
         <v>1.8</v>
       </c>
-      <c r="AQ185">
-        <v>1.67</v>
-      </c>
       <c r="AR185">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AS185">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="AT185">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="AU185">
         <v>13</v>
@@ -39855,25 +39855,25 @@
         <v>1.28</v>
       </c>
       <c r="AN186">
-        <v>1.18</v>
+        <v>0.91</v>
       </c>
       <c r="AO186">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="AP186">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ186">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR186">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="AS186">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT186">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AU186">
         <v>5</v>
@@ -40061,25 +40061,25 @@
         <v>1.8</v>
       </c>
       <c r="AN187">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AO187">
-        <v>0.55</v>
+        <v>0.91</v>
       </c>
       <c r="AP187">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ187">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR187">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AS187">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT187">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AU187">
         <v>8</v>
@@ -40267,25 +40267,25 @@
         <v>1.33</v>
       </c>
       <c r="AN188">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="AO188">
-        <v>0.27</v>
+        <v>1.04</v>
       </c>
       <c r="AP188">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ188">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR188">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS188">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AT188">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="AU188">
         <v>5</v>
@@ -40473,25 +40473,25 @@
         <v>1.43</v>
       </c>
       <c r="AN189">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AO189">
-        <v>2.18</v>
+        <v>2.39</v>
       </c>
       <c r="AP189">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ189">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR189">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="AS189">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="AT189">
-        <v>3.76</v>
+        <v>3.73</v>
       </c>
       <c r="AU189">
         <v>4</v>
@@ -40679,25 +40679,25 @@
         <v>1.3</v>
       </c>
       <c r="AN190">
-        <v>2.27</v>
+        <v>1.65</v>
       </c>
       <c r="AO190">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AP190">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ190">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR190">
-        <v>1.91</v>
+        <v>1.58</v>
       </c>
       <c r="AS190">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AT190">
-        <v>3.53</v>
+        <v>3.31</v>
       </c>
       <c r="AU190">
         <v>4</v>
@@ -40885,25 +40885,25 @@
         <v>1.36</v>
       </c>
       <c r="AN191">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AO191">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="AP191">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ191">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR191">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AS191">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AT191">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -41091,25 +41091,25 @@
         <v>1.56</v>
       </c>
       <c r="AN192">
-        <v>2.45</v>
+        <v>1.96</v>
       </c>
       <c r="AO192">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="AP192">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ192">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR192">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AS192">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AT192">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="AU192">
         <v>5</v>
@@ -41297,25 +41297,25 @@
         <v>1.89</v>
       </c>
       <c r="AN193">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="AO193">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="AP193">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ193">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR193">
         <v>1.74</v>
       </c>
       <c r="AS193">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="AT193">
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="AU193">
         <v>7</v>
@@ -41503,25 +41503,25 @@
         <v>2.4</v>
       </c>
       <c r="AN194">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="AO194">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP194">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ194">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR194">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AS194">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT194">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU194">
         <v>4</v>
@@ -41709,25 +41709,25 @@
         <v>1.9</v>
       </c>
       <c r="AN195">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="AO195">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP195">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ195">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR195">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AS195">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AT195">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AU195">
         <v>6</v>
@@ -41915,25 +41915,25 @@
         <v>3.6</v>
       </c>
       <c r="AN196">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="AO196">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AP196">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ196">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR196">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="AS196">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AT196">
-        <v>3.21</v>
+        <v>3.19</v>
       </c>
       <c r="AU196">
         <v>4</v>
@@ -42121,25 +42121,25 @@
         <v>4.1</v>
       </c>
       <c r="AN197">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO197">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="AP197">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ197">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR197">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AS197">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AT197">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="AU197">
         <v>7</v>
@@ -42327,25 +42327,25 @@
         <v>1.18</v>
       </c>
       <c r="AN198">
+        <v>0.92</v>
+      </c>
+      <c r="AO198">
+        <v>1.71</v>
+      </c>
+      <c r="AP198">
+        <v>0.83</v>
+      </c>
+      <c r="AQ198">
+        <v>1.45</v>
+      </c>
+      <c r="AR198">
         <v>1.17</v>
       </c>
-      <c r="AO198">
-        <v>1.08</v>
-      </c>
-      <c r="AP198">
-        <v>1</v>
-      </c>
-      <c r="AQ198">
-        <v>1.15</v>
-      </c>
-      <c r="AR198">
-        <v>1.34</v>
-      </c>
       <c r="AS198">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="AT198">
-        <v>2.62</v>
+        <v>2.73</v>
       </c>
       <c r="AU198">
         <v>2</v>
@@ -42533,25 +42533,25 @@
         <v>1.28</v>
       </c>
       <c r="AN199">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO199">
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ199">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR199">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AS199">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AT199">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="AU199">
         <v>3</v>
@@ -42739,25 +42739,25 @@
         <v>1.28</v>
       </c>
       <c r="AN200">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO200">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP200">
-        <v>1.61</v>
+        <v>1.25</v>
       </c>
       <c r="AQ200">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR200">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AS200">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AT200">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="AU200">
         <v>7</v>
@@ -42945,25 +42945,25 @@
         <v>1.7</v>
       </c>
       <c r="AN201">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AO201">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP201">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ201">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR201">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="AS201">
         <v>1.74</v>
       </c>
       <c r="AT201">
-        <v>3.58</v>
+        <v>3.42</v>
       </c>
       <c r="AU201">
         <v>11</v>
@@ -43151,25 +43151,25 @@
         <v>1.57</v>
       </c>
       <c r="AN202">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AO202">
-        <v>0.92</v>
+        <v>1.12</v>
       </c>
       <c r="AP202">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ202">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR202">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AS202">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AT202">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="AU202">
         <v>6</v>
@@ -43357,25 +43357,25 @@
         <v>3.6</v>
       </c>
       <c r="AN203">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AO203">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AP203">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ203">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR203">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AS203">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AT203">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="AU203">
         <v>10</v>
@@ -43563,25 +43563,25 @@
         <v>1.57</v>
       </c>
       <c r="AN204">
+        <v>0.96</v>
+      </c>
+      <c r="AO204">
+        <v>0.96</v>
+      </c>
+      <c r="AP204">
+        <v>1.1</v>
+      </c>
+      <c r="AQ204">
         <v>1.25</v>
       </c>
-      <c r="AO204">
-        <v>0.25</v>
-      </c>
-      <c r="AP204">
-        <v>1.4</v>
-      </c>
-      <c r="AQ204">
-        <v>0.89</v>
-      </c>
       <c r="AR204">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AS204">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AT204">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="AU204">
         <v>2</v>
@@ -43769,25 +43769,25 @@
         <v>2.35</v>
       </c>
       <c r="AN205">
-        <v>2.33</v>
+        <v>1.76</v>
       </c>
       <c r="AO205">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="AP205">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ205">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR205">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="AS205">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="AT205">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="AU205">
         <v>4</v>
@@ -43975,25 +43975,25 @@
         <v>1.33</v>
       </c>
       <c r="AN206">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AO206">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="AP206">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ206">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR206">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AS206">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="AT206">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="AU206">
         <v>5</v>
@@ -44181,25 +44181,25 @@
         <v>1.05</v>
       </c>
       <c r="AN207">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="AO207">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="AP207">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ207">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR207">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS207">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="AT207">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="AU207">
         <v>3</v>
@@ -44387,25 +44387,25 @@
         <v>2.2</v>
       </c>
       <c r="AN208">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="AO208">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AP208">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ208">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR208">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS208">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AT208">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
       <c r="AU208">
         <v>9</v>
@@ -44593,25 +44593,25 @@
         <v>1.2</v>
       </c>
       <c r="AN209">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AO209">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AP209">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ209">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR209">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AS209">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="AT209">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="AU209">
         <v>4</v>
@@ -44799,25 +44799,25 @@
         <v>1.26</v>
       </c>
       <c r="AN210">
-        <v>1.62</v>
+        <v>0.96</v>
       </c>
       <c r="AO210">
+        <v>1.54</v>
+      </c>
+      <c r="AP210">
+        <v>1.25</v>
+      </c>
+      <c r="AQ210">
         <v>1.46</v>
       </c>
-      <c r="AP210">
-        <v>1.61</v>
-      </c>
-      <c r="AQ210">
-        <v>1.3</v>
-      </c>
       <c r="AR210">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="AS210">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT210">
-        <v>3.22</v>
+        <v>3.17</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -45005,25 +45005,25 @@
         <v>1.44</v>
       </c>
       <c r="AN211">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="AO211">
-        <v>0.6899999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AP211">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ211">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR211">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AS211">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT211">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="AU211">
         <v>4</v>
@@ -45211,25 +45211,25 @@
         <v>1.75</v>
       </c>
       <c r="AN212">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="AO212">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AP212">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ212">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR212">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="AS212">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT212">
-        <v>2.87</v>
+        <v>2.78</v>
       </c>
       <c r="AU212">
         <v>5</v>
@@ -45417,25 +45417,25 @@
         <v>2.26</v>
       </c>
       <c r="AN213">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AO213">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP213">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ213">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR213">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AS213">
-        <v>0.99</v>
+        <v>1.08</v>
       </c>
       <c r="AT213">
-        <v>2.66</v>
+        <v>2.55</v>
       </c>
       <c r="AU213">
         <v>5</v>
@@ -45623,25 +45623,25 @@
         <v>2.16</v>
       </c>
       <c r="AN214">
+        <v>1.73</v>
+      </c>
+      <c r="AO214">
         <v>2.08</v>
       </c>
-      <c r="AO214">
-        <v>1.62</v>
-      </c>
       <c r="AP214">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ214">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR214">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="AS214">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT214">
-        <v>3.32</v>
+        <v>3.23</v>
       </c>
       <c r="AU214">
         <v>7</v>
@@ -45829,25 +45829,25 @@
         <v>1.62</v>
       </c>
       <c r="AN215">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AO215">
-        <v>1.23</v>
+        <v>1.69</v>
       </c>
       <c r="AP215">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ215">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR215">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AS215">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AT215">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="AU215">
         <v>6</v>
@@ -46035,25 +46035,25 @@
         <v>2.9</v>
       </c>
       <c r="AN216">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="AO216">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AP216">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ216">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR216">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AS216">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AT216">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="AU216">
         <v>8</v>
@@ -46241,25 +46241,25 @@
         <v>1.12</v>
       </c>
       <c r="AN217">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO217">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="AP217">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ217">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR217">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AS217">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AT217">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="AU217">
         <v>2</v>
@@ -46447,25 +46447,25 @@
         <v>1.73</v>
       </c>
       <c r="AN218">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AO218">
-        <v>0.31</v>
+        <v>0.93</v>
       </c>
       <c r="AP218">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ218">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR218">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AS218">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AT218">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="AU218">
         <v>4</v>
@@ -46653,25 +46653,25 @@
         <v>1.98</v>
       </c>
       <c r="AN219">
-        <v>1.77</v>
+        <v>1.59</v>
       </c>
       <c r="AO219">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AP219">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ219">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR219">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AS219">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AT219">
-        <v>2.97</v>
+        <v>3.15</v>
       </c>
       <c r="AU219">
         <v>7</v>
@@ -46859,25 +46859,25 @@
         <v>1.15</v>
       </c>
       <c r="AN220">
-        <v>1.23</v>
+        <v>0.96</v>
       </c>
       <c r="AO220">
-        <v>2.31</v>
+        <v>2.41</v>
       </c>
       <c r="AP220">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ220">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR220">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AS220">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AT220">
-        <v>3.1</v>
+        <v>3.17</v>
       </c>
       <c r="AU220">
         <v>3</v>
@@ -47065,25 +47065,25 @@
         <v>1.36</v>
       </c>
       <c r="AN221">
-        <v>1.31</v>
+        <v>1.04</v>
       </c>
       <c r="AO221">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="AP221">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ221">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR221">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AS221">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="AT221">
-        <v>2.83</v>
+        <v>2.93</v>
       </c>
       <c r="AU221">
         <v>8</v>
@@ -47271,25 +47271,25 @@
         <v>1.44</v>
       </c>
       <c r="AN222">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AO222">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AP222">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ222">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR222">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="AS222">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="AT222">
-        <v>3.52</v>
+        <v>3.54</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47477,25 +47477,25 @@
         <v>2.2</v>
       </c>
       <c r="AN223">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="AO223">
-        <v>0.92</v>
+        <v>1.37</v>
       </c>
       <c r="AP223">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ223">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR223">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AS223">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="AT223">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="AU223">
         <v>12</v>
@@ -47683,25 +47683,25 @@
         <v>3.5</v>
       </c>
       <c r="AN224">
-        <v>2.54</v>
+        <v>2.11</v>
       </c>
       <c r="AO224">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AP224">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ224">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR224">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AS224">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AT224">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU224">
         <v>6</v>
@@ -47889,25 +47889,25 @@
         <v>1.55</v>
       </c>
       <c r="AN225">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AO225">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="AP225">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ225">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR225">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AS225">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AT225">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="AU225">
         <v>8</v>
@@ -48095,25 +48095,25 @@
         <v>2.01</v>
       </c>
       <c r="AN226">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AO226">
-        <v>0.93</v>
+        <v>1.04</v>
       </c>
       <c r="AP226">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ226">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR226">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AS226">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT226">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="AU226">
         <v>5</v>
@@ -48301,25 +48301,25 @@
         <v>1.11</v>
       </c>
       <c r="AN227">
-        <v>1.07</v>
+        <v>0.75</v>
       </c>
       <c r="AO227">
-        <v>1.21</v>
+        <v>1.71</v>
       </c>
       <c r="AP227">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ227">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR227">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="AS227">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AT227">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="AU227">
         <v>2</v>
@@ -48507,25 +48507,25 @@
         <v>1.25</v>
       </c>
       <c r="AN228">
+        <v>1</v>
+      </c>
+      <c r="AO228">
+        <v>1.54</v>
+      </c>
+      <c r="AP228">
+        <v>1.25</v>
+      </c>
+      <c r="AQ228">
         <v>1.5</v>
       </c>
-      <c r="AO228">
-        <v>1.43</v>
-      </c>
-      <c r="AP228">
-        <v>1.61</v>
-      </c>
-      <c r="AQ228">
-        <v>1.45</v>
-      </c>
       <c r="AR228">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AS228">
         <v>1.69</v>
       </c>
       <c r="AT228">
-        <v>3.17</v>
+        <v>3.01</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48713,25 +48713,25 @@
         <v>1.14</v>
       </c>
       <c r="AN229">
-        <v>1.07</v>
+        <v>0.82</v>
       </c>
       <c r="AO229">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AP229">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ229">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR229">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AS229">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="AT229">
-        <v>2.74</v>
+        <v>2.67</v>
       </c>
       <c r="AU229">
         <v>3</v>
@@ -48919,25 +48919,25 @@
         <v>2.3</v>
       </c>
       <c r="AN230">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AO230">
-        <v>0.79</v>
+        <v>1.11</v>
       </c>
       <c r="AP230">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ230">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR230">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="AS230">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AT230">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="AU230">
         <v>6</v>
@@ -49125,25 +49125,25 @@
         <v>3.5</v>
       </c>
       <c r="AN231">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="AO231">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="AP231">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ231">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR231">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AS231">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AT231">
-        <v>3.17</v>
+        <v>3.02</v>
       </c>
       <c r="AU231">
         <v>9</v>
@@ -49331,25 +49331,25 @@
         <v>2.3</v>
       </c>
       <c r="AN232">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AO232">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="AP232">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ232">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR232">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AS232">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AT232">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU232">
         <v>6</v>
@@ -49537,25 +49537,25 @@
         <v>1.3</v>
       </c>
       <c r="AN233">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AO233">
-        <v>0.86</v>
+        <v>1.32</v>
       </c>
       <c r="AP233">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ233">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR233">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AS233">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AT233">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="AU233">
         <v>3</v>
@@ -49743,25 +49743,25 @@
         <v>2.1</v>
       </c>
       <c r="AN234">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AO234">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AP234">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ234">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR234">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AS234">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AT234">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="AU234">
         <v>7</v>
@@ -49949,25 +49949,25 @@
         <v>3.75</v>
       </c>
       <c r="AN235">
-        <v>2.57</v>
+        <v>2.17</v>
       </c>
       <c r="AO235">
-        <v>0.43</v>
+        <v>0.72</v>
       </c>
       <c r="AP235">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ235">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AR235">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AS235">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="AT235">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="AU235">
         <v>6</v>
@@ -50155,25 +50155,25 @@
         <v>1.09</v>
       </c>
       <c r="AN236">
-        <v>1.79</v>
+        <v>1.28</v>
       </c>
       <c r="AO236">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="AP236">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ236">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR236">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="AS236">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="AT236">
-        <v>3.19</v>
+        <v>3.14</v>
       </c>
       <c r="AU236">
         <v>6</v>
@@ -50361,25 +50361,25 @@
         <v>1.5</v>
       </c>
       <c r="AN237">
-        <v>2.21</v>
+        <v>1.76</v>
       </c>
       <c r="AO237">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="AP237">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ237">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR237">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="AS237">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT237">
-        <v>3.61</v>
+        <v>3.42</v>
       </c>
       <c r="AU237">
         <v>4</v>
@@ -50567,25 +50567,25 @@
         <v>2.4</v>
       </c>
       <c r="AN238">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="AO238">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP238">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ238">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR238">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="AS238">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AT238">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="AU238">
         <v>10</v>
@@ -50773,25 +50773,25 @@
         <v>1.33</v>
       </c>
       <c r="AN239">
-        <v>1.14</v>
+        <v>0.9</v>
       </c>
       <c r="AO239">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AP239">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ239">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR239">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AS239">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="AT239">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="AU239">
         <v>5</v>
@@ -50979,25 +50979,25 @@
         <v>3.35</v>
       </c>
       <c r="AN240">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="AO240">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AP240">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ240">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR240">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AS240">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AT240">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU240">
         <v>9</v>
@@ -51185,25 +51185,25 @@
         <v>1.28</v>
       </c>
       <c r="AN241">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO241">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="AP241">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ241">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR241">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AS241">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="AT241">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="AU241">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -1957,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ2">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ4">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2781,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
+        <v>1.75</v>
+      </c>
+      <c r="AQ6">
         <v>1.45</v>
-      </c>
-      <c r="AQ6">
-        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2987,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ8">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3602,22 +3602,22 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ10">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR10">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>4</v>
@@ -3805,25 +3805,25 @@
         <v>3.75</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ11">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR11">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>4.71</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>4</v>
@@ -4014,22 +4014,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>4</v>
@@ -4217,25 +4217,25 @@
         <v>2</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>6</v>
@@ -4426,22 +4426,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ14">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR14">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4629,25 +4629,25 @@
         <v>1.25</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ15">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -4835,25 +4835,25 @@
         <v>1.3</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR16">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>4.05</v>
+        <v>0</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -5044,22 +5044,22 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR17">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>2</v>
@@ -5247,25 +5247,25 @@
         <v>3.4</v>
       </c>
       <c r="AN18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR18">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="AS18">
-        <v>0.83</v>
+        <v>1.03</v>
       </c>
       <c r="AT18">
-        <v>2.15</v>
+        <v>2.56</v>
       </c>
       <c r="AU18">
         <v>10</v>
@@ -5453,25 +5453,25 @@
         <v>1.6</v>
       </c>
       <c r="AN19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR19">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="AS19">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="AT19">
-        <v>2.51</v>
+        <v>2.31</v>
       </c>
       <c r="AU19">
         <v>9</v>
@@ -5662,22 +5662,22 @@
         <v>3</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ20">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="AS20">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="AT20">
-        <v>3.66</v>
+        <v>3.34</v>
       </c>
       <c r="AU20">
         <v>10</v>
@@ -5868,22 +5868,22 @@
         <v>3</v>
       </c>
       <c r="AO21">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR21">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AS21">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="AT21">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -6071,25 +6071,25 @@
         <v>1.44</v>
       </c>
       <c r="AN22">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO22">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ22">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR22">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="AS22">
-        <v>2.65</v>
+        <v>3.08</v>
       </c>
       <c r="AT22">
-        <v>3.92</v>
+        <v>4.62</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6277,25 +6277,25 @@
         <v>1.16</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR23">
-        <v>1.16</v>
+        <v>1.63</v>
       </c>
       <c r="AS23">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="AT23">
-        <v>3.13</v>
+        <v>3.65</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -6483,25 +6483,25 @@
         <v>1.73</v>
       </c>
       <c r="AN24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ24">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR24">
+        <v>0.67</v>
+      </c>
+      <c r="AS24">
         <v>0.86</v>
       </c>
-      <c r="AS24">
-        <v>0.91</v>
-      </c>
       <c r="AT24">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6689,25 +6689,25 @@
         <v>1.32</v>
       </c>
       <c r="AN25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
-        <v>1.64</v>
+        <v>1.16</v>
       </c>
       <c r="AS25">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="AT25">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6895,25 +6895,25 @@
         <v>1.23</v>
       </c>
       <c r="AN26">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR26">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="AS26">
-        <v>1.74</v>
+        <v>1.11</v>
       </c>
       <c r="AT26">
-        <v>3.23</v>
+        <v>2.78</v>
       </c>
       <c r="AU26">
         <v>3</v>
@@ -7101,25 +7101,25 @@
         <v>1.42</v>
       </c>
       <c r="AN27">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR27">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AS27">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AT27">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="AU27">
         <v>4</v>
@@ -7307,25 +7307,25 @@
         <v>1.22</v>
       </c>
       <c r="AN28">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO28">
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ28">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR28">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AS28">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="AT28">
-        <v>2.97</v>
+        <v>3.48</v>
       </c>
       <c r="AU28">
         <v>8</v>
@@ -7513,25 +7513,25 @@
         <v>1.91</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ29">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR29">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AS29">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="AT29">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="AU29">
         <v>9</v>
@@ -7719,25 +7719,25 @@
         <v>2.22</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="AS30">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="AT30">
-        <v>3.31</v>
+        <v>3.28</v>
       </c>
       <c r="AU30">
         <v>8</v>
@@ -7928,22 +7928,22 @@
         <v>3</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP31">
+        <v>1.95</v>
+      </c>
+      <c r="AQ31">
+        <v>0.85</v>
+      </c>
+      <c r="AR31">
         <v>1.8</v>
       </c>
-      <c r="AQ31">
-        <v>1.33</v>
-      </c>
-      <c r="AR31">
-        <v>1.68</v>
-      </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AT31">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="AU31">
         <v>6</v>
@@ -8131,25 +8131,25 @@
         <v>3.66</v>
       </c>
       <c r="AN32">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ32">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="AS32">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AT32">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="AU32">
         <v>10</v>
@@ -8340,22 +8340,22 @@
         <v>0</v>
       </c>
       <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR33">
+        <v>0.64</v>
+      </c>
+      <c r="AS33">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT33">
         <v>1.33</v>
-      </c>
-      <c r="AP33">
-        <v>0.86</v>
-      </c>
-      <c r="AQ33">
-        <v>0.78</v>
-      </c>
-      <c r="AR33">
-        <v>0.74</v>
-      </c>
-      <c r="AS33">
-        <v>1.01</v>
-      </c>
-      <c r="AT33">
-        <v>1.75</v>
       </c>
       <c r="AU33">
         <v>5</v>
@@ -8543,25 +8543,25 @@
         <v>1.78</v>
       </c>
       <c r="AN34">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR34">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="AS34">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="AT34">
-        <v>2.7</v>
+        <v>2.36</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8749,25 +8749,25 @@
         <v>1.39</v>
       </c>
       <c r="AN35">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO35">
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR35">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AS35">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AT35">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8958,22 +8958,22 @@
         <v>0</v>
       </c>
       <c r="AO36">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR36">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="AS36">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="AT36">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="AU36">
         <v>7</v>
@@ -9161,25 +9161,25 @@
         <v>1.33</v>
       </c>
       <c r="AN37">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR37">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AS37">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT37">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -9367,25 +9367,25 @@
         <v>1.95</v>
       </c>
       <c r="AN38">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR38">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="AS38">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="AT38">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
       <c r="AU38">
         <v>9</v>
@@ -9573,25 +9573,25 @@
         <v>2.2</v>
       </c>
       <c r="AN39">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO39">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR39">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="AS39">
-        <v>1.03</v>
+        <v>0.78</v>
       </c>
       <c r="AT39">
-        <v>2.52</v>
+        <v>2.01</v>
       </c>
       <c r="AU39">
         <v>10</v>
@@ -9779,25 +9779,25 @@
         <v>2.25</v>
       </c>
       <c r="AN40">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO40">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ40">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR40">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AS40">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="AT40">
-        <v>3.06</v>
+        <v>3.18</v>
       </c>
       <c r="AU40">
         <v>7</v>
@@ -9985,25 +9985,25 @@
         <v>2.06</v>
       </c>
       <c r="AN41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ41">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR41">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AS41">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AT41">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="AU41">
         <v>7</v>
@@ -10191,25 +10191,25 @@
         <v>1.8</v>
       </c>
       <c r="AN42">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO42">
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="AS42">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="AT42">
-        <v>2.55</v>
+        <v>2.24</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -10397,25 +10397,25 @@
         <v>1.58</v>
       </c>
       <c r="AN43">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO43">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ43">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR43">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AS43">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="AT43">
-        <v>3.69</v>
+        <v>3.59</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10603,25 +10603,25 @@
         <v>1.6</v>
       </c>
       <c r="AN44">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO44">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ44">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR44">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AS44">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="AT44">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AU44">
         <v>8</v>
@@ -10809,25 +10809,25 @@
         <v>1.88</v>
       </c>
       <c r="AN45">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AO45">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ45">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR45">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="AS45">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="AT45">
-        <v>3.54</v>
+        <v>3.18</v>
       </c>
       <c r="AU45">
         <v>5</v>
@@ -11015,25 +11015,25 @@
         <v>1.65</v>
       </c>
       <c r="AN46">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR46">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AS46">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AT46">
-        <v>2.71</v>
+        <v>2.49</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -11221,25 +11221,25 @@
         <v>1.2</v>
       </c>
       <c r="AN47">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="AP47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR47">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AS47">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="AT47">
-        <v>2.93</v>
+        <v>2.51</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -11427,25 +11427,25 @@
         <v>1.22</v>
       </c>
       <c r="AN48">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR48">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="AS48">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AT48">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -11633,25 +11633,25 @@
         <v>1.85</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO49">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ49">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR49">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS49">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="AT49">
-        <v>3.74</v>
+        <v>3.87</v>
       </c>
       <c r="AU49">
         <v>5</v>
@@ -11842,22 +11842,22 @@
         <v>2</v>
       </c>
       <c r="AO50">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR50">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="AS50">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AT50">
-        <v>3.33</v>
+        <v>3.48</v>
       </c>
       <c r="AU50">
         <v>11</v>
@@ -12045,25 +12045,25 @@
         <v>1.42</v>
       </c>
       <c r="AN51">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO51">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP51">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR51">
+        <v>1.28</v>
+      </c>
+      <c r="AS51">
         <v>1.2</v>
       </c>
-      <c r="AS51">
-        <v>1.21</v>
-      </c>
       <c r="AT51">
-        <v>2.41</v>
+        <v>2.48</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -12251,25 +12251,25 @@
         <v>1.2</v>
       </c>
       <c r="AN52">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AO52">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR52">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AS52">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="AT52">
-        <v>2.57</v>
+        <v>2.39</v>
       </c>
       <c r="AU52">
         <v>5</v>
@@ -12457,25 +12457,25 @@
         <v>1.22</v>
       </c>
       <c r="AN53">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO53">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR53">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="AS53">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AT53">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="AU53">
         <v>3</v>
@@ -12663,25 +12663,25 @@
         <v>1.6</v>
       </c>
       <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>1.33</v>
       </c>
-      <c r="AO54">
-        <v>1.67</v>
-      </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ54">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR54">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AS54">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AT54">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12869,25 +12869,25 @@
         <v>1.95</v>
       </c>
       <c r="AN55">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="AO55">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ55">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR55">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AS55">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="AT55">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -13075,25 +13075,25 @@
         <v>2.2</v>
       </c>
       <c r="AN56">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AO56">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ56">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR56">
         <v>1.42</v>
       </c>
       <c r="AS56">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT56">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="AU56">
         <v>6</v>
@@ -13281,25 +13281,25 @@
         <v>1.77</v>
       </c>
       <c r="AN57">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AO57">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ57">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR57">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AS57">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="AT57">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="AU57">
         <v>5</v>
@@ -13487,25 +13487,25 @@
         <v>3.3</v>
       </c>
       <c r="AN58">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="AO58">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
       <c r="AS58">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AT58">
-        <v>2.9</v>
+        <v>3.22</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13693,25 +13693,25 @@
         <v>2.38</v>
       </c>
       <c r="AN59">
-        <v>1.83</v>
+        <v>0.67</v>
       </c>
       <c r="AO59">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR59">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AS59">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AT59">
-        <v>3.19</v>
+        <v>3.09</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13899,25 +13899,25 @@
         <v>1.49</v>
       </c>
       <c r="AN60">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO60">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ60">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR60">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="AS60">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="AT60">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="AU60">
         <v>2</v>
@@ -14105,25 +14105,25 @@
         <v>1.36</v>
       </c>
       <c r="AN61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ61">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR61">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AS61">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="AT61">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="AU61">
         <v>3</v>
@@ -14314,22 +14314,22 @@
         <v>2.33</v>
       </c>
       <c r="AO62">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ62">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR62">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="AS62">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AT62">
-        <v>2.94</v>
+        <v>2.73</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -14517,25 +14517,25 @@
         <v>1.63</v>
       </c>
       <c r="AN63">
-        <v>1.71</v>
+        <v>2.33</v>
       </c>
       <c r="AO63">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="AS63">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AT63">
-        <v>3.25</v>
+        <v>3.67</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14723,25 +14723,25 @@
         <v>1.2</v>
       </c>
       <c r="AN64">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR64">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="AS64">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="AT64">
-        <v>3.08</v>
+        <v>3.27</v>
       </c>
       <c r="AU64">
         <v>8</v>
@@ -14929,25 +14929,25 @@
         <v>1.78</v>
       </c>
       <c r="AN65">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO65">
+        <v>3</v>
+      </c>
+      <c r="AP65">
+        <v>2.05</v>
+      </c>
+      <c r="AQ65">
+        <v>1.3</v>
+      </c>
+      <c r="AR65">
+        <v>2.24</v>
+      </c>
+      <c r="AS65">
         <v>1.71</v>
       </c>
-      <c r="AP65">
-        <v>1.88</v>
-      </c>
-      <c r="AQ65">
-        <v>1.46</v>
-      </c>
-      <c r="AR65">
-        <v>1.93</v>
-      </c>
-      <c r="AS65">
-        <v>1.8</v>
-      </c>
       <c r="AT65">
-        <v>3.73</v>
+        <v>3.95</v>
       </c>
       <c r="AU65">
         <v>4</v>
@@ -15135,25 +15135,25 @@
         <v>1.2</v>
       </c>
       <c r="AN66">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO66">
         <v>1.5</v>
       </c>
       <c r="AP66">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR66">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AS66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT66">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -15341,25 +15341,25 @@
         <v>1.2</v>
       </c>
       <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>1.25</v>
       </c>
-      <c r="AO67">
-        <v>1.88</v>
-      </c>
       <c r="AP67">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR67">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AS67">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AT67">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -15547,25 +15547,25 @@
         <v>1.6</v>
       </c>
       <c r="AN68">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AO68">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AP68">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR68">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AS68">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AT68">
-        <v>2.84</v>
+        <v>2.65</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15753,25 +15753,25 @@
         <v>1.22</v>
       </c>
       <c r="AN69">
+        <v>1.5</v>
+      </c>
+      <c r="AO69">
         <v>1.25</v>
       </c>
-      <c r="AO69">
-        <v>1.63</v>
-      </c>
       <c r="AP69">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ69">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR69">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="AS69">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="AT69">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15959,25 +15959,25 @@
         <v>2.33</v>
       </c>
       <c r="AN70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO70">
-        <v>0.88</v>
+        <v>0.25</v>
       </c>
       <c r="AP70">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR70">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT70">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="AU70">
         <v>8</v>
@@ -16165,25 +16165,25 @@
         <v>2.6</v>
       </c>
       <c r="AN71">
-        <v>1.63</v>
+        <v>0.75</v>
       </c>
       <c r="AO71">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ71">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR71">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AS71">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AT71">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -16371,25 +16371,25 @@
         <v>2.85</v>
       </c>
       <c r="AN72">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AO72">
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR72">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="AS72">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AT72">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="AU72">
         <v>8</v>
@@ -16577,25 +16577,25 @@
         <v>1.18</v>
       </c>
       <c r="AN73">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AP73">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR73">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="AS73">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AT73">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16783,25 +16783,25 @@
         <v>1.88</v>
       </c>
       <c r="AN74">
-        <v>0.78</v>
+        <v>1.5</v>
       </c>
       <c r="AO74">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ74">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS74">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
       <c r="AT74">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="AU74">
         <v>8</v>
@@ -16989,25 +16989,25 @@
         <v>2.45</v>
       </c>
       <c r="AN75">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO75">
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ75">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="AS75">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="AT75">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
       <c r="AU75">
         <v>8</v>
@@ -17195,25 +17195,25 @@
         <v>1.96</v>
       </c>
       <c r="AN76">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO76">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR76">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS76">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AT76">
-        <v>2.36</v>
+        <v>2.23</v>
       </c>
       <c r="AU76">
         <v>5</v>
@@ -17401,25 +17401,25 @@
         <v>2.15</v>
       </c>
       <c r="AN77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO77">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ77">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR77">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AS77">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT77">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="AU77">
         <v>10</v>
@@ -17607,25 +17607,25 @@
         <v>1.2</v>
       </c>
       <c r="AN78">
-        <v>1.11</v>
+        <v>0.5</v>
       </c>
       <c r="AO78">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AP78">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ78">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR78">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AS78">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="AT78">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17813,25 +17813,25 @@
         <v>4</v>
       </c>
       <c r="AN79">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO79">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR79">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="AS79">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AT79">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="AU79">
         <v>13</v>
@@ -18019,25 +18019,25 @@
         <v>1.83</v>
       </c>
       <c r="AN80">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="AO80">
-        <v>1.56</v>
+        <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ80">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR80">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AS80">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="AT80">
-        <v>3.43</v>
+        <v>3.26</v>
       </c>
       <c r="AU80">
         <v>10</v>
@@ -18225,25 +18225,25 @@
         <v>1.25</v>
       </c>
       <c r="AN81">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AO81">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ81">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR81">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AS81">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AT81">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="AU81">
         <v>2</v>
@@ -18431,25 +18431,25 @@
         <v>3.75</v>
       </c>
       <c r="AN82">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO82">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP82">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ82">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR82">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AS82">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AT82">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="AU82">
         <v>12</v>
@@ -18637,25 +18637,25 @@
         <v>1.09</v>
       </c>
       <c r="AN83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO83">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP83">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR83">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AS83">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="AT83">
-        <v>3.01</v>
+        <v>2.89</v>
       </c>
       <c r="AU83">
         <v>3</v>
@@ -18843,25 +18843,25 @@
         <v>1.57</v>
       </c>
       <c r="AN84">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AO84">
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR84">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="AS84">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AT84">
-        <v>2.41</v>
+        <v>2.72</v>
       </c>
       <c r="AU84">
         <v>7</v>
@@ -19049,25 +19049,25 @@
         <v>1.33</v>
       </c>
       <c r="AN85">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AO85">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AP85">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ85">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR85">
+        <v>1.58</v>
+      </c>
+      <c r="AS85">
         <v>1.43</v>
       </c>
-      <c r="AS85">
-        <v>1.73</v>
-      </c>
       <c r="AT85">
-        <v>3.16</v>
+        <v>3.01</v>
       </c>
       <c r="AU85">
         <v>6</v>
@@ -19255,25 +19255,25 @@
         <v>2.5</v>
       </c>
       <c r="AN86">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO86">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ86">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR86">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AS86">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT86">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="AU86">
         <v>10</v>
@@ -19461,25 +19461,25 @@
         <v>1.44</v>
       </c>
       <c r="AN87">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ87">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR87">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="AS87">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AT87">
-        <v>3.29</v>
+        <v>3.21</v>
       </c>
       <c r="AU87">
         <v>6</v>
@@ -19667,25 +19667,25 @@
         <v>1.4</v>
       </c>
       <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>1.6</v>
+      </c>
+      <c r="AP88">
         <v>1.3</v>
       </c>
-      <c r="AO88">
-        <v>2.1</v>
-      </c>
-      <c r="AP88">
-        <v>0.98</v>
-      </c>
       <c r="AQ88">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
       </c>
       <c r="AS88">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT88">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="AU88">
         <v>9</v>
@@ -19873,25 +19873,25 @@
         <v>1.62</v>
       </c>
       <c r="AN89">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AO89">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR89">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AS89">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT89">
-        <v>2.83</v>
+        <v>2.61</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -20079,25 +20079,25 @@
         <v>1.9</v>
       </c>
       <c r="AN90">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AO90">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ90">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR90">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AS90">
-        <v>1.22</v>
+        <v>0.95</v>
       </c>
       <c r="AT90">
-        <v>2.55</v>
+        <v>2.34</v>
       </c>
       <c r="AU90">
         <v>6</v>
@@ -20285,25 +20285,25 @@
         <v>1.36</v>
       </c>
       <c r="AN91">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO91">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="AP91">
+        <v>1.7</v>
+      </c>
+      <c r="AQ91">
+        <v>1.45</v>
+      </c>
+      <c r="AR91">
         <v>1.53</v>
       </c>
-      <c r="AQ91">
-        <v>1.5</v>
-      </c>
-      <c r="AR91">
-        <v>1.42</v>
-      </c>
       <c r="AS91">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AT91">
-        <v>3.01</v>
+        <v>3.18</v>
       </c>
       <c r="AU91">
         <v>8</v>
@@ -20491,25 +20491,25 @@
         <v>1.33</v>
       </c>
       <c r="AN92">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="AO92">
-        <v>1.18</v>
+        <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR92">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AS92">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AT92">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20697,25 +20697,25 @@
         <v>2.55</v>
       </c>
       <c r="AN93">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="AO93">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ93">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR93">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AS93">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AT93">
-        <v>3.02</v>
+        <v>3.24</v>
       </c>
       <c r="AU93">
         <v>10</v>
@@ -20903,25 +20903,25 @@
         <v>1.83</v>
       </c>
       <c r="AN94">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AO94">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ94">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR94">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="AS94">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="AT94">
-        <v>3.52</v>
+        <v>3.39</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -21109,25 +21109,25 @@
         <v>1.18</v>
       </c>
       <c r="AN95">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AO95">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="AP95">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR95">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS95">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="AT95">
-        <v>3.13</v>
+        <v>2.92</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -21315,25 +21315,25 @@
         <v>2.2</v>
       </c>
       <c r="AN96">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="AO96">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AP96">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ96">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR96">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="AS96">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AT96">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="AU96">
         <v>11</v>
@@ -21521,25 +21521,25 @@
         <v>1.15</v>
       </c>
       <c r="AN97">
-        <v>0.73</v>
+        <v>1.33</v>
       </c>
       <c r="AO97">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="AP97">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR97">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AS97">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AT97">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="AU97">
         <v>4</v>
@@ -21727,25 +21727,25 @@
         <v>1.9</v>
       </c>
       <c r="AN98">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO98">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ98">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR98">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AS98">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="AT98">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AU98">
         <v>5</v>
@@ -21933,25 +21933,25 @@
         <v>1.85</v>
       </c>
       <c r="AN99">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AO99">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP99">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR99">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="AS99">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AT99">
-        <v>2.29</v>
+        <v>2.57</v>
       </c>
       <c r="AU99">
         <v>6</v>
@@ -22139,25 +22139,25 @@
         <v>1.76</v>
       </c>
       <c r="AN100">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO100">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="AP100">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ100">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR100">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="AS100">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AT100">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22345,25 +22345,25 @@
         <v>1.68</v>
       </c>
       <c r="AN101">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="AO101">
+        <v>2.33</v>
+      </c>
+      <c r="AP101">
         <v>1.75</v>
       </c>
-      <c r="AP101">
-        <v>1.45</v>
-      </c>
       <c r="AQ101">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR101">
-        <v>1.63</v>
+        <v>2.03</v>
       </c>
       <c r="AS101">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="AT101">
-        <v>3.52</v>
+        <v>3.86</v>
       </c>
       <c r="AU101">
         <v>6</v>
@@ -22551,25 +22551,25 @@
         <v>1.6</v>
       </c>
       <c r="AN102">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO102">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ102">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR102">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AS102">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AT102">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="AU102">
         <v>3</v>
@@ -22760,22 +22760,22 @@
         <v>1.33</v>
       </c>
       <c r="AO103">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ103">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR103">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS103">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="AT103">
-        <v>2.79</v>
+        <v>2.72</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22963,25 +22963,25 @@
         <v>1.66</v>
       </c>
       <c r="AN104">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="AO104">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ104">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR104">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AS104">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT104">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
       <c r="AU104">
         <v>7</v>
@@ -23169,25 +23169,25 @@
         <v>1.33</v>
       </c>
       <c r="AN105">
-        <v>1.08</v>
+        <v>2</v>
       </c>
       <c r="AO105">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ105">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR105">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AS105">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="AT105">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU105">
         <v>4</v>
@@ -23375,25 +23375,25 @@
         <v>1.5</v>
       </c>
       <c r="AN106">
-        <v>0.77</v>
+        <v>0.5</v>
       </c>
       <c r="AO106">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AP106">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR106">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AS106">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT106">
-        <v>2.61</v>
+        <v>2.47</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23581,25 +23581,25 @@
         <v>2.2</v>
       </c>
       <c r="AN107">
-        <v>1.54</v>
+        <v>2.33</v>
       </c>
       <c r="AO107">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ107">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR107">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AS107">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT107">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="AU107">
         <v>10</v>
@@ -23787,25 +23787,25 @@
         <v>1.5</v>
       </c>
       <c r="AN108">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AO108">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="AP108">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR108">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AS108">
-        <v>1.21</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT108">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23993,25 +23993,25 @@
         <v>1.53</v>
       </c>
       <c r="AN109">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="AO109">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="AP109">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR109">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="AS109">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AT109">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="AU109">
         <v>8</v>
@@ -24199,25 +24199,25 @@
         <v>2.1</v>
       </c>
       <c r="AN110">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="AO110">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AP110">
+        <v>2.05</v>
+      </c>
+      <c r="AQ110">
+        <v>1.45</v>
+      </c>
+      <c r="AR110">
         <v>1.88</v>
       </c>
-      <c r="AQ110">
-        <v>1.5</v>
-      </c>
-      <c r="AR110">
-        <v>1.71</v>
-      </c>
       <c r="AS110">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="AT110">
-        <v>3.29</v>
+        <v>3.58</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24405,25 +24405,25 @@
         <v>2.95</v>
       </c>
       <c r="AN111">
+        <v>1.17</v>
+      </c>
+      <c r="AO111">
+        <v>0.67</v>
+      </c>
+      <c r="AP111">
         <v>1.62</v>
       </c>
-      <c r="AO111">
-        <v>0.92</v>
-      </c>
-      <c r="AP111">
-        <v>1.46</v>
-      </c>
       <c r="AQ111">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AS111">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="AT111">
-        <v>3.34</v>
+        <v>3.61</v>
       </c>
       <c r="AU111">
         <v>7</v>
@@ -24611,25 +24611,25 @@
         <v>1.7</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO112">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="AP112">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ112">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR112">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AS112">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AT112">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="AU112">
         <v>6</v>
@@ -24817,25 +24817,25 @@
         <v>4.2</v>
       </c>
       <c r="AN113">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AO113">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AP113">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ113">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR113">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AS113">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AT113">
-        <v>2.99</v>
+        <v>3.03</v>
       </c>
       <c r="AU113">
         <v>9</v>
@@ -25023,25 +25023,25 @@
         <v>1.28</v>
       </c>
       <c r="AN114">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AO114">
-        <v>1.64</v>
+        <v>0.86</v>
       </c>
       <c r="AP114">
+        <v>1.8</v>
+      </c>
+      <c r="AQ114">
+        <v>1.15</v>
+      </c>
+      <c r="AR114">
+        <v>1.4</v>
+      </c>
+      <c r="AS114">
         <v>1.33</v>
       </c>
-      <c r="AQ114">
-        <v>1.45</v>
-      </c>
-      <c r="AR114">
-        <v>1.35</v>
-      </c>
-      <c r="AS114">
-        <v>1.62</v>
-      </c>
       <c r="AT114">
-        <v>2.97</v>
+        <v>2.73</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25229,25 +25229,25 @@
         <v>3.15</v>
       </c>
       <c r="AN115">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AO115">
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ115">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR115">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AS115">
-        <v>1.11</v>
+        <v>0.96</v>
       </c>
       <c r="AT115">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AU115">
         <v>12</v>
@@ -25435,25 +25435,25 @@
         <v>1.95</v>
       </c>
       <c r="AN116">
-        <v>0.93</v>
+        <v>1.71</v>
       </c>
       <c r="AO116">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ116">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR116">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AS116">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AT116">
-        <v>2.68</v>
+        <v>2.81</v>
       </c>
       <c r="AU116">
         <v>5</v>
@@ -25641,25 +25641,25 @@
         <v>1.32</v>
       </c>
       <c r="AN117">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AO117">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AP117">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ117">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR117">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AS117">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT117">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="AU117">
         <v>5</v>
@@ -25847,25 +25847,25 @@
         <v>1.45</v>
       </c>
       <c r="AN118">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="AO118">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AP118">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ118">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR118">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="AS118">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="AT118">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -26053,25 +26053,25 @@
         <v>1.17</v>
       </c>
       <c r="AN119">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AO119">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ119">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR119">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AS119">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="AT119">
-        <v>3.14</v>
+        <v>2.84</v>
       </c>
       <c r="AU119">
         <v>4</v>
@@ -26259,25 +26259,25 @@
         <v>2.95</v>
       </c>
       <c r="AN120">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AO120">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ120">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AT120">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="AU120">
         <v>9</v>
@@ -26465,25 +26465,25 @@
         <v>1.42</v>
       </c>
       <c r="AN121">
-        <v>0.64</v>
+        <v>1.14</v>
       </c>
       <c r="AO121">
-        <v>1.07</v>
+        <v>0.71</v>
       </c>
       <c r="AP121">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR121">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AS121">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AT121">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26671,25 +26671,25 @@
         <v>1.23</v>
       </c>
       <c r="AN122">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="AO122">
-        <v>2.07</v>
+        <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR122">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AS122">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AT122">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="AU122">
         <v>8</v>
@@ -26877,25 +26877,25 @@
         <v>1.45</v>
       </c>
       <c r="AN123">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AO123">
-        <v>1.07</v>
+        <v>0.14</v>
       </c>
       <c r="AP123">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR123">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AS123">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AT123">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="AU123">
         <v>5</v>
@@ -27083,25 +27083,25 @@
         <v>1.68</v>
       </c>
       <c r="AN124">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AO124">
-        <v>0.6</v>
+        <v>0.14</v>
       </c>
       <c r="AP124">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR124">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="AS124">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AT124">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="AU124">
         <v>4</v>
@@ -27289,25 +27289,25 @@
         <v>2.95</v>
       </c>
       <c r="AN125">
-        <v>1.6</v>
+        <v>2.43</v>
       </c>
       <c r="AO125">
+        <v>0.57</v>
+      </c>
+      <c r="AP125">
+        <v>1.75</v>
+      </c>
+      <c r="AQ125">
         <v>0.8</v>
       </c>
-      <c r="AP125">
-        <v>1.45</v>
-      </c>
-      <c r="AQ125">
-        <v>1.1</v>
-      </c>
       <c r="AR125">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="AS125">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="AT125">
-        <v>2.98</v>
+        <v>3.45</v>
       </c>
       <c r="AU125">
         <v>7</v>
@@ -27495,25 +27495,25 @@
         <v>1.73</v>
       </c>
       <c r="AN126">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AO126">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="AP126">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ126">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR126">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="AS126">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AT126">
-        <v>3.53</v>
+        <v>3.6</v>
       </c>
       <c r="AU126">
         <v>7</v>
@@ -27701,25 +27701,25 @@
         <v>1.74</v>
       </c>
       <c r="AN127">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AO127">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AP127">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ127">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR127">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AS127">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT127">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="AU127">
         <v>6</v>
@@ -27907,25 +27907,25 @@
         <v>2.8</v>
       </c>
       <c r="AN128">
-        <v>1.53</v>
+        <v>1.86</v>
       </c>
       <c r="AO128">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP128">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ128">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR128">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="AS128">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AT128">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU128">
         <v>7</v>
@@ -28113,25 +28113,25 @@
         <v>2.15</v>
       </c>
       <c r="AN129">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AO129">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AP129">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR129">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AS129">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AT129">
-        <v>3.57</v>
+        <v>3.7</v>
       </c>
       <c r="AU129">
         <v>7</v>
@@ -28319,25 +28319,25 @@
         <v>1.42</v>
       </c>
       <c r="AN130">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO130">
-        <v>0.6899999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AP130">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR130">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AS130">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="AU130">
         <v>7</v>
@@ -28525,25 +28525,25 @@
         <v>1.44</v>
       </c>
       <c r="AN131">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="AO131">
-        <v>1.69</v>
+        <v>0.88</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ131">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR131">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AS131">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="AT131">
-        <v>3.29</v>
+        <v>2.97</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28734,22 +28734,22 @@
         <v>1.38</v>
       </c>
       <c r="AO132">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ132">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR132">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS132">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AT132">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="AU132">
         <v>14</v>
@@ -28937,25 +28937,25 @@
         <v>3.1</v>
       </c>
       <c r="AN133">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="AO133">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AP133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ133">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR133">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AS133">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="AT133">
-        <v>2.91</v>
+        <v>2.77</v>
       </c>
       <c r="AU133">
         <v>11</v>
@@ -29143,25 +29143,25 @@
         <v>1.12</v>
       </c>
       <c r="AN134">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AO134">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AP134">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ134">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR134">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AS134">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="AT134">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="AU134">
         <v>5</v>
@@ -29349,25 +29349,25 @@
         <v>1.1</v>
       </c>
       <c r="AN135">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO135">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AP135">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR135">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="AS135">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AT135">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="AU135">
         <v>5</v>
@@ -29555,25 +29555,25 @@
         <v>2.4</v>
       </c>
       <c r="AN136">
-        <v>2.13</v>
+        <v>2.71</v>
       </c>
       <c r="AO136">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP136">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ136">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR136">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="AS136">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AT136">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29761,25 +29761,25 @@
         <v>1.15</v>
       </c>
       <c r="AN137">
-        <v>1.06</v>
+        <v>1.88</v>
       </c>
       <c r="AO137">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AP137">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ137">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR137">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AT137">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AU137">
         <v>4</v>
@@ -29967,25 +29967,25 @@
         <v>2</v>
       </c>
       <c r="AN138">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="AO138">
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ138">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR138">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AS138">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="AT138">
-        <v>2.45</v>
+        <v>2.31</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -30173,25 +30173,25 @@
         <v>1.25</v>
       </c>
       <c r="AN139">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="AO139">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR139">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AS139">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="AT139">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="AU139">
         <v>4</v>
@@ -30379,25 +30379,25 @@
         <v>1.35</v>
       </c>
       <c r="AN140">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AO140">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AP140">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ140">
+        <v>0.85</v>
+      </c>
+      <c r="AR140">
+        <v>1.4</v>
+      </c>
+      <c r="AS140">
         <v>1.33</v>
       </c>
-      <c r="AR140">
-        <v>1.19</v>
-      </c>
-      <c r="AS140">
-        <v>1.45</v>
-      </c>
       <c r="AT140">
-        <v>2.64</v>
+        <v>2.73</v>
       </c>
       <c r="AU140">
         <v>7</v>
@@ -30585,25 +30585,25 @@
         <v>1.73</v>
       </c>
       <c r="AN141">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AO141">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AP141">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ141">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR141">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AS141">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT141">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -30791,25 +30791,25 @@
         <v>2.2</v>
       </c>
       <c r="AN142">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="AO142">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AP142">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ142">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR142">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="AS142">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="AT142">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -30997,25 +30997,25 @@
         <v>3.2</v>
       </c>
       <c r="AN143">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AO143">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ143">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR143">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="AS143">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AT143">
-        <v>3.34</v>
+        <v>3.31</v>
       </c>
       <c r="AU143">
         <v>9</v>
@@ -31203,25 +31203,25 @@
         <v>1.85</v>
       </c>
       <c r="AN144">
-        <v>1.76</v>
+        <v>2.5</v>
       </c>
       <c r="AO144">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="AP144">
+        <v>1.75</v>
+      </c>
+      <c r="AQ144">
         <v>1.45</v>
       </c>
-      <c r="AQ144">
-        <v>1.93</v>
-      </c>
       <c r="AR144">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="AS144">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="AT144">
-        <v>3.27</v>
+        <v>3.44</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31409,22 +31409,22 @@
         <v>4</v>
       </c>
       <c r="AN145">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="AO145">
-        <v>0.59</v>
+        <v>0.25</v>
       </c>
       <c r="AP145">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ145">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR145">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="AS145">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="AT145">
         <v>3.04</v>
@@ -31615,25 +31615,25 @@
         <v>3</v>
       </c>
       <c r="AN146">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AO146">
-        <v>0.5600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="AP146">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ146">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR146">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AS146">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AT146">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="AU146">
         <v>14</v>
@@ -31821,25 +31821,25 @@
         <v>1.53</v>
       </c>
       <c r="AN147">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AO147">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ147">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR147">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AS147">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AT147">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="AU147">
         <v>9</v>
@@ -32027,25 +32027,25 @@
         <v>3.4</v>
       </c>
       <c r="AN148">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="AO148">
-        <v>0.72</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP148">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ148">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR148">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="AS148">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AT148">
-        <v>3.01</v>
+        <v>3.24</v>
       </c>
       <c r="AU148">
         <v>7</v>
@@ -32233,25 +32233,25 @@
         <v>1.1</v>
       </c>
       <c r="AN149">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="AO149">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="AP149">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR149">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AS149">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT149">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="AU149">
         <v>4</v>
@@ -32439,22 +32439,22 @@
         <v>1.06</v>
       </c>
       <c r="AN150">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="AO150">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="AP150">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ150">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR150">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AS150">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT150">
         <v>3.11</v>
@@ -32645,25 +32645,25 @@
         <v>2.95</v>
       </c>
       <c r="AN151">
-        <v>1.72</v>
+        <v>2.33</v>
       </c>
       <c r="AO151">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AP151">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ151">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR151">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="AS151">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT151">
-        <v>2.99</v>
+        <v>3.23</v>
       </c>
       <c r="AU151">
         <v>7</v>
@@ -32851,25 +32851,25 @@
         <v>1.72</v>
       </c>
       <c r="AN152">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AO152">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP152">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ152">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR152">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AS152">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AT152">
-        <v>2.84</v>
+        <v>2.91</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -33057,25 +33057,25 @@
         <v>1.63</v>
       </c>
       <c r="AN153">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO153">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="AP153">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ153">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR153">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="AS153">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AT153">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="AU153">
         <v>4</v>
@@ -33263,25 +33263,25 @@
         <v>1.6</v>
       </c>
       <c r="AN154">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AO154">
-        <v>1.68</v>
+        <v>1.11</v>
       </c>
       <c r="AP154">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ154">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR154">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="AS154">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="AT154">
-        <v>3.61</v>
+        <v>3.46</v>
       </c>
       <c r="AU154">
         <v>9</v>
@@ -33469,25 +33469,25 @@
         <v>1.08</v>
       </c>
       <c r="AN155">
-        <v>0.53</v>
+        <v>0.89</v>
       </c>
       <c r="AO155">
-        <v>1.84</v>
+        <v>1.44</v>
       </c>
       <c r="AP155">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ155">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR155">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="AS155">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AT155">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33675,25 +33675,25 @@
         <v>1.93</v>
       </c>
       <c r="AN156">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="AO156">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="AP156">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ156">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR156">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AS156">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT156">
-        <v>2.45</v>
+        <v>2.29</v>
       </c>
       <c r="AU156">
         <v>8</v>
@@ -33881,25 +33881,25 @@
         <v>1.75</v>
       </c>
       <c r="AN157">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="AO157">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AP157">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ157">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR157">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AS157">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="AT157">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="AU157">
         <v>4</v>
@@ -34087,25 +34087,25 @@
         <v>1.59</v>
       </c>
       <c r="AN158">
-        <v>1.74</v>
+        <v>2.11</v>
       </c>
       <c r="AO158">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AP158">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ158">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR158">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AS158">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT158">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="AU158">
         <v>3</v>
@@ -34293,25 +34293,25 @@
         <v>1.55</v>
       </c>
       <c r="AN159">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AO159">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="AP159">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ159">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR159">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AS159">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT159">
-        <v>2.67</v>
+        <v>2.59</v>
       </c>
       <c r="AU159">
         <v>3</v>
@@ -34499,25 +34499,25 @@
         <v>1.85</v>
       </c>
       <c r="AN160">
-        <v>2.05</v>
+        <v>2.56</v>
       </c>
       <c r="AO160">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ160">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR160">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="AS160">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AT160">
-        <v>3.27</v>
+        <v>3.34</v>
       </c>
       <c r="AU160">
         <v>5</v>
@@ -34705,25 +34705,25 @@
         <v>1.7</v>
       </c>
       <c r="AN161">
-        <v>0.95</v>
+        <v>1.67</v>
       </c>
       <c r="AO161">
-        <v>1.16</v>
+        <v>0.89</v>
       </c>
       <c r="AP161">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ161">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR161">
+        <v>1.47</v>
+      </c>
+      <c r="AS161">
         <v>1.37</v>
       </c>
-      <c r="AS161">
-        <v>1.5</v>
-      </c>
       <c r="AT161">
-        <v>2.87</v>
+        <v>2.84</v>
       </c>
       <c r="AU161">
         <v>7</v>
@@ -34911,25 +34911,25 @@
         <v>2.75</v>
       </c>
       <c r="AN162">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AO162">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP162">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ162">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR162">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AS162">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="AT162">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="AU162">
         <v>8</v>
@@ -35120,22 +35120,22 @@
         <v>1.7</v>
       </c>
       <c r="AO163">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AP163">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ163">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR163">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="AS163">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AT163">
-        <v>3.68</v>
+        <v>3.8</v>
       </c>
       <c r="AU163">
         <v>4</v>
@@ -35323,25 +35323,25 @@
         <v>2.3</v>
       </c>
       <c r="AN164">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AO164">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AP164">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ164">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR164">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AS164">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AT164">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="AU164">
         <v>5</v>
@@ -35529,25 +35529,25 @@
         <v>3.4</v>
       </c>
       <c r="AN165">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AO165">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ165">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR165">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="AS165">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT165">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="AU165">
         <v>10</v>
@@ -35735,25 +35735,25 @@
         <v>1.77</v>
       </c>
       <c r="AN166">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AO166">
-        <v>1.05</v>
+        <v>0.3</v>
       </c>
       <c r="AP166">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ166">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR166">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AS166">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AT166">
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="AU166">
         <v>10</v>
@@ -35941,25 +35941,25 @@
         <v>3.2</v>
       </c>
       <c r="AN167">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AO167">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AP167">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ167">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR167">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AS167">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AT167">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="AU167">
         <v>6</v>
@@ -36147,25 +36147,25 @@
         <v>1.19</v>
       </c>
       <c r="AN168">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AO168">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AP168">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ168">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR168">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AS168">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AT168">
-        <v>2.89</v>
+        <v>2.79</v>
       </c>
       <c r="AU168">
         <v>5</v>
@@ -36353,25 +36353,25 @@
         <v>1.85</v>
       </c>
       <c r="AN169">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="AO169">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AP169">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR169">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="AS169">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AT169">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
       <c r="AU169">
         <v>2</v>
@@ -36559,25 +36559,25 @@
         <v>2.45</v>
       </c>
       <c r="AN170">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="AO170">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AP170">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ170">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR170">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AS170">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AT170">
-        <v>2.97</v>
+        <v>2.89</v>
       </c>
       <c r="AU170">
         <v>8</v>
@@ -36765,25 +36765,25 @@
         <v>1.44</v>
       </c>
       <c r="AN171">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="AO171">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AP171">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR171">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AS171">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AT171">
-        <v>2.43</v>
+        <v>2.59</v>
       </c>
       <c r="AU171">
         <v>4</v>
@@ -36971,25 +36971,25 @@
         <v>1.12</v>
       </c>
       <c r="AN172">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AO172">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
       <c r="AP172">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ172">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR172">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AS172">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT172">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37177,25 +37177,25 @@
         <v>3</v>
       </c>
       <c r="AN173">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="AO173">
         <v>1</v>
       </c>
       <c r="AP173">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ173">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR173">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AS173">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AT173">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU173">
         <v>6</v>
@@ -37383,25 +37383,25 @@
         <v>1.27</v>
       </c>
       <c r="AN174">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AO174">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AP174">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ174">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR174">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AS174">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AT174">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="AU174">
         <v>5</v>
@@ -37589,25 +37589,25 @@
         <v>1.06</v>
       </c>
       <c r="AN175">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AO175">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP175">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ175">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR175">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AS175">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="AT175">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="AU175">
         <v>4</v>
@@ -37795,25 +37795,25 @@
         <v>1.28</v>
       </c>
       <c r="AN176">
+        <v>2.6</v>
+      </c>
+      <c r="AO176">
+        <v>2.3</v>
+      </c>
+      <c r="AP176">
+        <v>2.4</v>
+      </c>
+      <c r="AQ176">
         <v>2.05</v>
       </c>
-      <c r="AO176">
-        <v>2.43</v>
-      </c>
-      <c r="AP176">
-        <v>1.93</v>
-      </c>
-      <c r="AQ176">
-        <v>2.1</v>
-      </c>
       <c r="AR176">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AS176">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="AT176">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="AU176">
         <v>3</v>
@@ -38001,22 +38001,22 @@
         <v>2.15</v>
       </c>
       <c r="AN177">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="AO177">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP177">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ177">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR177">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="AS177">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="AT177">
         <v>2.67</v>
@@ -38210,22 +38210,22 @@
         <v>1</v>
       </c>
       <c r="AO178">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AP178">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ178">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR178">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AS178">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AT178">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU178">
         <v>6</v>
@@ -38413,25 +38413,25 @@
         <v>6.5</v>
       </c>
       <c r="AN179">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AO179">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="AP179">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ179">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR179">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AS179">
-        <v>1.1</v>
+        <v>0.99</v>
       </c>
       <c r="AT179">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="AU179">
         <v>11</v>
@@ -38619,25 +38619,25 @@
         <v>1.2</v>
       </c>
       <c r="AN180">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="AO180">
         <v>1.64</v>
       </c>
       <c r="AP180">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ180">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR180">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AS180">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AT180">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="AU180">
         <v>5</v>
@@ -38825,25 +38825,25 @@
         <v>2.31</v>
       </c>
       <c r="AN181">
-        <v>0.95</v>
+        <v>1.64</v>
       </c>
       <c r="AO181">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AP181">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ181">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR181">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="AS181">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AT181">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
       <c r="AU181">
         <v>4</v>
@@ -39031,25 +39031,25 @@
         <v>1.25</v>
       </c>
       <c r="AN182">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="AO182">
-        <v>1.59</v>
+        <v>0.91</v>
       </c>
       <c r="AP182">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ182">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR182">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AS182">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="AT182">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AU182">
         <v>5</v>
@@ -39237,25 +39237,25 @@
         <v>4.33</v>
       </c>
       <c r="AN183">
-        <v>2.36</v>
+        <v>2.55</v>
       </c>
       <c r="AO183">
-        <v>0.95</v>
+        <v>0.73</v>
       </c>
       <c r="AP183">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ183">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR183">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AS183">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AT183">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39443,25 +39443,25 @@
         <v>1.3</v>
       </c>
       <c r="AN184">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AO184">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AP184">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ184">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR184">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AS184">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AT184">
-        <v>3.05</v>
+        <v>3.21</v>
       </c>
       <c r="AU184">
         <v>8</v>
@@ -39649,25 +39649,25 @@
         <v>1.29</v>
       </c>
       <c r="AN185">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AO185">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="AP185">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ185">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR185">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="AS185">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="AT185">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="AU185">
         <v>13</v>
@@ -39855,25 +39855,25 @@
         <v>1.28</v>
       </c>
       <c r="AN186">
+        <v>1.18</v>
+      </c>
+      <c r="AO186">
         <v>0.91</v>
       </c>
-      <c r="AO186">
-        <v>1.04</v>
-      </c>
       <c r="AP186">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR186">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="AS186">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AT186">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
       <c r="AU186">
         <v>5</v>
@@ -40061,25 +40061,25 @@
         <v>1.8</v>
       </c>
       <c r="AN187">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AO187">
-        <v>0.91</v>
+        <v>0.55</v>
       </c>
       <c r="AP187">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR187">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS187">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AT187">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="AU187">
         <v>8</v>
@@ -40267,25 +40267,25 @@
         <v>1.33</v>
       </c>
       <c r="AN188">
-        <v>0.65</v>
+        <v>0.82</v>
       </c>
       <c r="AO188">
-        <v>1.04</v>
+        <v>0.27</v>
       </c>
       <c r="AP188">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ188">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR188">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AS188">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AT188">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="AU188">
         <v>5</v>
@@ -40473,25 +40473,25 @@
         <v>1.43</v>
       </c>
       <c r="AN189">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AO189">
-        <v>2.39</v>
+        <v>2.18</v>
       </c>
       <c r="AP189">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ189">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR189">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="AS189">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="AT189">
-        <v>3.73</v>
+        <v>3.76</v>
       </c>
       <c r="AU189">
         <v>4</v>
@@ -40679,25 +40679,25 @@
         <v>1.3</v>
       </c>
       <c r="AN190">
-        <v>1.65</v>
+        <v>2.27</v>
       </c>
       <c r="AO190">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="AP190">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ190">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR190">
-        <v>1.58</v>
+        <v>1.91</v>
       </c>
       <c r="AS190">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AT190">
-        <v>3.31</v>
+        <v>3.53</v>
       </c>
       <c r="AU190">
         <v>4</v>
@@ -40885,25 +40885,25 @@
         <v>1.36</v>
       </c>
       <c r="AN191">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO191">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ191">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR191">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AS191">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="AT191">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="AU191">
         <v>6</v>
@@ -41091,25 +41091,25 @@
         <v>1.56</v>
       </c>
       <c r="AN192">
-        <v>1.96</v>
+        <v>2.45</v>
       </c>
       <c r="AO192">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="AP192">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ192">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR192">
+        <v>1.55</v>
+      </c>
+      <c r="AS192">
         <v>1.51</v>
       </c>
-      <c r="AS192">
-        <v>1.68</v>
-      </c>
       <c r="AT192">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="AU192">
         <v>5</v>
@@ -41297,25 +41297,25 @@
         <v>1.89</v>
       </c>
       <c r="AN193">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AO193">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="AP193">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ193">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR193">
         <v>1.74</v>
       </c>
       <c r="AS193">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AT193">
-        <v>3.23</v>
+        <v>3.06</v>
       </c>
       <c r="AU193">
         <v>7</v>
@@ -41503,25 +41503,25 @@
         <v>2.4</v>
       </c>
       <c r="AN194">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="AO194">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP194">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ194">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR194">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AS194">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT194">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="AU194">
         <v>4</v>
@@ -41709,25 +41709,25 @@
         <v>1.9</v>
       </c>
       <c r="AN195">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AO195">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP195">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ195">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR195">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AS195">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AT195">
-        <v>2.57</v>
+        <v>2.69</v>
       </c>
       <c r="AU195">
         <v>6</v>
@@ -41915,25 +41915,25 @@
         <v>3.6</v>
       </c>
       <c r="AN196">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="AO196">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AP196">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ196">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR196">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="AS196">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT196">
-        <v>3.19</v>
+        <v>3.21</v>
       </c>
       <c r="AU196">
         <v>4</v>
@@ -42121,25 +42121,25 @@
         <v>4.1</v>
       </c>
       <c r="AN197">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO197">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AP197">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ197">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR197">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AS197">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT197">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="AU197">
         <v>7</v>
@@ -42327,25 +42327,25 @@
         <v>1.18</v>
       </c>
       <c r="AN198">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="AO198">
-        <v>1.71</v>
+        <v>1.08</v>
       </c>
       <c r="AP198">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ198">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR198">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="AS198">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="AT198">
-        <v>2.73</v>
+        <v>2.62</v>
       </c>
       <c r="AU198">
         <v>2</v>
@@ -42533,25 +42533,25 @@
         <v>1.28</v>
       </c>
       <c r="AN199">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO199">
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ199">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR199">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AS199">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AT199">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="AU199">
         <v>3</v>
@@ -42739,25 +42739,25 @@
         <v>1.28</v>
       </c>
       <c r="AN200">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO200">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP200">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ200">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR200">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="AS200">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="AT200">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="AU200">
         <v>7</v>
@@ -42945,25 +42945,25 @@
         <v>1.7</v>
       </c>
       <c r="AN201">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AO201">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP201">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ201">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR201">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="AS201">
         <v>1.74</v>
       </c>
       <c r="AT201">
-        <v>3.42</v>
+        <v>3.58</v>
       </c>
       <c r="AU201">
         <v>11</v>
@@ -43151,25 +43151,25 @@
         <v>1.57</v>
       </c>
       <c r="AN202">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AO202">
-        <v>1.12</v>
+        <v>0.92</v>
       </c>
       <c r="AP202">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ202">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR202">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AS202">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AT202">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="AU202">
         <v>6</v>
@@ -43357,25 +43357,25 @@
         <v>3.6</v>
       </c>
       <c r="AN203">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AO203">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AP203">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ203">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR203">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS203">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="AT203">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="AU203">
         <v>10</v>
@@ -43563,25 +43563,25 @@
         <v>1.57</v>
       </c>
       <c r="AN204">
-        <v>0.96</v>
+        <v>1.25</v>
       </c>
       <c r="AO204">
-        <v>0.96</v>
+        <v>0.25</v>
       </c>
       <c r="AP204">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ204">
+        <v>0.89</v>
+      </c>
+      <c r="AR204">
+        <v>1.3</v>
+      </c>
+      <c r="AS204">
         <v>1.25</v>
       </c>
-      <c r="AR204">
-        <v>1.32</v>
-      </c>
-      <c r="AS204">
-        <v>1.39</v>
-      </c>
       <c r="AT204">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="AU204">
         <v>2</v>
@@ -43769,25 +43769,25 @@
         <v>2.35</v>
       </c>
       <c r="AN205">
-        <v>1.76</v>
+        <v>2.33</v>
       </c>
       <c r="AO205">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="AP205">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ205">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR205">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="AS205">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="AT205">
-        <v>3.07</v>
+        <v>3.14</v>
       </c>
       <c r="AU205">
         <v>4</v>
@@ -43975,25 +43975,25 @@
         <v>1.33</v>
       </c>
       <c r="AN206">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AO206">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="AP206">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ206">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR206">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AS206">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="AT206">
-        <v>3.45</v>
+        <v>3.36</v>
       </c>
       <c r="AU206">
         <v>5</v>
@@ -44181,25 +44181,25 @@
         <v>1.05</v>
       </c>
       <c r="AN207">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="AO207">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AP207">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ207">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR207">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AS207">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="AT207">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
       <c r="AU207">
         <v>3</v>
@@ -44387,25 +44387,25 @@
         <v>2.2</v>
       </c>
       <c r="AN208">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="AO208">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AP208">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ208">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR208">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS208">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AT208">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="AU208">
         <v>9</v>
@@ -44593,25 +44593,25 @@
         <v>1.2</v>
       </c>
       <c r="AN209">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AO209">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AP209">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ209">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR209">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="AS209">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="AT209">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="AU209">
         <v>4</v>
@@ -44799,25 +44799,25 @@
         <v>1.26</v>
       </c>
       <c r="AN210">
-        <v>0.96</v>
+        <v>1.62</v>
       </c>
       <c r="AO210">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AP210">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ210">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR210">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="AS210">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AT210">
-        <v>3.17</v>
+        <v>3.22</v>
       </c>
       <c r="AU210">
         <v>5</v>
@@ -45005,25 +45005,25 @@
         <v>1.44</v>
       </c>
       <c r="AN211">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="AO211">
-        <v>0.96</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP211">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ211">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR211">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="AS211">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT211">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="AU211">
         <v>4</v>
@@ -45211,25 +45211,25 @@
         <v>1.75</v>
       </c>
       <c r="AN212">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="AO212">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AP212">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ212">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR212">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="AS212">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AT212">
-        <v>2.78</v>
+        <v>2.87</v>
       </c>
       <c r="AU212">
         <v>5</v>
@@ -45417,25 +45417,25 @@
         <v>2.26</v>
       </c>
       <c r="AN213">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AO213">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="AP213">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ213">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="AR213">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AS213">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
       <c r="AT213">
-        <v>2.55</v>
+        <v>2.66</v>
       </c>
       <c r="AU213">
         <v>5</v>
@@ -45623,25 +45623,25 @@
         <v>2.16</v>
       </c>
       <c r="AN214">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="AO214">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="AP214">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ214">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR214">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="AS214">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AT214">
-        <v>3.23</v>
+        <v>3.32</v>
       </c>
       <c r="AU214">
         <v>7</v>
@@ -45829,25 +45829,25 @@
         <v>1.62</v>
       </c>
       <c r="AN215">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AO215">
-        <v>1.69</v>
+        <v>1.23</v>
       </c>
       <c r="AP215">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ215">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR215">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="AS215">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AT215">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="AU215">
         <v>6</v>
@@ -46035,25 +46035,25 @@
         <v>2.9</v>
       </c>
       <c r="AN216">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="AO216">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="AP216">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ216">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR216">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AS216">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT216">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="AU216">
         <v>8</v>
@@ -46241,25 +46241,25 @@
         <v>1.12</v>
       </c>
       <c r="AN217">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AO217">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AP217">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ217">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR217">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AS217">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AT217">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="AU217">
         <v>2</v>
@@ -46447,25 +46447,25 @@
         <v>1.73</v>
       </c>
       <c r="AN218">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="AO218">
-        <v>0.93</v>
+        <v>0.31</v>
       </c>
       <c r="AP218">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ218">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR218">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AS218">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AT218">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="AU218">
         <v>4</v>
@@ -46653,25 +46653,25 @@
         <v>1.98</v>
       </c>
       <c r="AN219">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
       <c r="AO219">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AP219">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ219">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR219">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AS219">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AT219">
-        <v>3.15</v>
+        <v>2.97</v>
       </c>
       <c r="AU219">
         <v>7</v>
@@ -46859,25 +46859,25 @@
         <v>1.15</v>
       </c>
       <c r="AN220">
-        <v>0.96</v>
+        <v>1.23</v>
       </c>
       <c r="AO220">
-        <v>2.41</v>
+        <v>2.31</v>
       </c>
       <c r="AP220">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ220">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR220">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AS220">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AT220">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="AU220">
         <v>3</v>
@@ -47065,25 +47065,25 @@
         <v>1.36</v>
       </c>
       <c r="AN221">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="AO221">
-        <v>1.59</v>
+        <v>1.46</v>
       </c>
       <c r="AP221">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ221">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR221">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AS221">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="AT221">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="AU221">
         <v>8</v>
@@ -47271,25 +47271,25 @@
         <v>1.44</v>
       </c>
       <c r="AN222">
+        <v>1.62</v>
+      </c>
+      <c r="AO222">
+        <v>1.38</v>
+      </c>
+      <c r="AP222">
+        <v>1.62</v>
+      </c>
+      <c r="AQ222">
+        <v>1.7</v>
+      </c>
+      <c r="AR222">
+        <v>1.93</v>
+      </c>
+      <c r="AS222">
         <v>1.59</v>
       </c>
-      <c r="AO222">
-        <v>1.67</v>
-      </c>
-      <c r="AP222">
-        <v>1.46</v>
-      </c>
-      <c r="AQ222">
-        <v>1.88</v>
-      </c>
-      <c r="AR222">
-        <v>1.82</v>
-      </c>
-      <c r="AS222">
-        <v>1.72</v>
-      </c>
       <c r="AT222">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47477,25 +47477,25 @@
         <v>2.2</v>
       </c>
       <c r="AN223">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="AO223">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AP223">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ223">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR223">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AS223">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT223">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="AU223">
         <v>12</v>
@@ -47683,25 +47683,25 @@
         <v>3.5</v>
       </c>
       <c r="AN224">
-        <v>2.11</v>
+        <v>2.54</v>
       </c>
       <c r="AO224">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="AP224">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ224">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR224">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AS224">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AT224">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="AU224">
         <v>6</v>
@@ -47889,25 +47889,25 @@
         <v>1.55</v>
       </c>
       <c r="AN225">
+        <v>0.92</v>
+      </c>
+      <c r="AO225">
+        <v>0.62</v>
+      </c>
+      <c r="AP225">
+        <v>1</v>
+      </c>
+      <c r="AQ225">
         <v>0.67</v>
       </c>
-      <c r="AO225">
-        <v>0.85</v>
-      </c>
-      <c r="AP225">
-        <v>0.86</v>
-      </c>
-      <c r="AQ225">
-        <v>0.83</v>
-      </c>
       <c r="AR225">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AS225">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="AT225">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="AU225">
         <v>8</v>
@@ -48095,25 +48095,25 @@
         <v>2.01</v>
       </c>
       <c r="AN226">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AO226">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="AP226">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ226">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR226">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="AS226">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AT226">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="AU226">
         <v>5</v>
@@ -48301,25 +48301,25 @@
         <v>1.11</v>
       </c>
       <c r="AN227">
-        <v>0.75</v>
+        <v>1.07</v>
       </c>
       <c r="AO227">
-        <v>1.71</v>
+        <v>1.21</v>
       </c>
       <c r="AP227">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ227">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR227">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AS227">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT227">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="AU227">
         <v>2</v>
@@ -48507,25 +48507,25 @@
         <v>1.25</v>
       </c>
       <c r="AN228">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO228">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AP228">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="AQ228">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR228">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AS228">
         <v>1.69</v>
       </c>
       <c r="AT228">
-        <v>3.01</v>
+        <v>3.17</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48713,25 +48713,25 @@
         <v>1.14</v>
       </c>
       <c r="AN229">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
       <c r="AO229">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AP229">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ229">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR229">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AS229">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="AT229">
-        <v>2.67</v>
+        <v>2.74</v>
       </c>
       <c r="AU229">
         <v>3</v>
@@ -48919,25 +48919,25 @@
         <v>2.3</v>
       </c>
       <c r="AN230">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AO230">
-        <v>1.11</v>
+        <v>0.79</v>
       </c>
       <c r="AP230">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ230">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR230">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AS230">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT230">
-        <v>3.06</v>
+        <v>3.04</v>
       </c>
       <c r="AU230">
         <v>6</v>
@@ -49125,25 +49125,25 @@
         <v>3.5</v>
       </c>
       <c r="AN231">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="AO231">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AP231">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ231">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR231">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AS231">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AT231">
-        <v>3.02</v>
+        <v>3.17</v>
       </c>
       <c r="AU231">
         <v>9</v>
@@ -49331,25 +49331,25 @@
         <v>2.3</v>
       </c>
       <c r="AN232">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AO232">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="AP232">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ232">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR232">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AS232">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AT232">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU232">
         <v>6</v>
@@ -49537,25 +49537,25 @@
         <v>1.3</v>
       </c>
       <c r="AN233">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="AO233">
-        <v>1.32</v>
+        <v>0.86</v>
       </c>
       <c r="AP233">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ233">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR233">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AS233">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AT233">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AU233">
         <v>3</v>
@@ -49743,25 +49743,25 @@
         <v>2.1</v>
       </c>
       <c r="AN234">
-        <v>1.07</v>
+        <v>1.43</v>
       </c>
       <c r="AO234">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AP234">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ234">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR234">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AS234">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AT234">
-        <v>2.37</v>
+        <v>2.44</v>
       </c>
       <c r="AU234">
         <v>7</v>
@@ -49949,25 +49949,25 @@
         <v>3.75</v>
       </c>
       <c r="AN235">
-        <v>2.17</v>
+        <v>2.57</v>
       </c>
       <c r="AO235">
+        <v>0.43</v>
+      </c>
+      <c r="AP235">
+        <v>2.4</v>
+      </c>
+      <c r="AQ235">
         <v>0.72</v>
       </c>
-      <c r="AP235">
-        <v>1.93</v>
-      </c>
-      <c r="AQ235">
-        <v>0.86</v>
-      </c>
       <c r="AR235">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AS235">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="AT235">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="AU235">
         <v>6</v>
@@ -50155,25 +50155,25 @@
         <v>1.09</v>
       </c>
       <c r="AN236">
-        <v>1.28</v>
+        <v>1.79</v>
       </c>
       <c r="AO236">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="AP236">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ236">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR236">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="AS236">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="AT236">
-        <v>3.14</v>
+        <v>3.19</v>
       </c>
       <c r="AU236">
         <v>6</v>
@@ -50361,25 +50361,25 @@
         <v>1.5</v>
       </c>
       <c r="AN237">
-        <v>1.76</v>
+        <v>2.21</v>
       </c>
       <c r="AO237">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="AP237">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ237">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR237">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="AS237">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AT237">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
       <c r="AU237">
         <v>4</v>
@@ -50567,25 +50567,25 @@
         <v>2.4</v>
       </c>
       <c r="AN238">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="AO238">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP238">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ238">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AR238">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="AS238">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT238">
-        <v>2.98</v>
+        <v>3.03</v>
       </c>
       <c r="AU238">
         <v>10</v>
@@ -50773,25 +50773,25 @@
         <v>1.33</v>
       </c>
       <c r="AN239">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
       <c r="AO239">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AP239">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ239">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR239">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS239">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AT239">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="AU239">
         <v>5</v>
@@ -50979,25 +50979,25 @@
         <v>3.35</v>
       </c>
       <c r="AN240">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="AO240">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AP240">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ240">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR240">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AS240">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AT240">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="AU240">
         <v>9</v>
@@ -51185,25 +51185,25 @@
         <v>1.28</v>
       </c>
       <c r="AN241">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO241">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AP241">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ241">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR241">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AS241">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="AT241">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="AU241">
         <v>5</v>
@@ -51391,25 +51391,25 @@
         <v>2.2</v>
       </c>
       <c r="AN242">
+        <v>1.57</v>
+      </c>
+      <c r="AO242">
+        <v>1.13</v>
+      </c>
+      <c r="AP242">
         <v>1.8</v>
       </c>
-      <c r="AO242">
-        <v>0.73</v>
-      </c>
-      <c r="AP242">
-        <v>1.95</v>
-      </c>
       <c r="AQ242">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR242">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AS242">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AT242">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
       <c r="AU242">
         <v>9</v>
@@ -51597,25 +51597,25 @@
         <v>1.47</v>
       </c>
       <c r="AN243">
-        <v>1.27</v>
+        <v>0.97</v>
       </c>
       <c r="AO243">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP243">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ243">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR243">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AS243">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT243">
-        <v>2.61</v>
+        <v>2.76</v>
       </c>
       <c r="AU243">
         <v>6</v>
@@ -52009,25 +52009,25 @@
         <v>1.68</v>
       </c>
       <c r="AN245">
-        <v>1.87</v>
+        <v>1.33</v>
       </c>
       <c r="AO245">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AP245">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ245">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR245">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AS245">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AT245">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="AU245">
         <v>7</v>
@@ -52627,25 +52627,25 @@
         <v>1.77</v>
       </c>
       <c r="AN248">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AO248">
-        <v>0.8</v>
+        <v>1.39</v>
       </c>
       <c r="AP248">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ248">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR248">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AS248">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="AT248">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -53039,25 +53039,25 @@
         <v>1.91</v>
       </c>
       <c r="AN250">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="AO250">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP250">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ250">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR250">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AS250">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT250">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="AU250">
         <v>7</v>
@@ -54069,25 +54069,25 @@
         <v>1.27</v>
       </c>
       <c r="AN255">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="AO255">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AP255">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ255">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR255">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AS255">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AT255">
-        <v>2.92</v>
+        <v>3.04</v>
       </c>
       <c r="AU255">
         <v>4</v>
@@ -54275,25 +54275,25 @@
         <v>1.67</v>
       </c>
       <c r="AN256">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="AO256">
-        <v>0.6899999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AP256">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ256">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR256">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS256">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="AT256">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AU256">
         <v>9</v>
@@ -54687,25 +54687,25 @@
         <v>2</v>
       </c>
       <c r="AN258">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AO258">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP258">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ258">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR258">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AS258">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT258">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU258">
         <v>7</v>
@@ -55717,25 +55717,25 @@
         <v>1.25</v>
       </c>
       <c r="AN263">
-        <v>1.19</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO263">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AP263">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ263">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR263">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AS263">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AT263">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AU263">
         <v>5</v>
@@ -55923,25 +55923,25 @@
         <v>1.48</v>
       </c>
       <c r="AN264">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO264">
-        <v>0.9399999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="AP264">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ264">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR264">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AS264">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AT264">
-        <v>2.59</v>
+        <v>2.76</v>
       </c>
       <c r="AU264">
         <v>12</v>
@@ -56129,25 +56129,25 @@
         <v>1.51</v>
       </c>
       <c r="AN265">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="AO265">
-        <v>0.71</v>
+        <v>1.09</v>
       </c>
       <c r="AP265">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ265">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR265">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS265">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AT265">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="AU265">
         <v>7</v>
@@ -56335,22 +56335,22 @@
         <v>2.4</v>
       </c>
       <c r="AN266">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="AO266">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AP266">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ266">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR266">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="AS266">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AT266">
         <v>3.2</v>
@@ -57571,25 +57571,25 @@
         <v>1.56</v>
       </c>
       <c r="AN272">
+        <v>1.09</v>
+      </c>
+      <c r="AO272">
         <v>1.5</v>
       </c>
-      <c r="AO272">
-        <v>1.35</v>
-      </c>
       <c r="AP272">
+        <v>0.98</v>
+      </c>
+      <c r="AQ272">
+        <v>1.53</v>
+      </c>
+      <c r="AR272">
         <v>1.3</v>
       </c>
-      <c r="AQ272">
-        <v>1.35</v>
-      </c>
-      <c r="AR272">
-        <v>1.38</v>
-      </c>
       <c r="AS272">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AT272">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="AU272">
         <v>7</v>
@@ -57777,25 +57777,25 @@
         <v>1.26</v>
       </c>
       <c r="AN273">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO273">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AP273">
+        <v>1.33</v>
+      </c>
+      <c r="AQ273">
         <v>1.8</v>
       </c>
-      <c r="AQ273">
-        <v>1.67</v>
-      </c>
       <c r="AR273">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AS273">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AT273">
-        <v>3.18</v>
+        <v>3.13</v>
       </c>
       <c r="AU273">
         <v>7</v>
@@ -57983,25 +57983,25 @@
         <v>1.62</v>
       </c>
       <c r="AN274">
+        <v>0.91</v>
+      </c>
+      <c r="AO274">
         <v>1.06</v>
       </c>
-      <c r="AO274">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AP274">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ274">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR274">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AS274">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT274">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -59013,25 +59013,25 @@
         <v>1.8</v>
       </c>
       <c r="AN279">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="AO279">
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
       <c r="AP279">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ279">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR279">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AS279">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT279">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="AU279">
         <v>8</v>
@@ -59219,25 +59219,25 @@
         <v>1.57</v>
       </c>
       <c r="AN280">
-        <v>1.47</v>
+        <v>1.09</v>
       </c>
       <c r="AO280">
-        <v>0.88</v>
+        <v>1.34</v>
       </c>
       <c r="AP280">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ280">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR280">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AS280">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AT280">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU280">
         <v>7</v>
@@ -59425,25 +59425,25 @@
         <v>2.88</v>
       </c>
       <c r="AN281">
-        <v>1.94</v>
+        <v>1.69</v>
       </c>
       <c r="AO281">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="AP281">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ281">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR281">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="AS281">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AT281">
-        <v>3.16</v>
+        <v>3.05</v>
       </c>
       <c r="AU281">
         <v>7</v>
@@ -60455,25 +60455,25 @@
         <v>1.54</v>
       </c>
       <c r="AN286">
-        <v>1.06</v>
+        <v>0.89</v>
       </c>
       <c r="AO286">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="AP286">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ286">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR286">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AS286">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="AT286">
-        <v>2.63</v>
+        <v>2.81</v>
       </c>
       <c r="AU286">
         <v>7</v>
@@ -60867,25 +60867,25 @@
         <v>1.3</v>
       </c>
       <c r="AN288">
+        <v>1.53</v>
+      </c>
+      <c r="AO288">
         <v>1.72</v>
       </c>
-      <c r="AO288">
-        <v>1.44</v>
-      </c>
       <c r="AP288">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ288">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR288">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AS288">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AT288">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="AU288">
         <v>9</v>
@@ -61485,25 +61485,25 @@
         <v>1.57</v>
       </c>
       <c r="AN291">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="AO291">
-        <v>0.72</v>
+        <v>1.08</v>
       </c>
       <c r="AP291">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ291">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR291">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AS291">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AT291">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="AU291">
         <v>8</v>
@@ -62103,25 +62103,25 @@
         <v>1.83</v>
       </c>
       <c r="AN294">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="AO294">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="AP294">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ294">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR294">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AS294">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AT294">
-        <v>2.79</v>
+        <v>2.72</v>
       </c>
       <c r="AU294">
         <v>-1</v>
@@ -62927,25 +62927,25 @@
         <v>3</v>
       </c>
       <c r="AN298">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="AO298">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AP298">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ298">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR298">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="AS298">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AT298">
-        <v>3.17</v>
+        <v>3.04</v>
       </c>
       <c r="AU298">
         <v>3</v>
@@ -63133,25 +63133,25 @@
         <v>1.55</v>
       </c>
       <c r="AN299">
-        <v>1.78</v>
+        <v>1.32</v>
       </c>
       <c r="AO299">
+        <v>1.49</v>
+      </c>
+      <c r="AP299">
         <v>1.33</v>
       </c>
-      <c r="AP299">
-        <v>1.8</v>
-      </c>
       <c r="AQ299">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR299">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="AS299">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AT299">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="AU299">
         <v>6</v>
@@ -63751,25 +63751,25 @@
         <v>1.75</v>
       </c>
       <c r="AN302">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="AO302">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="AP302">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ302">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR302">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AS302">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AT302">
-        <v>2.93</v>
+        <v>2.77</v>
       </c>
       <c r="AU302">
         <v>4</v>
@@ -63957,25 +63957,25 @@
         <v>1.48</v>
       </c>
       <c r="AN303">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AO303">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="AP303">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ303">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR303">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AS303">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="AT303">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="AU303">
         <v>3</v>
@@ -64163,25 +64163,25 @@
         <v>1.28</v>
       </c>
       <c r="AN304">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
       <c r="AO304">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="AP304">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ304">
+        <v>1.8</v>
+      </c>
+      <c r="AR304">
+        <v>1.32</v>
+      </c>
+      <c r="AS304">
         <v>1.67</v>
       </c>
-      <c r="AR304">
-        <v>1.43</v>
-      </c>
-      <c r="AS304">
-        <v>1.53</v>
-      </c>
       <c r="AT304">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="AU304">
         <v>3</v>
@@ -64987,25 +64987,25 @@
         <v>1.73</v>
       </c>
       <c r="AN308">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AO308">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AP308">
+        <v>1.1</v>
+      </c>
+      <c r="AQ308">
+        <v>0.98</v>
+      </c>
+      <c r="AR308">
+        <v>1.34</v>
+      </c>
+      <c r="AS308">
         <v>1.4</v>
       </c>
-      <c r="AQ308">
-        <v>0.95</v>
-      </c>
-      <c r="AR308">
-        <v>1.39</v>
-      </c>
-      <c r="AS308">
-        <v>1.36</v>
-      </c>
       <c r="AT308">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU308">
         <v>3</v>
@@ -65193,25 +65193,25 @@
         <v>1.9</v>
       </c>
       <c r="AN309">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="AO309">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="AP309">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ309">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR309">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AS309">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AT309">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="AU309">
         <v>10</v>
@@ -65399,25 +65399,25 @@
         <v>2.5</v>
       </c>
       <c r="AN310">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="AO310">
-        <v>0.89</v>
+        <v>1.36</v>
       </c>
       <c r="AP310">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ310">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR310">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="AS310">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="AT310">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="AU310">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -51391,25 +51391,25 @@
         <v>2.2</v>
       </c>
       <c r="AN242">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AO242">
-        <v>1.13</v>
+        <v>0.73</v>
       </c>
       <c r="AP242">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ242">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR242">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AS242">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AT242">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="AU242">
         <v>9</v>
@@ -51597,25 +51597,25 @@
         <v>1.47</v>
       </c>
       <c r="AN243">
-        <v>0.97</v>
+        <v>1.27</v>
       </c>
       <c r="AO243">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP243">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ243">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR243">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AS243">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT243">
-        <v>2.76</v>
+        <v>2.61</v>
       </c>
       <c r="AU243">
         <v>6</v>
@@ -52009,25 +52009,25 @@
         <v>1.68</v>
       </c>
       <c r="AN245">
-        <v>1.33</v>
+        <v>1.87</v>
       </c>
       <c r="AO245">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AP245">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ245">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR245">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AS245">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AT245">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="AU245">
         <v>7</v>
@@ -52627,25 +52627,25 @@
         <v>1.77</v>
       </c>
       <c r="AN248">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AO248">
-        <v>1.39</v>
+        <v>0.8</v>
       </c>
       <c r="AP248">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ248">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR248">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AS248">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="AT248">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -53039,25 +53039,25 @@
         <v>1.91</v>
       </c>
       <c r="AN250">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="AO250">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AP250">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ250">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR250">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AS250">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AT250">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="AU250">
         <v>7</v>
@@ -54069,25 +54069,25 @@
         <v>1.27</v>
       </c>
       <c r="AN255">
-        <v>0.97</v>
+        <v>1.13</v>
       </c>
       <c r="AO255">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="AP255">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ255">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR255">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AS255">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AT255">
-        <v>3.04</v>
+        <v>2.92</v>
       </c>
       <c r="AU255">
         <v>4</v>
@@ -54275,25 +54275,25 @@
         <v>1.67</v>
       </c>
       <c r="AN256">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="AO256">
-        <v>1.09</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP256">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ256">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR256">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS256">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="AT256">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU256">
         <v>9</v>
@@ -54687,25 +54687,25 @@
         <v>2</v>
       </c>
       <c r="AN258">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AO258">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP258">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ258">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR258">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="AS258">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT258">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AU258">
         <v>7</v>
@@ -55717,25 +55717,25 @@
         <v>1.25</v>
       </c>
       <c r="AN263">
-        <v>0.9399999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="AO263">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AP263">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ263">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR263">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AS263">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AT263">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AU263">
         <v>5</v>
@@ -55923,25 +55923,25 @@
         <v>1.48</v>
       </c>
       <c r="AN264">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO264">
-        <v>1.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP264">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ264">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR264">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AS264">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AT264">
-        <v>2.76</v>
+        <v>2.59</v>
       </c>
       <c r="AU264">
         <v>12</v>
@@ -56129,25 +56129,25 @@
         <v>1.51</v>
       </c>
       <c r="AN265">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="AO265">
-        <v>1.09</v>
+        <v>0.71</v>
       </c>
       <c r="AP265">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ265">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR265">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS265">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AT265">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="AU265">
         <v>7</v>
@@ -56335,22 +56335,22 @@
         <v>2.4</v>
       </c>
       <c r="AN266">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="AO266">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AP266">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ266">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR266">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="AS266">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AT266">
         <v>3.2</v>
@@ -57571,25 +57571,25 @@
         <v>1.56</v>
       </c>
       <c r="AN272">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AO272">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AP272">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ272">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR272">
+        <v>1.38</v>
+      </c>
+      <c r="AS272">
         <v>1.3</v>
       </c>
-      <c r="AS272">
-        <v>1.48</v>
-      </c>
       <c r="AT272">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AU272">
         <v>7</v>
@@ -57777,25 +57777,25 @@
         <v>1.26</v>
       </c>
       <c r="AN273">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="AO273">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AP273">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ273">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR273">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AS273">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT273">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
       <c r="AU273">
         <v>7</v>
@@ -57983,25 +57983,25 @@
         <v>1.62</v>
       </c>
       <c r="AN274">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="AO274">
-        <v>1.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP274">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ274">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR274">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AS274">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT274">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -59013,25 +59013,25 @@
         <v>1.8</v>
       </c>
       <c r="AN279">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AO279">
-        <v>1.06</v>
+        <v>0.71</v>
       </c>
       <c r="AP279">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ279">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR279">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AS279">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT279">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="AU279">
         <v>8</v>
@@ -59219,25 +59219,25 @@
         <v>1.57</v>
       </c>
       <c r="AN280">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="AO280">
-        <v>1.34</v>
+        <v>0.88</v>
       </c>
       <c r="AP280">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ280">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR280">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AS280">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AT280">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="AU280">
         <v>7</v>
@@ -59425,25 +59425,25 @@
         <v>2.88</v>
       </c>
       <c r="AN281">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="AO281">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="AP281">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ281">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR281">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="AS281">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AT281">
-        <v>3.05</v>
+        <v>3.16</v>
       </c>
       <c r="AU281">
         <v>7</v>
@@ -60455,25 +60455,25 @@
         <v>1.54</v>
       </c>
       <c r="AN286">
+        <v>1.06</v>
+      </c>
+      <c r="AO286">
         <v>0.89</v>
       </c>
-      <c r="AO286">
-        <v>1.33</v>
-      </c>
       <c r="AP286">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ286">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR286">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AS286">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="AT286">
-        <v>2.81</v>
+        <v>2.63</v>
       </c>
       <c r="AU286">
         <v>7</v>
@@ -60867,25 +60867,25 @@
         <v>1.3</v>
       </c>
       <c r="AN288">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AO288">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AP288">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ288">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR288">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AS288">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AT288">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="AU288">
         <v>9</v>
@@ -61485,25 +61485,25 @@
         <v>1.57</v>
       </c>
       <c r="AN291">
-        <v>1.03</v>
+        <v>1.39</v>
       </c>
       <c r="AO291">
-        <v>1.08</v>
+        <v>0.72</v>
       </c>
       <c r="AP291">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ291">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR291">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AS291">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT291">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="AU291">
         <v>8</v>
@@ -62103,25 +62103,25 @@
         <v>1.83</v>
       </c>
       <c r="AN294">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="AO294">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="AP294">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ294">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR294">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS294">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT294">
-        <v>2.72</v>
+        <v>2.79</v>
       </c>
       <c r="AU294">
         <v>-1</v>
@@ -62927,25 +62927,25 @@
         <v>3</v>
       </c>
       <c r="AN298">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="AO298">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="AP298">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ298">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR298">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="AS298">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT298">
-        <v>3.04</v>
+        <v>3.17</v>
       </c>
       <c r="AU298">
         <v>3</v>
@@ -63133,25 +63133,25 @@
         <v>1.55</v>
       </c>
       <c r="AN299">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="AO299">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AP299">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ299">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR299">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AS299">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AT299">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="AU299">
         <v>6</v>
@@ -63751,25 +63751,25 @@
         <v>1.75</v>
       </c>
       <c r="AN302">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="AO302">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="AP302">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ302">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR302">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AS302">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AT302">
-        <v>2.77</v>
+        <v>2.93</v>
       </c>
       <c r="AU302">
         <v>4</v>
@@ -63957,25 +63957,25 @@
         <v>1.48</v>
       </c>
       <c r="AN303">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AO303">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AP303">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ303">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR303">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS303">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="AT303">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="AU303">
         <v>3</v>
@@ -64163,25 +64163,25 @@
         <v>1.28</v>
       </c>
       <c r="AN304">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="AO304">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="AP304">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ304">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR304">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS304">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AT304">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="AU304">
         <v>3</v>
@@ -64987,25 +64987,25 @@
         <v>1.73</v>
       </c>
       <c r="AN308">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="AO308">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AP308">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ308">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR308">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AS308">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT308">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU308">
         <v>3</v>
@@ -65193,25 +65193,25 @@
         <v>1.9</v>
       </c>
       <c r="AN309">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="AO309">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="AP309">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ309">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR309">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="AS309">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT309">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="AU309">
         <v>10</v>
@@ -65399,25 +65399,25 @@
         <v>2.5</v>
       </c>
       <c r="AN310">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="AO310">
-        <v>1.36</v>
+        <v>0.89</v>
       </c>
       <c r="AP310">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ310">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR310">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="AS310">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="AT310">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="AU310">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -51391,25 +51391,25 @@
         <v>2.2</v>
       </c>
       <c r="AN242">
+        <v>1.57</v>
+      </c>
+      <c r="AO242">
+        <v>1.13</v>
+      </c>
+      <c r="AP242">
         <v>1.8</v>
       </c>
-      <c r="AO242">
-        <v>0.73</v>
-      </c>
-      <c r="AP242">
-        <v>1.95</v>
-      </c>
       <c r="AQ242">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR242">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AS242">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AT242">
-        <v>3.02</v>
+        <v>2.94</v>
       </c>
       <c r="AU242">
         <v>9</v>
@@ -51597,25 +51597,25 @@
         <v>1.47</v>
       </c>
       <c r="AN243">
-        <v>1.27</v>
+        <v>0.97</v>
       </c>
       <c r="AO243">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP243">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ243">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR243">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AS243">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT243">
-        <v>2.61</v>
+        <v>2.76</v>
       </c>
       <c r="AU243">
         <v>6</v>
@@ -51803,25 +51803,25 @@
         <v>1.6</v>
       </c>
       <c r="AN244">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AO244">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AP244">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ244">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR244">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AS244">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="AT244">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="AU244">
         <v>9</v>
@@ -52009,25 +52009,25 @@
         <v>1.68</v>
       </c>
       <c r="AN245">
-        <v>1.87</v>
+        <v>1.33</v>
       </c>
       <c r="AO245">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AP245">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ245">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR245">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AS245">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AT245">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="AU245">
         <v>7</v>
@@ -52215,25 +52215,25 @@
         <v>1.3</v>
       </c>
       <c r="AN246">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AO246">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AP246">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ246">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR246">
+        <v>1.69</v>
+      </c>
+      <c r="AS246">
         <v>1.72</v>
       </c>
-      <c r="AS246">
-        <v>1.6</v>
-      </c>
       <c r="AT246">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
       <c r="AU246">
         <v>5</v>
@@ -52421,25 +52421,25 @@
         <v>1.47</v>
       </c>
       <c r="AN247">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AO247">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AP247">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ247">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR247">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="AS247">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="AT247">
-        <v>3.59</v>
+        <v>3.57</v>
       </c>
       <c r="AU247">
         <v>4</v>
@@ -52627,25 +52627,25 @@
         <v>1.77</v>
       </c>
       <c r="AN248">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AO248">
-        <v>0.8</v>
+        <v>1.39</v>
       </c>
       <c r="AP248">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ248">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR248">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AS248">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="AT248">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -53039,25 +53039,25 @@
         <v>1.91</v>
       </c>
       <c r="AN250">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="AO250">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP250">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ250">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR250">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AS250">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AT250">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="AU250">
         <v>7</v>
@@ -53245,25 +53245,25 @@
         <v>1.6</v>
       </c>
       <c r="AN251">
-        <v>2.13</v>
+        <v>1.68</v>
       </c>
       <c r="AO251">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AP251">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ251">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR251">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AS251">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="AT251">
-        <v>3.51</v>
+        <v>3.34</v>
       </c>
       <c r="AU251">
         <v>3</v>
@@ -53451,25 +53451,25 @@
         <v>2.05</v>
       </c>
       <c r="AN252">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="AO252">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AP252">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ252">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR252">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="AS252">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AT252">
-        <v>3.54</v>
+        <v>3.45</v>
       </c>
       <c r="AU252">
         <v>10</v>
@@ -53863,25 +53863,25 @@
         <v>1.9</v>
       </c>
       <c r="AN254">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="AO254">
-        <v>1.8</v>
+        <v>2.13</v>
       </c>
       <c r="AP254">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ254">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR254">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="AS254">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AT254">
-        <v>3.33</v>
+        <v>3.29</v>
       </c>
       <c r="AU254">
         <v>9</v>
@@ -54069,25 +54069,25 @@
         <v>1.27</v>
       </c>
       <c r="AN255">
-        <v>1.13</v>
+        <v>0.97</v>
       </c>
       <c r="AO255">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AP255">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ255">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR255">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AS255">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AT255">
-        <v>2.92</v>
+        <v>3.04</v>
       </c>
       <c r="AU255">
         <v>4</v>
@@ -54275,25 +54275,25 @@
         <v>1.67</v>
       </c>
       <c r="AN256">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="AO256">
-        <v>0.6899999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AP256">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ256">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR256">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS256">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="AT256">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="AU256">
         <v>9</v>
@@ -54687,25 +54687,25 @@
         <v>2</v>
       </c>
       <c r="AN258">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AO258">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP258">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ258">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR258">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AS258">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT258">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AU258">
         <v>7</v>
@@ -54893,25 +54893,25 @@
         <v>1.85</v>
       </c>
       <c r="AN259">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="AO259">
+        <v>1.59</v>
+      </c>
+      <c r="AP259">
+        <v>1.46</v>
+      </c>
+      <c r="AQ259">
         <v>1.5</v>
       </c>
-      <c r="AP259">
-        <v>1.62</v>
-      </c>
-      <c r="AQ259">
-        <v>1.45</v>
-      </c>
       <c r="AR259">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AS259">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT259">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AU259">
         <v>6</v>
@@ -55099,25 +55099,25 @@
         <v>2.05</v>
       </c>
       <c r="AN260">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="AO260">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AP260">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ260">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR260">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AS260">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AT260">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="AU260">
         <v>8</v>
@@ -55511,25 +55511,25 @@
         <v>1.44</v>
       </c>
       <c r="AN262">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="AO262">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AP262">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ262">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR262">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AS262">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="AT262">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="AU262">
         <v>6</v>
@@ -55717,25 +55717,25 @@
         <v>1.25</v>
       </c>
       <c r="AN263">
-        <v>1.19</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO263">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AP263">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ263">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR263">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AS263">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AT263">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AU263">
         <v>5</v>
@@ -55923,25 +55923,25 @@
         <v>1.48</v>
       </c>
       <c r="AN264">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO264">
-        <v>0.9399999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="AP264">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ264">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR264">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AS264">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AT264">
-        <v>2.59</v>
+        <v>2.76</v>
       </c>
       <c r="AU264">
         <v>12</v>
@@ -56129,25 +56129,25 @@
         <v>1.51</v>
       </c>
       <c r="AN265">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="AO265">
-        <v>0.71</v>
+        <v>1.09</v>
       </c>
       <c r="AP265">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ265">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR265">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS265">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AT265">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="AU265">
         <v>7</v>
@@ -56335,22 +56335,22 @@
         <v>2.4</v>
       </c>
       <c r="AN266">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="AO266">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AP266">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ266">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR266">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="AS266">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AT266">
         <v>3.2</v>
@@ -56541,25 +56541,25 @@
         <v>1.7</v>
       </c>
       <c r="AN267">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AO267">
-        <v>1.69</v>
+        <v>2.09</v>
       </c>
       <c r="AP267">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ267">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR267">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AS267">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AT267">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="AU267">
         <v>11</v>
@@ -56747,25 +56747,25 @@
         <v>1.48</v>
       </c>
       <c r="AN268">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="AO268">
-        <v>1.18</v>
+        <v>1.58</v>
       </c>
       <c r="AP268">
+        <v>1.5</v>
+      </c>
+      <c r="AQ268">
+        <v>1.45</v>
+      </c>
+      <c r="AR268">
+        <v>1.63</v>
+      </c>
+      <c r="AS268">
         <v>1.55</v>
       </c>
-      <c r="AQ268">
-        <v>1.15</v>
-      </c>
-      <c r="AR268">
-        <v>1.69</v>
-      </c>
-      <c r="AS268">
-        <v>1.33</v>
-      </c>
       <c r="AT268">
-        <v>3.02</v>
+        <v>3.18</v>
       </c>
       <c r="AU268">
         <v>5</v>
@@ -57159,25 +57159,25 @@
         <v>1.6</v>
       </c>
       <c r="AN270">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AO270">
-        <v>1.38</v>
+        <v>1.76</v>
       </c>
       <c r="AP270">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ270">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AR270">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="AS270">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="AT270">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
       <c r="AU270">
         <v>7</v>
@@ -57571,25 +57571,25 @@
         <v>1.56</v>
       </c>
       <c r="AN272">
+        <v>1.09</v>
+      </c>
+      <c r="AO272">
         <v>1.5</v>
       </c>
-      <c r="AO272">
-        <v>1.35</v>
-      </c>
       <c r="AP272">
+        <v>0.98</v>
+      </c>
+      <c r="AQ272">
+        <v>1.53</v>
+      </c>
+      <c r="AR272">
         <v>1.3</v>
       </c>
-      <c r="AQ272">
-        <v>1.35</v>
-      </c>
-      <c r="AR272">
-        <v>1.38</v>
-      </c>
       <c r="AS272">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AT272">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="AU272">
         <v>7</v>
@@ -57777,25 +57777,25 @@
         <v>1.26</v>
       </c>
       <c r="AN273">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="AO273">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AP273">
+        <v>1.33</v>
+      </c>
+      <c r="AQ273">
         <v>1.8</v>
       </c>
-      <c r="AQ273">
-        <v>1.67</v>
-      </c>
       <c r="AR273">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AS273">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AT273">
-        <v>3.18</v>
+        <v>3.13</v>
       </c>
       <c r="AU273">
         <v>7</v>
@@ -57983,25 +57983,25 @@
         <v>1.62</v>
       </c>
       <c r="AN274">
+        <v>0.91</v>
+      </c>
+      <c r="AO274">
         <v>1.06</v>
       </c>
-      <c r="AO274">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AP274">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ274">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR274">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AS274">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT274">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58189,22 +58189,22 @@
         <v>1.73</v>
       </c>
       <c r="AN275">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AO275">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AP275">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ275">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR275">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="AS275">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AT275">
         <v>3.17</v>
@@ -58395,25 +58395,25 @@
         <v>1.91</v>
       </c>
       <c r="AN276">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="AO276">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AP276">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ276">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR276">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="AS276">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT276">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="AU276">
         <v>8</v>
@@ -58601,25 +58601,25 @@
         <v>1.42</v>
       </c>
       <c r="AN277">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AO277">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AP277">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ277">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR277">
+        <v>1.56</v>
+      </c>
+      <c r="AS277">
         <v>1.79</v>
       </c>
-      <c r="AS277">
-        <v>1.69</v>
-      </c>
       <c r="AT277">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="AU277">
         <v>2</v>
@@ -59013,25 +59013,25 @@
         <v>1.8</v>
       </c>
       <c r="AN279">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="AO279">
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
       <c r="AP279">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ279">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR279">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AS279">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT279">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="AU279">
         <v>8</v>
@@ -59219,25 +59219,25 @@
         <v>1.57</v>
       </c>
       <c r="AN280">
-        <v>1.47</v>
+        <v>1.09</v>
       </c>
       <c r="AO280">
-        <v>0.88</v>
+        <v>1.34</v>
       </c>
       <c r="AP280">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ280">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR280">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AS280">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AT280">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="AU280">
         <v>7</v>
@@ -59425,25 +59425,25 @@
         <v>2.88</v>
       </c>
       <c r="AN281">
-        <v>1.94</v>
+        <v>1.69</v>
       </c>
       <c r="AO281">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="AP281">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ281">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR281">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="AS281">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AT281">
-        <v>3.16</v>
+        <v>3.05</v>
       </c>
       <c r="AU281">
         <v>7</v>
@@ -59631,25 +59631,25 @@
         <v>1.41</v>
       </c>
       <c r="AN282">
+        <v>1.63</v>
+      </c>
+      <c r="AO282">
+        <v>1.83</v>
+      </c>
+      <c r="AP282">
+        <v>1.46</v>
+      </c>
+      <c r="AQ282">
+        <v>1.88</v>
+      </c>
+      <c r="AR282">
+        <v>1.75</v>
+      </c>
+      <c r="AS282">
         <v>1.72</v>
       </c>
-      <c r="AO282">
-        <v>1.47</v>
-      </c>
-      <c r="AP282">
-        <v>1.62</v>
-      </c>
-      <c r="AQ282">
-        <v>1.7</v>
-      </c>
-      <c r="AR282">
-        <v>1.83</v>
-      </c>
-      <c r="AS282">
-        <v>1.6</v>
-      </c>
       <c r="AT282">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="AU282">
         <v>5</v>
@@ -59837,25 +59837,25 @@
         <v>1.43</v>
       </c>
       <c r="AN283">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AO283">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="AP283">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ283">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR283">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="AS283">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AT283">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="AU283">
         <v>5</v>
@@ -60043,25 +60043,25 @@
         <v>2.15</v>
       </c>
       <c r="AN284">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="AO284">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AP284">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ284">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR284">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="AS284">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AT284">
-        <v>3.26</v>
+        <v>3.34</v>
       </c>
       <c r="AU284">
         <v>11</v>
@@ -60455,25 +60455,25 @@
         <v>1.54</v>
       </c>
       <c r="AN286">
-        <v>1.06</v>
+        <v>0.89</v>
       </c>
       <c r="AO286">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="AP286">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ286">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR286">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AS286">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="AT286">
-        <v>2.63</v>
+        <v>2.81</v>
       </c>
       <c r="AU286">
         <v>7</v>
@@ -60867,25 +60867,25 @@
         <v>1.3</v>
       </c>
       <c r="AN288">
+        <v>1.53</v>
+      </c>
+      <c r="AO288">
         <v>1.72</v>
       </c>
-      <c r="AO288">
-        <v>1.44</v>
-      </c>
       <c r="AP288">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ288">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR288">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AS288">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AT288">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="AU288">
         <v>9</v>
@@ -61073,25 +61073,25 @@
         <v>1.5</v>
       </c>
       <c r="AN289">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AO289">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AP289">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ289">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR289">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="AS289">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="AT289">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="AU289">
         <v>7</v>
@@ -61279,25 +61279,25 @@
         <v>1.26</v>
       </c>
       <c r="AN290">
+        <v>1.53</v>
+      </c>
+      <c r="AO290">
+        <v>1.86</v>
+      </c>
+      <c r="AP290">
+        <v>1.45</v>
+      </c>
+      <c r="AQ290">
         <v>1.88</v>
       </c>
-      <c r="AO290">
-        <v>1.56</v>
-      </c>
-      <c r="AP290">
-        <v>1.75</v>
-      </c>
-      <c r="AQ290">
-        <v>1.7</v>
-      </c>
       <c r="AR290">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AS290">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="AT290">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="AU290">
         <v>6</v>
@@ -61485,25 +61485,25 @@
         <v>1.57</v>
       </c>
       <c r="AN291">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="AO291">
-        <v>0.72</v>
+        <v>1.08</v>
       </c>
       <c r="AP291">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ291">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR291">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AS291">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AT291">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="AU291">
         <v>8</v>
@@ -61691,25 +61691,25 @@
         <v>2.05</v>
       </c>
       <c r="AN292">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AO292">
-        <v>1.56</v>
+        <v>2.03</v>
       </c>
       <c r="AP292">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ292">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="AR292">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AS292">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AT292">
-        <v>3.37</v>
+        <v>3.33</v>
       </c>
       <c r="AU292">
         <v>9</v>
@@ -62103,25 +62103,25 @@
         <v>1.83</v>
       </c>
       <c r="AN294">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="AO294">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="AP294">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ294">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AR294">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="AS294">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AT294">
-        <v>2.79</v>
+        <v>2.72</v>
       </c>
       <c r="AU294">
         <v>-1</v>
@@ -62721,25 +62721,25 @@
         <v>1.72</v>
       </c>
       <c r="AN297">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO297">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AP297">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ297">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR297">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="AS297">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="AT297">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="AU297">
         <v>5</v>
@@ -62927,25 +62927,25 @@
         <v>3</v>
       </c>
       <c r="AN298">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="AO298">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AP298">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ298">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR298">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="AS298">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AT298">
-        <v>3.17</v>
+        <v>3.04</v>
       </c>
       <c r="AU298">
         <v>3</v>
@@ -63133,25 +63133,25 @@
         <v>1.55</v>
       </c>
       <c r="AN299">
-        <v>1.78</v>
+        <v>1.32</v>
       </c>
       <c r="AO299">
+        <v>1.49</v>
+      </c>
+      <c r="AP299">
         <v>1.33</v>
       </c>
-      <c r="AP299">
-        <v>1.8</v>
-      </c>
       <c r="AQ299">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR299">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="AS299">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AT299">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="AU299">
         <v>6</v>
@@ -63339,25 +63339,25 @@
         <v>1.65</v>
       </c>
       <c r="AN300">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="AO300">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="AP300">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AQ300">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR300">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="AS300">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT300">
-        <v>3.29</v>
+        <v>3.15</v>
       </c>
       <c r="AU300">
         <v>5</v>
@@ -63545,25 +63545,25 @@
         <v>1.72</v>
       </c>
       <c r="AN301">
-        <v>2.17</v>
+        <v>1.89</v>
       </c>
       <c r="AO301">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="AP301">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ301">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR301">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AS301">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="AT301">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="AU301">
         <v>5</v>
@@ -63751,25 +63751,25 @@
         <v>1.75</v>
       </c>
       <c r="AN302">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="AO302">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="AP302">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ302">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AR302">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AS302">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AT302">
-        <v>2.93</v>
+        <v>2.77</v>
       </c>
       <c r="AU302">
         <v>4</v>
@@ -63957,25 +63957,25 @@
         <v>1.48</v>
       </c>
       <c r="AN303">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AO303">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="AP303">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AQ303">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AR303">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AS303">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="AT303">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="AU303">
         <v>3</v>
@@ -64163,25 +64163,25 @@
         <v>1.28</v>
       </c>
       <c r="AN304">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
       <c r="AO304">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="AP304">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
       <c r="AQ304">
+        <v>1.8</v>
+      </c>
+      <c r="AR304">
+        <v>1.32</v>
+      </c>
+      <c r="AS304">
         <v>1.67</v>
       </c>
-      <c r="AR304">
-        <v>1.43</v>
-      </c>
-      <c r="AS304">
-        <v>1.53</v>
-      </c>
       <c r="AT304">
-        <v>2.96</v>
+        <v>2.99</v>
       </c>
       <c r="AU304">
         <v>3</v>
@@ -64369,25 +64369,25 @@
         <v>1.3</v>
       </c>
       <c r="AN305">
+        <v>1.55</v>
+      </c>
+      <c r="AO305">
+        <v>2.05</v>
+      </c>
+      <c r="AP305">
+        <v>1.5</v>
+      </c>
+      <c r="AQ305">
+        <v>2.1</v>
+      </c>
+      <c r="AR305">
         <v>1.63</v>
       </c>
-      <c r="AO305">
-        <v>2</v>
-      </c>
-      <c r="AP305">
-        <v>1.55</v>
-      </c>
-      <c r="AQ305">
-        <v>2.05</v>
-      </c>
-      <c r="AR305">
-        <v>1.69</v>
-      </c>
       <c r="AS305">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="AT305">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="AU305">
         <v>4</v>
@@ -64575,25 +64575,25 @@
         <v>1.35</v>
       </c>
       <c r="AN306">
-        <v>2.53</v>
+        <v>2.03</v>
       </c>
       <c r="AO306">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="AP306">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AQ306">
+        <v>1.88</v>
+      </c>
+      <c r="AR306">
+        <v>1.54</v>
+      </c>
+      <c r="AS306">
         <v>1.7</v>
       </c>
-      <c r="AR306">
-        <v>1.59</v>
-      </c>
-      <c r="AS306">
-        <v>1.57</v>
-      </c>
       <c r="AT306">
-        <v>3.16</v>
+        <v>3.24</v>
       </c>
       <c r="AU306">
         <v>5</v>
@@ -64781,25 +64781,25 @@
         <v>1.95</v>
       </c>
       <c r="AN307">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AO307">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="AP307">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ307">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="AR307">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="AS307">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="AT307">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU307">
         <v>4</v>
@@ -64987,25 +64987,25 @@
         <v>1.73</v>
       </c>
       <c r="AN308">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AO308">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AP308">
+        <v>1.1</v>
+      </c>
+      <c r="AQ308">
+        <v>0.98</v>
+      </c>
+      <c r="AR308">
+        <v>1.34</v>
+      </c>
+      <c r="AS308">
         <v>1.4</v>
       </c>
-      <c r="AQ308">
-        <v>0.95</v>
-      </c>
-      <c r="AR308">
-        <v>1.39</v>
-      </c>
-      <c r="AS308">
-        <v>1.36</v>
-      </c>
       <c r="AT308">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU308">
         <v>3</v>
@@ -65193,25 +65193,25 @@
         <v>1.9</v>
       </c>
       <c r="AN309">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="AO309">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="AP309">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AQ309">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="AR309">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AS309">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AT309">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="AU309">
         <v>10</v>
@@ -65399,25 +65399,25 @@
         <v>2.5</v>
       </c>
       <c r="AN310">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="AO310">
-        <v>0.89</v>
+        <v>1.36</v>
       </c>
       <c r="AP310">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AQ310">
-        <v>0.85</v>
+        <v>1.33</v>
       </c>
       <c r="AR310">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="AS310">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="AT310">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="AU310">
         <v>5</v>
@@ -65605,25 +65605,25 @@
         <v>1.25</v>
       </c>
       <c r="AN311">
-        <v>1.68</v>
+        <v>1.41</v>
       </c>
       <c r="AO311">
+        <v>1.97</v>
+      </c>
+      <c r="AP311">
+        <v>1.45</v>
+      </c>
+      <c r="AQ311">
+        <v>1.93</v>
+      </c>
+      <c r="AR311">
         <v>1.53</v>
       </c>
-      <c r="AP311">
-        <v>1.75</v>
-      </c>
-      <c r="AQ311">
-        <v>1.45</v>
-      </c>
-      <c r="AR311">
-        <v>1.7</v>
-      </c>
       <c r="AS311">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="AT311">
-        <v>3.19</v>
+        <v>3.07</v>
       </c>
       <c r="AU311">
         <v>6</v>
@@ -65811,25 +65811,25 @@
         <v>2.45</v>
       </c>
       <c r="AN312">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AO312">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AP312">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="AQ312">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AR312">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="AS312">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AT312">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="AU312">
         <v>4</v>
@@ -66017,25 +66017,25 @@
         <v>2.15</v>
       </c>
       <c r="AN313">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="AO313">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="AP313">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AQ313">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AR313">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="AS313">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AT313">
-        <v>3.56</v>
+        <v>3.52</v>
       </c>
       <c r="AU313">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Belgium Pro League_20232024.xlsx
@@ -51391,25 +51391,25 @@
         <v>2.2</v>
       </c>
       <c r="AN242">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AO242">
-        <v>1.13</v>
+        <v>0.73</v>
       </c>
       <c r="AP242">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ242">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR242">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AS242">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AT242">
-        <v>2.94</v>
+        <v>3.02</v>
       </c>
       <c r="AU242">
         <v>9</v>
@@ -51597,25 +51597,25 @@
         <v>1.47</v>
       </c>
       <c r="AN243">
-        <v>0.97</v>
+        <v>1.27</v>
       </c>
       <c r="AO243">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP243">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ243">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR243">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AS243">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT243">
-        <v>2.76</v>
+        <v>2.61</v>
       </c>
       <c r="AU243">
         <v>6</v>
@@ -51803,25 +51803,25 @@
         <v>1.6</v>
       </c>
       <c r="AN244">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AO244">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AP244">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ244">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR244">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AS244">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="AT244">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="AU244">
         <v>9</v>
@@ -52009,25 +52009,25 @@
         <v>1.68</v>
       </c>
       <c r="AN245">
-        <v>1.33</v>
+        <v>1.87</v>
       </c>
       <c r="AO245">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AP245">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ245">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR245">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AS245">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AT245">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="AU245">
         <v>7</v>
@@ -52215,25 +52215,25 @@
         <v>1.3</v>
       </c>
       <c r="AN246">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AO246">
+        <v>1.4</v>
+      </c>
+      <c r="AP246">
+        <v>1.55</v>
+      </c>
+      <c r="AQ246">
         <v>1.7</v>
       </c>
-      <c r="AP246">
-        <v>1.5</v>
-      </c>
-      <c r="AQ246">
-        <v>1.88</v>
-      </c>
       <c r="AR246">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AS246">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AT246">
-        <v>3.41</v>
+        <v>3.32</v>
       </c>
       <c r="AU246">
         <v>5</v>
@@ -52421,25 +52421,25 @@
         <v>1.47</v>
       </c>
       <c r="AN247">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AO247">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AP247">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ247">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR247">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="AS247">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AT247">
-        <v>3.57</v>
+        <v>3.59</v>
       </c>
       <c r="AU247">
         <v>4</v>
@@ -52627,25 +52627,25 @@
         <v>1.77</v>
       </c>
       <c r="AN248">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AO248">
-        <v>1.39</v>
+        <v>0.8</v>
       </c>
       <c r="AP248">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ248">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR248">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AS248">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="AT248">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="AU248">
         <v>7</v>
@@ -53039,25 +53039,25 @@
         <v>1.91</v>
       </c>
       <c r="AN250">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="AO250">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="AP250">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ250">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR250">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AS250">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AT250">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="AU250">
         <v>7</v>
@@ -53245,25 +53245,25 @@
         <v>1.6</v>
       </c>
       <c r="AN251">
+        <v>2.13</v>
+      </c>
+      <c r="AO251">
+        <v>1.53</v>
+      </c>
+      <c r="AP251">
+        <v>1.75</v>
+      </c>
+      <c r="AQ251">
+        <v>1.3</v>
+      </c>
+      <c r="AR251">
+        <v>1.83</v>
+      </c>
+      <c r="AS251">
         <v>1.68</v>
       </c>
-      <c r="AO251">
-        <v>1.61</v>
-      </c>
-      <c r="AP251">
-        <v>1.45</v>
-      </c>
-      <c r="AQ251">
-        <v>1.46</v>
-      </c>
-      <c r="AR251">
-        <v>1.58</v>
-      </c>
-      <c r="AS251">
-        <v>1.76</v>
-      </c>
       <c r="AT251">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="AU251">
         <v>3</v>
@@ -53451,25 +53451,25 @@
         <v>2.05</v>
       </c>
       <c r="AN252">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="AO252">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AP252">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ252">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR252">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="AS252">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AT252">
-        <v>3.45</v>
+        <v>3.54</v>
       </c>
       <c r="AU252">
         <v>10</v>
@@ -53863,25 +53863,25 @@
         <v>1.9</v>
       </c>
       <c r="AN254">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="AO254">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AP254">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ254">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR254">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="AS254">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT254">
-        <v>3.29</v>
+        <v>3.33</v>
       </c>
       <c r="AU254">
         <v>9</v>
@@ -54069,25 +54069,25 @@
         <v>1.27</v>
       </c>
       <c r="AN255">
-        <v>0.97</v>
+        <v>1.13</v>
       </c>
       <c r="AO255">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="AP255">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ255">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR255">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AS255">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AT255">
-        <v>3.04</v>
+        <v>2.92</v>
       </c>
       <c r="AU255">
         <v>4</v>
@@ -54275,25 +54275,25 @@
         <v>1.67</v>
       </c>
       <c r="AN256">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="AO256">
-        <v>1.09</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP256">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ256">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR256">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS256">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="AT256">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU256">
         <v>9</v>
@@ -54687,25 +54687,25 @@
         <v>2</v>
       </c>
       <c r="AN258">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AO258">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP258">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ258">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR258">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="AS258">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT258">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AU258">
         <v>7</v>
@@ -54893,25 +54893,25 @@
         <v>1.85</v>
       </c>
       <c r="AN259">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AO259">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AP259">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ259">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR259">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AS259">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AT259">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU259">
         <v>6</v>
@@ -55099,25 +55099,25 @@
         <v>2.05</v>
       </c>
       <c r="AN260">
-        <v>1.72</v>
+        <v>2.06</v>
       </c>
       <c r="AO260">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AP260">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ260">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR260">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AS260">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="AT260">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="AU260">
         <v>8</v>
@@ -55511,25 +55511,25 @@
         <v>1.44</v>
       </c>
       <c r="AN262">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="AO262">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="AP262">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ262">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR262">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AS262">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT262">
-        <v>3.36</v>
+        <v>3.31</v>
       </c>
       <c r="AU262">
         <v>6</v>
@@ -55717,25 +55717,25 @@
         <v>1.25</v>
       </c>
       <c r="AN263">
-        <v>0.9399999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="AO263">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AP263">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ263">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR263">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AS263">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AT263">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AU263">
         <v>5</v>
@@ -55923,25 +55923,25 @@
         <v>1.48</v>
       </c>
       <c r="AN264">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO264">
-        <v>1.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP264">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ264">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR264">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AS264">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AT264">
-        <v>2.76</v>
+        <v>2.59</v>
       </c>
       <c r="AU264">
         <v>12</v>
@@ -56129,25 +56129,25 @@
         <v>1.51</v>
       </c>
       <c r="AN265">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="AO265">
-        <v>1.09</v>
+        <v>0.71</v>
       </c>
       <c r="AP265">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ265">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR265">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS265">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="AT265">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="AU265">
         <v>7</v>
@@ -56335,22 +56335,22 @@
         <v>2.4</v>
       </c>
       <c r="AN266">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="AO266">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AP266">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ266">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR266">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="AS266">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AT266">
         <v>3.2</v>
@@ -56541,25 +56541,25 @@
         <v>1.7</v>
       </c>
       <c r="AN267">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AO267">
-        <v>2.09</v>
+        <v>1.69</v>
       </c>
       <c r="AP267">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ267">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR267">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AS267">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT267">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="AU267">
         <v>11</v>
@@ -56747,25 +56747,25 @@
         <v>1.48</v>
       </c>
       <c r="AN268">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AO268">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="AP268">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ268">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR268">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="AS268">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AT268">
-        <v>3.18</v>
+        <v>3.02</v>
       </c>
       <c r="AU268">
         <v>5</v>
@@ -57159,25 +57159,25 @@
         <v>1.6</v>
       </c>
       <c r="AN270">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="AO270">
-        <v>1.76</v>
+        <v>1.38</v>
       </c>
       <c r="AP270">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ270">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR270">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="AS270">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AT270">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="AU270">
         <v>7</v>
@@ -57571,25 +57571,25 @@
         <v>1.56</v>
       </c>
       <c r="AN272">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AO272">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AP272">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ272">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR272">
+        <v>1.38</v>
+      </c>
+      <c r="AS272">
         <v>1.3</v>
       </c>
-      <c r="AS272">
-        <v>1.48</v>
-      </c>
       <c r="AT272">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AU272">
         <v>7</v>
@@ -57777,25 +57777,25 @@
         <v>1.26</v>
       </c>
       <c r="AN273">
-        <v>1.38</v>
+        <v>1.88</v>
       </c>
       <c r="AO273">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AP273">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ273">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR273">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AS273">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT273">
-        <v>3.13</v>
+        <v>3.18</v>
       </c>
       <c r="AU273">
         <v>7</v>
@@ -57983,25 +57983,25 @@
         <v>1.62</v>
       </c>
       <c r="AN274">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="AO274">
-        <v>1.06</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP274">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ274">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR274">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AS274">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT274">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="AU274">
         <v>4</v>
@@ -58189,22 +58189,22 @@
         <v>1.73</v>
       </c>
       <c r="AN275">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AO275">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AP275">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ275">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR275">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="AS275">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT275">
         <v>3.17</v>
@@ -58395,25 +58395,25 @@
         <v>1.91</v>
       </c>
       <c r="AN276">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="AO276">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AP276">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ276">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR276">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AS276">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT276">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="AU276">
         <v>8</v>
@@ -58601,25 +58601,25 @@
         <v>1.42</v>
       </c>
       <c r="AN277">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AO277">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AP277">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ277">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR277">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="AS277">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="AT277">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="AU277">
         <v>2</v>
@@ -59013,25 +59013,25 @@
         <v>1.8</v>
       </c>
       <c r="AN279">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="AO279">
-        <v>1.06</v>
+        <v>0.71</v>
       </c>
       <c r="AP279">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ279">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR279">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AS279">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT279">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="AU279">
         <v>8</v>
@@ -59219,25 +59219,25 @@
         <v>1.57</v>
       </c>
       <c r="AN280">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="AO280">
-        <v>1.34</v>
+        <v>0.88</v>
       </c>
       <c r="AP280">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ280">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR280">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AS280">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AT280">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="AU280">
         <v>7</v>
@@ -59425,25 +59425,25 @@
         <v>2.88</v>
       </c>
       <c r="AN281">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="AO281">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="AP281">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ281">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR281">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="AS281">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AT281">
-        <v>3.05</v>
+        <v>3.16</v>
       </c>
       <c r="AU281">
         <v>7</v>
@@ -59631,25 +59631,25 @@
         <v>1.41</v>
       </c>
       <c r="AN282">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AO282">
+        <v>1.47</v>
+      </c>
+      <c r="AP282">
+        <v>1.62</v>
+      </c>
+      <c r="AQ282">
+        <v>1.7</v>
+      </c>
+      <c r="AR282">
         <v>1.83</v>
       </c>
-      <c r="AP282">
-        <v>1.46</v>
-      </c>
-      <c r="AQ282">
-        <v>1.88</v>
-      </c>
-      <c r="AR282">
-        <v>1.75</v>
-      </c>
       <c r="AS282">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AT282">
-        <v>3.47</v>
+        <v>3.43</v>
       </c>
       <c r="AU282">
         <v>5</v>
@@ -59837,25 +59837,25 @@
         <v>1.43</v>
       </c>
       <c r="AN283">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AO283">
-        <v>2.06</v>
+        <v>1.59</v>
       </c>
       <c r="AP283">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ283">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR283">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="AS283">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AT283">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="AU283">
         <v>5</v>
@@ -60043,25 +60043,25 @@
         <v>2.15</v>
       </c>
       <c r="AN284">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="AO284">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="AP284">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ284">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR284">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="AS284">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AT284">
-        <v>3.34</v>
+        <v>3.26</v>
       </c>
       <c r="AU284">
         <v>11</v>
@@ -60455,25 +60455,25 @@
         <v>1.54</v>
       </c>
       <c r="AN286">
+        <v>1.06</v>
+      </c>
+      <c r="AO286">
         <v>0.89</v>
       </c>
-      <c r="AO286">
-        <v>1.33</v>
-      </c>
       <c r="AP286">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ286">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR286">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AS286">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="AT286">
-        <v>2.81</v>
+        <v>2.63</v>
       </c>
       <c r="AU286">
         <v>7</v>
@@ -60867,25 +60867,25 @@
         <v>1.3</v>
       </c>
       <c r="AN288">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AO288">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AP288">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ288">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR288">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AS288">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AT288">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="AU288">
         <v>9</v>
@@ -61073,25 +61073,25 @@
         <v>1.5</v>
       </c>
       <c r="AN289">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AO289">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AP289">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ289">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR289">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="AS289">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="AT289">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
       <c r="AU289">
         <v>7</v>
@@ -61279,25 +61279,25 @@
         <v>1.26</v>
       </c>
       <c r="AN290">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="AO290">
-        <v>1.86</v>
+        <v>1.56</v>
       </c>
       <c r="AP290">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ290">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR290">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AS290">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="AT290">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="AU290">
         <v>6</v>
@@ -61485,25 +61485,25 @@
         <v>1.57</v>
       </c>
       <c r="AN291">
-        <v>1.03</v>
+        <v>1.39</v>
       </c>
       <c r="AO291">
-        <v>1.08</v>
+        <v>0.72</v>
       </c>
       <c r="AP291">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ291">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR291">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AS291">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT291">
-        <v>2.68</v>
+        <v>2.59</v>
       </c>
       <c r="AU291">
         <v>8</v>
@@ -61691,25 +61691,25 @@
         <v>2.05</v>
       </c>
       <c r="AN292">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="AO292">
-        <v>2.03</v>
+        <v>1.56</v>
       </c>
       <c r="AP292">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ292">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="AR292">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS292">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AT292">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="AU292">
         <v>9</v>
@@ -62103,25 +62103,25 @@
         <v>1.83</v>
       </c>
       <c r="AN294">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="AO294">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="AP294">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ294">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR294">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS294">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT294">
-        <v>2.72</v>
+        <v>2.79</v>
       </c>
       <c r="AU294">
         <v>-1</v>
@@ -62721,25 +62721,25 @@
         <v>1.72</v>
       </c>
       <c r="AN297">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO297">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AP297">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ297">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR297">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="AS297">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AT297">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="AU297">
         <v>5</v>
@@ -62927,25 +62927,25 @@
         <v>3</v>
       </c>
       <c r="AN298">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="AO298">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="AP298">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ298">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR298">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="AS298">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT298">
-        <v>3.04</v>
+        <v>3.17</v>
       </c>
       <c r="AU298">
         <v>3</v>
@@ -63133,25 +63133,25 @@
         <v>1.55</v>
       </c>
       <c r="AN299">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="AO299">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="AP299">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ299">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR299">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="AS299">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AT299">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="AU299">
         <v>6</v>
@@ -63339,25 +63339,25 @@
         <v>1.65</v>
       </c>
       <c r="AN300">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="AO300">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="AP300">
+        <v>1.75</v>
+      </c>
+      <c r="AQ300">
         <v>1.45</v>
       </c>
-      <c r="AQ300">
-        <v>1.5</v>
-      </c>
       <c r="AR300">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="AS300">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT300">
-        <v>3.15</v>
+        <v>3.29</v>
       </c>
       <c r="AU300">
         <v>5</v>
@@ -63545,25 +63545,25 @@
         <v>1.72</v>
       </c>
       <c r="AN301">
-        <v>1.89</v>
+        <v>2.17</v>
       </c>
       <c r="AO301">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="AP301">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ301">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AR301">
+        <v>1.83</v>
+      </c>
+      <c r="AS301">
         <v>1.69</v>
       </c>
-      <c r="AS301">
-        <v>1.81</v>
-      </c>
       <c r="AT301">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="AU301">
         <v>5</v>
@@ -63751,25 +63751,25 @@
         <v>1.75</v>
       </c>
       <c r="AN302">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="AO302">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="AP302">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ302">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AR302">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AS302">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AT302">
-        <v>2.77</v>
+        <v>2.93</v>
       </c>
       <c r="AU302">
         <v>4</v>
@@ -63957,25 +63957,25 @@
         <v>1.48</v>
       </c>
       <c r="AN303">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AO303">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AP303">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ303">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AR303">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AS303">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="AT303">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="AU303">
         <v>3</v>
@@ -64163,25 +64163,25 @@
         <v>1.28</v>
       </c>
       <c r="AN304">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="AO304">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="AP304">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="AQ304">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR304">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="AS304">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AT304">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="AU304">
         <v>3</v>
@@ -64369,25 +64369,25 @@
         <v>1.3</v>
       </c>
       <c r="AN305">
+        <v>1.63</v>
+      </c>
+      <c r="AO305">
+        <v>2</v>
+      </c>
+      <c r="AP305">
         <v>1.55</v>
       </c>
-      <c r="AO305">
+      <c r="AQ305">
         <v>2.05</v>
       </c>
-      <c r="AP305">
-        <v>1.5</v>
-      </c>
-      <c r="AQ305">
-        <v>2.1</v>
-      </c>
       <c r="AR305">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="AS305">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT305">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="AU305">
         <v>4</v>
@@ -64575,25 +64575,25 @@
         <v>1.35</v>
       </c>
       <c r="AN306">
-        <v>2.03</v>
+        <v>2.53</v>
       </c>
       <c r="AO306">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="AP306">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ306">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AR306">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="AS306">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AT306">
-        <v>3.24</v>
+        <v>3.16</v>
       </c>
       <c r="AU306">
         <v>5</v>
@@ -64781,25 +64781,25 @@
         <v>1.95</v>
       </c>
       <c r="AN307">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AO307">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="AP307">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ307">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AR307">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="AS307">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="AT307">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AU307">
         <v>4</v>
@@ -64987,25 +64987,25 @@
         <v>1.73</v>
       </c>
       <c r="AN308">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="AO308">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="AP308">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ308">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="AR308">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AS308">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT308">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU308">
         <v>3</v>
@@ -65193,25 +65193,25 @@
         <v>1.9</v>
       </c>
       <c r="AN309">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="AO309">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="AP309">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AQ309">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="AR309">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="AS309">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT309">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="AU309">
         <v>10</v>
@@ -65399,25 +65399,25 @@
         <v>2.5</v>
       </c>
       <c r="AN310">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="AO310">
-        <v>1.36</v>
+        <v>0.89</v>
       </c>
       <c r="AP310">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AQ310">
-        <v>1.33</v>
+        <v>0.85</v>
       </c>
       <c r="AR310">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="AS310">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="AT310">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="AU310">
         <v>5</v>
@@ -65605,25 +65605,25 @@
         <v>1.25</v>
       </c>
       <c r="AN311">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="AO311">
-        <v>1.97</v>
+        <v>1.53</v>
       </c>
       <c r="AP311">
+        <v>1.75</v>
+      </c>
+      <c r="AQ311">
         <v>1.45</v>
       </c>
-      <c r="AQ311">
-        <v>1.93</v>
-      </c>
       <c r="AR311">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AS311">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="AT311">
-        <v>3.07</v>
+        <v>3.19</v>
       </c>
       <c r="AU311">
         <v>6</v>
@@ -65811,25 +65811,25 @@
         <v>2.45</v>
       </c>
       <c r="AN312">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="AO312">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AP312">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AQ312">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR312">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AS312">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AT312">
-        <v>3.3</v>
+        <v>3.39</v>
       </c>
       <c r="AU312">
         <v>4</v>
@@ -66017,25 +66017,25 @@
         <v>2.15</v>
       </c>
       <c r="AN313">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="AO313">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AP313">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AQ313">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AR313">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="AS313">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AT313">
-        <v>3.52</v>
+        <v>3.56</v>
       </c>
       <c r="AU313">
         <v>7</v>
